--- a/app/export/pdf_template.xlsx
+++ b/app/export/pdf_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\Main Code\DC-Boxjelly\app\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B42819C-1316-4AE5-92E8-1A4F58D07086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296F0B73-3B9D-42C8-A72C-968E6A8394B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="5955" windowWidth="15375" windowHeight="7875" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEXReport" sheetId="1" r:id="rId1"/>
@@ -1581,6 +1581,290 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1591,295 +1875,11 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2672,8 +2672,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:X312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X197" sqref="X197:Y197"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L94" sqref="L94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2691,100 +2691,100 @@
     <row r="1" spans="1:20" ht="12" customHeight="1"/>
     <row r="6" spans="1:20" ht="8.25" customHeight="1"/>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A7" s="150" t="s">
+      <c r="A7" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="115"/>
-      <c r="G7" s="115"/>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="115"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
-      <c r="N7" s="115"/>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="115"/>
-      <c r="S7" s="115"/>
-      <c r="T7" s="115"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="151" t="s">
+      <c r="A8" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="115"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="115"/>
-      <c r="H8" s="115"/>
-      <c r="I8" s="115"/>
-      <c r="J8" s="115"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
-      <c r="N8" s="115"/>
-      <c r="O8" s="115"/>
-      <c r="P8" s="115"/>
-      <c r="Q8" s="115"/>
-      <c r="R8" s="115"/>
-      <c r="S8" s="115"/>
-      <c r="T8" s="115"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="67"/>
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="152" t="s">
+      <c r="A9" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
-      <c r="P9" s="115"/>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="115"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="67"/>
+      <c r="J9" s="67"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="67"/>
+      <c r="N9" s="67"/>
+      <c r="O9" s="67"/>
+      <c r="P9" s="67"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="67"/>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
     </row>
     <row r="10" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A10" s="153" t="s">
+      <c r="A10" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="154"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="154"/>
-      <c r="P10" s="154"/>
-      <c r="Q10" s="154"/>
-      <c r="R10" s="154"/>
-      <c r="S10" s="154"/>
-      <c r="T10" s="154"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="83"/>
+      <c r="K10" s="83"/>
+      <c r="L10" s="83"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+      <c r="R10" s="83"/>
+      <c r="S10" s="83"/>
+      <c r="T10" s="83"/>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1">
       <c r="A11" s="22"/>
@@ -2854,76 +2854,76 @@
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="117" t="s">
+      <c r="A14" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="115"/>
-      <c r="D14" s="115"/>
-      <c r="E14" s="115"/>
-      <c r="F14" s="115"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="115"/>
-      <c r="J14" s="115"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
-      <c r="N14" s="115"/>
-      <c r="O14" s="115"/>
-      <c r="P14" s="115"/>
-      <c r="Q14" s="115"/>
-      <c r="R14" s="115"/>
-      <c r="S14" s="115"/>
-      <c r="T14" s="115"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="67"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="67"/>
+      <c r="S14" s="67"/>
+      <c r="T14" s="67"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1">
-      <c r="A15" s="156" t="s">
+      <c r="A15" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="115"/>
-      <c r="C15" s="115"/>
-      <c r="D15" s="115"/>
-      <c r="E15" s="115"/>
-      <c r="F15" s="115"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="115"/>
-      <c r="J15" s="115"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="115"/>
-      <c r="P15" s="115"/>
-      <c r="Q15" s="115"/>
-      <c r="R15" s="115"/>
-      <c r="S15" s="115"/>
-      <c r="T15" s="115"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="67"/>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="67"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="67"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="156" t="s">
+      <c r="A16" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
-      <c r="N16" s="115"/>
-      <c r="O16" s="115"/>
-      <c r="P16" s="115"/>
-      <c r="Q16" s="115"/>
-      <c r="R16" s="115"/>
-      <c r="S16" s="115"/>
-      <c r="T16" s="115"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="67"/>
+      <c r="Q16" s="67"/>
+      <c r="R16" s="67"/>
+      <c r="S16" s="67"/>
+      <c r="T16" s="67"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1"/>
     <row r="18" spans="1:20" ht="14.1" customHeight="1">
@@ -3174,7 +3174,7 @@
       <c r="P28" s="13"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="160" t="s">
+      <c r="T28" s="89" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
       <c r="P29" s="13"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
-      <c r="T29" s="115"/>
+      <c r="T29" s="67"/>
     </row>
     <row r="30" spans="1:20" ht="15.95" customHeight="1">
       <c r="A30" s="14" t="s">
@@ -3222,7 +3222,7 @@
       <c r="P30" s="13"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
-      <c r="T30" s="115"/>
+      <c r="T30" s="67"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
@@ -3247,7 +3247,7 @@
       <c r="P31" s="13"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
-      <c r="T31" s="115"/>
+      <c r="T31" s="67"/>
     </row>
     <row r="32" spans="1:20" ht="15.95" customHeight="1">
       <c r="A32" s="14" t="s">
@@ -3272,7 +3272,7 @@
       <c r="P32" s="13"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
-      <c r="T32" s="115"/>
+      <c r="T32" s="67"/>
     </row>
     <row r="33" spans="1:20" ht="15.95" customHeight="1">
       <c r="A33" s="14"/>
@@ -3293,7 +3293,7 @@
       <c r="P33" s="13"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="115"/>
+      <c r="T33" s="67"/>
     </row>
     <row r="34" spans="1:20" ht="15.95" customHeight="1">
       <c r="A34" s="13" t="s">
@@ -3318,7 +3318,7 @@
       <c r="P34" s="13"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
-      <c r="T34" s="115"/>
+      <c r="T34" s="67"/>
     </row>
     <row r="35" spans="1:20" ht="15.95" customHeight="1">
       <c r="A35" s="14" t="s">
@@ -3343,7 +3343,7 @@
       <c r="P35" s="13"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
-      <c r="T35" s="115"/>
+      <c r="T35" s="67"/>
     </row>
     <row r="36" spans="1:20" ht="12.95" customHeight="1">
       <c r="A36" s="13"/>
@@ -3364,7 +3364,7 @@
       <c r="P36" s="13"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
-      <c r="T36" s="115"/>
+      <c r="T36" s="67"/>
     </row>
     <row r="37" spans="1:20" ht="27" hidden="1" customHeight="1">
       <c r="A37" s="13"/>
@@ -3386,7 +3386,7 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
-      <c r="T37" s="115"/>
+      <c r="T37" s="67"/>
     </row>
     <row r="38" spans="1:20" ht="15.95" customHeight="1">
       <c r="A38" s="13" t="s">
@@ -3408,12 +3408,12 @@
       <c r="N38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O38" s="158"/>
-      <c r="P38" s="159"/>
-      <c r="Q38" s="159"/>
-      <c r="R38" s="159"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="88"/>
+      <c r="Q38" s="88"/>
+      <c r="R38" s="88"/>
       <c r="S38" s="22"/>
-      <c r="T38" s="115"/>
+      <c r="T38" s="67"/>
     </row>
     <row r="39" spans="1:20" ht="15.95" customHeight="1">
       <c r="A39" s="13"/>
@@ -3435,7 +3435,7 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
-      <c r="T39" s="115"/>
+      <c r="T39" s="67"/>
     </row>
     <row r="40" spans="1:20" ht="15.95" customHeight="1">
       <c r="A40" s="5" t="s">
@@ -3459,7 +3459,7 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
-      <c r="T40" s="115"/>
+      <c r="T40" s="67"/>
     </row>
     <row r="41" spans="1:20" ht="15.95" customHeight="1">
       <c r="A41" s="13" t="s">
@@ -3655,28 +3655,28 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A60" s="155" t="s">
+      <c r="A60" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="115"/>
-      <c r="C60" s="115"/>
-      <c r="D60" s="115"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="115"/>
-      <c r="L60" s="115"/>
-      <c r="M60" s="115"/>
-      <c r="N60" s="115"/>
-      <c r="O60" s="115"/>
-      <c r="P60" s="115"/>
-      <c r="Q60" s="115"/>
-      <c r="R60" s="115"/>
-      <c r="S60" s="115"/>
-      <c r="T60" s="115"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="67"/>
+      <c r="G60" s="67"/>
+      <c r="H60" s="67"/>
+      <c r="I60" s="67"/>
+      <c r="J60" s="67"/>
+      <c r="K60" s="67"/>
+      <c r="L60" s="67"/>
+      <c r="M60" s="67"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="67"/>
+      <c r="P60" s="67"/>
+      <c r="Q60" s="67"/>
+      <c r="R60" s="67"/>
+      <c r="S60" s="67"/>
+      <c r="T60" s="67"/>
     </row>
     <row r="61" spans="1:20" ht="15.95" customHeight="1">
       <c r="A61" s="13"/>
@@ -3785,27 +3785,27 @@
       <c r="A66" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="114" t="s">
+      <c r="B66" s="156" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="115"/>
-      <c r="D66" s="115"/>
-      <c r="E66" s="115"/>
-      <c r="F66" s="115"/>
-      <c r="G66" s="115"/>
-      <c r="H66" s="115"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="115"/>
-      <c r="K66" s="115"/>
-      <c r="L66" s="115"/>
-      <c r="M66" s="115"/>
-      <c r="N66" s="115"/>
-      <c r="O66" s="115"/>
-      <c r="P66" s="115"/>
-      <c r="Q66" s="115"/>
-      <c r="R66" s="115"/>
-      <c r="S66" s="115"/>
-      <c r="T66" s="115"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="67"/>
+      <c r="G66" s="67"/>
+      <c r="H66" s="67"/>
+      <c r="I66" s="67"/>
+      <c r="J66" s="67"/>
+      <c r="K66" s="67"/>
+      <c r="L66" s="67"/>
+      <c r="M66" s="67"/>
+      <c r="N66" s="67"/>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="67"/>
+      <c r="R66" s="67"/>
+      <c r="S66" s="67"/>
+      <c r="T66" s="67"/>
     </row>
     <row r="67" spans="1:20" ht="15.95" customHeight="1">
       <c r="A67" s="12"/>
@@ -3851,53 +3851,53 @@
       <c r="A69" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="116" t="s">
+      <c r="B69" s="157" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="115"/>
-      <c r="D69" s="115"/>
-      <c r="E69" s="115"/>
-      <c r="F69" s="115"/>
-      <c r="G69" s="115"/>
-      <c r="H69" s="115"/>
-      <c r="I69" s="115"/>
-      <c r="J69" s="115"/>
-      <c r="K69" s="115"/>
-      <c r="L69" s="115"/>
-      <c r="M69" s="115"/>
-      <c r="N69" s="115"/>
-      <c r="O69" s="115"/>
-      <c r="P69" s="115"/>
-      <c r="Q69" s="115"/>
-      <c r="R69" s="115"/>
-      <c r="S69" s="115"/>
-      <c r="T69" s="115"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
+      <c r="I69" s="67"/>
+      <c r="J69" s="67"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
+      <c r="O69" s="67"/>
+      <c r="P69" s="67"/>
+      <c r="Q69" s="67"/>
+      <c r="R69" s="67"/>
+      <c r="S69" s="67"/>
+      <c r="T69" s="67"/>
     </row>
     <row r="70" spans="1:20" ht="33" customHeight="1">
       <c r="A70" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="116" t="s">
+      <c r="B70" s="157" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="115"/>
-      <c r="D70" s="115"/>
-      <c r="E70" s="115"/>
-      <c r="F70" s="115"/>
-      <c r="G70" s="115"/>
-      <c r="H70" s="115"/>
-      <c r="I70" s="115"/>
-      <c r="J70" s="115"/>
-      <c r="K70" s="115"/>
-      <c r="L70" s="115"/>
-      <c r="M70" s="115"/>
-      <c r="N70" s="115"/>
-      <c r="O70" s="115"/>
-      <c r="P70" s="115"/>
-      <c r="Q70" s="115"/>
-      <c r="R70" s="115"/>
-      <c r="S70" s="115"/>
-      <c r="T70" s="115"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="67"/>
+      <c r="G70" s="67"/>
+      <c r="H70" s="67"/>
+      <c r="I70" s="67"/>
+      <c r="J70" s="67"/>
+      <c r="K70" s="67"/>
+      <c r="L70" s="67"/>
+      <c r="M70" s="67"/>
+      <c r="N70" s="67"/>
+      <c r="O70" s="67"/>
+      <c r="P70" s="67"/>
+      <c r="Q70" s="67"/>
+      <c r="R70" s="67"/>
+      <c r="S70" s="67"/>
+      <c r="T70" s="67"/>
     </row>
     <row r="72" spans="1:20" ht="15.95" customHeight="1">
       <c r="A72" s="15" t="s">
@@ -3908,24 +3908,24 @@
       <c r="A73" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="114" t="s">
+      <c r="B73" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="115"/>
-      <c r="D73" s="115"/>
-      <c r="E73" s="115"/>
-      <c r="F73" s="115"/>
-      <c r="G73" s="115"/>
-      <c r="H73" s="115"/>
-      <c r="I73" s="115"/>
-      <c r="J73" s="115"/>
-      <c r="K73" s="115"/>
-      <c r="L73" s="115"/>
-      <c r="M73" s="115"/>
-      <c r="N73" s="115"/>
-      <c r="O73" s="115"/>
-      <c r="P73" s="115"/>
-      <c r="Q73" s="115"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
+      <c r="I73" s="67"/>
+      <c r="J73" s="67"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="67"/>
+      <c r="O73" s="67"/>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="67"/>
     </row>
     <row r="74" spans="1:20" ht="15.95" customHeight="1">
       <c r="A74" s="15"/>
@@ -3939,24 +3939,24 @@
       <c r="A76" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="114" t="s">
+      <c r="B76" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="115"/>
-      <c r="D76" s="115"/>
-      <c r="E76" s="115"/>
-      <c r="F76" s="115"/>
-      <c r="G76" s="115"/>
-      <c r="H76" s="115"/>
-      <c r="I76" s="115"/>
-      <c r="J76" s="115"/>
-      <c r="K76" s="115"/>
-      <c r="L76" s="115"/>
-      <c r="M76" s="115"/>
-      <c r="N76" s="115"/>
-      <c r="O76" s="115"/>
-      <c r="P76" s="115"/>
-      <c r="Q76" s="115"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="67"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="67"/>
+      <c r="G76" s="67"/>
+      <c r="H76" s="67"/>
+      <c r="I76" s="67"/>
+      <c r="J76" s="67"/>
+      <c r="K76" s="67"/>
+      <c r="L76" s="67"/>
+      <c r="M76" s="67"/>
+      <c r="N76" s="67"/>
+      <c r="O76" s="67"/>
+      <c r="P76" s="67"/>
+      <c r="Q76" s="67"/>
     </row>
     <row r="77" spans="1:20" ht="15.95" customHeight="1">
       <c r="A77" s="24"/>
@@ -4021,27 +4021,27 @@
       <c r="A80" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="157" t="s">
+      <c r="B80" s="86" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="115"/>
-      <c r="D80" s="115"/>
-      <c r="E80" s="115"/>
-      <c r="F80" s="115"/>
-      <c r="G80" s="115"/>
-      <c r="H80" s="115"/>
-      <c r="I80" s="115"/>
-      <c r="J80" s="115"/>
-      <c r="K80" s="115"/>
-      <c r="L80" s="115"/>
-      <c r="M80" s="115"/>
-      <c r="N80" s="115"/>
-      <c r="O80" s="115"/>
-      <c r="P80" s="115"/>
-      <c r="Q80" s="115"/>
-      <c r="R80" s="115"/>
-      <c r="S80" s="115"/>
-      <c r="T80" s="115"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="67"/>
+      <c r="G80" s="67"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="67"/>
+      <c r="J80" s="67"/>
+      <c r="K80" s="67"/>
+      <c r="L80" s="67"/>
+      <c r="M80" s="67"/>
+      <c r="N80" s="67"/>
+      <c r="O80" s="67"/>
+      <c r="P80" s="67"/>
+      <c r="Q80" s="67"/>
+      <c r="R80" s="67"/>
+      <c r="S80" s="67"/>
+      <c r="T80" s="67"/>
     </row>
     <row r="81" spans="1:20" ht="15" customHeight="1">
       <c r="A81" s="15"/>
@@ -4087,27 +4087,27 @@
       <c r="A83" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="116" t="s">
+      <c r="B83" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="115"/>
-      <c r="D83" s="115"/>
-      <c r="E83" s="115"/>
-      <c r="F83" s="115"/>
-      <c r="G83" s="115"/>
-      <c r="H83" s="115"/>
-      <c r="I83" s="115"/>
-      <c r="J83" s="115"/>
-      <c r="K83" s="115"/>
-      <c r="L83" s="115"/>
-      <c r="M83" s="115"/>
-      <c r="N83" s="115"/>
-      <c r="O83" s="115"/>
-      <c r="P83" s="115"/>
-      <c r="Q83" s="115"/>
-      <c r="R83" s="115"/>
-      <c r="S83" s="115"/>
-      <c r="T83" s="115"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="67"/>
+      <c r="L83" s="67"/>
+      <c r="M83" s="67"/>
+      <c r="N83" s="67"/>
+      <c r="O83" s="67"/>
+      <c r="P83" s="67"/>
+      <c r="Q83" s="67"/>
+      <c r="R83" s="67"/>
+      <c r="S83" s="67"/>
+      <c r="T83" s="67"/>
     </row>
     <row r="84" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="15"/>
@@ -4180,28 +4180,28 @@
       <c r="U103" s="31"/>
     </row>
     <row r="109" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A109" s="117" t="s">
+      <c r="A109" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="115"/>
-      <c r="C109" s="115"/>
-      <c r="D109" s="115"/>
-      <c r="E109" s="115"/>
-      <c r="F109" s="115"/>
-      <c r="G109" s="115"/>
-      <c r="H109" s="115"/>
-      <c r="I109" s="115"/>
-      <c r="J109" s="115"/>
-      <c r="K109" s="115"/>
-      <c r="L109" s="115"/>
-      <c r="M109" s="115"/>
-      <c r="N109" s="115"/>
-      <c r="O109" s="115"/>
-      <c r="P109" s="115"/>
-      <c r="Q109" s="115"/>
-      <c r="R109" s="115"/>
-      <c r="S109" s="115"/>
-      <c r="T109" s="115"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="67"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="67"/>
+      <c r="G109" s="67"/>
+      <c r="H109" s="67"/>
+      <c r="I109" s="67"/>
+      <c r="J109" s="67"/>
+      <c r="K109" s="67"/>
+      <c r="L109" s="67"/>
+      <c r="M109" s="67"/>
+      <c r="N109" s="67"/>
+      <c r="O109" s="67"/>
+      <c r="P109" s="67"/>
+      <c r="Q109" s="67"/>
+      <c r="R109" s="67"/>
+      <c r="S109" s="67"/>
+      <c r="T109" s="67"/>
     </row>
     <row r="110" spans="1:21" ht="14.1" customHeight="1">
       <c r="A110" s="22"/>
@@ -4581,526 +4581,526 @@
       <c r="Q127" s="22"/>
     </row>
     <row r="128" spans="1:20" ht="59.25" customHeight="1">
-      <c r="A128" s="113" t="s">
+      <c r="A128" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="B128" s="66"/>
-      <c r="C128" s="113" t="s">
+      <c r="B128" s="91"/>
+      <c r="C128" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="D128" s="66"/>
-      <c r="E128" s="113" t="s">
+      <c r="D128" s="91"/>
+      <c r="E128" s="155" t="s">
         <v>78</v>
       </c>
-      <c r="F128" s="66"/>
-      <c r="G128" s="113" t="s">
+      <c r="F128" s="91"/>
+      <c r="G128" s="155" t="s">
         <v>79</v>
       </c>
-      <c r="H128" s="66"/>
-      <c r="I128" s="113" t="s">
+      <c r="H128" s="91"/>
+      <c r="I128" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="J128" s="66"/>
-      <c r="K128" s="113" t="s">
+      <c r="J128" s="91"/>
+      <c r="K128" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="L128" s="66"/>
-      <c r="M128" s="113" t="s">
+      <c r="L128" s="91"/>
+      <c r="M128" s="155" t="s">
         <v>81</v>
       </c>
-      <c r="N128" s="66"/>
-      <c r="O128" s="113" t="s">
+      <c r="N128" s="91"/>
+      <c r="O128" s="155" t="s">
         <v>82</v>
       </c>
-      <c r="P128" s="66"/>
-      <c r="Q128" s="118" t="s">
+      <c r="P128" s="91"/>
+      <c r="Q128" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="R128" s="66"/>
-      <c r="S128" s="113" t="s">
+      <c r="R128" s="91"/>
+      <c r="S128" s="155" t="s">
         <v>84</v>
       </c>
-      <c r="T128" s="66"/>
+      <c r="T128" s="91"/>
     </row>
     <row r="129" spans="1:20" ht="30" customHeight="1">
-      <c r="A129" s="64"/>
-      <c r="B129" s="63"/>
-      <c r="C129" s="62" t="s">
+      <c r="A129" s="165"/>
+      <c r="B129" s="164"/>
+      <c r="C129" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="D129" s="63"/>
-      <c r="E129" s="62" t="s">
+      <c r="D129" s="164"/>
+      <c r="E129" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="F129" s="63"/>
-      <c r="G129" s="62" t="s">
+      <c r="F129" s="164"/>
+      <c r="G129" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="H129" s="63"/>
-      <c r="I129" s="62" t="s">
+      <c r="H129" s="164"/>
+      <c r="I129" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="J129" s="63"/>
-      <c r="K129" s="62" t="s">
+      <c r="J129" s="164"/>
+      <c r="K129" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="L129" s="63"/>
-      <c r="M129" s="62" t="s">
+      <c r="L129" s="164"/>
+      <c r="M129" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="N129" s="63"/>
-      <c r="O129" s="62" t="s">
+      <c r="N129" s="164"/>
+      <c r="O129" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="P129" s="63"/>
-      <c r="Q129" s="62" t="s">
+      <c r="P129" s="164"/>
+      <c r="Q129" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="R129" s="63"/>
-      <c r="S129" s="62" t="s">
+      <c r="R129" s="164"/>
+      <c r="S129" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="T129" s="63"/>
+      <c r="T129" s="164"/>
     </row>
     <row r="130" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A130" s="119" t="s">
+      <c r="A130" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="B130" s="66"/>
-      <c r="C130" s="119">
+      <c r="B130" s="91"/>
+      <c r="C130" s="160">
         <v>50</v>
       </c>
-      <c r="D130" s="66"/>
-      <c r="E130" s="120">
+      <c r="D130" s="91"/>
+      <c r="E130" s="161">
         <v>4</v>
       </c>
-      <c r="F130" s="66"/>
-      <c r="G130" s="119"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="121">
+      <c r="F130" s="91"/>
+      <c r="G130" s="160"/>
+      <c r="H130" s="91"/>
+      <c r="I130" s="162">
         <v>2.39</v>
       </c>
-      <c r="J130" s="66"/>
-      <c r="K130" s="65">
+      <c r="J130" s="91"/>
+      <c r="K130" s="166">
         <v>0.08</v>
       </c>
-      <c r="L130" s="66"/>
-      <c r="M130" s="67">
+      <c r="L130" s="91"/>
+      <c r="M130" s="167">
         <v>29.93</v>
       </c>
-      <c r="N130" s="66"/>
-      <c r="O130" s="67">
+      <c r="N130" s="91"/>
+      <c r="O130" s="167">
         <v>0.4</v>
       </c>
-      <c r="P130" s="66"/>
-      <c r="Q130" s="68">
+      <c r="P130" s="91"/>
+      <c r="Q130" s="168">
         <v>43.09</v>
       </c>
-      <c r="R130" s="69"/>
-      <c r="S130" s="120">
+      <c r="R130" s="107"/>
+      <c r="S130" s="161">
         <v>1.4</v>
       </c>
-      <c r="T130" s="66"/>
+      <c r="T130" s="91"/>
     </row>
     <row r="131" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A131" s="122" t="s">
+      <c r="A131" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="72"/>
-      <c r="C131" s="122">
+      <c r="B131" s="93"/>
+      <c r="C131" s="145">
         <v>70</v>
       </c>
-      <c r="D131" s="72"/>
-      <c r="E131" s="123">
+      <c r="D131" s="93"/>
+      <c r="E131" s="146">
         <v>4</v>
       </c>
-      <c r="F131" s="72"/>
-      <c r="G131" s="122"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="124">
+      <c r="F131" s="93"/>
+      <c r="G131" s="145"/>
+      <c r="H131" s="93"/>
+      <c r="I131" s="154">
         <v>3.19</v>
       </c>
-      <c r="J131" s="72"/>
-      <c r="K131" s="125">
+      <c r="J131" s="93"/>
+      <c r="K131" s="147">
         <v>0.11</v>
       </c>
-      <c r="L131" s="72"/>
-      <c r="M131" s="126">
+      <c r="L131" s="93"/>
+      <c r="M131" s="148">
         <v>34.270000000000003</v>
       </c>
-      <c r="N131" s="72"/>
-      <c r="O131" s="126">
+      <c r="N131" s="93"/>
+      <c r="O131" s="148">
         <v>0.8</v>
       </c>
-      <c r="P131" s="72"/>
-      <c r="Q131" s="127">
+      <c r="P131" s="93"/>
+      <c r="Q131" s="149">
         <v>42.83</v>
       </c>
-      <c r="R131" s="79"/>
-      <c r="S131" s="123">
+      <c r="R131" s="100"/>
+      <c r="S131" s="146">
         <v>1.4</v>
       </c>
-      <c r="T131" s="72"/>
+      <c r="T131" s="93"/>
     </row>
     <row r="132" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A132" s="129" t="s">
+      <c r="A132" s="150" t="s">
         <v>108</v>
       </c>
-      <c r="B132" s="72"/>
-      <c r="C132" s="129">
+      <c r="B132" s="93"/>
+      <c r="C132" s="150">
         <v>100</v>
       </c>
-      <c r="D132" s="72"/>
-      <c r="E132" s="128">
+      <c r="D132" s="93"/>
+      <c r="E132" s="143">
         <v>4.5</v>
       </c>
-      <c r="F132" s="72"/>
-      <c r="G132" s="129"/>
-      <c r="H132" s="72"/>
-      <c r="I132" s="130">
+      <c r="F132" s="93"/>
+      <c r="G132" s="150"/>
+      <c r="H132" s="93"/>
+      <c r="I132" s="153">
         <v>4.74</v>
       </c>
-      <c r="J132" s="72"/>
-      <c r="K132" s="131">
+      <c r="J132" s="93"/>
+      <c r="K132" s="151">
         <v>0.18</v>
       </c>
-      <c r="L132" s="72"/>
-      <c r="M132" s="132">
+      <c r="L132" s="93"/>
+      <c r="M132" s="152">
         <v>41.59</v>
       </c>
-      <c r="N132" s="72"/>
-      <c r="O132" s="132">
+      <c r="N132" s="93"/>
+      <c r="O132" s="152">
         <v>1.6</v>
       </c>
-      <c r="P132" s="72"/>
-      <c r="Q132" s="127">
+      <c r="P132" s="93"/>
+      <c r="Q132" s="149">
         <v>42.51</v>
       </c>
-      <c r="R132" s="79"/>
-      <c r="S132" s="128">
+      <c r="R132" s="100"/>
+      <c r="S132" s="143">
         <v>1.4</v>
       </c>
-      <c r="T132" s="72"/>
+      <c r="T132" s="93"/>
     </row>
     <row r="133" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A133" s="122" t="s">
+      <c r="A133" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="B133" s="72"/>
-      <c r="C133" s="122">
+      <c r="B133" s="93"/>
+      <c r="C133" s="145">
         <v>120</v>
       </c>
-      <c r="D133" s="72"/>
-      <c r="E133" s="123">
+      <c r="D133" s="93"/>
+      <c r="E133" s="146">
         <v>6</v>
       </c>
-      <c r="F133" s="72"/>
-      <c r="G133" s="122"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="124">
+      <c r="F133" s="93"/>
+      <c r="G133" s="145"/>
+      <c r="H133" s="93"/>
+      <c r="I133" s="154">
         <v>6.38</v>
       </c>
-      <c r="J133" s="72"/>
-      <c r="K133" s="125">
+      <c r="J133" s="93"/>
+      <c r="K133" s="147">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L133" s="72"/>
-      <c r="M133" s="126">
+      <c r="L133" s="93"/>
+      <c r="M133" s="148">
         <v>48.95</v>
       </c>
-      <c r="N133" s="72"/>
-      <c r="O133" s="126">
+      <c r="N133" s="93"/>
+      <c r="O133" s="148">
         <v>1.8</v>
       </c>
-      <c r="P133" s="72"/>
-      <c r="Q133" s="127">
+      <c r="P133" s="93"/>
+      <c r="Q133" s="149">
         <v>42.17</v>
       </c>
-      <c r="R133" s="79"/>
-      <c r="S133" s="123">
+      <c r="R133" s="100"/>
+      <c r="S133" s="146">
         <v>1.4</v>
       </c>
-      <c r="T133" s="72"/>
+      <c r="T133" s="93"/>
     </row>
     <row r="134" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A134" s="129" t="s">
+      <c r="A134" s="150" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="72"/>
-      <c r="C134" s="129">
+      <c r="B134" s="93"/>
+      <c r="C134" s="150">
         <v>140</v>
       </c>
-      <c r="D134" s="72"/>
-      <c r="E134" s="128">
+      <c r="D134" s="93"/>
+      <c r="E134" s="143">
         <v>9</v>
       </c>
-      <c r="F134" s="72"/>
-      <c r="G134" s="129"/>
-      <c r="H134" s="72"/>
-      <c r="I134" s="130">
+      <c r="F134" s="93"/>
+      <c r="G134" s="150"/>
+      <c r="H134" s="93"/>
+      <c r="I134" s="153">
         <v>8.44</v>
       </c>
-      <c r="J134" s="72"/>
-      <c r="K134" s="131">
+      <c r="J134" s="93"/>
+      <c r="K134" s="151">
         <v>0.45</v>
       </c>
-      <c r="L134" s="72"/>
-      <c r="M134" s="132">
+      <c r="L134" s="93"/>
+      <c r="M134" s="152">
         <v>58.06</v>
       </c>
-      <c r="N134" s="72"/>
-      <c r="O134" s="132">
+      <c r="N134" s="93"/>
+      <c r="O134" s="152">
         <v>1.8</v>
       </c>
-      <c r="P134" s="72"/>
-      <c r="Q134" s="127">
+      <c r="P134" s="93"/>
+      <c r="Q134" s="149">
         <v>41.94</v>
       </c>
-      <c r="R134" s="79"/>
-      <c r="S134" s="128">
+      <c r="R134" s="100"/>
+      <c r="S134" s="143">
         <v>1.4</v>
       </c>
-      <c r="T134" s="72"/>
+      <c r="T134" s="93"/>
     </row>
     <row r="135" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A135" s="122" t="s">
+      <c r="A135" s="145" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="72"/>
-      <c r="C135" s="122">
+      <c r="B135" s="93"/>
+      <c r="C135" s="145">
         <v>150</v>
       </c>
-      <c r="D135" s="72"/>
-      <c r="E135" s="123">
+      <c r="D135" s="93"/>
+      <c r="E135" s="146">
         <v>4</v>
       </c>
-      <c r="F135" s="72"/>
-      <c r="G135" s="123">
+      <c r="F135" s="93"/>
+      <c r="G135" s="146">
         <v>0.5</v>
       </c>
-      <c r="H135" s="72"/>
-      <c r="I135" s="122"/>
-      <c r="J135" s="72"/>
-      <c r="K135" s="125">
+      <c r="H135" s="93"/>
+      <c r="I135" s="145"/>
+      <c r="J135" s="93"/>
+      <c r="K135" s="147">
         <v>0.84</v>
       </c>
-      <c r="L135" s="72"/>
-      <c r="M135" s="126">
+      <c r="L135" s="93"/>
+      <c r="M135" s="148">
         <v>72.150000000000006</v>
       </c>
-      <c r="N135" s="72"/>
-      <c r="O135" s="126">
+      <c r="N135" s="93"/>
+      <c r="O135" s="148">
         <v>1.4</v>
       </c>
-      <c r="P135" s="72"/>
-      <c r="Q135" s="127">
+      <c r="P135" s="93"/>
+      <c r="Q135" s="149">
         <v>41.58</v>
       </c>
-      <c r="R135" s="79"/>
-      <c r="S135" s="123">
+      <c r="R135" s="100"/>
+      <c r="S135" s="146">
         <v>1.4</v>
       </c>
-      <c r="T135" s="72"/>
+      <c r="T135" s="93"/>
     </row>
     <row r="136" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A136" s="129" t="s">
+      <c r="A136" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="B136" s="72"/>
-      <c r="C136" s="129">
+      <c r="B136" s="93"/>
+      <c r="C136" s="150">
         <v>200</v>
       </c>
-      <c r="D136" s="72"/>
-      <c r="E136" s="128">
+      <c r="D136" s="93"/>
+      <c r="E136" s="143">
         <v>4</v>
       </c>
-      <c r="F136" s="72"/>
-      <c r="G136" s="128">
+      <c r="F136" s="93"/>
+      <c r="G136" s="143">
         <v>1</v>
       </c>
-      <c r="H136" s="72"/>
-      <c r="I136" s="129"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="131">
+      <c r="H136" s="93"/>
+      <c r="I136" s="150"/>
+      <c r="J136" s="93"/>
+      <c r="K136" s="151">
         <v>1.63</v>
       </c>
-      <c r="L136" s="72"/>
-      <c r="M136" s="132">
+      <c r="L136" s="93"/>
+      <c r="M136" s="152">
         <v>94.74</v>
       </c>
-      <c r="N136" s="72"/>
-      <c r="O136" s="132">
+      <c r="N136" s="93"/>
+      <c r="O136" s="152">
         <v>1.6</v>
       </c>
-      <c r="P136" s="72"/>
-      <c r="Q136" s="127">
+      <c r="P136" s="93"/>
+      <c r="Q136" s="149">
         <v>41.29</v>
       </c>
-      <c r="R136" s="79"/>
-      <c r="S136" s="128">
+      <c r="R136" s="100"/>
+      <c r="S136" s="143">
         <v>1.4</v>
       </c>
-      <c r="T136" s="72"/>
+      <c r="T136" s="93"/>
     </row>
     <row r="137" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A137" s="122" t="s">
+      <c r="A137" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="B137" s="72"/>
-      <c r="C137" s="122">
+      <c r="B137" s="93"/>
+      <c r="C137" s="145">
         <v>250</v>
       </c>
-      <c r="D137" s="72"/>
-      <c r="E137" s="123">
+      <c r="D137" s="93"/>
+      <c r="E137" s="146">
         <v>4</v>
       </c>
-      <c r="F137" s="72"/>
-      <c r="G137" s="123">
+      <c r="F137" s="93"/>
+      <c r="G137" s="146">
         <v>1.6</v>
       </c>
-      <c r="H137" s="72"/>
-      <c r="I137" s="122"/>
-      <c r="J137" s="72"/>
-      <c r="K137" s="125">
+      <c r="H137" s="93"/>
+      <c r="I137" s="145"/>
+      <c r="J137" s="93"/>
+      <c r="K137" s="147">
         <v>2.57</v>
       </c>
-      <c r="L137" s="72"/>
-      <c r="M137" s="126">
+      <c r="L137" s="93"/>
+      <c r="M137" s="148">
         <v>120.1</v>
       </c>
-      <c r="N137" s="72"/>
-      <c r="O137" s="126">
+      <c r="N137" s="93"/>
+      <c r="O137" s="148">
         <v>1.8</v>
       </c>
-      <c r="P137" s="72"/>
-      <c r="Q137" s="127">
+      <c r="P137" s="93"/>
+      <c r="Q137" s="149">
         <v>41.18</v>
       </c>
-      <c r="R137" s="79"/>
-      <c r="S137" s="123">
+      <c r="R137" s="100"/>
+      <c r="S137" s="146">
         <v>1.4</v>
       </c>
-      <c r="T137" s="72"/>
+      <c r="T137" s="93"/>
     </row>
     <row r="138" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A138" s="129" t="s">
+      <c r="A138" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="B138" s="72"/>
-      <c r="C138" s="129">
+      <c r="B138" s="93"/>
+      <c r="C138" s="150">
         <v>280</v>
       </c>
-      <c r="D138" s="72"/>
-      <c r="E138" s="128">
+      <c r="D138" s="93"/>
+      <c r="E138" s="143">
         <v>4</v>
       </c>
-      <c r="F138" s="72"/>
-      <c r="G138" s="128">
+      <c r="F138" s="93"/>
+      <c r="G138" s="143">
         <v>3</v>
       </c>
-      <c r="H138" s="72"/>
-      <c r="I138" s="129"/>
-      <c r="J138" s="72"/>
-      <c r="K138" s="131">
+      <c r="H138" s="93"/>
+      <c r="I138" s="150"/>
+      <c r="J138" s="93"/>
+      <c r="K138" s="151">
         <v>3.5</v>
       </c>
-      <c r="L138" s="72"/>
-      <c r="M138" s="132">
+      <c r="L138" s="93"/>
+      <c r="M138" s="152">
         <v>147.05000000000001</v>
       </c>
-      <c r="N138" s="72"/>
-      <c r="O138" s="132">
+      <c r="N138" s="93"/>
+      <c r="O138" s="152">
         <v>1.4</v>
       </c>
-      <c r="P138" s="72"/>
-      <c r="Q138" s="127">
+      <c r="P138" s="93"/>
+      <c r="Q138" s="149">
         <v>41.02</v>
       </c>
-      <c r="R138" s="79"/>
-      <c r="S138" s="128">
+      <c r="R138" s="100"/>
+      <c r="S138" s="143">
         <v>1.4</v>
       </c>
-      <c r="T138" s="72"/>
+      <c r="T138" s="93"/>
     </row>
     <row r="139" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A139" s="133" t="s">
+      <c r="A139" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="B139" s="81"/>
-      <c r="C139" s="122">
+      <c r="B139" s="115"/>
+      <c r="C139" s="145">
         <v>300</v>
       </c>
-      <c r="D139" s="72"/>
-      <c r="E139" s="123">
+      <c r="D139" s="93"/>
+      <c r="E139" s="146">
         <v>4</v>
       </c>
-      <c r="F139" s="72"/>
-      <c r="G139" s="123">
+      <c r="F139" s="93"/>
+      <c r="G139" s="146">
         <v>3</v>
       </c>
-      <c r="H139" s="72"/>
-      <c r="I139" s="122"/>
-      <c r="J139" s="72"/>
-      <c r="K139" s="125">
+      <c r="H139" s="93"/>
+      <c r="I139" s="145"/>
+      <c r="J139" s="93"/>
+      <c r="K139" s="147">
         <v>3.7</v>
       </c>
-      <c r="L139" s="72"/>
-      <c r="M139" s="126">
+      <c r="L139" s="93"/>
+      <c r="M139" s="148">
         <v>153.21</v>
       </c>
-      <c r="N139" s="72"/>
-      <c r="O139" s="126">
+      <c r="N139" s="93"/>
+      <c r="O139" s="148">
         <v>1.7</v>
       </c>
-      <c r="P139" s="72"/>
-      <c r="Q139" s="127">
+      <c r="P139" s="93"/>
+      <c r="Q139" s="149">
         <v>40.950000000000003</v>
       </c>
-      <c r="R139" s="79"/>
-      <c r="S139" s="123">
+      <c r="R139" s="100"/>
+      <c r="S139" s="146">
         <v>1.4</v>
       </c>
-      <c r="T139" s="72"/>
+      <c r="T139" s="93"/>
     </row>
     <row r="140" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A140" s="138" t="s">
+      <c r="A140" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="B140" s="135"/>
-      <c r="C140" s="138">
+      <c r="B140" s="65"/>
+      <c r="C140" s="139">
         <v>300</v>
       </c>
-      <c r="D140" s="135"/>
-      <c r="E140" s="134">
+      <c r="D140" s="65"/>
+      <c r="E140" s="136">
         <v>4</v>
       </c>
-      <c r="F140" s="135"/>
-      <c r="G140" s="134">
+      <c r="F140" s="65"/>
+      <c r="G140" s="136">
         <v>3</v>
       </c>
-      <c r="H140" s="135"/>
-      <c r="I140" s="138"/>
-      <c r="J140" s="135"/>
-      <c r="K140" s="139">
+      <c r="H140" s="65"/>
+      <c r="I140" s="139"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="140">
         <v>3.7</v>
       </c>
-      <c r="L140" s="135"/>
-      <c r="M140" s="140">
+      <c r="L140" s="65"/>
+      <c r="M140" s="141">
         <v>153.21</v>
       </c>
-      <c r="N140" s="135"/>
-      <c r="O140" s="140">
+      <c r="N140" s="65"/>
+      <c r="O140" s="141">
         <v>1.7</v>
       </c>
-      <c r="P140" s="135"/>
-      <c r="Q140" s="141">
+      <c r="P140" s="65"/>
+      <c r="Q140" s="142">
         <v>41.06</v>
       </c>
-      <c r="R140" s="142"/>
-      <c r="S140" s="134">
+      <c r="R140" s="63"/>
+      <c r="S140" s="136">
         <v>1.4</v>
       </c>
-      <c r="T140" s="135"/>
+      <c r="T140" s="65"/>
     </row>
     <row r="141" spans="1:20" ht="14.1" customHeight="1">
       <c r="A141" s="22" t="s">
@@ -5251,1660 +5251,1660 @@
       <c r="Q148" s="22"/>
     </row>
     <row r="149" spans="1:21" ht="59.25" customHeight="1">
-      <c r="A149" s="136" t="s">
+      <c r="A149" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="B149" s="66"/>
-      <c r="C149" s="136" t="s">
+      <c r="B149" s="91"/>
+      <c r="C149" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="D149" s="66"/>
-      <c r="E149" s="136" t="s">
+      <c r="D149" s="91"/>
+      <c r="E149" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="F149" s="66"/>
-      <c r="G149" s="136" t="s">
+      <c r="F149" s="91"/>
+      <c r="G149" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="H149" s="66"/>
-      <c r="I149" s="136" t="s">
+      <c r="H149" s="91"/>
+      <c r="I149" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="J149" s="66"/>
-      <c r="K149" s="136" t="s">
+      <c r="J149" s="91"/>
+      <c r="K149" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="L149" s="66"/>
-      <c r="M149" s="136" t="s">
+      <c r="L149" s="91"/>
+      <c r="M149" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="N149" s="66"/>
-      <c r="O149" s="136" t="s">
+      <c r="N149" s="91"/>
+      <c r="O149" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="P149" s="66"/>
-      <c r="Q149" s="137" t="s">
+      <c r="P149" s="91"/>
+      <c r="Q149" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="R149" s="66"/>
-      <c r="S149" s="136" t="s">
+      <c r="R149" s="91"/>
+      <c r="S149" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="T149" s="66"/>
+      <c r="T149" s="91"/>
     </row>
     <row r="150" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A150" s="64"/>
-      <c r="B150" s="63"/>
-      <c r="C150" s="62" t="s">
+      <c r="A150" s="165"/>
+      <c r="B150" s="164"/>
+      <c r="C150" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="D150" s="63"/>
-      <c r="E150" s="62" t="s">
+      <c r="D150" s="164"/>
+      <c r="E150" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="F150" s="63"/>
-      <c r="G150" s="62" t="s">
+      <c r="F150" s="164"/>
+      <c r="G150" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="H150" s="63"/>
-      <c r="I150" s="62" t="s">
+      <c r="H150" s="164"/>
+      <c r="I150" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="J150" s="63"/>
-      <c r="K150" s="62" t="s">
+      <c r="J150" s="164"/>
+      <c r="K150" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="L150" s="63"/>
-      <c r="M150" s="62" t="s">
+      <c r="L150" s="164"/>
+      <c r="M150" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="N150" s="63"/>
-      <c r="O150" s="62" t="s">
+      <c r="N150" s="164"/>
+      <c r="O150" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="P150" s="63"/>
-      <c r="Q150" s="62" t="s">
+      <c r="P150" s="164"/>
+      <c r="Q150" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="R150" s="63"/>
-      <c r="S150" s="62" t="s">
+      <c r="R150" s="164"/>
+      <c r="S150" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="T150" s="63"/>
+      <c r="T150" s="164"/>
     </row>
     <row r="151" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A151" s="85" t="s">
+      <c r="A151" s="116" t="s">
         <v>117</v>
       </c>
-      <c r="B151" s="66"/>
-      <c r="C151" s="85">
+      <c r="B151" s="91"/>
+      <c r="C151" s="116">
         <v>40</v>
       </c>
-      <c r="D151" s="66"/>
-      <c r="E151" s="86">
+      <c r="D151" s="91"/>
+      <c r="E151" s="117">
         <v>0.5</v>
       </c>
-      <c r="F151" s="66"/>
-      <c r="G151" s="86"/>
-      <c r="H151" s="66"/>
-      <c r="I151" s="87">
+      <c r="F151" s="91"/>
+      <c r="G151" s="117"/>
+      <c r="H151" s="91"/>
+      <c r="I151" s="118">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J151" s="66"/>
-      <c r="K151" s="88"/>
-      <c r="L151" s="66"/>
-      <c r="M151" s="103">
+      <c r="J151" s="91"/>
+      <c r="K151" s="119"/>
+      <c r="L151" s="91"/>
+      <c r="M151" s="120">
         <v>17.96</v>
       </c>
-      <c r="N151" s="66"/>
-      <c r="O151" s="104">
+      <c r="N151" s="91"/>
+      <c r="O151" s="121">
         <v>1.8</v>
       </c>
-      <c r="P151" s="66"/>
-      <c r="Q151" s="105">
+      <c r="P151" s="91"/>
+      <c r="Q151" s="106">
         <v>45.8</v>
       </c>
-      <c r="R151" s="69"/>
-      <c r="S151" s="86">
+      <c r="R151" s="107"/>
+      <c r="S151" s="117">
         <v>1.4</v>
       </c>
-      <c r="T151" s="66"/>
+      <c r="T151" s="91"/>
     </row>
     <row r="152" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A152" s="93" t="s">
+      <c r="A152" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="B152" s="72"/>
-      <c r="C152" s="93">
+      <c r="B152" s="93"/>
+      <c r="C152" s="109">
         <v>40</v>
       </c>
-      <c r="D152" s="72"/>
-      <c r="E152" s="91">
+      <c r="D152" s="93"/>
+      <c r="E152" s="108">
         <v>1</v>
       </c>
-      <c r="F152" s="72"/>
-      <c r="G152" s="91"/>
-      <c r="H152" s="72"/>
-      <c r="I152" s="94">
+      <c r="F152" s="93"/>
+      <c r="G152" s="108"/>
+      <c r="H152" s="93"/>
+      <c r="I152" s="110">
         <v>0.93</v>
       </c>
-      <c r="J152" s="72"/>
-      <c r="K152" s="92"/>
-      <c r="L152" s="72"/>
-      <c r="M152" s="101">
+      <c r="J152" s="93"/>
+      <c r="K152" s="111"/>
+      <c r="L152" s="93"/>
+      <c r="M152" s="112">
         <v>20.93</v>
       </c>
-      <c r="N152" s="72"/>
-      <c r="O152" s="102">
+      <c r="N152" s="93"/>
+      <c r="O152" s="113">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P152" s="72"/>
-      <c r="Q152" s="78">
+      <c r="P152" s="93"/>
+      <c r="Q152" s="99">
         <v>44.5</v>
       </c>
-      <c r="R152" s="79"/>
-      <c r="S152" s="91">
+      <c r="R152" s="100"/>
+      <c r="S152" s="108">
         <v>1.4</v>
       </c>
-      <c r="T152" s="72"/>
+      <c r="T152" s="93"/>
     </row>
     <row r="153" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A153" s="96" t="s">
+      <c r="A153" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="B153" s="81"/>
-      <c r="C153" s="96">
+      <c r="B153" s="115"/>
+      <c r="C153" s="129">
         <v>40</v>
       </c>
-      <c r="D153" s="81"/>
-      <c r="E153" s="97">
+      <c r="D153" s="115"/>
+      <c r="E153" s="130">
         <v>4</v>
       </c>
-      <c r="F153" s="81"/>
-      <c r="G153" s="97"/>
-      <c r="H153" s="81"/>
-      <c r="I153" s="98">
+      <c r="F153" s="115"/>
+      <c r="G153" s="130"/>
+      <c r="H153" s="115"/>
+      <c r="I153" s="131">
         <v>1.9</v>
       </c>
-      <c r="J153" s="81"/>
-      <c r="K153" s="99">
+      <c r="J153" s="115"/>
+      <c r="K153" s="132">
         <v>0.06</v>
       </c>
-      <c r="L153" s="81"/>
-      <c r="M153" s="100">
+      <c r="L153" s="115"/>
+      <c r="M153" s="133">
         <v>27.07</v>
       </c>
-      <c r="N153" s="81"/>
-      <c r="O153" s="110">
+      <c r="N153" s="115"/>
+      <c r="O153" s="134">
         <v>0.2</v>
       </c>
-      <c r="P153" s="81"/>
-      <c r="Q153" s="108">
+      <c r="P153" s="115"/>
+      <c r="Q153" s="127">
         <v>43.25</v>
       </c>
-      <c r="R153" s="109"/>
-      <c r="S153" s="97">
+      <c r="R153" s="128"/>
+      <c r="S153" s="130">
         <v>1.4</v>
       </c>
-      <c r="T153" s="81"/>
+      <c r="T153" s="115"/>
     </row>
     <row r="154" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A154" s="95" t="s">
+      <c r="A154" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="B154" s="66"/>
-      <c r="C154" s="95">
+      <c r="B154" s="91"/>
+      <c r="C154" s="101">
         <v>50</v>
       </c>
-      <c r="D154" s="66"/>
-      <c r="E154" s="70">
+      <c r="D154" s="91"/>
+      <c r="E154" s="90">
         <v>0.5</v>
       </c>
-      <c r="F154" s="66"/>
-      <c r="G154" s="70"/>
-      <c r="H154" s="66"/>
-      <c r="I154" s="111">
+      <c r="F154" s="91"/>
+      <c r="G154" s="90"/>
+      <c r="H154" s="91"/>
+      <c r="I154" s="102">
         <v>0.68</v>
       </c>
-      <c r="J154" s="66"/>
-      <c r="K154" s="112"/>
-      <c r="L154" s="66"/>
-      <c r="M154" s="89">
+      <c r="J154" s="91"/>
+      <c r="K154" s="103"/>
+      <c r="L154" s="91"/>
+      <c r="M154" s="104">
         <v>19.5</v>
       </c>
-      <c r="N154" s="66"/>
-      <c r="O154" s="90">
+      <c r="N154" s="91"/>
+      <c r="O154" s="105">
         <v>2.7</v>
       </c>
-      <c r="P154" s="66"/>
-      <c r="Q154" s="105">
+      <c r="P154" s="91"/>
+      <c r="Q154" s="106">
         <v>45.31</v>
       </c>
-      <c r="R154" s="69"/>
-      <c r="S154" s="70">
+      <c r="R154" s="107"/>
+      <c r="S154" s="90">
         <v>1.4</v>
       </c>
-      <c r="T154" s="66"/>
+      <c r="T154" s="91"/>
     </row>
     <row r="155" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A155" s="71" t="s">
+      <c r="A155" s="92" t="s">
         <v>121</v>
       </c>
-      <c r="B155" s="72"/>
-      <c r="C155" s="71">
+      <c r="B155" s="93"/>
+      <c r="C155" s="92">
         <v>50</v>
       </c>
-      <c r="D155" s="72"/>
-      <c r="E155" s="73">
+      <c r="D155" s="93"/>
+      <c r="E155" s="94">
         <v>1</v>
       </c>
-      <c r="F155" s="72"/>
-      <c r="G155" s="73"/>
-      <c r="H155" s="72"/>
-      <c r="I155" s="74">
+      <c r="F155" s="93"/>
+      <c r="G155" s="94"/>
+      <c r="H155" s="93"/>
+      <c r="I155" s="95">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J155" s="72"/>
-      <c r="K155" s="75"/>
-      <c r="L155" s="72"/>
-      <c r="M155" s="76">
+      <c r="J155" s="93"/>
+      <c r="K155" s="96"/>
+      <c r="L155" s="93"/>
+      <c r="M155" s="97">
         <v>22.65</v>
       </c>
-      <c r="N155" s="72"/>
-      <c r="O155" s="77">
+      <c r="N155" s="93"/>
+      <c r="O155" s="98">
         <v>1.6</v>
       </c>
-      <c r="P155" s="72"/>
-      <c r="Q155" s="78">
+      <c r="P155" s="93"/>
+      <c r="Q155" s="99">
         <v>44.2</v>
       </c>
-      <c r="R155" s="79"/>
-      <c r="S155" s="73">
+      <c r="R155" s="100"/>
+      <c r="S155" s="94">
         <v>1.4</v>
       </c>
-      <c r="T155" s="72"/>
+      <c r="T155" s="93"/>
     </row>
     <row r="156" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A156" s="93" t="s">
+      <c r="A156" s="109" t="s">
         <v>106</v>
       </c>
-      <c r="B156" s="72"/>
-      <c r="C156" s="93">
+      <c r="B156" s="93"/>
+      <c r="C156" s="109">
         <v>50</v>
       </c>
-      <c r="D156" s="72"/>
-      <c r="E156" s="91">
+      <c r="D156" s="93"/>
+      <c r="E156" s="108">
         <v>4</v>
       </c>
-      <c r="F156" s="72"/>
-      <c r="G156" s="91"/>
-      <c r="H156" s="72"/>
-      <c r="I156" s="94">
+      <c r="F156" s="93"/>
+      <c r="G156" s="108"/>
+      <c r="H156" s="93"/>
+      <c r="I156" s="110">
         <v>2.39</v>
       </c>
-      <c r="J156" s="72"/>
-      <c r="K156" s="92">
+      <c r="J156" s="93"/>
+      <c r="K156" s="111">
         <v>0.08</v>
       </c>
-      <c r="L156" s="72"/>
-      <c r="M156" s="101">
+      <c r="L156" s="93"/>
+      <c r="M156" s="112">
         <v>29.93</v>
       </c>
-      <c r="N156" s="72"/>
-      <c r="O156" s="102">
+      <c r="N156" s="93"/>
+      <c r="O156" s="113">
         <v>0.4</v>
       </c>
-      <c r="P156" s="72"/>
-      <c r="Q156" s="78">
+      <c r="P156" s="93"/>
+      <c r="Q156" s="99">
         <v>43.09</v>
       </c>
-      <c r="R156" s="79"/>
-      <c r="S156" s="91">
+      <c r="R156" s="100"/>
+      <c r="S156" s="108">
         <v>1.4</v>
       </c>
-      <c r="T156" s="72"/>
+      <c r="T156" s="93"/>
     </row>
     <row r="157" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A157" s="96" t="s">
+      <c r="A157" s="129" t="s">
         <v>122</v>
       </c>
-      <c r="B157" s="81"/>
-      <c r="C157" s="96">
+      <c r="B157" s="115"/>
+      <c r="C157" s="129">
         <v>50</v>
       </c>
-      <c r="D157" s="81"/>
-      <c r="E157" s="97">
+      <c r="D157" s="115"/>
+      <c r="E157" s="130">
         <v>4.5</v>
       </c>
-      <c r="F157" s="81"/>
-      <c r="G157" s="97"/>
-      <c r="H157" s="81"/>
-      <c r="I157" s="98">
+      <c r="F157" s="115"/>
+      <c r="G157" s="130"/>
+      <c r="H157" s="115"/>
+      <c r="I157" s="131">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J157" s="81"/>
-      <c r="K157" s="99">
+      <c r="J157" s="115"/>
+      <c r="K157" s="132">
         <v>0.08</v>
       </c>
-      <c r="L157" s="81"/>
-      <c r="M157" s="100">
+      <c r="L157" s="115"/>
+      <c r="M157" s="133">
         <v>30.62</v>
       </c>
-      <c r="N157" s="81"/>
-      <c r="O157" s="110">
+      <c r="N157" s="115"/>
+      <c r="O157" s="134">
         <v>0.3</v>
       </c>
-      <c r="P157" s="81"/>
-      <c r="Q157" s="108">
+      <c r="P157" s="115"/>
+      <c r="Q157" s="127">
         <v>43.12</v>
       </c>
-      <c r="R157" s="109"/>
-      <c r="S157" s="97">
+      <c r="R157" s="128"/>
+      <c r="S157" s="130">
         <v>1.4</v>
       </c>
-      <c r="T157" s="81"/>
+      <c r="T157" s="115"/>
     </row>
     <row r="158" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A158" s="95" t="s">
+      <c r="A158" s="101" t="s">
         <v>123</v>
       </c>
-      <c r="B158" s="66"/>
-      <c r="C158" s="95">
+      <c r="B158" s="91"/>
+      <c r="C158" s="101">
         <v>60</v>
       </c>
-      <c r="D158" s="66"/>
-      <c r="E158" s="70">
+      <c r="D158" s="91"/>
+      <c r="E158" s="90">
         <v>0.5</v>
       </c>
-      <c r="F158" s="66"/>
-      <c r="G158" s="70"/>
-      <c r="H158" s="66"/>
-      <c r="I158" s="111">
+      <c r="F158" s="91"/>
+      <c r="G158" s="90"/>
+      <c r="H158" s="91"/>
+      <c r="I158" s="102">
         <v>0.79</v>
       </c>
-      <c r="J158" s="66"/>
-      <c r="K158" s="112"/>
-      <c r="L158" s="66"/>
-      <c r="M158" s="89">
+      <c r="J158" s="91"/>
+      <c r="K158" s="103"/>
+      <c r="L158" s="91"/>
+      <c r="M158" s="104">
         <v>20.86</v>
       </c>
-      <c r="N158" s="66"/>
-      <c r="O158" s="90">
+      <c r="N158" s="91"/>
+      <c r="O158" s="105">
         <v>3.5</v>
       </c>
-      <c r="P158" s="66"/>
-      <c r="Q158" s="105">
+      <c r="P158" s="91"/>
+      <c r="Q158" s="106">
         <v>44.97</v>
       </c>
-      <c r="R158" s="69"/>
-      <c r="S158" s="70">
+      <c r="R158" s="107"/>
+      <c r="S158" s="90">
         <v>1.4</v>
       </c>
-      <c r="T158" s="66"/>
+      <c r="T158" s="91"/>
     </row>
     <row r="159" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A159" s="71" t="s">
+      <c r="A159" s="92" t="s">
         <v>124</v>
       </c>
-      <c r="B159" s="72"/>
-      <c r="C159" s="71">
+      <c r="B159" s="93"/>
+      <c r="C159" s="92">
         <v>60</v>
       </c>
-      <c r="D159" s="72"/>
-      <c r="E159" s="73">
+      <c r="D159" s="93"/>
+      <c r="E159" s="94">
         <v>1</v>
       </c>
-      <c r="F159" s="72"/>
-      <c r="G159" s="73"/>
-      <c r="H159" s="72"/>
-      <c r="I159" s="74">
+      <c r="F159" s="93"/>
+      <c r="G159" s="94"/>
+      <c r="H159" s="93"/>
+      <c r="I159" s="95">
         <v>1.29</v>
       </c>
-      <c r="J159" s="72"/>
-      <c r="K159" s="75"/>
-      <c r="L159" s="72"/>
-      <c r="M159" s="76">
+      <c r="J159" s="93"/>
+      <c r="K159" s="96"/>
+      <c r="L159" s="93"/>
+      <c r="M159" s="97">
         <v>24.09</v>
       </c>
-      <c r="N159" s="72"/>
-      <c r="O159" s="77">
+      <c r="N159" s="93"/>
+      <c r="O159" s="98">
         <v>2.1</v>
       </c>
-      <c r="P159" s="72"/>
-      <c r="Q159" s="78">
+      <c r="P159" s="93"/>
+      <c r="Q159" s="99">
         <v>43.94</v>
       </c>
-      <c r="R159" s="79"/>
-      <c r="S159" s="73">
+      <c r="R159" s="100"/>
+      <c r="S159" s="94">
         <v>1.4</v>
       </c>
-      <c r="T159" s="72"/>
+      <c r="T159" s="93"/>
     </row>
     <row r="160" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A160" s="80" t="s">
+      <c r="A160" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="B160" s="81"/>
-      <c r="C160" s="80">
+      <c r="B160" s="115"/>
+      <c r="C160" s="122">
         <v>60</v>
       </c>
-      <c r="D160" s="81"/>
-      <c r="E160" s="82">
+      <c r="D160" s="115"/>
+      <c r="E160" s="114">
         <v>4</v>
       </c>
-      <c r="F160" s="81"/>
-      <c r="G160" s="82"/>
-      <c r="H160" s="81"/>
-      <c r="I160" s="83">
+      <c r="F160" s="115"/>
+      <c r="G160" s="114"/>
+      <c r="H160" s="115"/>
+      <c r="I160" s="123">
         <v>2.81</v>
       </c>
-      <c r="J160" s="81"/>
-      <c r="K160" s="84">
+      <c r="J160" s="115"/>
+      <c r="K160" s="124">
         <v>0.1</v>
       </c>
-      <c r="L160" s="81"/>
-      <c r="M160" s="106">
+      <c r="L160" s="115"/>
+      <c r="M160" s="125">
         <v>32.25</v>
       </c>
-      <c r="N160" s="81"/>
-      <c r="O160" s="107">
+      <c r="N160" s="115"/>
+      <c r="O160" s="126">
         <v>0.6</v>
       </c>
-      <c r="P160" s="81"/>
-      <c r="Q160" s="108">
+      <c r="P160" s="115"/>
+      <c r="Q160" s="127">
         <v>42.92</v>
       </c>
-      <c r="R160" s="109"/>
-      <c r="S160" s="82">
+      <c r="R160" s="128"/>
+      <c r="S160" s="114">
         <v>1.4</v>
       </c>
-      <c r="T160" s="81"/>
+      <c r="T160" s="115"/>
     </row>
     <row r="161" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A161" s="85" t="s">
+      <c r="A161" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="B161" s="66"/>
-      <c r="C161" s="85">
+      <c r="B161" s="91"/>
+      <c r="C161" s="116">
         <v>70</v>
       </c>
-      <c r="D161" s="66"/>
-      <c r="E161" s="86">
+      <c r="D161" s="91"/>
+      <c r="E161" s="117">
         <v>0.5</v>
       </c>
-      <c r="F161" s="66"/>
-      <c r="G161" s="86"/>
-      <c r="H161" s="66"/>
-      <c r="I161" s="87">
+      <c r="F161" s="91"/>
+      <c r="G161" s="117"/>
+      <c r="H161" s="91"/>
+      <c r="I161" s="118">
         <v>0.9</v>
       </c>
-      <c r="J161" s="66"/>
-      <c r="K161" s="88"/>
-      <c r="L161" s="66"/>
-      <c r="M161" s="103">
+      <c r="J161" s="91"/>
+      <c r="K161" s="119"/>
+      <c r="L161" s="91"/>
+      <c r="M161" s="120">
         <v>22.15</v>
       </c>
-      <c r="N161" s="66"/>
-      <c r="O161" s="104">
+      <c r="N161" s="91"/>
+      <c r="O161" s="121">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P161" s="66"/>
-      <c r="Q161" s="105">
+      <c r="P161" s="91"/>
+      <c r="Q161" s="106">
         <v>44.68</v>
       </c>
-      <c r="R161" s="69"/>
-      <c r="S161" s="86">
+      <c r="R161" s="107"/>
+      <c r="S161" s="117">
         <v>1.4</v>
       </c>
-      <c r="T161" s="66"/>
+      <c r="T161" s="91"/>
     </row>
     <row r="162" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A162" s="93" t="s">
+      <c r="A162" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="B162" s="72"/>
-      <c r="C162" s="93">
+      <c r="B162" s="93"/>
+      <c r="C162" s="109">
         <v>70</v>
       </c>
-      <c r="D162" s="72"/>
-      <c r="E162" s="91">
+      <c r="D162" s="93"/>
+      <c r="E162" s="108">
         <v>1</v>
       </c>
-      <c r="F162" s="72"/>
-      <c r="G162" s="91"/>
-      <c r="H162" s="72"/>
-      <c r="I162" s="94">
+      <c r="F162" s="93"/>
+      <c r="G162" s="108"/>
+      <c r="H162" s="93"/>
+      <c r="I162" s="110">
         <v>1.46</v>
       </c>
-      <c r="J162" s="72"/>
-      <c r="K162" s="92"/>
-      <c r="L162" s="72"/>
-      <c r="M162" s="101">
+      <c r="J162" s="93"/>
+      <c r="K162" s="111"/>
+      <c r="L162" s="93"/>
+      <c r="M162" s="112">
         <v>25.44</v>
       </c>
-      <c r="N162" s="72"/>
-      <c r="O162" s="102">
+      <c r="N162" s="93"/>
+      <c r="O162" s="113">
         <v>2.6</v>
       </c>
-      <c r="P162" s="72"/>
-      <c r="Q162" s="78">
+      <c r="P162" s="93"/>
+      <c r="Q162" s="99">
         <v>43.72</v>
       </c>
-      <c r="R162" s="79"/>
-      <c r="S162" s="91">
+      <c r="R162" s="100"/>
+      <c r="S162" s="108">
         <v>1.4</v>
       </c>
-      <c r="T162" s="72"/>
+      <c r="T162" s="93"/>
     </row>
     <row r="163" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A163" s="71" t="s">
+      <c r="A163" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="B163" s="72"/>
-      <c r="C163" s="71">
+      <c r="B163" s="93"/>
+      <c r="C163" s="92">
         <v>70</v>
       </c>
-      <c r="D163" s="72"/>
-      <c r="E163" s="73">
+      <c r="D163" s="93"/>
+      <c r="E163" s="94">
         <v>4</v>
       </c>
-      <c r="F163" s="72"/>
-      <c r="G163" s="73"/>
-      <c r="H163" s="72"/>
-      <c r="I163" s="74">
+      <c r="F163" s="93"/>
+      <c r="G163" s="94"/>
+      <c r="H163" s="93"/>
+      <c r="I163" s="95">
         <v>3.19</v>
       </c>
-      <c r="J163" s="72"/>
-      <c r="K163" s="75">
+      <c r="J163" s="93"/>
+      <c r="K163" s="96">
         <v>0.11</v>
       </c>
-      <c r="L163" s="72"/>
-      <c r="M163" s="76">
+      <c r="L163" s="93"/>
+      <c r="M163" s="97">
         <v>34.270000000000003</v>
       </c>
-      <c r="N163" s="72"/>
-      <c r="O163" s="77">
+      <c r="N163" s="93"/>
+      <c r="O163" s="98">
         <v>0.8</v>
       </c>
-      <c r="P163" s="72"/>
-      <c r="Q163" s="78">
+      <c r="P163" s="93"/>
+      <c r="Q163" s="99">
         <v>42.83</v>
       </c>
-      <c r="R163" s="79"/>
-      <c r="S163" s="73">
+      <c r="R163" s="100"/>
+      <c r="S163" s="94">
         <v>1.4</v>
       </c>
-      <c r="T163" s="72"/>
+      <c r="T163" s="93"/>
     </row>
     <row r="164" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A164" s="93" t="s">
+      <c r="A164" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="B164" s="72"/>
-      <c r="C164" s="93">
+      <c r="B164" s="93"/>
+      <c r="C164" s="109">
         <v>70</v>
       </c>
-      <c r="D164" s="72"/>
-      <c r="E164" s="91">
+      <c r="D164" s="93"/>
+      <c r="E164" s="108">
         <v>4.5</v>
       </c>
-      <c r="F164" s="72"/>
-      <c r="G164" s="91"/>
-      <c r="H164" s="72"/>
-      <c r="I164" s="94">
+      <c r="F164" s="93"/>
+      <c r="G164" s="108"/>
+      <c r="H164" s="93"/>
+      <c r="I164" s="110">
         <v>3.39</v>
       </c>
-      <c r="J164" s="72"/>
-      <c r="K164" s="92">
+      <c r="J164" s="93"/>
+      <c r="K164" s="111">
         <v>0.12</v>
       </c>
-      <c r="L164" s="72"/>
-      <c r="M164" s="101">
+      <c r="L164" s="93"/>
+      <c r="M164" s="112">
         <v>35.19</v>
       </c>
-      <c r="N164" s="72"/>
-      <c r="O164" s="102">
+      <c r="N164" s="93"/>
+      <c r="O164" s="113">
         <v>0.7</v>
       </c>
-      <c r="P164" s="72"/>
-      <c r="Q164" s="78">
+      <c r="P164" s="93"/>
+      <c r="Q164" s="99">
         <v>42.81</v>
       </c>
-      <c r="R164" s="79"/>
-      <c r="S164" s="91">
+      <c r="R164" s="100"/>
+      <c r="S164" s="108">
         <v>1.4</v>
       </c>
-      <c r="T164" s="72"/>
+      <c r="T164" s="93"/>
     </row>
     <row r="165" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A165" s="71" t="s">
+      <c r="A165" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="B165" s="72"/>
-      <c r="C165" s="71">
+      <c r="B165" s="93"/>
+      <c r="C165" s="92">
         <v>70</v>
       </c>
-      <c r="D165" s="72"/>
-      <c r="E165" s="73">
+      <c r="D165" s="93"/>
+      <c r="E165" s="94">
         <v>6</v>
       </c>
-      <c r="F165" s="72"/>
-      <c r="G165" s="73"/>
-      <c r="H165" s="72"/>
-      <c r="I165" s="74">
+      <c r="F165" s="93"/>
+      <c r="G165" s="94"/>
+      <c r="H165" s="93"/>
+      <c r="I165" s="95">
         <v>3.95</v>
       </c>
-      <c r="J165" s="72"/>
-      <c r="K165" s="75">
+      <c r="J165" s="93"/>
+      <c r="K165" s="96">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L165" s="72"/>
-      <c r="M165" s="76">
+      <c r="L165" s="93"/>
+      <c r="M165" s="97">
         <v>37.51</v>
       </c>
-      <c r="N165" s="72"/>
-      <c r="O165" s="77">
+      <c r="N165" s="93"/>
+      <c r="O165" s="98">
         <v>0.5</v>
       </c>
-      <c r="P165" s="72"/>
-      <c r="Q165" s="78">
+      <c r="P165" s="93"/>
+      <c r="Q165" s="99">
         <v>42.68</v>
       </c>
-      <c r="R165" s="79"/>
-      <c r="S165" s="73">
+      <c r="R165" s="100"/>
+      <c r="S165" s="94">
         <v>1.4</v>
       </c>
-      <c r="T165" s="72"/>
+      <c r="T165" s="93"/>
     </row>
     <row r="166" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A166" s="95" t="s">
+      <c r="A166" s="101" t="s">
         <v>130</v>
       </c>
-      <c r="B166" s="66"/>
-      <c r="C166" s="95">
+      <c r="B166" s="91"/>
+      <c r="C166" s="101">
         <v>80</v>
       </c>
-      <c r="D166" s="66"/>
-      <c r="E166" s="70">
+      <c r="D166" s="91"/>
+      <c r="E166" s="90">
         <v>0.5</v>
       </c>
-      <c r="F166" s="66"/>
-      <c r="G166" s="70"/>
-      <c r="H166" s="66"/>
-      <c r="I166" s="111">
+      <c r="F166" s="91"/>
+      <c r="G166" s="90"/>
+      <c r="H166" s="91"/>
+      <c r="I166" s="102">
         <v>1.02</v>
       </c>
-      <c r="J166" s="66"/>
-      <c r="K166" s="112"/>
-      <c r="L166" s="66"/>
-      <c r="M166" s="89">
+      <c r="J166" s="91"/>
+      <c r="K166" s="103"/>
+      <c r="L166" s="91"/>
+      <c r="M166" s="104">
         <v>23.48</v>
       </c>
-      <c r="N166" s="66"/>
-      <c r="O166" s="90">
+      <c r="N166" s="91"/>
+      <c r="O166" s="105">
         <v>4.8</v>
       </c>
-      <c r="P166" s="66"/>
-      <c r="Q166" s="105">
+      <c r="P166" s="91"/>
+      <c r="Q166" s="106">
         <v>44.42</v>
       </c>
-      <c r="R166" s="69"/>
-      <c r="S166" s="70">
+      <c r="R166" s="107"/>
+      <c r="S166" s="90">
         <v>1.4</v>
       </c>
-      <c r="T166" s="66"/>
+      <c r="T166" s="91"/>
     </row>
     <row r="167" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A167" s="71" t="s">
+      <c r="A167" s="92" t="s">
         <v>131</v>
       </c>
-      <c r="B167" s="72"/>
-      <c r="C167" s="71">
+      <c r="B167" s="93"/>
+      <c r="C167" s="92">
         <v>80</v>
       </c>
-      <c r="D167" s="72"/>
-      <c r="E167" s="73">
+      <c r="D167" s="93"/>
+      <c r="E167" s="94">
         <v>1</v>
       </c>
-      <c r="F167" s="72"/>
-      <c r="G167" s="73"/>
-      <c r="H167" s="72"/>
-      <c r="I167" s="74">
+      <c r="F167" s="93"/>
+      <c r="G167" s="94"/>
+      <c r="H167" s="93"/>
+      <c r="I167" s="95">
         <v>1.64</v>
       </c>
-      <c r="J167" s="72"/>
-      <c r="K167" s="75"/>
-      <c r="L167" s="72"/>
-      <c r="M167" s="76">
+      <c r="J167" s="93"/>
+      <c r="K167" s="96"/>
+      <c r="L167" s="93"/>
+      <c r="M167" s="97">
         <v>26.84</v>
       </c>
-      <c r="N167" s="72"/>
-      <c r="O167" s="77">
+      <c r="N167" s="93"/>
+      <c r="O167" s="98">
         <v>3.2</v>
       </c>
-      <c r="P167" s="72"/>
-      <c r="Q167" s="78">
+      <c r="P167" s="93"/>
+      <c r="Q167" s="99">
         <v>43.52</v>
       </c>
-      <c r="R167" s="79"/>
-      <c r="S167" s="73">
+      <c r="R167" s="100"/>
+      <c r="S167" s="94">
         <v>1.4</v>
       </c>
-      <c r="T167" s="72"/>
+      <c r="T167" s="93"/>
     </row>
     <row r="168" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A168" s="80" t="s">
+      <c r="A168" s="122" t="s">
         <v>132</v>
       </c>
-      <c r="B168" s="81"/>
-      <c r="C168" s="80">
+      <c r="B168" s="115"/>
+      <c r="C168" s="122">
         <v>80</v>
       </c>
-      <c r="D168" s="81"/>
-      <c r="E168" s="82">
+      <c r="D168" s="115"/>
+      <c r="E168" s="114">
         <v>4</v>
       </c>
-      <c r="F168" s="81"/>
-      <c r="G168" s="82"/>
-      <c r="H168" s="81"/>
-      <c r="I168" s="83">
+      <c r="F168" s="115"/>
+      <c r="G168" s="114"/>
+      <c r="H168" s="115"/>
+      <c r="I168" s="123">
         <v>3.62</v>
       </c>
-      <c r="J168" s="81"/>
-      <c r="K168" s="84">
+      <c r="J168" s="115"/>
+      <c r="K168" s="124">
         <v>0.13</v>
       </c>
-      <c r="L168" s="81"/>
-      <c r="M168" s="106">
+      <c r="L168" s="115"/>
+      <c r="M168" s="125">
         <v>36.33</v>
       </c>
-      <c r="N168" s="81"/>
-      <c r="O168" s="107">
+      <c r="N168" s="115"/>
+      <c r="O168" s="126">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P168" s="81"/>
-      <c r="Q168" s="108">
+      <c r="P168" s="115"/>
+      <c r="Q168" s="127">
         <v>42.75</v>
       </c>
-      <c r="R168" s="109"/>
-      <c r="S168" s="82">
+      <c r="R168" s="128"/>
+      <c r="S168" s="114">
         <v>1.4</v>
       </c>
-      <c r="T168" s="81"/>
+      <c r="T168" s="115"/>
     </row>
     <row r="169" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A169" s="85" t="s">
+      <c r="A169" s="116" t="s">
         <v>133</v>
       </c>
-      <c r="B169" s="66"/>
-      <c r="C169" s="85">
+      <c r="B169" s="91"/>
+      <c r="C169" s="116">
         <v>90</v>
       </c>
-      <c r="D169" s="66"/>
-      <c r="E169" s="86">
+      <c r="D169" s="91"/>
+      <c r="E169" s="117">
         <v>0.5</v>
       </c>
-      <c r="F169" s="66"/>
-      <c r="G169" s="86"/>
-      <c r="H169" s="66"/>
-      <c r="I169" s="87">
+      <c r="F169" s="91"/>
+      <c r="G169" s="117"/>
+      <c r="H169" s="91"/>
+      <c r="I169" s="118">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J169" s="66"/>
-      <c r="K169" s="88"/>
-      <c r="L169" s="66"/>
-      <c r="M169" s="103">
+      <c r="J169" s="91"/>
+      <c r="K169" s="119"/>
+      <c r="L169" s="91"/>
+      <c r="M169" s="120">
         <v>24.88</v>
       </c>
-      <c r="N169" s="66"/>
-      <c r="O169" s="104">
+      <c r="N169" s="91"/>
+      <c r="O169" s="121">
         <v>5.5</v>
       </c>
-      <c r="P169" s="66"/>
-      <c r="Q169" s="105">
+      <c r="P169" s="91"/>
+      <c r="Q169" s="106">
         <v>44.12</v>
       </c>
-      <c r="R169" s="69"/>
-      <c r="S169" s="86">
+      <c r="R169" s="107"/>
+      <c r="S169" s="117">
         <v>1.4</v>
       </c>
-      <c r="T169" s="66"/>
+      <c r="T169" s="91"/>
     </row>
     <row r="170" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A170" s="93" t="s">
+      <c r="A170" s="109" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="72"/>
-      <c r="C170" s="93">
+      <c r="B170" s="93"/>
+      <c r="C170" s="109">
         <v>90</v>
       </c>
-      <c r="D170" s="72"/>
-      <c r="E170" s="91">
+      <c r="D170" s="93"/>
+      <c r="E170" s="108">
         <v>1</v>
       </c>
-      <c r="F170" s="72"/>
-      <c r="G170" s="91"/>
-      <c r="H170" s="72"/>
-      <c r="I170" s="94">
+      <c r="F170" s="93"/>
+      <c r="G170" s="108"/>
+      <c r="H170" s="93"/>
+      <c r="I170" s="110">
         <v>1.84</v>
       </c>
-      <c r="J170" s="72"/>
-      <c r="K170" s="92"/>
-      <c r="L170" s="72"/>
-      <c r="M170" s="101">
+      <c r="J170" s="93"/>
+      <c r="K170" s="111"/>
+      <c r="L170" s="93"/>
+      <c r="M170" s="112">
         <v>28.32</v>
       </c>
-      <c r="N170" s="72"/>
-      <c r="O170" s="102">
+      <c r="N170" s="93"/>
+      <c r="O170" s="113">
         <v>3.7</v>
       </c>
-      <c r="P170" s="72"/>
-      <c r="Q170" s="78">
+      <c r="P170" s="93"/>
+      <c r="Q170" s="99">
         <v>43.44</v>
       </c>
-      <c r="R170" s="79"/>
-      <c r="S170" s="91">
+      <c r="R170" s="100"/>
+      <c r="S170" s="108">
         <v>1.4</v>
       </c>
-      <c r="T170" s="72"/>
+      <c r="T170" s="93"/>
     </row>
     <row r="171" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A171" s="71" t="s">
+      <c r="A171" s="92" t="s">
         <v>135</v>
       </c>
-      <c r="B171" s="72"/>
-      <c r="C171" s="71">
+      <c r="B171" s="93"/>
+      <c r="C171" s="92">
         <v>90</v>
       </c>
-      <c r="D171" s="72"/>
-      <c r="E171" s="73">
+      <c r="D171" s="93"/>
+      <c r="E171" s="94">
         <v>4</v>
       </c>
-      <c r="F171" s="72"/>
-      <c r="G171" s="73"/>
-      <c r="H171" s="72"/>
-      <c r="I171" s="74">
+      <c r="F171" s="93"/>
+      <c r="G171" s="94"/>
+      <c r="H171" s="93"/>
+      <c r="I171" s="95">
         <v>4.04</v>
       </c>
-      <c r="J171" s="72"/>
-      <c r="K171" s="75">
+      <c r="J171" s="93"/>
+      <c r="K171" s="96">
         <v>0.15</v>
       </c>
-      <c r="L171" s="72"/>
-      <c r="M171" s="76">
+      <c r="L171" s="93"/>
+      <c r="M171" s="97">
         <v>38.380000000000003</v>
       </c>
-      <c r="N171" s="72"/>
-      <c r="O171" s="77">
+      <c r="N171" s="93"/>
+      <c r="O171" s="98">
         <v>1.4</v>
       </c>
-      <c r="P171" s="72"/>
-      <c r="Q171" s="78">
+      <c r="P171" s="93"/>
+      <c r="Q171" s="99">
         <v>42.62</v>
       </c>
-      <c r="R171" s="79"/>
-      <c r="S171" s="73">
+      <c r="R171" s="100"/>
+      <c r="S171" s="94">
         <v>1.4</v>
       </c>
-      <c r="T171" s="72"/>
+      <c r="T171" s="93"/>
     </row>
     <row r="172" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A172" s="95" t="s">
+      <c r="A172" s="101" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="66"/>
-      <c r="C172" s="95">
+      <c r="B172" s="91"/>
+      <c r="C172" s="101">
         <v>100</v>
       </c>
-      <c r="D172" s="66"/>
-      <c r="E172" s="70">
+      <c r="D172" s="91"/>
+      <c r="E172" s="90">
         <v>0.5</v>
       </c>
-      <c r="F172" s="66"/>
-      <c r="G172" s="70"/>
-      <c r="H172" s="66"/>
-      <c r="I172" s="111">
+      <c r="F172" s="91"/>
+      <c r="G172" s="90"/>
+      <c r="H172" s="91"/>
+      <c r="I172" s="102">
         <v>1.3</v>
       </c>
-      <c r="J172" s="66"/>
-      <c r="K172" s="112"/>
-      <c r="L172" s="66"/>
-      <c r="M172" s="89">
+      <c r="J172" s="91"/>
+      <c r="K172" s="103"/>
+      <c r="L172" s="91"/>
+      <c r="M172" s="104">
         <v>26.34</v>
       </c>
-      <c r="N172" s="66"/>
-      <c r="O172" s="90">
+      <c r="N172" s="91"/>
+      <c r="O172" s="105">
         <v>6.1</v>
       </c>
-      <c r="P172" s="66"/>
-      <c r="Q172" s="105">
+      <c r="P172" s="91"/>
+      <c r="Q172" s="106">
         <v>43.9</v>
       </c>
-      <c r="R172" s="69"/>
-      <c r="S172" s="70">
+      <c r="R172" s="107"/>
+      <c r="S172" s="90">
         <v>1.4</v>
       </c>
-      <c r="T172" s="66"/>
+      <c r="T172" s="91"/>
     </row>
     <row r="173" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A173" s="71" t="s">
+      <c r="A173" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="B173" s="72"/>
-      <c r="C173" s="71">
+      <c r="B173" s="93"/>
+      <c r="C173" s="92">
         <v>100</v>
       </c>
-      <c r="D173" s="72"/>
-      <c r="E173" s="73">
+      <c r="D173" s="93"/>
+      <c r="E173" s="94">
         <v>1</v>
       </c>
-      <c r="F173" s="72"/>
-      <c r="G173" s="73"/>
-      <c r="H173" s="72"/>
-      <c r="I173" s="74">
+      <c r="F173" s="93"/>
+      <c r="G173" s="94"/>
+      <c r="H173" s="93"/>
+      <c r="I173" s="95">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J173" s="72"/>
-      <c r="K173" s="75"/>
-      <c r="L173" s="72"/>
-      <c r="M173" s="76">
+      <c r="J173" s="93"/>
+      <c r="K173" s="96"/>
+      <c r="L173" s="93"/>
+      <c r="M173" s="97">
         <v>29.87</v>
       </c>
-      <c r="N173" s="72"/>
-      <c r="O173" s="77">
+      <c r="N173" s="93"/>
+      <c r="O173" s="98">
         <v>4.3</v>
       </c>
-      <c r="P173" s="72"/>
-      <c r="Q173" s="78">
+      <c r="P173" s="93"/>
+      <c r="Q173" s="99">
         <v>43.23</v>
       </c>
-      <c r="R173" s="79"/>
-      <c r="S173" s="73">
+      <c r="R173" s="100"/>
+      <c r="S173" s="94">
         <v>1.4</v>
       </c>
-      <c r="T173" s="72"/>
+      <c r="T173" s="93"/>
     </row>
     <row r="174" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A174" s="93" t="s">
+      <c r="A174" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="B174" s="72"/>
-      <c r="C174" s="93">
+      <c r="B174" s="93"/>
+      <c r="C174" s="109">
         <v>100</v>
       </c>
-      <c r="D174" s="72"/>
-      <c r="E174" s="91">
+      <c r="D174" s="93"/>
+      <c r="E174" s="108">
         <v>4.5</v>
       </c>
-      <c r="F174" s="72"/>
-      <c r="G174" s="91"/>
-      <c r="H174" s="72"/>
-      <c r="I174" s="94">
+      <c r="F174" s="93"/>
+      <c r="G174" s="108"/>
+      <c r="H174" s="93"/>
+      <c r="I174" s="110">
         <v>4.74</v>
       </c>
-      <c r="J174" s="72"/>
-      <c r="K174" s="92">
+      <c r="J174" s="93"/>
+      <c r="K174" s="111">
         <v>0.18</v>
       </c>
-      <c r="L174" s="72"/>
-      <c r="M174" s="101">
+      <c r="L174" s="93"/>
+      <c r="M174" s="112">
         <v>41.59</v>
       </c>
-      <c r="N174" s="72"/>
-      <c r="O174" s="102">
+      <c r="N174" s="93"/>
+      <c r="O174" s="113">
         <v>1.6</v>
       </c>
-      <c r="P174" s="72"/>
-      <c r="Q174" s="78">
+      <c r="P174" s="93"/>
+      <c r="Q174" s="99">
         <v>42.51</v>
       </c>
-      <c r="R174" s="79"/>
-      <c r="S174" s="91">
+      <c r="R174" s="100"/>
+      <c r="S174" s="108">
         <v>1.4</v>
       </c>
-      <c r="T174" s="72"/>
+      <c r="T174" s="93"/>
     </row>
     <row r="175" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A175" s="71" t="s">
+      <c r="A175" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="B175" s="72"/>
-      <c r="C175" s="71">
+      <c r="B175" s="93"/>
+      <c r="C175" s="92">
         <v>100</v>
       </c>
-      <c r="D175" s="72"/>
-      <c r="E175" s="73">
+      <c r="D175" s="93"/>
+      <c r="E175" s="94">
         <v>6</v>
       </c>
-      <c r="F175" s="72"/>
-      <c r="G175" s="73"/>
-      <c r="H175" s="72"/>
-      <c r="I175" s="74">
+      <c r="F175" s="93"/>
+      <c r="G175" s="94"/>
+      <c r="H175" s="93"/>
+      <c r="I175" s="95">
         <v>5.49</v>
       </c>
-      <c r="J175" s="72"/>
-      <c r="K175" s="75">
+      <c r="J175" s="93"/>
+      <c r="K175" s="96">
         <v>0.22</v>
       </c>
-      <c r="L175" s="72"/>
-      <c r="M175" s="76">
+      <c r="L175" s="93"/>
+      <c r="M175" s="97">
         <v>44.58</v>
       </c>
-      <c r="N175" s="72"/>
-      <c r="O175" s="77">
+      <c r="N175" s="93"/>
+      <c r="O175" s="98">
         <v>1.2</v>
       </c>
-      <c r="P175" s="72"/>
-      <c r="Q175" s="78">
+      <c r="P175" s="93"/>
+      <c r="Q175" s="99">
         <v>42.44</v>
       </c>
-      <c r="R175" s="79"/>
-      <c r="S175" s="73">
+      <c r="R175" s="100"/>
+      <c r="S175" s="94">
         <v>1.4</v>
       </c>
-      <c r="T175" s="72"/>
+      <c r="T175" s="93"/>
     </row>
     <row r="176" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A176" s="80" t="s">
+      <c r="A176" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="B176" s="81"/>
-      <c r="C176" s="80">
+      <c r="B176" s="115"/>
+      <c r="C176" s="122">
         <v>100</v>
       </c>
-      <c r="D176" s="81"/>
-      <c r="E176" s="82">
+      <c r="D176" s="115"/>
+      <c r="E176" s="114">
         <v>9</v>
       </c>
-      <c r="F176" s="81"/>
-      <c r="G176" s="82"/>
-      <c r="H176" s="81"/>
-      <c r="I176" s="83">
+      <c r="F176" s="115"/>
+      <c r="G176" s="114"/>
+      <c r="H176" s="115"/>
+      <c r="I176" s="123">
         <v>6.61</v>
       </c>
-      <c r="J176" s="81"/>
-      <c r="K176" s="84">
+      <c r="J176" s="115"/>
+      <c r="K176" s="124">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L176" s="81"/>
-      <c r="M176" s="106">
+      <c r="L176" s="115"/>
+      <c r="M176" s="125">
         <v>49.08</v>
       </c>
-      <c r="N176" s="81"/>
-      <c r="O176" s="107">
+      <c r="N176" s="115"/>
+      <c r="O176" s="126">
         <v>0.8</v>
       </c>
-      <c r="P176" s="81"/>
-      <c r="Q176" s="108">
+      <c r="P176" s="115"/>
+      <c r="Q176" s="127">
         <v>42.23</v>
       </c>
-      <c r="R176" s="109"/>
-      <c r="S176" s="82">
+      <c r="R176" s="128"/>
+      <c r="S176" s="114">
         <v>1.4</v>
       </c>
-      <c r="T176" s="81"/>
+      <c r="T176" s="115"/>
     </row>
     <row r="177" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A177" s="71" t="s">
+      <c r="A177" s="92" t="s">
         <v>140</v>
       </c>
-      <c r="B177" s="72"/>
-      <c r="C177" s="71">
+      <c r="B177" s="93"/>
+      <c r="C177" s="92">
         <v>120</v>
       </c>
-      <c r="D177" s="72"/>
-      <c r="E177" s="73">
+      <c r="D177" s="93"/>
+      <c r="E177" s="94">
         <v>4.5</v>
       </c>
-      <c r="F177" s="72"/>
-      <c r="G177" s="73"/>
-      <c r="H177" s="72"/>
-      <c r="I177" s="74">
+      <c r="F177" s="93"/>
+      <c r="G177" s="94"/>
+      <c r="H177" s="93"/>
+      <c r="I177" s="95">
         <v>5.56</v>
       </c>
-      <c r="J177" s="72"/>
-      <c r="K177" s="75">
+      <c r="J177" s="93"/>
+      <c r="K177" s="96">
         <v>0.23</v>
       </c>
-      <c r="L177" s="72"/>
-      <c r="M177" s="76">
+      <c r="L177" s="93"/>
+      <c r="M177" s="97">
         <v>45.74</v>
       </c>
-      <c r="N177" s="72"/>
-      <c r="O177" s="77">
+      <c r="N177" s="93"/>
+      <c r="O177" s="98">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P177" s="72"/>
-      <c r="Q177" s="78">
+      <c r="P177" s="93"/>
+      <c r="Q177" s="99">
         <v>42.3</v>
       </c>
-      <c r="R177" s="79"/>
-      <c r="S177" s="73">
+      <c r="R177" s="100"/>
+      <c r="S177" s="94">
         <v>1.4</v>
       </c>
-      <c r="T177" s="72"/>
+      <c r="T177" s="93"/>
     </row>
     <row r="178" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A178" s="93" t="s">
+      <c r="A178" s="109" t="s">
         <v>109</v>
       </c>
-      <c r="B178" s="72"/>
-      <c r="C178" s="93">
+      <c r="B178" s="93"/>
+      <c r="C178" s="109">
         <v>120</v>
       </c>
-      <c r="D178" s="72"/>
-      <c r="E178" s="91">
+      <c r="D178" s="93"/>
+      <c r="E178" s="108">
         <v>6</v>
       </c>
-      <c r="F178" s="72"/>
-      <c r="G178" s="91"/>
-      <c r="H178" s="72"/>
-      <c r="I178" s="94">
+      <c r="F178" s="93"/>
+      <c r="G178" s="108"/>
+      <c r="H178" s="93"/>
+      <c r="I178" s="110">
         <v>6.38</v>
       </c>
-      <c r="J178" s="72"/>
-      <c r="K178" s="92">
+      <c r="J178" s="93"/>
+      <c r="K178" s="111">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L178" s="72"/>
-      <c r="M178" s="101">
+      <c r="L178" s="93"/>
+      <c r="M178" s="112">
         <v>48.95</v>
       </c>
-      <c r="N178" s="72"/>
-      <c r="O178" s="102">
+      <c r="N178" s="93"/>
+      <c r="O178" s="113">
         <v>1.8</v>
       </c>
-      <c r="P178" s="72"/>
-      <c r="Q178" s="78">
+      <c r="P178" s="93"/>
+      <c r="Q178" s="99">
         <v>42.17</v>
       </c>
-      <c r="R178" s="79"/>
-      <c r="S178" s="91">
+      <c r="R178" s="100"/>
+      <c r="S178" s="108">
         <v>1.4</v>
       </c>
-      <c r="T178" s="72"/>
+      <c r="T178" s="93"/>
     </row>
     <row r="179" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A179" s="71" t="s">
+      <c r="A179" s="92" t="s">
         <v>141</v>
       </c>
-      <c r="B179" s="72"/>
-      <c r="C179" s="71">
+      <c r="B179" s="93"/>
+      <c r="C179" s="92">
         <v>120</v>
       </c>
-      <c r="D179" s="72"/>
-      <c r="E179" s="73">
+      <c r="D179" s="93"/>
+      <c r="E179" s="94">
         <v>9</v>
       </c>
-      <c r="F179" s="72"/>
-      <c r="G179" s="73"/>
-      <c r="H179" s="72"/>
-      <c r="I179" s="74">
+      <c r="F179" s="93"/>
+      <c r="G179" s="94"/>
+      <c r="H179" s="93"/>
+      <c r="I179" s="95">
         <v>7.59</v>
       </c>
-      <c r="J179" s="72"/>
-      <c r="K179" s="75">
+      <c r="J179" s="93"/>
+      <c r="K179" s="96">
         <v>0.37</v>
       </c>
-      <c r="L179" s="72"/>
-      <c r="M179" s="76">
+      <c r="L179" s="93"/>
+      <c r="M179" s="97">
         <v>53.75</v>
       </c>
-      <c r="N179" s="72"/>
-      <c r="O179" s="77">
+      <c r="N179" s="93"/>
+      <c r="O179" s="98">
         <v>1.2</v>
       </c>
-      <c r="P179" s="72"/>
-      <c r="Q179" s="78">
+      <c r="P179" s="93"/>
+      <c r="Q179" s="99">
         <v>42.06</v>
       </c>
-      <c r="R179" s="79"/>
-      <c r="S179" s="73">
+      <c r="R179" s="100"/>
+      <c r="S179" s="94">
         <v>1.4</v>
       </c>
-      <c r="T179" s="72"/>
+      <c r="T179" s="93"/>
     </row>
     <row r="180" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A180" s="80" t="s">
+      <c r="A180" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B180" s="81"/>
-      <c r="C180" s="80">
+      <c r="B180" s="115"/>
+      <c r="C180" s="122">
         <v>120</v>
       </c>
-      <c r="D180" s="81"/>
-      <c r="E180" s="82">
+      <c r="D180" s="115"/>
+      <c r="E180" s="114">
         <v>4</v>
       </c>
-      <c r="F180" s="81"/>
-      <c r="G180" s="82">
+      <c r="F180" s="115"/>
+      <c r="G180" s="114">
         <v>0.5</v>
       </c>
-      <c r="H180" s="81"/>
-      <c r="I180" s="83">
+      <c r="H180" s="115"/>
+      <c r="I180" s="123">
         <v>10.31</v>
       </c>
-      <c r="J180" s="81"/>
-      <c r="K180" s="84">
+      <c r="J180" s="115"/>
+      <c r="K180" s="124">
         <v>0.63</v>
       </c>
-      <c r="L180" s="81"/>
-      <c r="M180" s="106">
+      <c r="L180" s="115"/>
+      <c r="M180" s="125">
         <v>65</v>
       </c>
-      <c r="N180" s="81"/>
-      <c r="O180" s="107">
+      <c r="N180" s="115"/>
+      <c r="O180" s="126">
         <v>0.7</v>
       </c>
-      <c r="P180" s="81"/>
-      <c r="Q180" s="108">
+      <c r="P180" s="115"/>
+      <c r="Q180" s="127">
         <v>41.79</v>
       </c>
-      <c r="R180" s="109"/>
-      <c r="S180" s="82">
+      <c r="R180" s="128"/>
+      <c r="S180" s="114">
         <v>1.4</v>
       </c>
-      <c r="T180" s="81"/>
+      <c r="T180" s="115"/>
     </row>
     <row r="181" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A181" s="85" t="s">
+      <c r="A181" s="116" t="s">
         <v>143</v>
       </c>
-      <c r="B181" s="66"/>
-      <c r="C181" s="85">
+      <c r="B181" s="91"/>
+      <c r="C181" s="116">
         <v>140</v>
       </c>
-      <c r="D181" s="66"/>
-      <c r="E181" s="86">
+      <c r="D181" s="91"/>
+      <c r="E181" s="117">
         <v>4.5</v>
       </c>
-      <c r="F181" s="66"/>
-      <c r="G181" s="86"/>
-      <c r="H181" s="66"/>
-      <c r="I181" s="87">
+      <c r="F181" s="91"/>
+      <c r="G181" s="117"/>
+      <c r="H181" s="91"/>
+      <c r="I181" s="118">
         <v>6.33</v>
       </c>
-      <c r="J181" s="66"/>
-      <c r="K181" s="88">
+      <c r="J181" s="91"/>
+      <c r="K181" s="119">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L181" s="66"/>
-      <c r="M181" s="103">
+      <c r="L181" s="91"/>
+      <c r="M181" s="120">
         <v>49.87</v>
       </c>
-      <c r="N181" s="66"/>
-      <c r="O181" s="104">
+      <c r="N181" s="91"/>
+      <c r="O181" s="121">
         <v>3</v>
       </c>
-      <c r="P181" s="66"/>
-      <c r="Q181" s="105">
+      <c r="P181" s="91"/>
+      <c r="Q181" s="106">
         <v>42.16</v>
       </c>
-      <c r="R181" s="69"/>
-      <c r="S181" s="86">
+      <c r="R181" s="107"/>
+      <c r="S181" s="117">
         <v>1.4</v>
       </c>
-      <c r="T181" s="66"/>
+      <c r="T181" s="91"/>
     </row>
     <row r="182" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A182" s="93" t="s">
+      <c r="A182" s="109" t="s">
         <v>144</v>
       </c>
-      <c r="B182" s="72"/>
-      <c r="C182" s="93">
+      <c r="B182" s="93"/>
+      <c r="C182" s="109">
         <v>140</v>
       </c>
-      <c r="D182" s="72"/>
-      <c r="E182" s="91">
+      <c r="D182" s="93"/>
+      <c r="E182" s="108">
         <v>6</v>
       </c>
-      <c r="F182" s="72"/>
-      <c r="G182" s="91"/>
-      <c r="H182" s="72"/>
-      <c r="I182" s="94">
+      <c r="F182" s="93"/>
+      <c r="G182" s="108"/>
+      <c r="H182" s="93"/>
+      <c r="I182" s="110">
         <v>7.2</v>
       </c>
-      <c r="J182" s="72"/>
-      <c r="K182" s="92">
+      <c r="J182" s="93"/>
+      <c r="K182" s="111">
         <v>0.34</v>
       </c>
-      <c r="L182" s="72"/>
-      <c r="M182" s="101">
+      <c r="L182" s="93"/>
+      <c r="M182" s="112">
         <v>53.14</v>
       </c>
-      <c r="N182" s="72"/>
-      <c r="O182" s="102">
+      <c r="N182" s="93"/>
+      <c r="O182" s="113">
         <v>2.5</v>
       </c>
-      <c r="P182" s="72"/>
-      <c r="Q182" s="78">
+      <c r="P182" s="93"/>
+      <c r="Q182" s="99">
         <v>42.03</v>
       </c>
-      <c r="R182" s="79"/>
-      <c r="S182" s="91">
+      <c r="R182" s="100"/>
+      <c r="S182" s="108">
         <v>1.4</v>
       </c>
-      <c r="T182" s="72"/>
+      <c r="T182" s="93"/>
     </row>
     <row r="183" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A183" s="71" t="s">
+      <c r="A183" s="92" t="s">
         <v>110</v>
       </c>
-      <c r="B183" s="72"/>
-      <c r="C183" s="71">
+      <c r="B183" s="93"/>
+      <c r="C183" s="92">
         <v>140</v>
       </c>
-      <c r="D183" s="72"/>
-      <c r="E183" s="73">
+      <c r="D183" s="93"/>
+      <c r="E183" s="94">
         <v>9</v>
       </c>
-      <c r="F183" s="72"/>
-      <c r="G183" s="73"/>
-      <c r="H183" s="72"/>
-      <c r="I183" s="74">
+      <c r="F183" s="93"/>
+      <c r="G183" s="94"/>
+      <c r="H183" s="93"/>
+      <c r="I183" s="95">
         <v>8.44</v>
       </c>
-      <c r="J183" s="72"/>
-      <c r="K183" s="75">
+      <c r="J183" s="93"/>
+      <c r="K183" s="96">
         <v>0.45</v>
       </c>
-      <c r="L183" s="72"/>
-      <c r="M183" s="76">
+      <c r="L183" s="93"/>
+      <c r="M183" s="97">
         <v>58.06</v>
       </c>
-      <c r="N183" s="72"/>
-      <c r="O183" s="77">
+      <c r="N183" s="93"/>
+      <c r="O183" s="98">
         <v>1.8</v>
       </c>
-      <c r="P183" s="72"/>
-      <c r="Q183" s="78">
+      <c r="P183" s="93"/>
+      <c r="Q183" s="99">
         <v>41.94</v>
       </c>
-      <c r="R183" s="79"/>
-      <c r="S183" s="73">
+      <c r="R183" s="100"/>
+      <c r="S183" s="94">
         <v>1.4</v>
       </c>
-      <c r="T183" s="72"/>
+      <c r="T183" s="93"/>
     </row>
     <row r="184" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A184" s="93" t="s">
+      <c r="A184" s="109" t="s">
         <v>145</v>
       </c>
-      <c r="B184" s="72"/>
-      <c r="C184" s="93">
+      <c r="B184" s="93"/>
+      <c r="C184" s="109">
         <v>140</v>
       </c>
-      <c r="D184" s="72"/>
-      <c r="E184" s="91">
+      <c r="D184" s="93"/>
+      <c r="E184" s="108">
         <v>4</v>
       </c>
-      <c r="F184" s="72"/>
-      <c r="G184" s="91">
+      <c r="F184" s="93"/>
+      <c r="G184" s="108">
         <v>0.5</v>
       </c>
-      <c r="H184" s="72"/>
-      <c r="I184" s="94"/>
-      <c r="J184" s="72"/>
-      <c r="K184" s="92">
+      <c r="H184" s="93"/>
+      <c r="I184" s="110"/>
+      <c r="J184" s="93"/>
+      <c r="K184" s="111">
         <v>0.77</v>
       </c>
-      <c r="L184" s="72"/>
-      <c r="M184" s="101">
+      <c r="L184" s="93"/>
+      <c r="M184" s="112">
         <v>69.849999999999994</v>
       </c>
-      <c r="N184" s="72"/>
-      <c r="O184" s="102">
+      <c r="N184" s="93"/>
+      <c r="O184" s="113">
         <v>1.2</v>
       </c>
-      <c r="P184" s="72"/>
-      <c r="Q184" s="78">
+      <c r="P184" s="93"/>
+      <c r="Q184" s="99">
         <v>41.63</v>
       </c>
-      <c r="R184" s="79"/>
-      <c r="S184" s="91">
+      <c r="R184" s="100"/>
+      <c r="S184" s="108">
         <v>1.4</v>
       </c>
-      <c r="T184" s="72"/>
+      <c r="T184" s="93"/>
     </row>
     <row r="185" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A185" s="96" t="s">
+      <c r="A185" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="B185" s="81"/>
-      <c r="C185" s="96">
+      <c r="B185" s="115"/>
+      <c r="C185" s="129">
         <v>140</v>
       </c>
-      <c r="D185" s="81"/>
-      <c r="E185" s="97">
+      <c r="D185" s="115"/>
+      <c r="E185" s="130">
         <v>4</v>
       </c>
-      <c r="F185" s="81"/>
-      <c r="G185" s="97">
+      <c r="F185" s="115"/>
+      <c r="G185" s="130">
         <v>1</v>
       </c>
-      <c r="H185" s="81"/>
-      <c r="I185" s="98"/>
-      <c r="J185" s="81"/>
-      <c r="K185" s="99">
+      <c r="H185" s="115"/>
+      <c r="I185" s="131"/>
+      <c r="J185" s="115"/>
+      <c r="K185" s="132">
         <v>1.03</v>
       </c>
-      <c r="L185" s="81"/>
-      <c r="M185" s="100">
+      <c r="L185" s="115"/>
+      <c r="M185" s="133">
         <v>78.52</v>
       </c>
-      <c r="N185" s="81"/>
-      <c r="O185" s="110">
+      <c r="N185" s="115"/>
+      <c r="O185" s="134">
         <v>0.6</v>
       </c>
-      <c r="P185" s="81"/>
-      <c r="Q185" s="108">
+      <c r="P185" s="115"/>
+      <c r="Q185" s="127">
         <v>41.5</v>
       </c>
-      <c r="R185" s="109"/>
-      <c r="S185" s="97">
+      <c r="R185" s="128"/>
+      <c r="S185" s="130">
         <v>1.4</v>
       </c>
-      <c r="T185" s="81"/>
+      <c r="T185" s="115"/>
     </row>
     <row r="186" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A186" s="95" t="s">
+      <c r="A186" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="B186" s="66"/>
-      <c r="C186" s="95">
+      <c r="B186" s="91"/>
+      <c r="C186" s="101">
         <v>150</v>
       </c>
-      <c r="D186" s="66"/>
-      <c r="E186" s="70">
+      <c r="D186" s="91"/>
+      <c r="E186" s="90">
         <v>6</v>
       </c>
-      <c r="F186" s="66"/>
-      <c r="G186" s="70"/>
-      <c r="H186" s="66"/>
-      <c r="I186" s="111">
+      <c r="F186" s="91"/>
+      <c r="G186" s="90"/>
+      <c r="H186" s="91"/>
+      <c r="I186" s="102">
         <v>7.58</v>
       </c>
-      <c r="J186" s="66"/>
-      <c r="K186" s="112">
+      <c r="J186" s="91"/>
+      <c r="K186" s="103">
         <v>0.38</v>
       </c>
-      <c r="L186" s="66"/>
-      <c r="M186" s="89">
+      <c r="L186" s="91"/>
+      <c r="M186" s="104">
         <v>55.19</v>
       </c>
-      <c r="N186" s="66"/>
-      <c r="O186" s="90">
+      <c r="N186" s="91"/>
+      <c r="O186" s="105">
         <v>2.8</v>
       </c>
-      <c r="P186" s="66"/>
-      <c r="Q186" s="105">
+      <c r="P186" s="91"/>
+      <c r="Q186" s="106">
         <v>42.01</v>
       </c>
-      <c r="R186" s="69"/>
-      <c r="S186" s="70">
+      <c r="R186" s="107"/>
+      <c r="S186" s="90">
         <v>1.4</v>
       </c>
-      <c r="T186" s="66"/>
+      <c r="T186" s="91"/>
     </row>
     <row r="187" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A187" s="71" t="s">
+      <c r="A187" s="92" t="s">
         <v>148</v>
       </c>
-      <c r="B187" s="72"/>
-      <c r="C187" s="71">
+      <c r="B187" s="93"/>
+      <c r="C187" s="92">
         <v>150</v>
       </c>
-      <c r="D187" s="72"/>
-      <c r="E187" s="73">
+      <c r="D187" s="93"/>
+      <c r="E187" s="94">
         <v>9</v>
       </c>
-      <c r="F187" s="72"/>
-      <c r="G187" s="73"/>
-      <c r="H187" s="72"/>
-      <c r="I187" s="74">
+      <c r="F187" s="93"/>
+      <c r="G187" s="94"/>
+      <c r="H187" s="93"/>
+      <c r="I187" s="95">
         <v>8.83</v>
       </c>
-      <c r="J187" s="72"/>
-      <c r="K187" s="75">
+      <c r="J187" s="93"/>
+      <c r="K187" s="96">
         <v>0.49</v>
       </c>
-      <c r="L187" s="72"/>
-      <c r="M187" s="76">
+      <c r="L187" s="93"/>
+      <c r="M187" s="97">
         <v>60.13</v>
       </c>
-      <c r="N187" s="72"/>
-      <c r="O187" s="77">
+      <c r="N187" s="93"/>
+      <c r="O187" s="98">
         <v>2.1</v>
       </c>
-      <c r="P187" s="72"/>
-      <c r="Q187" s="78">
+      <c r="P187" s="93"/>
+      <c r="Q187" s="99">
         <v>41.87</v>
       </c>
-      <c r="R187" s="79"/>
-      <c r="S187" s="73">
+      <c r="R187" s="100"/>
+      <c r="S187" s="94">
         <v>1.4</v>
       </c>
-      <c r="T187" s="72"/>
+      <c r="T187" s="93"/>
     </row>
     <row r="188" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A188" s="93" t="s">
+      <c r="A188" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="B188" s="72"/>
-      <c r="C188" s="93">
+      <c r="B188" s="93"/>
+      <c r="C188" s="109">
         <v>150</v>
       </c>
-      <c r="D188" s="72"/>
-      <c r="E188" s="91">
+      <c r="D188" s="93"/>
+      <c r="E188" s="108">
         <v>4</v>
       </c>
-      <c r="F188" s="72"/>
-      <c r="G188" s="91">
+      <c r="F188" s="93"/>
+      <c r="G188" s="108">
         <v>0.5</v>
       </c>
-      <c r="H188" s="72"/>
-      <c r="I188" s="94"/>
-      <c r="J188" s="72"/>
-      <c r="K188" s="92">
+      <c r="H188" s="93"/>
+      <c r="I188" s="110"/>
+      <c r="J188" s="93"/>
+      <c r="K188" s="111">
         <v>0.84</v>
       </c>
-      <c r="L188" s="72"/>
-      <c r="M188" s="101">
+      <c r="L188" s="93"/>
+      <c r="M188" s="112">
         <v>72.150000000000006</v>
       </c>
-      <c r="N188" s="72"/>
-      <c r="O188" s="102">
+      <c r="N188" s="93"/>
+      <c r="O188" s="113">
         <v>1.4</v>
       </c>
-      <c r="P188" s="72"/>
-      <c r="Q188" s="78">
+      <c r="P188" s="93"/>
+      <c r="Q188" s="99">
         <v>41.58</v>
       </c>
-      <c r="R188" s="79"/>
-      <c r="S188" s="91">
+      <c r="R188" s="100"/>
+      <c r="S188" s="108">
         <v>1.4</v>
       </c>
-      <c r="T188" s="72"/>
+      <c r="T188" s="93"/>
     </row>
     <row r="189" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A189" s="71" t="s">
+      <c r="A189" s="92" t="s">
         <v>149</v>
       </c>
-      <c r="B189" s="72"/>
-      <c r="C189" s="71">
+      <c r="B189" s="93"/>
+      <c r="C189" s="92">
         <v>150</v>
       </c>
-      <c r="D189" s="72"/>
-      <c r="E189" s="73">
+      <c r="D189" s="93"/>
+      <c r="E189" s="94">
         <v>4</v>
       </c>
-      <c r="F189" s="72"/>
-      <c r="G189" s="73">
+      <c r="F189" s="93"/>
+      <c r="G189" s="94">
         <v>1</v>
       </c>
-      <c r="H189" s="72"/>
-      <c r="I189" s="74"/>
-      <c r="J189" s="72"/>
-      <c r="K189" s="75">
+      <c r="H189" s="93"/>
+      <c r="I189" s="95"/>
+      <c r="J189" s="93"/>
+      <c r="K189" s="96">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L189" s="72"/>
-      <c r="M189" s="76">
+      <c r="L189" s="93"/>
+      <c r="M189" s="97">
         <v>81.36</v>
       </c>
-      <c r="N189" s="72"/>
-      <c r="O189" s="77">
+      <c r="N189" s="93"/>
+      <c r="O189" s="98">
         <v>0.9</v>
       </c>
-      <c r="P189" s="72"/>
-      <c r="Q189" s="78">
+      <c r="P189" s="93"/>
+      <c r="Q189" s="99">
         <v>41.45</v>
       </c>
-      <c r="R189" s="79"/>
-      <c r="S189" s="73">
+      <c r="R189" s="100"/>
+      <c r="S189" s="94">
         <v>1.4</v>
       </c>
-      <c r="T189" s="72"/>
+      <c r="T189" s="93"/>
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A190" s="80" t="s">
+      <c r="A190" s="122" t="s">
         <v>150</v>
       </c>
-      <c r="B190" s="81"/>
-      <c r="C190" s="80">
+      <c r="B190" s="115"/>
+      <c r="C190" s="122">
         <v>150</v>
       </c>
-      <c r="D190" s="81"/>
-      <c r="E190" s="82">
+      <c r="D190" s="115"/>
+      <c r="E190" s="114">
         <v>4</v>
       </c>
-      <c r="F190" s="81"/>
-      <c r="G190" s="82">
+      <c r="F190" s="115"/>
+      <c r="G190" s="114">
         <v>1.6</v>
       </c>
-      <c r="H190" s="81"/>
-      <c r="I190" s="83"/>
-      <c r="J190" s="81"/>
-      <c r="K190" s="84">
+      <c r="H190" s="115"/>
+      <c r="I190" s="123"/>
+      <c r="J190" s="115"/>
+      <c r="K190" s="124">
         <v>1.38</v>
       </c>
-      <c r="L190" s="81"/>
-      <c r="M190" s="106">
+      <c r="L190" s="115"/>
+      <c r="M190" s="125">
         <v>89.07</v>
       </c>
-      <c r="N190" s="81"/>
-      <c r="O190" s="107">
+      <c r="N190" s="115"/>
+      <c r="O190" s="126">
         <v>0.4</v>
       </c>
-      <c r="P190" s="81"/>
-      <c r="Q190" s="108">
+      <c r="P190" s="115"/>
+      <c r="Q190" s="127">
         <v>41.28</v>
       </c>
-      <c r="R190" s="109"/>
-      <c r="S190" s="82">
+      <c r="R190" s="128"/>
+      <c r="S190" s="114">
         <v>1.4</v>
       </c>
-      <c r="T190" s="81"/>
+      <c r="T190" s="115"/>
     </row>
     <row r="191" spans="1:20" ht="8.1" customHeight="1"/>
     <row r="192" spans="1:20" ht="21" customHeight="1">
@@ -6947,966 +6947,966 @@
       </c>
     </row>
     <row r="197" spans="1:20" ht="60" customHeight="1">
-      <c r="A197" s="167" t="s">
+      <c r="A197" s="135" t="s">
         <v>76</v>
       </c>
-      <c r="B197" s="135"/>
-      <c r="C197" s="167" t="s">
+      <c r="B197" s="65"/>
+      <c r="C197" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="D197" s="135"/>
-      <c r="E197" s="167" t="s">
+      <c r="D197" s="65"/>
+      <c r="E197" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="F197" s="135"/>
-      <c r="G197" s="167" t="s">
+      <c r="F197" s="65"/>
+      <c r="G197" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="H197" s="135"/>
-      <c r="I197" s="167" t="s">
+      <c r="H197" s="65"/>
+      <c r="I197" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="J197" s="135"/>
-      <c r="K197" s="167" t="s">
+      <c r="J197" s="65"/>
+      <c r="K197" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="L197" s="135"/>
-      <c r="M197" s="167" t="s">
+      <c r="L197" s="65"/>
+      <c r="M197" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="N197" s="135"/>
-      <c r="O197" s="167" t="s">
+      <c r="N197" s="65"/>
+      <c r="O197" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="P197" s="135"/>
-      <c r="Q197" s="168" t="s">
+      <c r="P197" s="65"/>
+      <c r="Q197" s="158" t="s">
         <v>83</v>
       </c>
-      <c r="R197" s="135"/>
-      <c r="S197" s="167" t="s">
+      <c r="R197" s="65"/>
+      <c r="S197" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="T197" s="135"/>
+      <c r="T197" s="65"/>
     </row>
     <row r="198" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A198" s="64"/>
-      <c r="B198" s="63"/>
-      <c r="C198" s="62" t="s">
+      <c r="A198" s="165"/>
+      <c r="B198" s="164"/>
+      <c r="C198" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="D198" s="63"/>
-      <c r="E198" s="62" t="s">
+      <c r="D198" s="164"/>
+      <c r="E198" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="F198" s="63"/>
-      <c r="G198" s="62" t="s">
+      <c r="F198" s="164"/>
+      <c r="G198" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="H198" s="63"/>
-      <c r="I198" s="62" t="s">
+      <c r="H198" s="164"/>
+      <c r="I198" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="J198" s="63"/>
-      <c r="K198" s="62" t="s">
+      <c r="J198" s="164"/>
+      <c r="K198" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="L198" s="63"/>
-      <c r="M198" s="62" t="s">
+      <c r="L198" s="164"/>
+      <c r="M198" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="N198" s="63"/>
-      <c r="O198" s="62" t="s">
+      <c r="N198" s="164"/>
+      <c r="O198" s="163" t="s">
         <v>89</v>
       </c>
-      <c r="P198" s="63"/>
-      <c r="Q198" s="62" t="s">
+      <c r="P198" s="164"/>
+      <c r="Q198" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="R198" s="63"/>
-      <c r="S198" s="62" t="s">
+      <c r="R198" s="164"/>
+      <c r="S198" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="T198" s="63"/>
+      <c r="T198" s="164"/>
     </row>
     <row r="199" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A199" s="85" t="s">
+      <c r="A199" s="116" t="s">
         <v>151</v>
       </c>
-      <c r="B199" s="66"/>
-      <c r="C199" s="85">
+      <c r="B199" s="91"/>
+      <c r="C199" s="116">
         <v>200</v>
       </c>
-      <c r="D199" s="66"/>
-      <c r="E199" s="86">
+      <c r="D199" s="91"/>
+      <c r="E199" s="117">
         <v>9</v>
       </c>
-      <c r="F199" s="66"/>
-      <c r="G199" s="86"/>
-      <c r="H199" s="66"/>
-      <c r="I199" s="87">
+      <c r="F199" s="91"/>
+      <c r="G199" s="117"/>
+      <c r="H199" s="91"/>
+      <c r="I199" s="118">
         <v>10.53</v>
       </c>
-      <c r="J199" s="66"/>
-      <c r="K199" s="88">
+      <c r="J199" s="91"/>
+      <c r="K199" s="119">
         <v>0.73</v>
       </c>
-      <c r="L199" s="66"/>
-      <c r="M199" s="103">
+      <c r="L199" s="91"/>
+      <c r="M199" s="120">
         <v>69.760000000000005</v>
       </c>
-      <c r="N199" s="66"/>
-      <c r="O199" s="104">
+      <c r="N199" s="91"/>
+      <c r="O199" s="121">
         <v>2.9</v>
       </c>
-      <c r="P199" s="66"/>
-      <c r="Q199" s="105">
+      <c r="P199" s="91"/>
+      <c r="Q199" s="106">
         <v>41.63</v>
       </c>
-      <c r="R199" s="69"/>
-      <c r="S199" s="86">
+      <c r="R199" s="107"/>
+      <c r="S199" s="117">
         <v>1.4</v>
       </c>
-      <c r="T199" s="66"/>
+      <c r="T199" s="91"/>
     </row>
     <row r="200" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A200" s="93" t="s">
+      <c r="A200" s="109" t="s">
         <v>152</v>
       </c>
-      <c r="B200" s="72"/>
-      <c r="C200" s="93">
+      <c r="B200" s="93"/>
+      <c r="C200" s="109">
         <v>200</v>
       </c>
-      <c r="D200" s="72"/>
-      <c r="E200" s="91">
+      <c r="D200" s="93"/>
+      <c r="E200" s="108">
         <v>4</v>
       </c>
-      <c r="F200" s="72"/>
-      <c r="G200" s="91">
+      <c r="F200" s="93"/>
+      <c r="G200" s="108">
         <v>0.5</v>
       </c>
-      <c r="H200" s="72"/>
-      <c r="I200" s="94"/>
-      <c r="J200" s="72"/>
-      <c r="K200" s="92">
+      <c r="H200" s="93"/>
+      <c r="I200" s="110"/>
+      <c r="J200" s="93"/>
+      <c r="K200" s="111">
         <v>1.21</v>
       </c>
-      <c r="L200" s="72"/>
-      <c r="M200" s="101">
+      <c r="L200" s="93"/>
+      <c r="M200" s="112">
         <v>82.81</v>
       </c>
-      <c r="N200" s="72"/>
-      <c r="O200" s="102">
+      <c r="N200" s="93"/>
+      <c r="O200" s="113">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P200" s="72"/>
-      <c r="Q200" s="78">
+      <c r="P200" s="93"/>
+      <c r="Q200" s="99">
         <v>41.43</v>
       </c>
-      <c r="R200" s="79"/>
-      <c r="S200" s="91">
+      <c r="R200" s="100"/>
+      <c r="S200" s="108">
         <v>1.4</v>
       </c>
-      <c r="T200" s="72"/>
+      <c r="T200" s="93"/>
     </row>
     <row r="201" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A201" s="71" t="s">
+      <c r="A201" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="B201" s="72"/>
-      <c r="C201" s="71">
+      <c r="B201" s="93"/>
+      <c r="C201" s="92">
         <v>200</v>
       </c>
-      <c r="D201" s="72"/>
-      <c r="E201" s="73">
+      <c r="D201" s="93"/>
+      <c r="E201" s="94">
         <v>4</v>
       </c>
-      <c r="F201" s="72"/>
-      <c r="G201" s="73">
+      <c r="F201" s="93"/>
+      <c r="G201" s="94">
         <v>1</v>
       </c>
-      <c r="H201" s="72"/>
-      <c r="I201" s="74"/>
-      <c r="J201" s="72"/>
-      <c r="K201" s="75">
+      <c r="H201" s="93"/>
+      <c r="I201" s="95"/>
+      <c r="J201" s="93"/>
+      <c r="K201" s="96">
         <v>1.63</v>
       </c>
-      <c r="L201" s="72"/>
-      <c r="M201" s="76">
+      <c r="L201" s="93"/>
+      <c r="M201" s="97">
         <v>94.74</v>
       </c>
-      <c r="N201" s="72"/>
-      <c r="O201" s="77">
+      <c r="N201" s="93"/>
+      <c r="O201" s="98">
         <v>1.6</v>
       </c>
-      <c r="P201" s="72"/>
-      <c r="Q201" s="78">
+      <c r="P201" s="93"/>
+      <c r="Q201" s="99">
         <v>41.29</v>
       </c>
-      <c r="R201" s="79"/>
-      <c r="S201" s="73">
+      <c r="R201" s="100"/>
+      <c r="S201" s="94">
         <v>1.4</v>
       </c>
-      <c r="T201" s="72"/>
+      <c r="T201" s="93"/>
     </row>
     <row r="202" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A202" s="93" t="s">
+      <c r="A202" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="B202" s="72"/>
-      <c r="C202" s="93">
+      <c r="B202" s="93"/>
+      <c r="C202" s="109">
         <v>200</v>
       </c>
-      <c r="D202" s="72"/>
-      <c r="E202" s="91">
+      <c r="D202" s="93"/>
+      <c r="E202" s="108">
         <v>4</v>
       </c>
-      <c r="F202" s="72"/>
-      <c r="G202" s="91">
+      <c r="F202" s="93"/>
+      <c r="G202" s="108">
         <v>1.6</v>
       </c>
-      <c r="H202" s="72"/>
-      <c r="I202" s="94"/>
-      <c r="J202" s="72"/>
-      <c r="K202" s="92">
+      <c r="H202" s="93"/>
+      <c r="I202" s="110"/>
+      <c r="J202" s="93"/>
+      <c r="K202" s="111">
         <v>2</v>
       </c>
-      <c r="L202" s="72"/>
-      <c r="M202" s="101">
+      <c r="L202" s="93"/>
+      <c r="M202" s="112">
         <v>105.25</v>
       </c>
-      <c r="N202" s="72"/>
-      <c r="O202" s="102">
+      <c r="N202" s="93"/>
+      <c r="O202" s="113">
         <v>1.2</v>
       </c>
-      <c r="P202" s="72"/>
-      <c r="Q202" s="78">
+      <c r="P202" s="93"/>
+      <c r="Q202" s="99">
         <v>41.2</v>
       </c>
-      <c r="R202" s="79"/>
-      <c r="S202" s="91">
+      <c r="R202" s="100"/>
+      <c r="S202" s="108">
         <v>1.4</v>
       </c>
-      <c r="T202" s="72"/>
+      <c r="T202" s="93"/>
     </row>
     <row r="203" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A203" s="96" t="s">
+      <c r="A203" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="B203" s="81"/>
-      <c r="C203" s="96">
+      <c r="B203" s="115"/>
+      <c r="C203" s="129">
         <v>200</v>
       </c>
-      <c r="D203" s="81"/>
-      <c r="E203" s="97">
+      <c r="D203" s="115"/>
+      <c r="E203" s="130">
         <v>4</v>
       </c>
-      <c r="F203" s="81"/>
-      <c r="G203" s="97">
+      <c r="F203" s="115"/>
+      <c r="G203" s="130">
         <v>3</v>
       </c>
-      <c r="H203" s="81"/>
-      <c r="I203" s="98"/>
-      <c r="J203" s="81"/>
-      <c r="K203" s="99">
+      <c r="H203" s="115"/>
+      <c r="I203" s="131"/>
+      <c r="J203" s="115"/>
+      <c r="K203" s="132">
         <v>2.54</v>
       </c>
-      <c r="L203" s="81"/>
-      <c r="M203" s="100">
+      <c r="L203" s="115"/>
+      <c r="M203" s="133">
         <v>120.15</v>
       </c>
-      <c r="N203" s="81"/>
-      <c r="O203" s="110">
+      <c r="N203" s="115"/>
+      <c r="O203" s="134">
         <v>0.6</v>
       </c>
-      <c r="P203" s="81"/>
-      <c r="Q203" s="108">
+      <c r="P203" s="115"/>
+      <c r="Q203" s="127">
         <v>41.06</v>
       </c>
-      <c r="R203" s="109"/>
-      <c r="S203" s="97">
+      <c r="R203" s="128"/>
+      <c r="S203" s="130">
         <v>1.4</v>
       </c>
-      <c r="T203" s="81"/>
+      <c r="T203" s="115"/>
     </row>
     <row r="204" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A204" s="95" t="s">
+      <c r="A204" s="101" t="s">
         <v>155</v>
       </c>
-      <c r="B204" s="66"/>
-      <c r="C204" s="95">
+      <c r="B204" s="91"/>
+      <c r="C204" s="101">
         <v>250</v>
       </c>
-      <c r="D204" s="66"/>
-      <c r="E204" s="70">
+      <c r="D204" s="91"/>
+      <c r="E204" s="90">
         <v>4</v>
       </c>
-      <c r="F204" s="66"/>
-      <c r="G204" s="70">
+      <c r="F204" s="91"/>
+      <c r="G204" s="90">
         <v>0.5</v>
       </c>
-      <c r="H204" s="66"/>
-      <c r="I204" s="111"/>
-      <c r="J204" s="66"/>
-      <c r="K204" s="112">
+      <c r="H204" s="91"/>
+      <c r="I204" s="102"/>
+      <c r="J204" s="91"/>
+      <c r="K204" s="103">
         <v>1.61</v>
       </c>
-      <c r="L204" s="66"/>
-      <c r="M204" s="89">
+      <c r="L204" s="91"/>
+      <c r="M204" s="104">
         <v>92.84</v>
       </c>
-      <c r="N204" s="66"/>
-      <c r="O204" s="90">
+      <c r="N204" s="91"/>
+      <c r="O204" s="105">
         <v>3</v>
       </c>
-      <c r="P204" s="66"/>
-      <c r="Q204" s="105">
+      <c r="P204" s="91"/>
+      <c r="Q204" s="106">
         <v>41.34</v>
       </c>
-      <c r="R204" s="69"/>
-      <c r="S204" s="70">
+      <c r="R204" s="107"/>
+      <c r="S204" s="90">
         <v>1.4</v>
       </c>
-      <c r="T204" s="66"/>
+      <c r="T204" s="91"/>
     </row>
     <row r="205" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A205" s="71" t="s">
+      <c r="A205" s="92" t="s">
         <v>156</v>
       </c>
-      <c r="B205" s="72"/>
-      <c r="C205" s="71">
+      <c r="B205" s="93"/>
+      <c r="C205" s="92">
         <v>250</v>
       </c>
-      <c r="D205" s="72"/>
-      <c r="E205" s="73">
+      <c r="D205" s="93"/>
+      <c r="E205" s="94">
         <v>4</v>
       </c>
-      <c r="F205" s="72"/>
-      <c r="G205" s="73">
+      <c r="F205" s="93"/>
+      <c r="G205" s="94">
         <v>1</v>
       </c>
-      <c r="H205" s="72"/>
-      <c r="I205" s="74"/>
-      <c r="J205" s="72"/>
-      <c r="K205" s="75">
+      <c r="H205" s="93"/>
+      <c r="I205" s="95"/>
+      <c r="J205" s="93"/>
+      <c r="K205" s="96">
         <v>2.14</v>
       </c>
-      <c r="L205" s="72"/>
-      <c r="M205" s="76">
+      <c r="L205" s="93"/>
+      <c r="M205" s="97">
         <v>107.32</v>
       </c>
-      <c r="N205" s="72"/>
-      <c r="O205" s="77">
+      <c r="N205" s="93"/>
+      <c r="O205" s="98">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P205" s="72"/>
-      <c r="Q205" s="78">
+      <c r="P205" s="93"/>
+      <c r="Q205" s="99">
         <v>41.25</v>
       </c>
-      <c r="R205" s="79"/>
-      <c r="S205" s="73">
+      <c r="R205" s="100"/>
+      <c r="S205" s="94">
         <v>1.4</v>
       </c>
-      <c r="T205" s="72"/>
+      <c r="T205" s="93"/>
     </row>
     <row r="206" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A206" s="93" t="s">
+      <c r="A206" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="B206" s="72"/>
-      <c r="C206" s="93">
+      <c r="B206" s="93"/>
+      <c r="C206" s="109">
         <v>250</v>
       </c>
-      <c r="D206" s="72"/>
-      <c r="E206" s="91">
+      <c r="D206" s="93"/>
+      <c r="E206" s="108">
         <v>4</v>
       </c>
-      <c r="F206" s="72"/>
-      <c r="G206" s="91">
+      <c r="F206" s="93"/>
+      <c r="G206" s="108">
         <v>1.6</v>
       </c>
-      <c r="H206" s="72"/>
-      <c r="I206" s="94"/>
-      <c r="J206" s="72"/>
-      <c r="K206" s="92">
+      <c r="H206" s="93"/>
+      <c r="I206" s="110"/>
+      <c r="J206" s="93"/>
+      <c r="K206" s="111">
         <v>2.57</v>
       </c>
-      <c r="L206" s="72"/>
-      <c r="M206" s="101">
+      <c r="L206" s="93"/>
+      <c r="M206" s="112">
         <v>120.1</v>
       </c>
-      <c r="N206" s="72"/>
-      <c r="O206" s="102">
+      <c r="N206" s="93"/>
+      <c r="O206" s="113">
         <v>1.8</v>
       </c>
-      <c r="P206" s="72"/>
-      <c r="Q206" s="78">
+      <c r="P206" s="93"/>
+      <c r="Q206" s="99">
         <v>41.18</v>
       </c>
-      <c r="R206" s="79"/>
-      <c r="S206" s="91">
+      <c r="R206" s="100"/>
+      <c r="S206" s="108">
         <v>1.4</v>
       </c>
-      <c r="T206" s="72"/>
+      <c r="T206" s="93"/>
     </row>
     <row r="207" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A207" s="71" t="s">
+      <c r="A207" s="92" t="s">
         <v>157</v>
       </c>
-      <c r="B207" s="72"/>
-      <c r="C207" s="71">
+      <c r="B207" s="93"/>
+      <c r="C207" s="92">
         <v>250</v>
       </c>
-      <c r="D207" s="72"/>
-      <c r="E207" s="73">
+      <c r="D207" s="93"/>
+      <c r="E207" s="94">
         <v>4</v>
       </c>
-      <c r="F207" s="72"/>
-      <c r="G207" s="73">
+      <c r="F207" s="93"/>
+      <c r="G207" s="94">
         <v>3</v>
       </c>
-      <c r="H207" s="72"/>
-      <c r="I207" s="74"/>
-      <c r="J207" s="72"/>
-      <c r="K207" s="75">
+      <c r="H207" s="93"/>
+      <c r="I207" s="95"/>
+      <c r="J207" s="93"/>
+      <c r="K207" s="96">
         <v>3.16</v>
       </c>
-      <c r="L207" s="72"/>
-      <c r="M207" s="76">
+      <c r="L207" s="93"/>
+      <c r="M207" s="97">
         <v>137.46</v>
       </c>
-      <c r="N207" s="72"/>
-      <c r="O207" s="77">
+      <c r="N207" s="93"/>
+      <c r="O207" s="98">
         <v>1.2</v>
       </c>
-      <c r="P207" s="72"/>
-      <c r="Q207" s="78">
+      <c r="P207" s="93"/>
+      <c r="Q207" s="99">
         <v>41.09</v>
       </c>
-      <c r="R207" s="79"/>
-      <c r="S207" s="73">
+      <c r="R207" s="100"/>
+      <c r="S207" s="94">
         <v>1.4</v>
       </c>
-      <c r="T207" s="72"/>
+      <c r="T207" s="93"/>
     </row>
     <row r="208" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A208" s="80" t="s">
+      <c r="A208" s="122" t="s">
         <v>158</v>
       </c>
-      <c r="B208" s="81"/>
-      <c r="C208" s="80">
+      <c r="B208" s="115"/>
+      <c r="C208" s="122">
         <v>250</v>
       </c>
-      <c r="D208" s="81"/>
-      <c r="E208" s="82">
+      <c r="D208" s="115"/>
+      <c r="E208" s="114">
         <v>4</v>
       </c>
-      <c r="F208" s="81"/>
-      <c r="G208" s="82">
+      <c r="F208" s="115"/>
+      <c r="G208" s="114">
         <v>5</v>
       </c>
-      <c r="H208" s="81"/>
-      <c r="I208" s="83"/>
-      <c r="J208" s="81"/>
-      <c r="K208" s="84">
+      <c r="H208" s="115"/>
+      <c r="I208" s="123"/>
+      <c r="J208" s="115"/>
+      <c r="K208" s="124">
         <v>3.6</v>
       </c>
-      <c r="L208" s="81"/>
-      <c r="M208" s="106">
+      <c r="L208" s="115"/>
+      <c r="M208" s="125">
         <v>149.51</v>
       </c>
-      <c r="N208" s="81"/>
-      <c r="O208" s="107">
+      <c r="N208" s="115"/>
+      <c r="O208" s="126">
         <v>0.7</v>
       </c>
-      <c r="P208" s="81"/>
-      <c r="Q208" s="108">
+      <c r="P208" s="115"/>
+      <c r="Q208" s="127">
         <v>41.09</v>
       </c>
-      <c r="R208" s="109"/>
-      <c r="S208" s="82">
+      <c r="R208" s="128"/>
+      <c r="S208" s="114">
         <v>1.4</v>
       </c>
-      <c r="T208" s="81"/>
+      <c r="T208" s="115"/>
     </row>
     <row r="209" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A209" s="71" t="s">
+      <c r="A209" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="B209" s="72"/>
-      <c r="C209" s="71">
+      <c r="B209" s="93"/>
+      <c r="C209" s="92">
         <v>280</v>
       </c>
-      <c r="D209" s="72"/>
-      <c r="E209" s="73">
+      <c r="D209" s="93"/>
+      <c r="E209" s="94">
         <v>4</v>
       </c>
-      <c r="F209" s="72"/>
-      <c r="G209" s="73">
+      <c r="F209" s="93"/>
+      <c r="G209" s="94">
         <v>1</v>
       </c>
-      <c r="H209" s="72"/>
-      <c r="I209" s="74"/>
-      <c r="J209" s="72"/>
-      <c r="K209" s="75">
+      <c r="H209" s="93"/>
+      <c r="I209" s="95"/>
+      <c r="J209" s="93"/>
+      <c r="K209" s="96">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L209" s="72"/>
-      <c r="M209" s="76">
+      <c r="L209" s="93"/>
+      <c r="M209" s="97">
         <v>114.61</v>
       </c>
-      <c r="N209" s="72"/>
-      <c r="O209" s="77">
+      <c r="N209" s="93"/>
+      <c r="O209" s="98">
         <v>2.5</v>
       </c>
-      <c r="P209" s="72"/>
-      <c r="Q209" s="78">
+      <c r="P209" s="93"/>
+      <c r="Q209" s="99">
         <v>41.15</v>
       </c>
-      <c r="R209" s="79"/>
-      <c r="S209" s="73">
+      <c r="R209" s="100"/>
+      <c r="S209" s="94">
         <v>1.4</v>
       </c>
-      <c r="T209" s="72"/>
+      <c r="T209" s="93"/>
     </row>
     <row r="210" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A210" s="93" t="s">
+      <c r="A210" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="B210" s="72"/>
-      <c r="C210" s="93">
+      <c r="B210" s="93"/>
+      <c r="C210" s="109">
         <v>280</v>
       </c>
-      <c r="D210" s="72"/>
-      <c r="E210" s="91">
+      <c r="D210" s="93"/>
+      <c r="E210" s="108">
         <v>4</v>
       </c>
-      <c r="F210" s="72"/>
-      <c r="G210" s="91">
+      <c r="F210" s="93"/>
+      <c r="G210" s="108">
         <v>1.6</v>
       </c>
-      <c r="H210" s="72"/>
-      <c r="I210" s="94"/>
-      <c r="J210" s="72"/>
-      <c r="K210" s="92">
+      <c r="H210" s="93"/>
+      <c r="I210" s="110"/>
+      <c r="J210" s="93"/>
+      <c r="K210" s="111">
         <v>2.88</v>
       </c>
-      <c r="L210" s="72"/>
-      <c r="M210" s="101">
+      <c r="L210" s="93"/>
+      <c r="M210" s="112">
         <v>128.5</v>
       </c>
-      <c r="N210" s="72"/>
-      <c r="O210" s="102">
+      <c r="N210" s="93"/>
+      <c r="O210" s="113">
         <v>2</v>
       </c>
-      <c r="P210" s="72"/>
-      <c r="Q210" s="78">
+      <c r="P210" s="93"/>
+      <c r="Q210" s="99">
         <v>41.05</v>
       </c>
-      <c r="R210" s="79"/>
-      <c r="S210" s="91">
+      <c r="R210" s="100"/>
+      <c r="S210" s="108">
         <v>1.4</v>
       </c>
-      <c r="T210" s="72"/>
+      <c r="T210" s="93"/>
     </row>
     <row r="211" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A211" s="71" t="s">
+      <c r="A211" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B211" s="72"/>
-      <c r="C211" s="71">
+      <c r="B211" s="93"/>
+      <c r="C211" s="92">
         <v>280</v>
       </c>
-      <c r="D211" s="72"/>
-      <c r="E211" s="73">
+      <c r="D211" s="93"/>
+      <c r="E211" s="94">
         <v>4</v>
       </c>
-      <c r="F211" s="72"/>
-      <c r="G211" s="73">
+      <c r="F211" s="93"/>
+      <c r="G211" s="94">
         <v>3</v>
       </c>
-      <c r="H211" s="72"/>
-      <c r="I211" s="74"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="75">
+      <c r="H211" s="93"/>
+      <c r="I211" s="95"/>
+      <c r="J211" s="93"/>
+      <c r="K211" s="96">
         <v>3.5</v>
       </c>
-      <c r="L211" s="72"/>
-      <c r="M211" s="76">
+      <c r="L211" s="93"/>
+      <c r="M211" s="97">
         <v>147.05000000000001</v>
       </c>
-      <c r="N211" s="72"/>
-      <c r="O211" s="77">
+      <c r="N211" s="93"/>
+      <c r="O211" s="98">
         <v>1.4</v>
       </c>
-      <c r="P211" s="72"/>
-      <c r="Q211" s="78">
+      <c r="P211" s="93"/>
+      <c r="Q211" s="99">
         <v>41.02</v>
       </c>
-      <c r="R211" s="79"/>
-      <c r="S211" s="73">
+      <c r="R211" s="100"/>
+      <c r="S211" s="94">
         <v>1.4</v>
       </c>
-      <c r="T211" s="72"/>
+      <c r="T211" s="93"/>
     </row>
     <row r="212" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A212" s="80" t="s">
+      <c r="A212" s="122" t="s">
         <v>161</v>
       </c>
-      <c r="B212" s="81"/>
-      <c r="C212" s="80">
+      <c r="B212" s="115"/>
+      <c r="C212" s="122">
         <v>280</v>
       </c>
-      <c r="D212" s="81"/>
-      <c r="E212" s="82">
+      <c r="D212" s="115"/>
+      <c r="E212" s="114">
         <v>4</v>
       </c>
-      <c r="F212" s="81"/>
-      <c r="G212" s="82">
+      <c r="F212" s="115"/>
+      <c r="G212" s="114">
         <v>5</v>
       </c>
-      <c r="H212" s="81"/>
-      <c r="I212" s="83"/>
-      <c r="J212" s="81"/>
-      <c r="K212" s="84">
+      <c r="H212" s="115"/>
+      <c r="I212" s="123"/>
+      <c r="J212" s="115"/>
+      <c r="K212" s="124">
         <v>3.93</v>
       </c>
-      <c r="L212" s="81"/>
-      <c r="M212" s="106">
+      <c r="L212" s="115"/>
+      <c r="M212" s="125">
         <v>159.91999999999999</v>
       </c>
-      <c r="N212" s="81"/>
-      <c r="O212" s="107">
+      <c r="N212" s="115"/>
+      <c r="O212" s="126">
         <v>0.9</v>
       </c>
-      <c r="P212" s="81"/>
-      <c r="Q212" s="108">
+      <c r="P212" s="115"/>
+      <c r="Q212" s="127">
         <v>40.96</v>
       </c>
-      <c r="R212" s="109"/>
-      <c r="S212" s="82">
+      <c r="R212" s="128"/>
+      <c r="S212" s="114">
         <v>1.4</v>
       </c>
-      <c r="T212" s="81"/>
+      <c r="T212" s="115"/>
     </row>
     <row r="213" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A213" s="85" t="s">
+      <c r="A213" s="116" t="s">
         <v>162</v>
       </c>
-      <c r="B213" s="66"/>
-      <c r="C213" s="85">
+      <c r="B213" s="91"/>
+      <c r="C213" s="116">
         <v>300</v>
       </c>
-      <c r="D213" s="66"/>
-      <c r="E213" s="86">
+      <c r="D213" s="91"/>
+      <c r="E213" s="117">
         <v>4</v>
       </c>
-      <c r="F213" s="66"/>
-      <c r="G213" s="86">
+      <c r="F213" s="91"/>
+      <c r="G213" s="117">
         <v>1.6</v>
       </c>
-      <c r="H213" s="66"/>
-      <c r="I213" s="87"/>
-      <c r="J213" s="66"/>
-      <c r="K213" s="88">
+      <c r="H213" s="91"/>
+      <c r="I213" s="118"/>
+      <c r="J213" s="91"/>
+      <c r="K213" s="119">
         <v>3.1</v>
       </c>
-      <c r="L213" s="66"/>
-      <c r="M213" s="103">
+      <c r="L213" s="91"/>
+      <c r="M213" s="120">
         <v>133.91999999999999</v>
       </c>
-      <c r="N213" s="66"/>
-      <c r="O213" s="104">
+      <c r="N213" s="91"/>
+      <c r="O213" s="121">
         <v>2.4</v>
       </c>
-      <c r="P213" s="66"/>
-      <c r="Q213" s="105">
+      <c r="P213" s="91"/>
+      <c r="Q213" s="106">
         <v>41.05</v>
       </c>
-      <c r="R213" s="69"/>
-      <c r="S213" s="86">
+      <c r="R213" s="107"/>
+      <c r="S213" s="117">
         <v>1.4</v>
       </c>
-      <c r="T213" s="66"/>
+      <c r="T213" s="91"/>
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A214" s="93" t="s">
+      <c r="A214" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="B214" s="72"/>
-      <c r="C214" s="93">
+      <c r="B214" s="93"/>
+      <c r="C214" s="109">
         <v>300</v>
       </c>
-      <c r="D214" s="72"/>
-      <c r="E214" s="91">
+      <c r="D214" s="93"/>
+      <c r="E214" s="108">
         <v>4</v>
       </c>
-      <c r="F214" s="72"/>
-      <c r="G214" s="91">
+      <c r="F214" s="93"/>
+      <c r="G214" s="108">
         <v>3</v>
       </c>
-      <c r="H214" s="72"/>
-      <c r="I214" s="94"/>
-      <c r="J214" s="72"/>
-      <c r="K214" s="92">
+      <c r="H214" s="93"/>
+      <c r="I214" s="110"/>
+      <c r="J214" s="93"/>
+      <c r="K214" s="111">
         <v>3.7</v>
       </c>
-      <c r="L214" s="72"/>
-      <c r="M214" s="101">
+      <c r="L214" s="93"/>
+      <c r="M214" s="112">
         <v>153.21</v>
       </c>
-      <c r="N214" s="72"/>
-      <c r="O214" s="102">
+      <c r="N214" s="93"/>
+      <c r="O214" s="113">
         <v>1.7</v>
       </c>
-      <c r="P214" s="72"/>
-      <c r="Q214" s="78">
+      <c r="P214" s="93"/>
+      <c r="Q214" s="99">
         <v>40.950000000000003</v>
       </c>
-      <c r="R214" s="79"/>
-      <c r="S214" s="91">
+      <c r="R214" s="100"/>
+      <c r="S214" s="108">
         <v>1.4</v>
       </c>
-      <c r="T214" s="72"/>
+      <c r="T214" s="93"/>
     </row>
     <row r="215" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A215" s="71" t="s">
+      <c r="A215" s="92" t="s">
         <v>163</v>
       </c>
-      <c r="B215" s="72"/>
-      <c r="C215" s="71">
+      <c r="B215" s="93"/>
+      <c r="C215" s="92">
         <v>300</v>
       </c>
-      <c r="D215" s="72"/>
-      <c r="E215" s="73">
+      <c r="D215" s="93"/>
+      <c r="E215" s="94">
         <v>4</v>
       </c>
-      <c r="F215" s="72"/>
-      <c r="G215" s="73">
+      <c r="F215" s="93"/>
+      <c r="G215" s="94">
         <v>5</v>
       </c>
-      <c r="H215" s="72"/>
-      <c r="I215" s="74"/>
-      <c r="J215" s="72"/>
-      <c r="K215" s="75">
+      <c r="H215" s="93"/>
+      <c r="I215" s="95"/>
+      <c r="J215" s="93"/>
+      <c r="K215" s="96">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L215" s="72"/>
-      <c r="M215" s="76">
+      <c r="L215" s="93"/>
+      <c r="M215" s="97">
         <v>166.58</v>
       </c>
-      <c r="N215" s="72"/>
-      <c r="O215" s="77">
+      <c r="N215" s="93"/>
+      <c r="O215" s="98">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P215" s="72"/>
-      <c r="Q215" s="78">
+      <c r="P215" s="93"/>
+      <c r="Q215" s="99">
         <v>40.950000000000003</v>
       </c>
-      <c r="R215" s="79"/>
-      <c r="S215" s="73">
+      <c r="R215" s="100"/>
+      <c r="S215" s="94">
         <v>1.4</v>
       </c>
-      <c r="T215" s="72"/>
+      <c r="T215" s="93"/>
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A216" s="95" t="s">
+      <c r="A216" s="101" t="s">
         <v>164</v>
       </c>
-      <c r="B216" s="66"/>
-      <c r="C216" s="95">
+      <c r="B216" s="91"/>
+      <c r="C216" s="101">
         <v>320</v>
       </c>
-      <c r="D216" s="66"/>
-      <c r="E216" s="70">
+      <c r="D216" s="91"/>
+      <c r="E216" s="90">
         <v>4</v>
       </c>
-      <c r="F216" s="66"/>
-      <c r="G216" s="70">
+      <c r="F216" s="91"/>
+      <c r="G216" s="90">
         <v>3</v>
       </c>
-      <c r="H216" s="66"/>
-      <c r="I216" s="111"/>
-      <c r="J216" s="66"/>
-      <c r="K216" s="112">
+      <c r="H216" s="91"/>
+      <c r="I216" s="102"/>
+      <c r="J216" s="91"/>
+      <c r="K216" s="103">
         <v>3.9</v>
       </c>
-      <c r="L216" s="66"/>
-      <c r="M216" s="89">
+      <c r="L216" s="91"/>
+      <c r="M216" s="104">
         <v>159.22</v>
       </c>
-      <c r="N216" s="66"/>
-      <c r="O216" s="90">
+      <c r="N216" s="91"/>
+      <c r="O216" s="105">
         <v>1.6</v>
       </c>
-      <c r="P216" s="66"/>
-      <c r="Q216" s="105">
+      <c r="P216" s="91"/>
+      <c r="Q216" s="106">
         <v>40.9</v>
       </c>
-      <c r="R216" s="69"/>
-      <c r="S216" s="70">
+      <c r="R216" s="107"/>
+      <c r="S216" s="90">
         <v>1.4</v>
       </c>
-      <c r="T216" s="66"/>
+      <c r="T216" s="91"/>
     </row>
     <row r="217" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A217" s="71" t="s">
+      <c r="A217" s="92" t="s">
         <v>165</v>
       </c>
-      <c r="B217" s="72"/>
-      <c r="C217" s="71">
+      <c r="B217" s="93"/>
+      <c r="C217" s="92">
         <v>320</v>
       </c>
-      <c r="D217" s="72"/>
-      <c r="E217" s="73">
+      <c r="D217" s="93"/>
+      <c r="E217" s="94">
         <v>4</v>
       </c>
-      <c r="F217" s="72"/>
-      <c r="G217" s="73">
+      <c r="F217" s="93"/>
+      <c r="G217" s="94">
         <v>5</v>
       </c>
-      <c r="H217" s="72"/>
-      <c r="I217" s="74"/>
-      <c r="J217" s="72"/>
-      <c r="K217" s="75">
+      <c r="H217" s="93"/>
+      <c r="I217" s="95"/>
+      <c r="J217" s="93"/>
+      <c r="K217" s="96">
         <v>4.34</v>
       </c>
-      <c r="L217" s="72"/>
-      <c r="M217" s="76">
+      <c r="L217" s="93"/>
+      <c r="M217" s="97">
         <v>173.06</v>
       </c>
-      <c r="N217" s="72"/>
-      <c r="O217" s="77">
+      <c r="N217" s="93"/>
+      <c r="O217" s="98">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P217" s="72"/>
-      <c r="Q217" s="78">
+      <c r="P217" s="93"/>
+      <c r="Q217" s="99">
         <v>40.83</v>
       </c>
-      <c r="R217" s="79"/>
-      <c r="S217" s="73">
+      <c r="R217" s="100"/>
+      <c r="S217" s="94">
         <v>1.4</v>
       </c>
-      <c r="T217" s="72"/>
+      <c r="T217" s="93"/>
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1">
-      <c r="A218" s="143" t="s">
+      <c r="A218" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B218" s="135"/>
-      <c r="C218" s="143">
+      <c r="B218" s="65"/>
+      <c r="C218" s="69">
         <v>250</v>
       </c>
-      <c r="D218" s="135"/>
-      <c r="E218" s="144">
+      <c r="D218" s="65"/>
+      <c r="E218" s="64">
         <v>4</v>
       </c>
-      <c r="F218" s="135"/>
-      <c r="G218" s="144">
+      <c r="F218" s="65"/>
+      <c r="G218" s="64">
         <v>1.6</v>
       </c>
-      <c r="H218" s="135"/>
-      <c r="I218" s="145"/>
-      <c r="J218" s="135"/>
-      <c r="K218" s="146">
+      <c r="H218" s="65"/>
+      <c r="I218" s="70"/>
+      <c r="J218" s="65"/>
+      <c r="K218" s="71">
         <v>2.57</v>
       </c>
-      <c r="L218" s="135"/>
-      <c r="M218" s="147">
+      <c r="L218" s="65"/>
+      <c r="M218" s="72">
         <v>120.1</v>
       </c>
-      <c r="N218" s="135"/>
-      <c r="O218" s="148">
+      <c r="N218" s="65"/>
+      <c r="O218" s="73">
         <v>1.8</v>
       </c>
-      <c r="P218" s="135"/>
-      <c r="Q218" s="149">
+      <c r="P218" s="65"/>
+      <c r="Q218" s="62">
         <v>41.04</v>
       </c>
-      <c r="R218" s="142"/>
-      <c r="S218" s="144">
+      <c r="R218" s="63"/>
+      <c r="S218" s="64">
         <v>1.4</v>
       </c>
-      <c r="T218" s="135"/>
+      <c r="T218" s="65"/>
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1">
-      <c r="A219" s="162" t="s">
+      <c r="A219" s="74" t="s">
         <v>167</v>
       </c>
-      <c r="B219" s="135"/>
-      <c r="C219" s="162">
+      <c r="B219" s="65"/>
+      <c r="C219" s="74">
         <v>280</v>
       </c>
-      <c r="D219" s="135"/>
-      <c r="E219" s="161">
+      <c r="D219" s="65"/>
+      <c r="E219" s="68">
         <v>4</v>
       </c>
-      <c r="F219" s="135"/>
-      <c r="G219" s="161">
+      <c r="F219" s="65"/>
+      <c r="G219" s="68">
         <v>3</v>
       </c>
-      <c r="H219" s="135"/>
-      <c r="I219" s="163"/>
-      <c r="J219" s="135"/>
-      <c r="K219" s="164">
+      <c r="H219" s="65"/>
+      <c r="I219" s="75"/>
+      <c r="J219" s="65"/>
+      <c r="K219" s="76">
         <v>3.5</v>
       </c>
-      <c r="L219" s="135"/>
-      <c r="M219" s="165">
+      <c r="L219" s="65"/>
+      <c r="M219" s="77">
         <v>147.05000000000001</v>
       </c>
-      <c r="N219" s="135"/>
-      <c r="O219" s="166">
+      <c r="N219" s="65"/>
+      <c r="O219" s="78">
         <v>1.4</v>
       </c>
-      <c r="P219" s="135"/>
-      <c r="Q219" s="149">
+      <c r="P219" s="65"/>
+      <c r="Q219" s="62">
         <v>41.11</v>
       </c>
-      <c r="R219" s="142"/>
-      <c r="S219" s="161">
+      <c r="R219" s="63"/>
+      <c r="S219" s="68">
         <v>1.4</v>
       </c>
-      <c r="T219" s="135"/>
+      <c r="T219" s="65"/>
     </row>
     <row r="220" spans="1:20" ht="15" customHeight="1">
-      <c r="A220" s="143" t="s">
+      <c r="A220" s="69" t="s">
         <v>116</v>
       </c>
-      <c r="B220" s="135"/>
-      <c r="C220" s="143">
+      <c r="B220" s="65"/>
+      <c r="C220" s="69">
         <v>300</v>
       </c>
-      <c r="D220" s="135"/>
-      <c r="E220" s="144">
+      <c r="D220" s="65"/>
+      <c r="E220" s="64">
         <v>4</v>
       </c>
-      <c r="F220" s="135"/>
-      <c r="G220" s="144">
+      <c r="F220" s="65"/>
+      <c r="G220" s="64">
         <v>3</v>
       </c>
-      <c r="H220" s="135"/>
-      <c r="I220" s="145"/>
-      <c r="J220" s="135"/>
-      <c r="K220" s="146">
+      <c r="H220" s="65"/>
+      <c r="I220" s="70"/>
+      <c r="J220" s="65"/>
+      <c r="K220" s="71">
         <v>3.7</v>
       </c>
-      <c r="L220" s="135"/>
-      <c r="M220" s="147">
+      <c r="L220" s="65"/>
+      <c r="M220" s="72">
         <v>153.21</v>
       </c>
-      <c r="N220" s="135"/>
-      <c r="O220" s="148">
+      <c r="N220" s="65"/>
+      <c r="O220" s="73">
         <v>1.7</v>
       </c>
-      <c r="P220" s="135"/>
-      <c r="Q220" s="149">
+      <c r="P220" s="65"/>
+      <c r="Q220" s="62">
         <v>41.06</v>
       </c>
-      <c r="R220" s="142"/>
-      <c r="S220" s="144">
+      <c r="R220" s="63"/>
+      <c r="S220" s="64">
         <v>1.4</v>
       </c>
-      <c r="T220" s="135"/>
+      <c r="T220" s="65"/>
     </row>
     <row r="221" spans="1:20" ht="15" customHeight="1">
       <c r="A221" s="22" t="s">
@@ -8132,40 +8132,751 @@
     </row>
   </sheetData>
   <mergeCells count="808">
-    <mergeCell ref="Q220:R220"/>
-    <mergeCell ref="S220:T220"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="Q219:R219"/>
-    <mergeCell ref="S219:T219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="G220:H220"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="K220:L220"/>
-    <mergeCell ref="M220:N220"/>
-    <mergeCell ref="O220:P220"/>
-    <mergeCell ref="S218:T218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="I219:J219"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="M219:N219"/>
-    <mergeCell ref="O219:P219"/>
-    <mergeCell ref="A7:T7"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="A60:T60"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="B80:T80"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="T28:T40"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="S198:T198"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="O198:P198"/>
+    <mergeCell ref="Q198:R198"/>
+    <mergeCell ref="S129:T129"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="O150:P150"/>
+    <mergeCell ref="Q150:R150"/>
+    <mergeCell ref="S150:T150"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="E129:F129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="K129:L129"/>
+    <mergeCell ref="M129:N129"/>
+    <mergeCell ref="O129:P129"/>
+    <mergeCell ref="Q129:R129"/>
+    <mergeCell ref="K130:L130"/>
+    <mergeCell ref="M130:N130"/>
+    <mergeCell ref="O130:P130"/>
+    <mergeCell ref="Q130:R130"/>
+    <mergeCell ref="S172:T172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="O167:P167"/>
+    <mergeCell ref="Q167:R167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="I168:J168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="I169:J169"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="Q162:R162"/>
+    <mergeCell ref="S162:T162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="O162:P162"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="I167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="O161:P161"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="I164:J164"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="I197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:R163"/>
+    <mergeCell ref="S163:T163"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="O164:P164"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="S164:T164"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="S165:T165"/>
+    <mergeCell ref="S166:T166"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="O173:P173"/>
+    <mergeCell ref="Q173:R173"/>
+    <mergeCell ref="S173:T173"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="O158:P158"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="O168:P168"/>
+    <mergeCell ref="Q168:R168"/>
+    <mergeCell ref="S168:T168"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="S161:T161"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="Q197:R197"/>
+    <mergeCell ref="B83:T83"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="A109:T109"/>
+    <mergeCell ref="Q128:R128"/>
+    <mergeCell ref="S128:T128"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="O155:P155"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="Q157:R157"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="O131:P131"/>
+    <mergeCell ref="Q131:R131"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="O132:P132"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="O134:P134"/>
+    <mergeCell ref="Q134:R134"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="O136:P136"/>
+    <mergeCell ref="Q136:R136"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="O139:P139"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="S139:T139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="O138:P138"/>
+    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="S140:T140"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="I149:J149"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="S149:T149"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="Q140:R140"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="Q153:R153"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="O156:P156"/>
+    <mergeCell ref="Q156:R156"/>
+    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="O152:P152"/>
+    <mergeCell ref="Q152:R152"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="O154:P154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="O160:P160"/>
+    <mergeCell ref="Q160:R160"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="O166:P166"/>
+    <mergeCell ref="Q166:R166"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="O165:P165"/>
+    <mergeCell ref="Q165:R165"/>
+    <mergeCell ref="S171:T171"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="I171:J171"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="O169:P169"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="O171:P171"/>
+    <mergeCell ref="Q170:R170"/>
+    <mergeCell ref="S169:T169"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="Q172:R172"/>
+    <mergeCell ref="Q171:R171"/>
+    <mergeCell ref="S174:T174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="O175:P175"/>
+    <mergeCell ref="Q175:R175"/>
+    <mergeCell ref="S175:T175"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="O174:P174"/>
+    <mergeCell ref="Q174:R174"/>
+    <mergeCell ref="S176:T176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="O177:P177"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="S177:T177"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="O176:P176"/>
+    <mergeCell ref="Q176:R176"/>
+    <mergeCell ref="S178:T178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="S179:T179"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="S180:T180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="Q181:R181"/>
+    <mergeCell ref="S181:T181"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="S182:T182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="I183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="Q183:R183"/>
+    <mergeCell ref="S183:T183"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="Q182:R182"/>
+    <mergeCell ref="S184:T184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="O185:P185"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="S185:T185"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="I184:J184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="O184:P184"/>
+    <mergeCell ref="Q184:R184"/>
+    <mergeCell ref="S186:T186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="Q187:R187"/>
+    <mergeCell ref="S187:T187"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="Q186:R186"/>
+    <mergeCell ref="S188:T188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="I189:J189"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="O189:P189"/>
+    <mergeCell ref="Q189:R189"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="I188:J188"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="O188:P188"/>
+    <mergeCell ref="Q188:R188"/>
+    <mergeCell ref="S190:T190"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="I199:J199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:N199"/>
+    <mergeCell ref="O199:P199"/>
+    <mergeCell ref="Q199:R199"/>
+    <mergeCell ref="S199:T199"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="I190:J190"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="O190:P190"/>
+    <mergeCell ref="Q190:R190"/>
+    <mergeCell ref="S197:T197"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="S200:T200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="I201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="S201:T201"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="I200:J200"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="Q200:R200"/>
+    <mergeCell ref="S202:T202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="I203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="O203:P203"/>
+    <mergeCell ref="Q203:R203"/>
+    <mergeCell ref="S203:T203"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="Q202:R202"/>
+    <mergeCell ref="S204:T204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="I205:J205"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="O205:P205"/>
+    <mergeCell ref="Q205:R205"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="I204:J204"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="M204:N204"/>
+    <mergeCell ref="O204:P204"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="S206:T206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="I207:J207"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="M207:N207"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="Q207:R207"/>
+    <mergeCell ref="S207:T207"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="I206:J206"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="O206:P206"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="S208:T208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="I209:J209"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="M209:N209"/>
+    <mergeCell ref="O209:P209"/>
+    <mergeCell ref="Q209:R209"/>
+    <mergeCell ref="S209:T209"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="I208:J208"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M208:N208"/>
+    <mergeCell ref="O208:P208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="S210:T210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="I211:J211"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="O211:P211"/>
+    <mergeCell ref="Q211:R211"/>
+    <mergeCell ref="S211:T211"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="I210:J210"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="O210:P210"/>
+    <mergeCell ref="Q210:R210"/>
+    <mergeCell ref="S212:T212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="M213:N213"/>
+    <mergeCell ref="O213:P213"/>
+    <mergeCell ref="Q213:R213"/>
+    <mergeCell ref="S213:T213"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="O212:P212"/>
+    <mergeCell ref="Q212:R212"/>
+    <mergeCell ref="M216:N216"/>
+    <mergeCell ref="O216:P216"/>
+    <mergeCell ref="Q216:R216"/>
+    <mergeCell ref="S214:T214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="I215:J215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="M215:N215"/>
+    <mergeCell ref="O215:P215"/>
+    <mergeCell ref="Q215:R215"/>
+    <mergeCell ref="S215:T215"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="I214:J214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="M214:N214"/>
+    <mergeCell ref="O214:P214"/>
+    <mergeCell ref="Q214:R214"/>
     <mergeCell ref="E218:F218"/>
     <mergeCell ref="G218:H218"/>
     <mergeCell ref="I218:J218"/>
@@ -8190,756 +8901,45 @@
     <mergeCell ref="G216:H216"/>
     <mergeCell ref="I216:J216"/>
     <mergeCell ref="K216:L216"/>
-    <mergeCell ref="M216:N216"/>
-    <mergeCell ref="O216:P216"/>
-    <mergeCell ref="Q216:R216"/>
-    <mergeCell ref="S214:T214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="I215:J215"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="M215:N215"/>
-    <mergeCell ref="O215:P215"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="S215:T215"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="I214:J214"/>
-    <mergeCell ref="K214:L214"/>
-    <mergeCell ref="M214:N214"/>
-    <mergeCell ref="O214:P214"/>
-    <mergeCell ref="Q214:R214"/>
-    <mergeCell ref="S212:T212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="I213:J213"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="M213:N213"/>
-    <mergeCell ref="O213:P213"/>
-    <mergeCell ref="Q213:R213"/>
-    <mergeCell ref="S213:T213"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="I212:J212"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="O212:P212"/>
-    <mergeCell ref="Q212:R212"/>
-    <mergeCell ref="S210:T210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="I211:J211"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="O211:P211"/>
-    <mergeCell ref="Q211:R211"/>
-    <mergeCell ref="S211:T211"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="I210:J210"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="O210:P210"/>
-    <mergeCell ref="Q210:R210"/>
-    <mergeCell ref="S208:T208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="I209:J209"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="M209:N209"/>
-    <mergeCell ref="O209:P209"/>
-    <mergeCell ref="Q209:R209"/>
-    <mergeCell ref="S209:T209"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="I208:J208"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M208:N208"/>
-    <mergeCell ref="O208:P208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="S206:T206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="I207:J207"/>
-    <mergeCell ref="K207:L207"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="S207:T207"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="I206:J206"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="O206:P206"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="S204:T204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="I205:J205"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="O205:P205"/>
-    <mergeCell ref="Q205:R205"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="I204:J204"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="M204:N204"/>
-    <mergeCell ref="O204:P204"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="S202:T202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="I203:J203"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="O203:P203"/>
-    <mergeCell ref="Q203:R203"/>
-    <mergeCell ref="S203:T203"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="I202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="O202:P202"/>
-    <mergeCell ref="Q202:R202"/>
-    <mergeCell ref="S200:T200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="I201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="S201:T201"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="I200:J200"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="O200:P200"/>
-    <mergeCell ref="Q200:R200"/>
-    <mergeCell ref="S190:T190"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="I199:J199"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="O199:P199"/>
-    <mergeCell ref="Q199:R199"/>
-    <mergeCell ref="S199:T199"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="I190:J190"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="O190:P190"/>
-    <mergeCell ref="Q190:R190"/>
-    <mergeCell ref="S197:T197"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="S188:T188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="I189:J189"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="O189:P189"/>
-    <mergeCell ref="Q189:R189"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="I188:J188"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="O188:P188"/>
-    <mergeCell ref="Q188:R188"/>
-    <mergeCell ref="S186:T186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="I187:J187"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="O187:P187"/>
-    <mergeCell ref="Q187:R187"/>
-    <mergeCell ref="S187:T187"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="Q186:R186"/>
-    <mergeCell ref="S184:T184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="O185:P185"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="S185:T185"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="I184:J184"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="O184:P184"/>
-    <mergeCell ref="Q184:R184"/>
-    <mergeCell ref="S182:T182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="S183:T183"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="Q182:R182"/>
-    <mergeCell ref="S180:T180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="K181:L181"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="Q181:R181"/>
-    <mergeCell ref="S181:T181"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="S178:T178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="S179:T179"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="S176:T176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="O177:P177"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="S177:T177"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="O176:P176"/>
-    <mergeCell ref="Q176:R176"/>
-    <mergeCell ref="S174:T174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="O175:P175"/>
-    <mergeCell ref="Q175:R175"/>
-    <mergeCell ref="S175:T175"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="O174:P174"/>
-    <mergeCell ref="Q174:R174"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="Q172:R172"/>
-    <mergeCell ref="Q171:R171"/>
-    <mergeCell ref="S171:T171"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="I171:J171"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="O169:P169"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="O171:P171"/>
-    <mergeCell ref="Q170:R170"/>
-    <mergeCell ref="S169:T169"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="I165:J165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="O165:P165"/>
-    <mergeCell ref="Q165:R165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="O166:P166"/>
-    <mergeCell ref="Q166:R166"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="O160:P160"/>
-    <mergeCell ref="Q160:R160"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="O156:P156"/>
-    <mergeCell ref="Q156:R156"/>
-    <mergeCell ref="S151:T151"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="Q152:R152"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="O154:P154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="Q153:R153"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="S140:T140"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="S149:T149"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="Q140:R140"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="O139:P139"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="S139:T139"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="O138:P138"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="K136:L136"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="Q136:R136"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="O134:P134"/>
-    <mergeCell ref="Q134:R134"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="Q133:R133"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="O132:P132"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="O131:P131"/>
-    <mergeCell ref="Q131:R131"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="A7:T7"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="A60:T60"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="B80:T80"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="T28:T40"/>
     <mergeCell ref="B66:T66"/>
     <mergeCell ref="B69:T69"/>
     <mergeCell ref="B70:T70"/>
     <mergeCell ref="B73:Q73"/>
     <mergeCell ref="B76:Q76"/>
-    <mergeCell ref="Q197:R197"/>
-    <mergeCell ref="B83:T83"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="A109:T109"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="S128:T128"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="O155:P155"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="Q157:R157"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="O158:P158"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="O168:P168"/>
-    <mergeCell ref="Q168:R168"/>
-    <mergeCell ref="S168:T168"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="I197:J197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:R163"/>
-    <mergeCell ref="S163:T163"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="O164:P164"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="S164:T164"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="S165:T165"/>
-    <mergeCell ref="S166:T166"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="O173:P173"/>
-    <mergeCell ref="Q173:R173"/>
-    <mergeCell ref="S173:T173"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="O161:P161"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="S161:T161"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="O162:P162"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="O159:P159"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="Q162:R162"/>
-    <mergeCell ref="S162:T162"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="I167:J167"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="I164:J164"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="S172:T172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="O167:P167"/>
-    <mergeCell ref="Q167:R167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="I168:J168"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="I169:J169"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="S129:T129"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="I150:J150"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="O150:P150"/>
-    <mergeCell ref="Q150:R150"/>
-    <mergeCell ref="S150:T150"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
-    <mergeCell ref="E129:F129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="K129:L129"/>
-    <mergeCell ref="M129:N129"/>
-    <mergeCell ref="O129:P129"/>
-    <mergeCell ref="Q129:R129"/>
-    <mergeCell ref="K130:L130"/>
-    <mergeCell ref="M130:N130"/>
-    <mergeCell ref="O130:P130"/>
-    <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="S198:T198"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="I198:J198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="O198:P198"/>
-    <mergeCell ref="Q198:R198"/>
+    <mergeCell ref="Q220:R220"/>
+    <mergeCell ref="S220:T220"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="Q219:R219"/>
+    <mergeCell ref="S219:T219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="M220:N220"/>
+    <mergeCell ref="O220:P220"/>
+    <mergeCell ref="S218:T218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="I219:J219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="M219:N219"/>
+    <mergeCell ref="O219:P219"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/app/export/pdf_template.xlsx
+++ b/app/export/pdf_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\Main Code\DC-Boxjelly\app\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\confirm\DC-Boxjelly\app\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296F0B73-3B9D-42C8-A72C-968E6A8394B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EFD3FA-7A50-447A-8C67-72869E0A45C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="5955" windowWidth="15375" windowHeight="7875" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEXReport" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="183">
   <si>
     <t>Primary Standards Dosimetry Laboratory,  Medical Radiation Services</t>
   </si>
@@ -667,6 +667,9 @@
   </si>
   <si>
     <t>Figure 1: Calibration coefficients for IBA FC65-G serial number 457 grouped by kVp</t>
+  </si>
+  <si>
+    <t>-300v</t>
   </si>
 </sst>
 </file>
@@ -1463,7 +1466,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="19"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1581,24 +1584,235 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1611,19 +1825,7 @@
     <xf numFmtId="164" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1658,229 +1860,31 @@
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2672,8 +2676,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:X312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L94" sqref="L94"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -2691,100 +2695,100 @@
     <row r="1" spans="1:20" ht="12" customHeight="1"/>
     <row r="6" spans="1:20" ht="8.25" customHeight="1"/>
     <row r="7" spans="1:20" ht="12.75" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="115"/>
+      <c r="R7" s="115"/>
+      <c r="S7" s="115"/>
+      <c r="T7" s="115"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="80" t="s">
+      <c r="A8" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
-      <c r="M8" s="67"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="115"/>
+      <c r="P8" s="115"/>
+      <c r="Q8" s="115"/>
+      <c r="R8" s="115"/>
+      <c r="S8" s="115"/>
+      <c r="T8" s="115"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="67"/>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
+      <c r="Q9" s="115"/>
+      <c r="R9" s="115"/>
+      <c r="S9" s="115"/>
+      <c r="T9" s="115"/>
     </row>
     <row r="10" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A10" s="82" t="s">
+      <c r="A10" s="153" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
-      <c r="R10" s="83"/>
-      <c r="S10" s="83"/>
-      <c r="T10" s="83"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="154"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
+      <c r="K10" s="154"/>
+      <c r="L10" s="154"/>
+      <c r="M10" s="154"/>
+      <c r="N10" s="154"/>
+      <c r="O10" s="154"/>
+      <c r="P10" s="154"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="154"/>
+      <c r="S10" s="154"/>
+      <c r="T10" s="154"/>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1">
       <c r="A11" s="22"/>
@@ -2854,76 +2858,76 @@
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="67"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
-      <c r="P14" s="67"/>
-      <c r="Q14" s="67"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="115"/>
+      <c r="P14" s="115"/>
+      <c r="Q14" s="115"/>
+      <c r="R14" s="115"/>
+      <c r="S14" s="115"/>
+      <c r="T14" s="115"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1">
-      <c r="A15" s="85" t="s">
+      <c r="A15" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="115"/>
+      <c r="P15" s="115"/>
+      <c r="Q15" s="115"/>
+      <c r="R15" s="115"/>
+      <c r="S15" s="115"/>
+      <c r="T15" s="115"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="156" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-      <c r="N16" s="67"/>
-      <c r="O16" s="67"/>
-      <c r="P16" s="67"/>
-      <c r="Q16" s="67"/>
-      <c r="R16" s="67"/>
-      <c r="S16" s="67"/>
-      <c r="T16" s="67"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="115"/>
+      <c r="P16" s="115"/>
+      <c r="Q16" s="115"/>
+      <c r="R16" s="115"/>
+      <c r="S16" s="115"/>
+      <c r="T16" s="115"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1"/>
     <row r="18" spans="1:20" ht="14.1" customHeight="1">
@@ -3174,7 +3178,7 @@
       <c r="P28" s="13"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="89" t="s">
+      <c r="T28" s="160" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3197,7 +3201,7 @@
       <c r="P29" s="13"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
-      <c r="T29" s="67"/>
+      <c r="T29" s="115"/>
     </row>
     <row r="30" spans="1:20" ht="15.95" customHeight="1">
       <c r="A30" s="14" t="s">
@@ -3222,7 +3226,7 @@
       <c r="P30" s="13"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
-      <c r="T30" s="67"/>
+      <c r="T30" s="115"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
@@ -3247,7 +3251,7 @@
       <c r="P31" s="13"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
-      <c r="T31" s="67"/>
+      <c r="T31" s="115"/>
     </row>
     <row r="32" spans="1:20" ht="15.95" customHeight="1">
       <c r="A32" s="14" t="s">
@@ -3272,7 +3276,7 @@
       <c r="P32" s="13"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
-      <c r="T32" s="67"/>
+      <c r="T32" s="115"/>
     </row>
     <row r="33" spans="1:20" ht="15.95" customHeight="1">
       <c r="A33" s="14"/>
@@ -3293,7 +3297,7 @@
       <c r="P33" s="13"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="67"/>
+      <c r="T33" s="115"/>
     </row>
     <row r="34" spans="1:20" ht="15.95" customHeight="1">
       <c r="A34" s="13" t="s">
@@ -3318,7 +3322,7 @@
       <c r="P34" s="13"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
-      <c r="T34" s="67"/>
+      <c r="T34" s="115"/>
     </row>
     <row r="35" spans="1:20" ht="15.95" customHeight="1">
       <c r="A35" s="14" t="s">
@@ -3343,7 +3347,7 @@
       <c r="P35" s="13"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
-      <c r="T35" s="67"/>
+      <c r="T35" s="115"/>
     </row>
     <row r="36" spans="1:20" ht="12.95" customHeight="1">
       <c r="A36" s="13"/>
@@ -3364,7 +3368,7 @@
       <c r="P36" s="13"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
-      <c r="T36" s="67"/>
+      <c r="T36" s="115"/>
     </row>
     <row r="37" spans="1:20" ht="27" hidden="1" customHeight="1">
       <c r="A37" s="13"/>
@@ -3386,7 +3390,7 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
-      <c r="T37" s="67"/>
+      <c r="T37" s="115"/>
     </row>
     <row r="38" spans="1:20" ht="15.95" customHeight="1">
       <c r="A38" s="13" t="s">
@@ -3408,12 +3412,12 @@
       <c r="N38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O38" s="87"/>
-      <c r="P38" s="88"/>
-      <c r="Q38" s="88"/>
-      <c r="R38" s="88"/>
+      <c r="O38" s="158"/>
+      <c r="P38" s="159"/>
+      <c r="Q38" s="159"/>
+      <c r="R38" s="159"/>
       <c r="S38" s="22"/>
-      <c r="T38" s="67"/>
+      <c r="T38" s="115"/>
     </row>
     <row r="39" spans="1:20" ht="15.95" customHeight="1">
       <c r="A39" s="13"/>
@@ -3435,7 +3439,7 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
-      <c r="T39" s="67"/>
+      <c r="T39" s="115"/>
     </row>
     <row r="40" spans="1:20" ht="15.95" customHeight="1">
       <c r="A40" s="5" t="s">
@@ -3459,7 +3463,7 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
-      <c r="T40" s="67"/>
+      <c r="T40" s="115"/>
     </row>
     <row r="41" spans="1:20" ht="15.95" customHeight="1">
       <c r="A41" s="13" t="s">
@@ -3655,28 +3659,28 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="15.95" customHeight="1">
-      <c r="A60" s="84" t="s">
+      <c r="A60" s="155" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="67"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="67"/>
-      <c r="J60" s="67"/>
-      <c r="K60" s="67"/>
-      <c r="L60" s="67"/>
-      <c r="M60" s="67"/>
-      <c r="N60" s="67"/>
-      <c r="O60" s="67"/>
-      <c r="P60" s="67"/>
-      <c r="Q60" s="67"/>
-      <c r="R60" s="67"/>
-      <c r="S60" s="67"/>
-      <c r="T60" s="67"/>
+      <c r="B60" s="115"/>
+      <c r="C60" s="115"/>
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
+      <c r="L60" s="115"/>
+      <c r="M60" s="115"/>
+      <c r="N60" s="115"/>
+      <c r="O60" s="115"/>
+      <c r="P60" s="115"/>
+      <c r="Q60" s="115"/>
+      <c r="R60" s="115"/>
+      <c r="S60" s="115"/>
+      <c r="T60" s="115"/>
     </row>
     <row r="61" spans="1:20" ht="15.95" customHeight="1">
       <c r="A61" s="13"/>
@@ -3785,27 +3789,27 @@
       <c r="A66" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="156" t="s">
+      <c r="B66" s="161" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
-      <c r="F66" s="67"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="67"/>
-      <c r="J66" s="67"/>
-      <c r="K66" s="67"/>
-      <c r="L66" s="67"/>
-      <c r="M66" s="67"/>
-      <c r="N66" s="67"/>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="67"/>
-      <c r="R66" s="67"/>
-      <c r="S66" s="67"/>
-      <c r="T66" s="67"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="115"/>
+      <c r="I66" s="115"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="115"/>
+      <c r="L66" s="115"/>
+      <c r="M66" s="115"/>
+      <c r="N66" s="115"/>
+      <c r="O66" s="115"/>
+      <c r="P66" s="115"/>
+      <c r="Q66" s="115"/>
+      <c r="R66" s="115"/>
+      <c r="S66" s="115"/>
+      <c r="T66" s="115"/>
     </row>
     <row r="67" spans="1:20" ht="15.95" customHeight="1">
       <c r="A67" s="12"/>
@@ -3851,53 +3855,53 @@
       <c r="A69" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="157" t="s">
+      <c r="B69" s="114" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="67"/>
-      <c r="O69" s="67"/>
-      <c r="P69" s="67"/>
-      <c r="Q69" s="67"/>
-      <c r="R69" s="67"/>
-      <c r="S69" s="67"/>
-      <c r="T69" s="67"/>
+      <c r="C69" s="115"/>
+      <c r="D69" s="115"/>
+      <c r="E69" s="115"/>
+      <c r="F69" s="115"/>
+      <c r="G69" s="115"/>
+      <c r="H69" s="115"/>
+      <c r="I69" s="115"/>
+      <c r="J69" s="115"/>
+      <c r="K69" s="115"/>
+      <c r="L69" s="115"/>
+      <c r="M69" s="115"/>
+      <c r="N69" s="115"/>
+      <c r="O69" s="115"/>
+      <c r="P69" s="115"/>
+      <c r="Q69" s="115"/>
+      <c r="R69" s="115"/>
+      <c r="S69" s="115"/>
+      <c r="T69" s="115"/>
     </row>
     <row r="70" spans="1:20" ht="33" customHeight="1">
       <c r="A70" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="157" t="s">
+      <c r="B70" s="114" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
-      <c r="F70" s="67"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="67"/>
-      <c r="J70" s="67"/>
-      <c r="K70" s="67"/>
-      <c r="L70" s="67"/>
-      <c r="M70" s="67"/>
-      <c r="N70" s="67"/>
-      <c r="O70" s="67"/>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="67"/>
-      <c r="R70" s="67"/>
-      <c r="S70" s="67"/>
-      <c r="T70" s="67"/>
+      <c r="C70" s="115"/>
+      <c r="D70" s="115"/>
+      <c r="E70" s="115"/>
+      <c r="F70" s="115"/>
+      <c r="G70" s="115"/>
+      <c r="H70" s="115"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="115"/>
+      <c r="K70" s="115"/>
+      <c r="L70" s="115"/>
+      <c r="M70" s="115"/>
+      <c r="N70" s="115"/>
+      <c r="O70" s="115"/>
+      <c r="P70" s="115"/>
+      <c r="Q70" s="115"/>
+      <c r="R70" s="115"/>
+      <c r="S70" s="115"/>
+      <c r="T70" s="115"/>
     </row>
     <row r="72" spans="1:20" ht="15.95" customHeight="1">
       <c r="A72" s="15" t="s">
@@ -3908,24 +3912,24 @@
       <c r="A73" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="156" t="s">
+      <c r="B73" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="67"/>
-      <c r="O73" s="67"/>
-      <c r="P73" s="67"/>
-      <c r="Q73" s="67"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="115"/>
+      <c r="G73" s="115"/>
+      <c r="H73" s="115"/>
+      <c r="I73" s="115"/>
+      <c r="J73" s="115"/>
+      <c r="K73" s="115"/>
+      <c r="L73" s="115"/>
+      <c r="M73" s="115"/>
+      <c r="N73" s="115"/>
+      <c r="O73" s="115"/>
+      <c r="P73" s="115"/>
+      <c r="Q73" s="115"/>
     </row>
     <row r="74" spans="1:20" ht="15.95" customHeight="1">
       <c r="A74" s="15"/>
@@ -3939,24 +3943,24 @@
       <c r="A76" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="156" t="s">
+      <c r="B76" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="67"/>
-      <c r="D76" s="67"/>
-      <c r="E76" s="67"/>
-      <c r="F76" s="67"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="67"/>
-      <c r="J76" s="67"/>
-      <c r="K76" s="67"/>
-      <c r="L76" s="67"/>
-      <c r="M76" s="67"/>
-      <c r="N76" s="67"/>
-      <c r="O76" s="67"/>
-      <c r="P76" s="67"/>
-      <c r="Q76" s="67"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="115"/>
+      <c r="G76" s="115"/>
+      <c r="H76" s="115"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="115"/>
+      <c r="K76" s="115"/>
+      <c r="L76" s="115"/>
+      <c r="M76" s="115"/>
+      <c r="N76" s="115"/>
+      <c r="O76" s="115"/>
+      <c r="P76" s="115"/>
+      <c r="Q76" s="115"/>
     </row>
     <row r="77" spans="1:20" ht="15.95" customHeight="1">
       <c r="A77" s="24"/>
@@ -4021,27 +4025,27 @@
       <c r="A80" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="86" t="s">
+      <c r="B80" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="67"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="67"/>
-      <c r="F80" s="67"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="67"/>
-      <c r="J80" s="67"/>
-      <c r="K80" s="67"/>
-      <c r="L80" s="67"/>
-      <c r="M80" s="67"/>
-      <c r="N80" s="67"/>
-      <c r="O80" s="67"/>
-      <c r="P80" s="67"/>
-      <c r="Q80" s="67"/>
-      <c r="R80" s="67"/>
-      <c r="S80" s="67"/>
-      <c r="T80" s="67"/>
+      <c r="C80" s="115"/>
+      <c r="D80" s="115"/>
+      <c r="E80" s="115"/>
+      <c r="F80" s="115"/>
+      <c r="G80" s="115"/>
+      <c r="H80" s="115"/>
+      <c r="I80" s="115"/>
+      <c r="J80" s="115"/>
+      <c r="K80" s="115"/>
+      <c r="L80" s="115"/>
+      <c r="M80" s="115"/>
+      <c r="N80" s="115"/>
+      <c r="O80" s="115"/>
+      <c r="P80" s="115"/>
+      <c r="Q80" s="115"/>
+      <c r="R80" s="115"/>
+      <c r="S80" s="115"/>
+      <c r="T80" s="115"/>
     </row>
     <row r="81" spans="1:20" ht="15" customHeight="1">
       <c r="A81" s="15"/>
@@ -4087,27 +4091,27 @@
       <c r="A83" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="157" t="s">
+      <c r="B83" s="114" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="67"/>
-      <c r="R83" s="67"/>
-      <c r="S83" s="67"/>
-      <c r="T83" s="67"/>
+      <c r="C83" s="115"/>
+      <c r="D83" s="115"/>
+      <c r="E83" s="115"/>
+      <c r="F83" s="115"/>
+      <c r="G83" s="115"/>
+      <c r="H83" s="115"/>
+      <c r="I83" s="115"/>
+      <c r="J83" s="115"/>
+      <c r="K83" s="115"/>
+      <c r="L83" s="115"/>
+      <c r="M83" s="115"/>
+      <c r="N83" s="115"/>
+      <c r="O83" s="115"/>
+      <c r="P83" s="115"/>
+      <c r="Q83" s="115"/>
+      <c r="R83" s="115"/>
+      <c r="S83" s="115"/>
+      <c r="T83" s="115"/>
     </row>
     <row r="84" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="15"/>
@@ -4180,28 +4184,28 @@
       <c r="U103" s="31"/>
     </row>
     <row r="109" spans="1:21" ht="31.5" customHeight="1">
-      <c r="A109" s="66" t="s">
+      <c r="A109" s="117" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="67"/>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67"/>
-      <c r="K109" s="67"/>
-      <c r="L109" s="67"/>
-      <c r="M109" s="67"/>
-      <c r="N109" s="67"/>
-      <c r="O109" s="67"/>
-      <c r="P109" s="67"/>
-      <c r="Q109" s="67"/>
-      <c r="R109" s="67"/>
-      <c r="S109" s="67"/>
-      <c r="T109" s="67"/>
+      <c r="B109" s="115"/>
+      <c r="C109" s="115"/>
+      <c r="D109" s="115"/>
+      <c r="E109" s="115"/>
+      <c r="F109" s="115"/>
+      <c r="G109" s="115"/>
+      <c r="H109" s="115"/>
+      <c r="I109" s="115"/>
+      <c r="J109" s="115"/>
+      <c r="K109" s="115"/>
+      <c r="L109" s="115"/>
+      <c r="M109" s="115"/>
+      <c r="N109" s="115"/>
+      <c r="O109" s="115"/>
+      <c r="P109" s="115"/>
+      <c r="Q109" s="115"/>
+      <c r="R109" s="115"/>
+      <c r="S109" s="115"/>
+      <c r="T109" s="115"/>
     </row>
     <row r="110" spans="1:21" ht="14.1" customHeight="1">
       <c r="A110" s="22"/>
@@ -4274,8 +4278,8 @@
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
-      <c r="G113" s="32">
-        <v>-300</v>
+      <c r="G113" s="169" t="s">
+        <v>182</v>
       </c>
       <c r="H113" s="32"/>
       <c r="I113" s="32"/>
@@ -4581,526 +4585,526 @@
       <c r="Q127" s="22"/>
     </row>
     <row r="128" spans="1:20" ht="59.25" customHeight="1">
-      <c r="A128" s="155" t="s">
+      <c r="A128" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="B128" s="91"/>
-      <c r="C128" s="155" t="s">
+      <c r="B128" s="66"/>
+      <c r="C128" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="D128" s="91"/>
-      <c r="E128" s="155" t="s">
+      <c r="D128" s="66"/>
+      <c r="E128" s="116" t="s">
         <v>78</v>
       </c>
-      <c r="F128" s="91"/>
-      <c r="G128" s="155" t="s">
+      <c r="F128" s="66"/>
+      <c r="G128" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="H128" s="91"/>
-      <c r="I128" s="155" t="s">
+      <c r="H128" s="66"/>
+      <c r="I128" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="J128" s="91"/>
-      <c r="K128" s="155" t="s">
+      <c r="J128" s="66"/>
+      <c r="K128" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="L128" s="91"/>
-      <c r="M128" s="155" t="s">
+      <c r="L128" s="66"/>
+      <c r="M128" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="N128" s="91"/>
-      <c r="O128" s="155" t="s">
+      <c r="N128" s="66"/>
+      <c r="O128" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="P128" s="91"/>
-      <c r="Q128" s="159" t="s">
+      <c r="P128" s="66"/>
+      <c r="Q128" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="R128" s="91"/>
-      <c r="S128" s="155" t="s">
+      <c r="R128" s="66"/>
+      <c r="S128" s="116" t="s">
         <v>84</v>
       </c>
-      <c r="T128" s="91"/>
+      <c r="T128" s="66"/>
     </row>
     <row r="129" spans="1:20" ht="30" customHeight="1">
-      <c r="A129" s="165"/>
-      <c r="B129" s="164"/>
-      <c r="C129" s="163" t="s">
+      <c r="A129" s="64"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D129" s="164"/>
-      <c r="E129" s="163" t="s">
+      <c r="D129" s="63"/>
+      <c r="E129" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F129" s="164"/>
-      <c r="G129" s="163" t="s">
+      <c r="F129" s="63"/>
+      <c r="G129" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="H129" s="164"/>
-      <c r="I129" s="163" t="s">
+      <c r="H129" s="63"/>
+      <c r="I129" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="J129" s="164"/>
-      <c r="K129" s="163" t="s">
+      <c r="J129" s="63"/>
+      <c r="K129" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L129" s="164"/>
-      <c r="M129" s="163" t="s">
+      <c r="L129" s="63"/>
+      <c r="M129" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="N129" s="164"/>
-      <c r="O129" s="163" t="s">
+      <c r="N129" s="63"/>
+      <c r="O129" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="P129" s="164"/>
-      <c r="Q129" s="163" t="s">
+      <c r="P129" s="63"/>
+      <c r="Q129" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R129" s="164"/>
-      <c r="S129" s="163" t="s">
+      <c r="R129" s="63"/>
+      <c r="S129" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="T129" s="164"/>
+      <c r="T129" s="63"/>
     </row>
     <row r="130" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A130" s="160" t="s">
+      <c r="A130" s="119" t="s">
         <v>106</v>
       </c>
-      <c r="B130" s="91"/>
-      <c r="C130" s="160">
+      <c r="B130" s="66"/>
+      <c r="C130" s="119">
         <v>50</v>
       </c>
-      <c r="D130" s="91"/>
-      <c r="E130" s="161">
+      <c r="D130" s="66"/>
+      <c r="E130" s="120">
         <v>4</v>
       </c>
-      <c r="F130" s="91"/>
-      <c r="G130" s="160"/>
-      <c r="H130" s="91"/>
-      <c r="I130" s="162">
+      <c r="F130" s="66"/>
+      <c r="G130" s="119"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="121">
         <v>2.39</v>
       </c>
-      <c r="J130" s="91"/>
-      <c r="K130" s="166">
+      <c r="J130" s="66"/>
+      <c r="K130" s="65">
         <v>0.08</v>
       </c>
-      <c r="L130" s="91"/>
-      <c r="M130" s="167">
+      <c r="L130" s="66"/>
+      <c r="M130" s="67">
         <v>29.93</v>
       </c>
-      <c r="N130" s="91"/>
-      <c r="O130" s="167">
+      <c r="N130" s="66"/>
+      <c r="O130" s="67">
         <v>0.4</v>
       </c>
-      <c r="P130" s="91"/>
-      <c r="Q130" s="168">
+      <c r="P130" s="66"/>
+      <c r="Q130" s="68">
         <v>43.09</v>
       </c>
-      <c r="R130" s="107"/>
-      <c r="S130" s="161">
+      <c r="R130" s="69"/>
+      <c r="S130" s="120">
         <v>1.4</v>
       </c>
-      <c r="T130" s="91"/>
+      <c r="T130" s="66"/>
     </row>
     <row r="131" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A131" s="145" t="s">
+      <c r="A131" s="124" t="s">
         <v>107</v>
       </c>
-      <c r="B131" s="93"/>
-      <c r="C131" s="145">
+      <c r="B131" s="72"/>
+      <c r="C131" s="124">
         <v>70</v>
       </c>
-      <c r="D131" s="93"/>
-      <c r="E131" s="146">
+      <c r="D131" s="72"/>
+      <c r="E131" s="129">
         <v>4</v>
       </c>
-      <c r="F131" s="93"/>
-      <c r="G131" s="145"/>
-      <c r="H131" s="93"/>
-      <c r="I131" s="154">
+      <c r="F131" s="72"/>
+      <c r="G131" s="124"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="125">
         <v>3.19</v>
       </c>
-      <c r="J131" s="93"/>
-      <c r="K131" s="147">
+      <c r="J131" s="72"/>
+      <c r="K131" s="126">
         <v>0.11</v>
       </c>
-      <c r="L131" s="93"/>
-      <c r="M131" s="148">
+      <c r="L131" s="72"/>
+      <c r="M131" s="127">
         <v>34.270000000000003</v>
       </c>
-      <c r="N131" s="93"/>
-      <c r="O131" s="148">
+      <c r="N131" s="72"/>
+      <c r="O131" s="127">
         <v>0.8</v>
       </c>
-      <c r="P131" s="93"/>
-      <c r="Q131" s="149">
+      <c r="P131" s="72"/>
+      <c r="Q131" s="128">
         <v>42.83</v>
       </c>
-      <c r="R131" s="100"/>
-      <c r="S131" s="146">
+      <c r="R131" s="79"/>
+      <c r="S131" s="129">
         <v>1.4</v>
       </c>
-      <c r="T131" s="93"/>
+      <c r="T131" s="72"/>
     </row>
     <row r="132" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A132" s="150" t="s">
+      <c r="A132" s="131" t="s">
         <v>108</v>
       </c>
-      <c r="B132" s="93"/>
-      <c r="C132" s="150">
+      <c r="B132" s="72"/>
+      <c r="C132" s="131">
         <v>100</v>
       </c>
-      <c r="D132" s="93"/>
-      <c r="E132" s="143">
+      <c r="D132" s="72"/>
+      <c r="E132" s="130">
         <v>4.5</v>
       </c>
-      <c r="F132" s="93"/>
-      <c r="G132" s="150"/>
-      <c r="H132" s="93"/>
-      <c r="I132" s="153">
+      <c r="F132" s="72"/>
+      <c r="G132" s="131"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="132">
         <v>4.74</v>
       </c>
-      <c r="J132" s="93"/>
-      <c r="K132" s="151">
+      <c r="J132" s="72"/>
+      <c r="K132" s="133">
         <v>0.18</v>
       </c>
-      <c r="L132" s="93"/>
-      <c r="M132" s="152">
+      <c r="L132" s="72"/>
+      <c r="M132" s="134">
         <v>41.59</v>
       </c>
-      <c r="N132" s="93"/>
-      <c r="O132" s="152">
+      <c r="N132" s="72"/>
+      <c r="O132" s="134">
         <v>1.6</v>
       </c>
-      <c r="P132" s="93"/>
-      <c r="Q132" s="149">
+      <c r="P132" s="72"/>
+      <c r="Q132" s="128">
         <v>42.51</v>
       </c>
-      <c r="R132" s="100"/>
-      <c r="S132" s="143">
+      <c r="R132" s="79"/>
+      <c r="S132" s="130">
         <v>1.4</v>
       </c>
-      <c r="T132" s="93"/>
+      <c r="T132" s="72"/>
     </row>
     <row r="133" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A133" s="145" t="s">
+      <c r="A133" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="B133" s="93"/>
-      <c r="C133" s="145">
+      <c r="B133" s="72"/>
+      <c r="C133" s="124">
         <v>120</v>
       </c>
-      <c r="D133" s="93"/>
-      <c r="E133" s="146">
+      <c r="D133" s="72"/>
+      <c r="E133" s="129">
         <v>6</v>
       </c>
-      <c r="F133" s="93"/>
-      <c r="G133" s="145"/>
-      <c r="H133" s="93"/>
-      <c r="I133" s="154">
+      <c r="F133" s="72"/>
+      <c r="G133" s="124"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="125">
         <v>6.38</v>
       </c>
-      <c r="J133" s="93"/>
-      <c r="K133" s="147">
+      <c r="J133" s="72"/>
+      <c r="K133" s="126">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L133" s="93"/>
-      <c r="M133" s="148">
+      <c r="L133" s="72"/>
+      <c r="M133" s="127">
         <v>48.95</v>
       </c>
-      <c r="N133" s="93"/>
-      <c r="O133" s="148">
+      <c r="N133" s="72"/>
+      <c r="O133" s="127">
         <v>1.8</v>
       </c>
-      <c r="P133" s="93"/>
-      <c r="Q133" s="149">
+      <c r="P133" s="72"/>
+      <c r="Q133" s="128">
         <v>42.17</v>
       </c>
-      <c r="R133" s="100"/>
-      <c r="S133" s="146">
+      <c r="R133" s="79"/>
+      <c r="S133" s="129">
         <v>1.4</v>
       </c>
-      <c r="T133" s="93"/>
+      <c r="T133" s="72"/>
     </row>
     <row r="134" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A134" s="150" t="s">
+      <c r="A134" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="B134" s="93"/>
-      <c r="C134" s="150">
+      <c r="B134" s="72"/>
+      <c r="C134" s="131">
         <v>140</v>
       </c>
-      <c r="D134" s="93"/>
-      <c r="E134" s="143">
+      <c r="D134" s="72"/>
+      <c r="E134" s="130">
         <v>9</v>
       </c>
-      <c r="F134" s="93"/>
-      <c r="G134" s="150"/>
-      <c r="H134" s="93"/>
-      <c r="I134" s="153">
+      <c r="F134" s="72"/>
+      <c r="G134" s="131"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="132">
         <v>8.44</v>
       </c>
-      <c r="J134" s="93"/>
-      <c r="K134" s="151">
+      <c r="J134" s="72"/>
+      <c r="K134" s="133">
         <v>0.45</v>
       </c>
-      <c r="L134" s="93"/>
-      <c r="M134" s="152">
+      <c r="L134" s="72"/>
+      <c r="M134" s="134">
         <v>58.06</v>
       </c>
-      <c r="N134" s="93"/>
-      <c r="O134" s="152">
+      <c r="N134" s="72"/>
+      <c r="O134" s="134">
         <v>1.8</v>
       </c>
-      <c r="P134" s="93"/>
-      <c r="Q134" s="149">
+      <c r="P134" s="72"/>
+      <c r="Q134" s="128">
         <v>41.94</v>
       </c>
-      <c r="R134" s="100"/>
-      <c r="S134" s="143">
+      <c r="R134" s="79"/>
+      <c r="S134" s="130">
         <v>1.4</v>
       </c>
-      <c r="T134" s="93"/>
+      <c r="T134" s="72"/>
     </row>
     <row r="135" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A135" s="145" t="s">
+      <c r="A135" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="B135" s="93"/>
-      <c r="C135" s="145">
+      <c r="B135" s="72"/>
+      <c r="C135" s="124">
         <v>150</v>
       </c>
-      <c r="D135" s="93"/>
-      <c r="E135" s="146">
+      <c r="D135" s="72"/>
+      <c r="E135" s="129">
         <v>4</v>
       </c>
-      <c r="F135" s="93"/>
-      <c r="G135" s="146">
+      <c r="F135" s="72"/>
+      <c r="G135" s="129">
         <v>0.5</v>
       </c>
-      <c r="H135" s="93"/>
-      <c r="I135" s="145"/>
-      <c r="J135" s="93"/>
-      <c r="K135" s="147">
+      <c r="H135" s="72"/>
+      <c r="I135" s="124"/>
+      <c r="J135" s="72"/>
+      <c r="K135" s="126">
         <v>0.84</v>
       </c>
-      <c r="L135" s="93"/>
-      <c r="M135" s="148">
+      <c r="L135" s="72"/>
+      <c r="M135" s="127">
         <v>72.150000000000006</v>
       </c>
-      <c r="N135" s="93"/>
-      <c r="O135" s="148">
+      <c r="N135" s="72"/>
+      <c r="O135" s="127">
         <v>1.4</v>
       </c>
-      <c r="P135" s="93"/>
-      <c r="Q135" s="149">
+      <c r="P135" s="72"/>
+      <c r="Q135" s="128">
         <v>41.58</v>
       </c>
-      <c r="R135" s="100"/>
-      <c r="S135" s="146">
+      <c r="R135" s="79"/>
+      <c r="S135" s="129">
         <v>1.4</v>
       </c>
-      <c r="T135" s="93"/>
+      <c r="T135" s="72"/>
     </row>
     <row r="136" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A136" s="150" t="s">
+      <c r="A136" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B136" s="93"/>
-      <c r="C136" s="150">
+      <c r="B136" s="72"/>
+      <c r="C136" s="131">
         <v>200</v>
       </c>
-      <c r="D136" s="93"/>
-      <c r="E136" s="143">
+      <c r="D136" s="72"/>
+      <c r="E136" s="130">
         <v>4</v>
       </c>
-      <c r="F136" s="93"/>
-      <c r="G136" s="143">
+      <c r="F136" s="72"/>
+      <c r="G136" s="130">
         <v>1</v>
       </c>
-      <c r="H136" s="93"/>
-      <c r="I136" s="150"/>
-      <c r="J136" s="93"/>
-      <c r="K136" s="151">
+      <c r="H136" s="72"/>
+      <c r="I136" s="131"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="133">
         <v>1.63</v>
       </c>
-      <c r="L136" s="93"/>
-      <c r="M136" s="152">
+      <c r="L136" s="72"/>
+      <c r="M136" s="134">
         <v>94.74</v>
       </c>
-      <c r="N136" s="93"/>
-      <c r="O136" s="152">
+      <c r="N136" s="72"/>
+      <c r="O136" s="134">
         <v>1.6</v>
       </c>
-      <c r="P136" s="93"/>
-      <c r="Q136" s="149">
+      <c r="P136" s="72"/>
+      <c r="Q136" s="128">
         <v>41.29</v>
       </c>
-      <c r="R136" s="100"/>
-      <c r="S136" s="143">
+      <c r="R136" s="79"/>
+      <c r="S136" s="130">
         <v>1.4</v>
       </c>
-      <c r="T136" s="93"/>
+      <c r="T136" s="72"/>
     </row>
     <row r="137" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A137" s="145" t="s">
+      <c r="A137" s="124" t="s">
         <v>113</v>
       </c>
-      <c r="B137" s="93"/>
-      <c r="C137" s="145">
+      <c r="B137" s="72"/>
+      <c r="C137" s="124">
         <v>250</v>
       </c>
-      <c r="D137" s="93"/>
-      <c r="E137" s="146">
+      <c r="D137" s="72"/>
+      <c r="E137" s="129">
         <v>4</v>
       </c>
-      <c r="F137" s="93"/>
-      <c r="G137" s="146">
+      <c r="F137" s="72"/>
+      <c r="G137" s="129">
         <v>1.6</v>
       </c>
-      <c r="H137" s="93"/>
-      <c r="I137" s="145"/>
-      <c r="J137" s="93"/>
-      <c r="K137" s="147">
+      <c r="H137" s="72"/>
+      <c r="I137" s="124"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="126">
         <v>2.57</v>
       </c>
-      <c r="L137" s="93"/>
-      <c r="M137" s="148">
+      <c r="L137" s="72"/>
+      <c r="M137" s="127">
         <v>120.1</v>
       </c>
-      <c r="N137" s="93"/>
-      <c r="O137" s="148">
+      <c r="N137" s="72"/>
+      <c r="O137" s="127">
         <v>1.8</v>
       </c>
-      <c r="P137" s="93"/>
-      <c r="Q137" s="149">
+      <c r="P137" s="72"/>
+      <c r="Q137" s="128">
         <v>41.18</v>
       </c>
-      <c r="R137" s="100"/>
-      <c r="S137" s="146">
+      <c r="R137" s="79"/>
+      <c r="S137" s="129">
         <v>1.4</v>
       </c>
-      <c r="T137" s="93"/>
+      <c r="T137" s="72"/>
     </row>
     <row r="138" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A138" s="150" t="s">
+      <c r="A138" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="B138" s="93"/>
-      <c r="C138" s="150">
+      <c r="B138" s="72"/>
+      <c r="C138" s="131">
         <v>280</v>
       </c>
-      <c r="D138" s="93"/>
-      <c r="E138" s="143">
+      <c r="D138" s="72"/>
+      <c r="E138" s="130">
         <v>4</v>
       </c>
-      <c r="F138" s="93"/>
-      <c r="G138" s="143">
+      <c r="F138" s="72"/>
+      <c r="G138" s="130">
         <v>3</v>
       </c>
-      <c r="H138" s="93"/>
-      <c r="I138" s="150"/>
-      <c r="J138" s="93"/>
-      <c r="K138" s="151">
+      <c r="H138" s="72"/>
+      <c r="I138" s="131"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="133">
         <v>3.5</v>
       </c>
-      <c r="L138" s="93"/>
-      <c r="M138" s="152">
+      <c r="L138" s="72"/>
+      <c r="M138" s="134">
         <v>147.05000000000001</v>
       </c>
-      <c r="N138" s="93"/>
-      <c r="O138" s="152">
+      <c r="N138" s="72"/>
+      <c r="O138" s="134">
         <v>1.4</v>
       </c>
-      <c r="P138" s="93"/>
-      <c r="Q138" s="149">
+      <c r="P138" s="72"/>
+      <c r="Q138" s="128">
         <v>41.02</v>
       </c>
-      <c r="R138" s="100"/>
-      <c r="S138" s="143">
+      <c r="R138" s="79"/>
+      <c r="S138" s="130">
         <v>1.4</v>
       </c>
-      <c r="T138" s="93"/>
+      <c r="T138" s="72"/>
     </row>
     <row r="139" spans="1:20" ht="20.25" customHeight="1">
-      <c r="A139" s="144" t="s">
+      <c r="A139" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="B139" s="115"/>
-      <c r="C139" s="145">
+      <c r="B139" s="81"/>
+      <c r="C139" s="124">
         <v>300</v>
       </c>
-      <c r="D139" s="93"/>
-      <c r="E139" s="146">
+      <c r="D139" s="72"/>
+      <c r="E139" s="129">
         <v>4</v>
       </c>
-      <c r="F139" s="93"/>
-      <c r="G139" s="146">
+      <c r="F139" s="72"/>
+      <c r="G139" s="129">
         <v>3</v>
       </c>
-      <c r="H139" s="93"/>
-      <c r="I139" s="145"/>
-      <c r="J139" s="93"/>
-      <c r="K139" s="147">
+      <c r="H139" s="72"/>
+      <c r="I139" s="124"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="126">
         <v>3.7</v>
       </c>
-      <c r="L139" s="93"/>
-      <c r="M139" s="148">
+      <c r="L139" s="72"/>
+      <c r="M139" s="127">
         <v>153.21</v>
       </c>
-      <c r="N139" s="93"/>
-      <c r="O139" s="148">
+      <c r="N139" s="72"/>
+      <c r="O139" s="127">
         <v>1.7</v>
       </c>
-      <c r="P139" s="93"/>
-      <c r="Q139" s="149">
+      <c r="P139" s="72"/>
+      <c r="Q139" s="128">
         <v>40.950000000000003</v>
       </c>
-      <c r="R139" s="100"/>
-      <c r="S139" s="146">
+      <c r="R139" s="79"/>
+      <c r="S139" s="129">
         <v>1.4</v>
       </c>
-      <c r="T139" s="93"/>
+      <c r="T139" s="72"/>
     </row>
     <row r="140" spans="1:20" ht="14.1" customHeight="1">
       <c r="A140" s="139" t="s">
         <v>116</v>
       </c>
-      <c r="B140" s="65"/>
+      <c r="B140" s="107"/>
       <c r="C140" s="139">
         <v>300</v>
       </c>
-      <c r="D140" s="65"/>
+      <c r="D140" s="107"/>
       <c r="E140" s="136">
         <v>4</v>
       </c>
-      <c r="F140" s="65"/>
+      <c r="F140" s="107"/>
       <c r="G140" s="136">
         <v>3</v>
       </c>
-      <c r="H140" s="65"/>
+      <c r="H140" s="107"/>
       <c r="I140" s="139"/>
-      <c r="J140" s="65"/>
+      <c r="J140" s="107"/>
       <c r="K140" s="140">
         <v>3.7</v>
       </c>
-      <c r="L140" s="65"/>
+      <c r="L140" s="107"/>
       <c r="M140" s="141">
         <v>153.21</v>
       </c>
-      <c r="N140" s="65"/>
+      <c r="N140" s="107"/>
       <c r="O140" s="141">
         <v>1.7</v>
       </c>
-      <c r="P140" s="65"/>
+      <c r="P140" s="107"/>
       <c r="Q140" s="142">
         <v>41.06</v>
       </c>
-      <c r="R140" s="63"/>
+      <c r="R140" s="143"/>
       <c r="S140" s="136">
         <v>1.4</v>
       </c>
-      <c r="T140" s="65"/>
+      <c r="T140" s="107"/>
     </row>
     <row r="141" spans="1:20" ht="14.1" customHeight="1">
       <c r="A141" s="22" t="s">
@@ -5254,1657 +5258,1657 @@
       <c r="A149" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="B149" s="91"/>
+      <c r="B149" s="66"/>
       <c r="C149" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="D149" s="91"/>
+      <c r="D149" s="66"/>
       <c r="E149" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="F149" s="91"/>
+      <c r="F149" s="66"/>
       <c r="G149" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="H149" s="91"/>
+      <c r="H149" s="66"/>
       <c r="I149" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="J149" s="91"/>
+      <c r="J149" s="66"/>
       <c r="K149" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="L149" s="91"/>
+      <c r="L149" s="66"/>
       <c r="M149" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="N149" s="91"/>
+      <c r="N149" s="66"/>
       <c r="O149" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="P149" s="91"/>
+      <c r="P149" s="66"/>
       <c r="Q149" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="R149" s="91"/>
+      <c r="R149" s="66"/>
       <c r="S149" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="T149" s="91"/>
+      <c r="T149" s="66"/>
     </row>
     <row r="150" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A150" s="165"/>
-      <c r="B150" s="164"/>
-      <c r="C150" s="163" t="s">
+      <c r="A150" s="64"/>
+      <c r="B150" s="63"/>
+      <c r="C150" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D150" s="164"/>
-      <c r="E150" s="163" t="s">
+      <c r="D150" s="63"/>
+      <c r="E150" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F150" s="164"/>
-      <c r="G150" s="163" t="s">
+      <c r="F150" s="63"/>
+      <c r="G150" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="H150" s="164"/>
-      <c r="I150" s="163" t="s">
+      <c r="H150" s="63"/>
+      <c r="I150" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="J150" s="164"/>
-      <c r="K150" s="163" t="s">
+      <c r="J150" s="63"/>
+      <c r="K150" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L150" s="164"/>
-      <c r="M150" s="163" t="s">
+      <c r="L150" s="63"/>
+      <c r="M150" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="N150" s="164"/>
-      <c r="O150" s="163" t="s">
+      <c r="N150" s="63"/>
+      <c r="O150" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="P150" s="164"/>
-      <c r="Q150" s="163" t="s">
+      <c r="P150" s="63"/>
+      <c r="Q150" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R150" s="164"/>
-      <c r="S150" s="163" t="s">
+      <c r="R150" s="63"/>
+      <c r="S150" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="T150" s="164"/>
+      <c r="T150" s="63"/>
     </row>
     <row r="151" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A151" s="116" t="s">
+      <c r="A151" s="85" t="s">
         <v>117</v>
       </c>
-      <c r="B151" s="91"/>
-      <c r="C151" s="116">
+      <c r="B151" s="66"/>
+      <c r="C151" s="85">
         <v>40</v>
       </c>
-      <c r="D151" s="91"/>
-      <c r="E151" s="117">
+      <c r="D151" s="66"/>
+      <c r="E151" s="86">
         <v>0.5</v>
       </c>
-      <c r="F151" s="91"/>
-      <c r="G151" s="117"/>
-      <c r="H151" s="91"/>
-      <c r="I151" s="118">
+      <c r="F151" s="66"/>
+      <c r="G151" s="86"/>
+      <c r="H151" s="66"/>
+      <c r="I151" s="87">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J151" s="91"/>
-      <c r="K151" s="119"/>
-      <c r="L151" s="91"/>
-      <c r="M151" s="120">
+      <c r="J151" s="66"/>
+      <c r="K151" s="88"/>
+      <c r="L151" s="66"/>
+      <c r="M151" s="103">
         <v>17.96</v>
       </c>
-      <c r="N151" s="91"/>
-      <c r="O151" s="121">
+      <c r="N151" s="66"/>
+      <c r="O151" s="104">
         <v>1.8</v>
       </c>
-      <c r="P151" s="91"/>
-      <c r="Q151" s="106">
+      <c r="P151" s="66"/>
+      <c r="Q151" s="105">
         <v>45.8</v>
       </c>
-      <c r="R151" s="107"/>
-      <c r="S151" s="117">
+      <c r="R151" s="69"/>
+      <c r="S151" s="86">
         <v>1.4</v>
       </c>
-      <c r="T151" s="91"/>
+      <c r="T151" s="66"/>
     </row>
     <row r="152" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A152" s="109" t="s">
+      <c r="A152" s="98" t="s">
         <v>118</v>
       </c>
-      <c r="B152" s="93"/>
-      <c r="C152" s="109">
+      <c r="B152" s="72"/>
+      <c r="C152" s="98">
         <v>40</v>
       </c>
-      <c r="D152" s="93"/>
-      <c r="E152" s="108">
+      <c r="D152" s="72"/>
+      <c r="E152" s="96">
         <v>1</v>
       </c>
-      <c r="F152" s="93"/>
-      <c r="G152" s="108"/>
-      <c r="H152" s="93"/>
-      <c r="I152" s="110">
+      <c r="F152" s="72"/>
+      <c r="G152" s="96"/>
+      <c r="H152" s="72"/>
+      <c r="I152" s="99">
         <v>0.93</v>
       </c>
-      <c r="J152" s="93"/>
-      <c r="K152" s="111"/>
-      <c r="L152" s="93"/>
-      <c r="M152" s="112">
+      <c r="J152" s="72"/>
+      <c r="K152" s="97"/>
+      <c r="L152" s="72"/>
+      <c r="M152" s="100">
         <v>20.93</v>
       </c>
-      <c r="N152" s="93"/>
-      <c r="O152" s="113">
+      <c r="N152" s="72"/>
+      <c r="O152" s="101">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P152" s="93"/>
-      <c r="Q152" s="99">
+      <c r="P152" s="72"/>
+      <c r="Q152" s="78">
         <v>44.5</v>
       </c>
-      <c r="R152" s="100"/>
-      <c r="S152" s="108">
+      <c r="R152" s="79"/>
+      <c r="S152" s="96">
         <v>1.4</v>
       </c>
-      <c r="T152" s="93"/>
+      <c r="T152" s="72"/>
     </row>
     <row r="153" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A153" s="129" t="s">
+      <c r="A153" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="B153" s="115"/>
-      <c r="C153" s="129">
+      <c r="B153" s="81"/>
+      <c r="C153" s="91">
         <v>40</v>
       </c>
-      <c r="D153" s="115"/>
-      <c r="E153" s="130">
+      <c r="D153" s="81"/>
+      <c r="E153" s="92">
         <v>4</v>
       </c>
-      <c r="F153" s="115"/>
-      <c r="G153" s="130"/>
-      <c r="H153" s="115"/>
-      <c r="I153" s="131">
+      <c r="F153" s="81"/>
+      <c r="G153" s="92"/>
+      <c r="H153" s="81"/>
+      <c r="I153" s="93">
         <v>1.9</v>
       </c>
-      <c r="J153" s="115"/>
-      <c r="K153" s="132">
+      <c r="J153" s="81"/>
+      <c r="K153" s="94">
         <v>0.06</v>
       </c>
-      <c r="L153" s="115"/>
-      <c r="M153" s="133">
+      <c r="L153" s="81"/>
+      <c r="M153" s="95">
         <v>27.07</v>
       </c>
-      <c r="N153" s="115"/>
-      <c r="O153" s="134">
+      <c r="N153" s="81"/>
+      <c r="O153" s="112">
         <v>0.2</v>
       </c>
-      <c r="P153" s="115"/>
-      <c r="Q153" s="127">
+      <c r="P153" s="81"/>
+      <c r="Q153" s="110">
         <v>43.25</v>
       </c>
-      <c r="R153" s="128"/>
-      <c r="S153" s="130">
+      <c r="R153" s="111"/>
+      <c r="S153" s="92">
         <v>1.4</v>
       </c>
-      <c r="T153" s="115"/>
+      <c r="T153" s="81"/>
     </row>
     <row r="154" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A154" s="101" t="s">
+      <c r="A154" s="102" t="s">
         <v>120</v>
       </c>
-      <c r="B154" s="91"/>
-      <c r="C154" s="101">
+      <c r="B154" s="66"/>
+      <c r="C154" s="102">
         <v>50</v>
       </c>
-      <c r="D154" s="91"/>
-      <c r="E154" s="90">
+      <c r="D154" s="66"/>
+      <c r="E154" s="70">
         <v>0.5</v>
       </c>
-      <c r="F154" s="91"/>
-      <c r="G154" s="90"/>
-      <c r="H154" s="91"/>
-      <c r="I154" s="102">
+      <c r="F154" s="66"/>
+      <c r="G154" s="70"/>
+      <c r="H154" s="66"/>
+      <c r="I154" s="122">
         <v>0.68</v>
       </c>
-      <c r="J154" s="91"/>
-      <c r="K154" s="103"/>
-      <c r="L154" s="91"/>
-      <c r="M154" s="104">
+      <c r="J154" s="66"/>
+      <c r="K154" s="123"/>
+      <c r="L154" s="66"/>
+      <c r="M154" s="89">
         <v>19.5</v>
       </c>
-      <c r="N154" s="91"/>
-      <c r="O154" s="105">
+      <c r="N154" s="66"/>
+      <c r="O154" s="90">
         <v>2.7</v>
       </c>
-      <c r="P154" s="91"/>
-      <c r="Q154" s="106">
+      <c r="P154" s="66"/>
+      <c r="Q154" s="105">
         <v>45.31</v>
       </c>
-      <c r="R154" s="107"/>
-      <c r="S154" s="90">
+      <c r="R154" s="69"/>
+      <c r="S154" s="70">
         <v>1.4</v>
       </c>
-      <c r="T154" s="91"/>
+      <c r="T154" s="66"/>
     </row>
     <row r="155" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A155" s="92" t="s">
+      <c r="A155" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="B155" s="93"/>
-      <c r="C155" s="92">
+      <c r="B155" s="72"/>
+      <c r="C155" s="71">
         <v>50</v>
       </c>
-      <c r="D155" s="93"/>
-      <c r="E155" s="94">
+      <c r="D155" s="72"/>
+      <c r="E155" s="73">
         <v>1</v>
       </c>
-      <c r="F155" s="93"/>
-      <c r="G155" s="94"/>
-      <c r="H155" s="93"/>
-      <c r="I155" s="95">
+      <c r="F155" s="72"/>
+      <c r="G155" s="73"/>
+      <c r="H155" s="72"/>
+      <c r="I155" s="74">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J155" s="93"/>
-      <c r="K155" s="96"/>
-      <c r="L155" s="93"/>
-      <c r="M155" s="97">
+      <c r="J155" s="72"/>
+      <c r="K155" s="75"/>
+      <c r="L155" s="72"/>
+      <c r="M155" s="76">
         <v>22.65</v>
       </c>
-      <c r="N155" s="93"/>
-      <c r="O155" s="98">
+      <c r="N155" s="72"/>
+      <c r="O155" s="77">
         <v>1.6</v>
       </c>
-      <c r="P155" s="93"/>
-      <c r="Q155" s="99">
+      <c r="P155" s="72"/>
+      <c r="Q155" s="78">
         <v>44.2</v>
       </c>
-      <c r="R155" s="100"/>
-      <c r="S155" s="94">
+      <c r="R155" s="79"/>
+      <c r="S155" s="73">
         <v>1.4</v>
       </c>
-      <c r="T155" s="93"/>
+      <c r="T155" s="72"/>
     </row>
     <row r="156" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A156" s="109" t="s">
+      <c r="A156" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="B156" s="93"/>
-      <c r="C156" s="109">
+      <c r="B156" s="72"/>
+      <c r="C156" s="98">
         <v>50</v>
       </c>
-      <c r="D156" s="93"/>
-      <c r="E156" s="108">
+      <c r="D156" s="72"/>
+      <c r="E156" s="96">
         <v>4</v>
       </c>
-      <c r="F156" s="93"/>
-      <c r="G156" s="108"/>
-      <c r="H156" s="93"/>
-      <c r="I156" s="110">
+      <c r="F156" s="72"/>
+      <c r="G156" s="96"/>
+      <c r="H156" s="72"/>
+      <c r="I156" s="99">
         <v>2.39</v>
       </c>
-      <c r="J156" s="93"/>
-      <c r="K156" s="111">
+      <c r="J156" s="72"/>
+      <c r="K156" s="97">
         <v>0.08</v>
       </c>
-      <c r="L156" s="93"/>
-      <c r="M156" s="112">
+      <c r="L156" s="72"/>
+      <c r="M156" s="100">
         <v>29.93</v>
       </c>
-      <c r="N156" s="93"/>
-      <c r="O156" s="113">
+      <c r="N156" s="72"/>
+      <c r="O156" s="101">
         <v>0.4</v>
       </c>
-      <c r="P156" s="93"/>
-      <c r="Q156" s="99">
+      <c r="P156" s="72"/>
+      <c r="Q156" s="78">
         <v>43.09</v>
       </c>
-      <c r="R156" s="100"/>
-      <c r="S156" s="108">
+      <c r="R156" s="79"/>
+      <c r="S156" s="96">
         <v>1.4</v>
       </c>
-      <c r="T156" s="93"/>
+      <c r="T156" s="72"/>
     </row>
     <row r="157" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A157" s="129" t="s">
+      <c r="A157" s="91" t="s">
         <v>122</v>
       </c>
-      <c r="B157" s="115"/>
-      <c r="C157" s="129">
+      <c r="B157" s="81"/>
+      <c r="C157" s="91">
         <v>50</v>
       </c>
-      <c r="D157" s="115"/>
-      <c r="E157" s="130">
+      <c r="D157" s="81"/>
+      <c r="E157" s="92">
         <v>4.5</v>
       </c>
-      <c r="F157" s="115"/>
-      <c r="G157" s="130"/>
-      <c r="H157" s="115"/>
-      <c r="I157" s="131">
+      <c r="F157" s="81"/>
+      <c r="G157" s="92"/>
+      <c r="H157" s="81"/>
+      <c r="I157" s="93">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J157" s="115"/>
-      <c r="K157" s="132">
+      <c r="J157" s="81"/>
+      <c r="K157" s="94">
         <v>0.08</v>
       </c>
-      <c r="L157" s="115"/>
-      <c r="M157" s="133">
+      <c r="L157" s="81"/>
+      <c r="M157" s="95">
         <v>30.62</v>
       </c>
-      <c r="N157" s="115"/>
-      <c r="O157" s="134">
+      <c r="N157" s="81"/>
+      <c r="O157" s="112">
         <v>0.3</v>
       </c>
-      <c r="P157" s="115"/>
-      <c r="Q157" s="127">
+      <c r="P157" s="81"/>
+      <c r="Q157" s="110">
         <v>43.12</v>
       </c>
-      <c r="R157" s="128"/>
-      <c r="S157" s="130">
+      <c r="R157" s="111"/>
+      <c r="S157" s="92">
         <v>1.4</v>
       </c>
-      <c r="T157" s="115"/>
+      <c r="T157" s="81"/>
     </row>
     <row r="158" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A158" s="101" t="s">
+      <c r="A158" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="B158" s="91"/>
-      <c r="C158" s="101">
+      <c r="B158" s="66"/>
+      <c r="C158" s="102">
         <v>60</v>
       </c>
-      <c r="D158" s="91"/>
-      <c r="E158" s="90">
+      <c r="D158" s="66"/>
+      <c r="E158" s="70">
         <v>0.5</v>
       </c>
-      <c r="F158" s="91"/>
-      <c r="G158" s="90"/>
-      <c r="H158" s="91"/>
-      <c r="I158" s="102">
+      <c r="F158" s="66"/>
+      <c r="G158" s="70"/>
+      <c r="H158" s="66"/>
+      <c r="I158" s="122">
         <v>0.79</v>
       </c>
-      <c r="J158" s="91"/>
-      <c r="K158" s="103"/>
-      <c r="L158" s="91"/>
-      <c r="M158" s="104">
+      <c r="J158" s="66"/>
+      <c r="K158" s="123"/>
+      <c r="L158" s="66"/>
+      <c r="M158" s="89">
         <v>20.86</v>
       </c>
-      <c r="N158" s="91"/>
-      <c r="O158" s="105">
+      <c r="N158" s="66"/>
+      <c r="O158" s="90">
         <v>3.5</v>
       </c>
-      <c r="P158" s="91"/>
-      <c r="Q158" s="106">
+      <c r="P158" s="66"/>
+      <c r="Q158" s="105">
         <v>44.97</v>
       </c>
-      <c r="R158" s="107"/>
-      <c r="S158" s="90">
+      <c r="R158" s="69"/>
+      <c r="S158" s="70">
         <v>1.4</v>
       </c>
-      <c r="T158" s="91"/>
+      <c r="T158" s="66"/>
     </row>
     <row r="159" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A159" s="92" t="s">
+      <c r="A159" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="B159" s="93"/>
-      <c r="C159" s="92">
+      <c r="B159" s="72"/>
+      <c r="C159" s="71">
         <v>60</v>
       </c>
-      <c r="D159" s="93"/>
-      <c r="E159" s="94">
+      <c r="D159" s="72"/>
+      <c r="E159" s="73">
         <v>1</v>
       </c>
-      <c r="F159" s="93"/>
-      <c r="G159" s="94"/>
-      <c r="H159" s="93"/>
-      <c r="I159" s="95">
+      <c r="F159" s="72"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="74">
         <v>1.29</v>
       </c>
-      <c r="J159" s="93"/>
-      <c r="K159" s="96"/>
-      <c r="L159" s="93"/>
-      <c r="M159" s="97">
+      <c r="J159" s="72"/>
+      <c r="K159" s="75"/>
+      <c r="L159" s="72"/>
+      <c r="M159" s="76">
         <v>24.09</v>
       </c>
-      <c r="N159" s="93"/>
-      <c r="O159" s="98">
+      <c r="N159" s="72"/>
+      <c r="O159" s="77">
         <v>2.1</v>
       </c>
-      <c r="P159" s="93"/>
-      <c r="Q159" s="99">
+      <c r="P159" s="72"/>
+      <c r="Q159" s="78">
         <v>43.94</v>
       </c>
-      <c r="R159" s="100"/>
-      <c r="S159" s="94">
+      <c r="R159" s="79"/>
+      <c r="S159" s="73">
         <v>1.4</v>
       </c>
-      <c r="T159" s="93"/>
+      <c r="T159" s="72"/>
     </row>
     <row r="160" spans="1:21" ht="14.25" customHeight="1">
-      <c r="A160" s="122" t="s">
+      <c r="A160" s="80" t="s">
         <v>125</v>
       </c>
-      <c r="B160" s="115"/>
-      <c r="C160" s="122">
+      <c r="B160" s="81"/>
+      <c r="C160" s="80">
         <v>60</v>
       </c>
-      <c r="D160" s="115"/>
-      <c r="E160" s="114">
+      <c r="D160" s="81"/>
+      <c r="E160" s="82">
         <v>4</v>
       </c>
-      <c r="F160" s="115"/>
-      <c r="G160" s="114"/>
-      <c r="H160" s="115"/>
-      <c r="I160" s="123">
+      <c r="F160" s="81"/>
+      <c r="G160" s="82"/>
+      <c r="H160" s="81"/>
+      <c r="I160" s="83">
         <v>2.81</v>
       </c>
-      <c r="J160" s="115"/>
-      <c r="K160" s="124">
+      <c r="J160" s="81"/>
+      <c r="K160" s="84">
         <v>0.1</v>
       </c>
-      <c r="L160" s="115"/>
-      <c r="M160" s="125">
+      <c r="L160" s="81"/>
+      <c r="M160" s="108">
         <v>32.25</v>
       </c>
-      <c r="N160" s="115"/>
-      <c r="O160" s="126">
+      <c r="N160" s="81"/>
+      <c r="O160" s="109">
         <v>0.6</v>
       </c>
-      <c r="P160" s="115"/>
-      <c r="Q160" s="127">
+      <c r="P160" s="81"/>
+      <c r="Q160" s="110">
         <v>42.92</v>
       </c>
-      <c r="R160" s="128"/>
-      <c r="S160" s="114">
+      <c r="R160" s="111"/>
+      <c r="S160" s="82">
         <v>1.4</v>
       </c>
-      <c r="T160" s="115"/>
+      <c r="T160" s="81"/>
     </row>
     <row r="161" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A161" s="116" t="s">
+      <c r="A161" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="B161" s="91"/>
-      <c r="C161" s="116">
+      <c r="B161" s="66"/>
+      <c r="C161" s="85">
         <v>70</v>
       </c>
-      <c r="D161" s="91"/>
-      <c r="E161" s="117">
+      <c r="D161" s="66"/>
+      <c r="E161" s="86">
         <v>0.5</v>
       </c>
-      <c r="F161" s="91"/>
-      <c r="G161" s="117"/>
-      <c r="H161" s="91"/>
-      <c r="I161" s="118">
+      <c r="F161" s="66"/>
+      <c r="G161" s="86"/>
+      <c r="H161" s="66"/>
+      <c r="I161" s="87">
         <v>0.9</v>
       </c>
-      <c r="J161" s="91"/>
-      <c r="K161" s="119"/>
-      <c r="L161" s="91"/>
-      <c r="M161" s="120">
+      <c r="J161" s="66"/>
+      <c r="K161" s="88"/>
+      <c r="L161" s="66"/>
+      <c r="M161" s="103">
         <v>22.15</v>
       </c>
-      <c r="N161" s="91"/>
-      <c r="O161" s="121">
+      <c r="N161" s="66"/>
+      <c r="O161" s="104">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P161" s="91"/>
-      <c r="Q161" s="106">
+      <c r="P161" s="66"/>
+      <c r="Q161" s="105">
         <v>44.68</v>
       </c>
-      <c r="R161" s="107"/>
-      <c r="S161" s="117">
+      <c r="R161" s="69"/>
+      <c r="S161" s="86">
         <v>1.4</v>
       </c>
-      <c r="T161" s="91"/>
+      <c r="T161" s="66"/>
     </row>
     <row r="162" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A162" s="109" t="s">
+      <c r="A162" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="B162" s="93"/>
-      <c r="C162" s="109">
+      <c r="B162" s="72"/>
+      <c r="C162" s="98">
         <v>70</v>
       </c>
-      <c r="D162" s="93"/>
-      <c r="E162" s="108">
+      <c r="D162" s="72"/>
+      <c r="E162" s="96">
         <v>1</v>
       </c>
-      <c r="F162" s="93"/>
-      <c r="G162" s="108"/>
-      <c r="H162" s="93"/>
-      <c r="I162" s="110">
+      <c r="F162" s="72"/>
+      <c r="G162" s="96"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="99">
         <v>1.46</v>
       </c>
-      <c r="J162" s="93"/>
-      <c r="K162" s="111"/>
-      <c r="L162" s="93"/>
-      <c r="M162" s="112">
+      <c r="J162" s="72"/>
+      <c r="K162" s="97"/>
+      <c r="L162" s="72"/>
+      <c r="M162" s="100">
         <v>25.44</v>
       </c>
-      <c r="N162" s="93"/>
-      <c r="O162" s="113">
+      <c r="N162" s="72"/>
+      <c r="O162" s="101">
         <v>2.6</v>
       </c>
-      <c r="P162" s="93"/>
-      <c r="Q162" s="99">
+      <c r="P162" s="72"/>
+      <c r="Q162" s="78">
         <v>43.72</v>
       </c>
-      <c r="R162" s="100"/>
-      <c r="S162" s="108">
+      <c r="R162" s="79"/>
+      <c r="S162" s="96">
         <v>1.4</v>
       </c>
-      <c r="T162" s="93"/>
+      <c r="T162" s="72"/>
     </row>
     <row r="163" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A163" s="92" t="s">
+      <c r="A163" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="B163" s="93"/>
-      <c r="C163" s="92">
+      <c r="B163" s="72"/>
+      <c r="C163" s="71">
         <v>70</v>
       </c>
-      <c r="D163" s="93"/>
-      <c r="E163" s="94">
+      <c r="D163" s="72"/>
+      <c r="E163" s="73">
         <v>4</v>
       </c>
-      <c r="F163" s="93"/>
-      <c r="G163" s="94"/>
-      <c r="H163" s="93"/>
-      <c r="I163" s="95">
+      <c r="F163" s="72"/>
+      <c r="G163" s="73"/>
+      <c r="H163" s="72"/>
+      <c r="I163" s="74">
         <v>3.19</v>
       </c>
-      <c r="J163" s="93"/>
-      <c r="K163" s="96">
+      <c r="J163" s="72"/>
+      <c r="K163" s="75">
         <v>0.11</v>
       </c>
-      <c r="L163" s="93"/>
-      <c r="M163" s="97">
+      <c r="L163" s="72"/>
+      <c r="M163" s="76">
         <v>34.270000000000003</v>
       </c>
-      <c r="N163" s="93"/>
-      <c r="O163" s="98">
+      <c r="N163" s="72"/>
+      <c r="O163" s="77">
         <v>0.8</v>
       </c>
-      <c r="P163" s="93"/>
-      <c r="Q163" s="99">
+      <c r="P163" s="72"/>
+      <c r="Q163" s="78">
         <v>42.83</v>
       </c>
-      <c r="R163" s="100"/>
-      <c r="S163" s="94">
+      <c r="R163" s="79"/>
+      <c r="S163" s="73">
         <v>1.4</v>
       </c>
-      <c r="T163" s="93"/>
+      <c r="T163" s="72"/>
     </row>
     <row r="164" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A164" s="109" t="s">
+      <c r="A164" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="B164" s="93"/>
-      <c r="C164" s="109">
+      <c r="B164" s="72"/>
+      <c r="C164" s="98">
         <v>70</v>
       </c>
-      <c r="D164" s="93"/>
-      <c r="E164" s="108">
+      <c r="D164" s="72"/>
+      <c r="E164" s="96">
         <v>4.5</v>
       </c>
-      <c r="F164" s="93"/>
-      <c r="G164" s="108"/>
-      <c r="H164" s="93"/>
-      <c r="I164" s="110">
+      <c r="F164" s="72"/>
+      <c r="G164" s="96"/>
+      <c r="H164" s="72"/>
+      <c r="I164" s="99">
         <v>3.39</v>
       </c>
-      <c r="J164" s="93"/>
-      <c r="K164" s="111">
+      <c r="J164" s="72"/>
+      <c r="K164" s="97">
         <v>0.12</v>
       </c>
-      <c r="L164" s="93"/>
-      <c r="M164" s="112">
+      <c r="L164" s="72"/>
+      <c r="M164" s="100">
         <v>35.19</v>
       </c>
-      <c r="N164" s="93"/>
-      <c r="O164" s="113">
+      <c r="N164" s="72"/>
+      <c r="O164" s="101">
         <v>0.7</v>
       </c>
-      <c r="P164" s="93"/>
-      <c r="Q164" s="99">
+      <c r="P164" s="72"/>
+      <c r="Q164" s="78">
         <v>42.81</v>
       </c>
-      <c r="R164" s="100"/>
-      <c r="S164" s="108">
+      <c r="R164" s="79"/>
+      <c r="S164" s="96">
         <v>1.4</v>
       </c>
-      <c r="T164" s="93"/>
+      <c r="T164" s="72"/>
     </row>
     <row r="165" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A165" s="92" t="s">
+      <c r="A165" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B165" s="93"/>
-      <c r="C165" s="92">
+      <c r="B165" s="72"/>
+      <c r="C165" s="71">
         <v>70</v>
       </c>
-      <c r="D165" s="93"/>
-      <c r="E165" s="94">
+      <c r="D165" s="72"/>
+      <c r="E165" s="73">
         <v>6</v>
       </c>
-      <c r="F165" s="93"/>
-      <c r="G165" s="94"/>
-      <c r="H165" s="93"/>
-      <c r="I165" s="95">
+      <c r="F165" s="72"/>
+      <c r="G165" s="73"/>
+      <c r="H165" s="72"/>
+      <c r="I165" s="74">
         <v>3.95</v>
       </c>
-      <c r="J165" s="93"/>
-      <c r="K165" s="96">
+      <c r="J165" s="72"/>
+      <c r="K165" s="75">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L165" s="93"/>
-      <c r="M165" s="97">
+      <c r="L165" s="72"/>
+      <c r="M165" s="76">
         <v>37.51</v>
       </c>
-      <c r="N165" s="93"/>
-      <c r="O165" s="98">
+      <c r="N165" s="72"/>
+      <c r="O165" s="77">
         <v>0.5</v>
       </c>
-      <c r="P165" s="93"/>
-      <c r="Q165" s="99">
+      <c r="P165" s="72"/>
+      <c r="Q165" s="78">
         <v>42.68</v>
       </c>
-      <c r="R165" s="100"/>
-      <c r="S165" s="94">
+      <c r="R165" s="79"/>
+      <c r="S165" s="73">
         <v>1.4</v>
       </c>
-      <c r="T165" s="93"/>
+      <c r="T165" s="72"/>
     </row>
     <row r="166" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A166" s="101" t="s">
+      <c r="A166" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="B166" s="91"/>
-      <c r="C166" s="101">
+      <c r="B166" s="66"/>
+      <c r="C166" s="102">
         <v>80</v>
       </c>
-      <c r="D166" s="91"/>
-      <c r="E166" s="90">
+      <c r="D166" s="66"/>
+      <c r="E166" s="70">
         <v>0.5</v>
       </c>
-      <c r="F166" s="91"/>
-      <c r="G166" s="90"/>
-      <c r="H166" s="91"/>
-      <c r="I166" s="102">
+      <c r="F166" s="66"/>
+      <c r="G166" s="70"/>
+      <c r="H166" s="66"/>
+      <c r="I166" s="122">
         <v>1.02</v>
       </c>
-      <c r="J166" s="91"/>
-      <c r="K166" s="103"/>
-      <c r="L166" s="91"/>
-      <c r="M166" s="104">
+      <c r="J166" s="66"/>
+      <c r="K166" s="123"/>
+      <c r="L166" s="66"/>
+      <c r="M166" s="89">
         <v>23.48</v>
       </c>
-      <c r="N166" s="91"/>
-      <c r="O166" s="105">
+      <c r="N166" s="66"/>
+      <c r="O166" s="90">
         <v>4.8</v>
       </c>
-      <c r="P166" s="91"/>
-      <c r="Q166" s="106">
+      <c r="P166" s="66"/>
+      <c r="Q166" s="105">
         <v>44.42</v>
       </c>
-      <c r="R166" s="107"/>
-      <c r="S166" s="90">
+      <c r="R166" s="69"/>
+      <c r="S166" s="70">
         <v>1.4</v>
       </c>
-      <c r="T166" s="91"/>
+      <c r="T166" s="66"/>
     </row>
     <row r="167" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A167" s="92" t="s">
+      <c r="A167" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="B167" s="93"/>
-      <c r="C167" s="92">
+      <c r="B167" s="72"/>
+      <c r="C167" s="71">
         <v>80</v>
       </c>
-      <c r="D167" s="93"/>
-      <c r="E167" s="94">
+      <c r="D167" s="72"/>
+      <c r="E167" s="73">
         <v>1</v>
       </c>
-      <c r="F167" s="93"/>
-      <c r="G167" s="94"/>
-      <c r="H167" s="93"/>
-      <c r="I167" s="95">
+      <c r="F167" s="72"/>
+      <c r="G167" s="73"/>
+      <c r="H167" s="72"/>
+      <c r="I167" s="74">
         <v>1.64</v>
       </c>
-      <c r="J167" s="93"/>
-      <c r="K167" s="96"/>
-      <c r="L167" s="93"/>
-      <c r="M167" s="97">
+      <c r="J167" s="72"/>
+      <c r="K167" s="75"/>
+      <c r="L167" s="72"/>
+      <c r="M167" s="76">
         <v>26.84</v>
       </c>
-      <c r="N167" s="93"/>
-      <c r="O167" s="98">
+      <c r="N167" s="72"/>
+      <c r="O167" s="77">
         <v>3.2</v>
       </c>
-      <c r="P167" s="93"/>
-      <c r="Q167" s="99">
+      <c r="P167" s="72"/>
+      <c r="Q167" s="78">
         <v>43.52</v>
       </c>
-      <c r="R167" s="100"/>
-      <c r="S167" s="94">
+      <c r="R167" s="79"/>
+      <c r="S167" s="73">
         <v>1.4</v>
       </c>
-      <c r="T167" s="93"/>
+      <c r="T167" s="72"/>
     </row>
     <row r="168" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A168" s="122" t="s">
+      <c r="A168" s="80" t="s">
         <v>132</v>
       </c>
-      <c r="B168" s="115"/>
-      <c r="C168" s="122">
+      <c r="B168" s="81"/>
+      <c r="C168" s="80">
         <v>80</v>
       </c>
-      <c r="D168" s="115"/>
-      <c r="E168" s="114">
+      <c r="D168" s="81"/>
+      <c r="E168" s="82">
         <v>4</v>
       </c>
-      <c r="F168" s="115"/>
-      <c r="G168" s="114"/>
-      <c r="H168" s="115"/>
-      <c r="I168" s="123">
+      <c r="F168" s="81"/>
+      <c r="G168" s="82"/>
+      <c r="H168" s="81"/>
+      <c r="I168" s="83">
         <v>3.62</v>
       </c>
-      <c r="J168" s="115"/>
-      <c r="K168" s="124">
+      <c r="J168" s="81"/>
+      <c r="K168" s="84">
         <v>0.13</v>
       </c>
-      <c r="L168" s="115"/>
-      <c r="M168" s="125">
+      <c r="L168" s="81"/>
+      <c r="M168" s="108">
         <v>36.33</v>
       </c>
-      <c r="N168" s="115"/>
-      <c r="O168" s="126">
+      <c r="N168" s="81"/>
+      <c r="O168" s="109">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P168" s="115"/>
-      <c r="Q168" s="127">
+      <c r="P168" s="81"/>
+      <c r="Q168" s="110">
         <v>42.75</v>
       </c>
-      <c r="R168" s="128"/>
-      <c r="S168" s="114">
+      <c r="R168" s="111"/>
+      <c r="S168" s="82">
         <v>1.4</v>
       </c>
-      <c r="T168" s="115"/>
+      <c r="T168" s="81"/>
     </row>
     <row r="169" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A169" s="116" t="s">
+      <c r="A169" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="B169" s="91"/>
-      <c r="C169" s="116">
+      <c r="B169" s="66"/>
+      <c r="C169" s="85">
         <v>90</v>
       </c>
-      <c r="D169" s="91"/>
-      <c r="E169" s="117">
+      <c r="D169" s="66"/>
+      <c r="E169" s="86">
         <v>0.5</v>
       </c>
-      <c r="F169" s="91"/>
-      <c r="G169" s="117"/>
-      <c r="H169" s="91"/>
-      <c r="I169" s="118">
+      <c r="F169" s="66"/>
+      <c r="G169" s="86"/>
+      <c r="H169" s="66"/>
+      <c r="I169" s="87">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J169" s="91"/>
-      <c r="K169" s="119"/>
-      <c r="L169" s="91"/>
-      <c r="M169" s="120">
+      <c r="J169" s="66"/>
+      <c r="K169" s="88"/>
+      <c r="L169" s="66"/>
+      <c r="M169" s="103">
         <v>24.88</v>
       </c>
-      <c r="N169" s="91"/>
-      <c r="O169" s="121">
+      <c r="N169" s="66"/>
+      <c r="O169" s="104">
         <v>5.5</v>
       </c>
-      <c r="P169" s="91"/>
-      <c r="Q169" s="106">
+      <c r="P169" s="66"/>
+      <c r="Q169" s="105">
         <v>44.12</v>
       </c>
-      <c r="R169" s="107"/>
-      <c r="S169" s="117">
+      <c r="R169" s="69"/>
+      <c r="S169" s="86">
         <v>1.4</v>
       </c>
-      <c r="T169" s="91"/>
+      <c r="T169" s="66"/>
     </row>
     <row r="170" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A170" s="109" t="s">
+      <c r="A170" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="B170" s="93"/>
-      <c r="C170" s="109">
+      <c r="B170" s="72"/>
+      <c r="C170" s="98">
         <v>90</v>
       </c>
-      <c r="D170" s="93"/>
-      <c r="E170" s="108">
+      <c r="D170" s="72"/>
+      <c r="E170" s="96">
         <v>1</v>
       </c>
-      <c r="F170" s="93"/>
-      <c r="G170" s="108"/>
-      <c r="H170" s="93"/>
-      <c r="I170" s="110">
+      <c r="F170" s="72"/>
+      <c r="G170" s="96"/>
+      <c r="H170" s="72"/>
+      <c r="I170" s="99">
         <v>1.84</v>
       </c>
-      <c r="J170" s="93"/>
-      <c r="K170" s="111"/>
-      <c r="L170" s="93"/>
-      <c r="M170" s="112">
+      <c r="J170" s="72"/>
+      <c r="K170" s="97"/>
+      <c r="L170" s="72"/>
+      <c r="M170" s="100">
         <v>28.32</v>
       </c>
-      <c r="N170" s="93"/>
-      <c r="O170" s="113">
+      <c r="N170" s="72"/>
+      <c r="O170" s="101">
         <v>3.7</v>
       </c>
-      <c r="P170" s="93"/>
-      <c r="Q170" s="99">
+      <c r="P170" s="72"/>
+      <c r="Q170" s="78">
         <v>43.44</v>
       </c>
-      <c r="R170" s="100"/>
-      <c r="S170" s="108">
+      <c r="R170" s="79"/>
+      <c r="S170" s="96">
         <v>1.4</v>
       </c>
-      <c r="T170" s="93"/>
+      <c r="T170" s="72"/>
     </row>
     <row r="171" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A171" s="92" t="s">
+      <c r="A171" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B171" s="93"/>
-      <c r="C171" s="92">
+      <c r="B171" s="72"/>
+      <c r="C171" s="71">
         <v>90</v>
       </c>
-      <c r="D171" s="93"/>
-      <c r="E171" s="94">
+      <c r="D171" s="72"/>
+      <c r="E171" s="73">
         <v>4</v>
       </c>
-      <c r="F171" s="93"/>
-      <c r="G171" s="94"/>
-      <c r="H171" s="93"/>
-      <c r="I171" s="95">
+      <c r="F171" s="72"/>
+      <c r="G171" s="73"/>
+      <c r="H171" s="72"/>
+      <c r="I171" s="74">
         <v>4.04</v>
       </c>
-      <c r="J171" s="93"/>
-      <c r="K171" s="96">
+      <c r="J171" s="72"/>
+      <c r="K171" s="75">
         <v>0.15</v>
       </c>
-      <c r="L171" s="93"/>
-      <c r="M171" s="97">
+      <c r="L171" s="72"/>
+      <c r="M171" s="76">
         <v>38.380000000000003</v>
       </c>
-      <c r="N171" s="93"/>
-      <c r="O171" s="98">
+      <c r="N171" s="72"/>
+      <c r="O171" s="77">
         <v>1.4</v>
       </c>
-      <c r="P171" s="93"/>
-      <c r="Q171" s="99">
+      <c r="P171" s="72"/>
+      <c r="Q171" s="78">
         <v>42.62</v>
       </c>
-      <c r="R171" s="100"/>
-      <c r="S171" s="94">
+      <c r="R171" s="79"/>
+      <c r="S171" s="73">
         <v>1.4</v>
       </c>
-      <c r="T171" s="93"/>
+      <c r="T171" s="72"/>
     </row>
     <row r="172" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A172" s="101" t="s">
+      <c r="A172" s="102" t="s">
         <v>136</v>
       </c>
-      <c r="B172" s="91"/>
-      <c r="C172" s="101">
+      <c r="B172" s="66"/>
+      <c r="C172" s="102">
         <v>100</v>
       </c>
-      <c r="D172" s="91"/>
-      <c r="E172" s="90">
+      <c r="D172" s="66"/>
+      <c r="E172" s="70">
         <v>0.5</v>
       </c>
-      <c r="F172" s="91"/>
-      <c r="G172" s="90"/>
-      <c r="H172" s="91"/>
-      <c r="I172" s="102">
+      <c r="F172" s="66"/>
+      <c r="G172" s="70"/>
+      <c r="H172" s="66"/>
+      <c r="I172" s="122">
         <v>1.3</v>
       </c>
-      <c r="J172" s="91"/>
-      <c r="K172" s="103"/>
-      <c r="L172" s="91"/>
-      <c r="M172" s="104">
+      <c r="J172" s="66"/>
+      <c r="K172" s="123"/>
+      <c r="L172" s="66"/>
+      <c r="M172" s="89">
         <v>26.34</v>
       </c>
-      <c r="N172" s="91"/>
-      <c r="O172" s="105">
+      <c r="N172" s="66"/>
+      <c r="O172" s="90">
         <v>6.1</v>
       </c>
-      <c r="P172" s="91"/>
-      <c r="Q172" s="106">
+      <c r="P172" s="66"/>
+      <c r="Q172" s="105">
         <v>43.9</v>
       </c>
-      <c r="R172" s="107"/>
-      <c r="S172" s="90">
+      <c r="R172" s="69"/>
+      <c r="S172" s="70">
         <v>1.4</v>
       </c>
-      <c r="T172" s="91"/>
+      <c r="T172" s="66"/>
     </row>
     <row r="173" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A173" s="92" t="s">
+      <c r="A173" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="B173" s="93"/>
-      <c r="C173" s="92">
+      <c r="B173" s="72"/>
+      <c r="C173" s="71">
         <v>100</v>
       </c>
-      <c r="D173" s="93"/>
-      <c r="E173" s="94">
+      <c r="D173" s="72"/>
+      <c r="E173" s="73">
         <v>1</v>
       </c>
-      <c r="F173" s="93"/>
-      <c r="G173" s="94"/>
-      <c r="H173" s="93"/>
-      <c r="I173" s="95">
+      <c r="F173" s="72"/>
+      <c r="G173" s="73"/>
+      <c r="H173" s="72"/>
+      <c r="I173" s="74">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J173" s="93"/>
-      <c r="K173" s="96"/>
-      <c r="L173" s="93"/>
-      <c r="M173" s="97">
+      <c r="J173" s="72"/>
+      <c r="K173" s="75"/>
+      <c r="L173" s="72"/>
+      <c r="M173" s="76">
         <v>29.87</v>
       </c>
-      <c r="N173" s="93"/>
-      <c r="O173" s="98">
+      <c r="N173" s="72"/>
+      <c r="O173" s="77">
         <v>4.3</v>
       </c>
-      <c r="P173" s="93"/>
-      <c r="Q173" s="99">
+      <c r="P173" s="72"/>
+      <c r="Q173" s="78">
         <v>43.23</v>
       </c>
-      <c r="R173" s="100"/>
-      <c r="S173" s="94">
+      <c r="R173" s="79"/>
+      <c r="S173" s="73">
         <v>1.4</v>
       </c>
-      <c r="T173" s="93"/>
+      <c r="T173" s="72"/>
     </row>
     <row r="174" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A174" s="109" t="s">
+      <c r="A174" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="B174" s="93"/>
-      <c r="C174" s="109">
+      <c r="B174" s="72"/>
+      <c r="C174" s="98">
         <v>100</v>
       </c>
-      <c r="D174" s="93"/>
-      <c r="E174" s="108">
+      <c r="D174" s="72"/>
+      <c r="E174" s="96">
         <v>4.5</v>
       </c>
-      <c r="F174" s="93"/>
-      <c r="G174" s="108"/>
-      <c r="H174" s="93"/>
-      <c r="I174" s="110">
+      <c r="F174" s="72"/>
+      <c r="G174" s="96"/>
+      <c r="H174" s="72"/>
+      <c r="I174" s="99">
         <v>4.74</v>
       </c>
-      <c r="J174" s="93"/>
-      <c r="K174" s="111">
+      <c r="J174" s="72"/>
+      <c r="K174" s="97">
         <v>0.18</v>
       </c>
-      <c r="L174" s="93"/>
-      <c r="M174" s="112">
+      <c r="L174" s="72"/>
+      <c r="M174" s="100">
         <v>41.59</v>
       </c>
-      <c r="N174" s="93"/>
-      <c r="O174" s="113">
+      <c r="N174" s="72"/>
+      <c r="O174" s="101">
         <v>1.6</v>
       </c>
-      <c r="P174" s="93"/>
-      <c r="Q174" s="99">
+      <c r="P174" s="72"/>
+      <c r="Q174" s="78">
         <v>42.51</v>
       </c>
-      <c r="R174" s="100"/>
-      <c r="S174" s="108">
+      <c r="R174" s="79"/>
+      <c r="S174" s="96">
         <v>1.4</v>
       </c>
-      <c r="T174" s="93"/>
+      <c r="T174" s="72"/>
     </row>
     <row r="175" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A175" s="92" t="s">
+      <c r="A175" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B175" s="93"/>
-      <c r="C175" s="92">
+      <c r="B175" s="72"/>
+      <c r="C175" s="71">
         <v>100</v>
       </c>
-      <c r="D175" s="93"/>
-      <c r="E175" s="94">
+      <c r="D175" s="72"/>
+      <c r="E175" s="73">
         <v>6</v>
       </c>
-      <c r="F175" s="93"/>
-      <c r="G175" s="94"/>
-      <c r="H175" s="93"/>
-      <c r="I175" s="95">
+      <c r="F175" s="72"/>
+      <c r="G175" s="73"/>
+      <c r="H175" s="72"/>
+      <c r="I175" s="74">
         <v>5.49</v>
       </c>
-      <c r="J175" s="93"/>
-      <c r="K175" s="96">
+      <c r="J175" s="72"/>
+      <c r="K175" s="75">
         <v>0.22</v>
       </c>
-      <c r="L175" s="93"/>
-      <c r="M175" s="97">
+      <c r="L175" s="72"/>
+      <c r="M175" s="76">
         <v>44.58</v>
       </c>
-      <c r="N175" s="93"/>
-      <c r="O175" s="98">
+      <c r="N175" s="72"/>
+      <c r="O175" s="77">
         <v>1.2</v>
       </c>
-      <c r="P175" s="93"/>
-      <c r="Q175" s="99">
+      <c r="P175" s="72"/>
+      <c r="Q175" s="78">
         <v>42.44</v>
       </c>
-      <c r="R175" s="100"/>
-      <c r="S175" s="94">
+      <c r="R175" s="79"/>
+      <c r="S175" s="73">
         <v>1.4</v>
       </c>
-      <c r="T175" s="93"/>
+      <c r="T175" s="72"/>
     </row>
     <row r="176" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A176" s="122" t="s">
+      <c r="A176" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="B176" s="115"/>
-      <c r="C176" s="122">
+      <c r="B176" s="81"/>
+      <c r="C176" s="80">
         <v>100</v>
       </c>
-      <c r="D176" s="115"/>
-      <c r="E176" s="114">
+      <c r="D176" s="81"/>
+      <c r="E176" s="82">
         <v>9</v>
       </c>
-      <c r="F176" s="115"/>
-      <c r="G176" s="114"/>
-      <c r="H176" s="115"/>
-      <c r="I176" s="123">
+      <c r="F176" s="81"/>
+      <c r="G176" s="82"/>
+      <c r="H176" s="81"/>
+      <c r="I176" s="83">
         <v>6.61</v>
       </c>
-      <c r="J176" s="115"/>
-      <c r="K176" s="124">
+      <c r="J176" s="81"/>
+      <c r="K176" s="84">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L176" s="115"/>
-      <c r="M176" s="125">
+      <c r="L176" s="81"/>
+      <c r="M176" s="108">
         <v>49.08</v>
       </c>
-      <c r="N176" s="115"/>
-      <c r="O176" s="126">
+      <c r="N176" s="81"/>
+      <c r="O176" s="109">
         <v>0.8</v>
       </c>
-      <c r="P176" s="115"/>
-      <c r="Q176" s="127">
+      <c r="P176" s="81"/>
+      <c r="Q176" s="110">
         <v>42.23</v>
       </c>
-      <c r="R176" s="128"/>
-      <c r="S176" s="114">
+      <c r="R176" s="111"/>
+      <c r="S176" s="82">
         <v>1.4</v>
       </c>
-      <c r="T176" s="115"/>
+      <c r="T176" s="81"/>
     </row>
     <row r="177" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A177" s="92" t="s">
+      <c r="A177" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="B177" s="93"/>
-      <c r="C177" s="92">
+      <c r="B177" s="72"/>
+      <c r="C177" s="71">
         <v>120</v>
       </c>
-      <c r="D177" s="93"/>
-      <c r="E177" s="94">
+      <c r="D177" s="72"/>
+      <c r="E177" s="73">
         <v>4.5</v>
       </c>
-      <c r="F177" s="93"/>
-      <c r="G177" s="94"/>
-      <c r="H177" s="93"/>
-      <c r="I177" s="95">
+      <c r="F177" s="72"/>
+      <c r="G177" s="73"/>
+      <c r="H177" s="72"/>
+      <c r="I177" s="74">
         <v>5.56</v>
       </c>
-      <c r="J177" s="93"/>
-      <c r="K177" s="96">
+      <c r="J177" s="72"/>
+      <c r="K177" s="75">
         <v>0.23</v>
       </c>
-      <c r="L177" s="93"/>
-      <c r="M177" s="97">
+      <c r="L177" s="72"/>
+      <c r="M177" s="76">
         <v>45.74</v>
       </c>
-      <c r="N177" s="93"/>
-      <c r="O177" s="98">
+      <c r="N177" s="72"/>
+      <c r="O177" s="77">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P177" s="93"/>
-      <c r="Q177" s="99">
+      <c r="P177" s="72"/>
+      <c r="Q177" s="78">
         <v>42.3</v>
       </c>
-      <c r="R177" s="100"/>
-      <c r="S177" s="94">
+      <c r="R177" s="79"/>
+      <c r="S177" s="73">
         <v>1.4</v>
       </c>
-      <c r="T177" s="93"/>
+      <c r="T177" s="72"/>
     </row>
     <row r="178" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A178" s="109" t="s">
+      <c r="A178" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B178" s="93"/>
-      <c r="C178" s="109">
+      <c r="B178" s="72"/>
+      <c r="C178" s="98">
         <v>120</v>
       </c>
-      <c r="D178" s="93"/>
-      <c r="E178" s="108">
+      <c r="D178" s="72"/>
+      <c r="E178" s="96">
         <v>6</v>
       </c>
-      <c r="F178" s="93"/>
-      <c r="G178" s="108"/>
-      <c r="H178" s="93"/>
-      <c r="I178" s="110">
+      <c r="F178" s="72"/>
+      <c r="G178" s="96"/>
+      <c r="H178" s="72"/>
+      <c r="I178" s="99">
         <v>6.38</v>
       </c>
-      <c r="J178" s="93"/>
-      <c r="K178" s="111">
+      <c r="J178" s="72"/>
+      <c r="K178" s="97">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L178" s="93"/>
-      <c r="M178" s="112">
+      <c r="L178" s="72"/>
+      <c r="M178" s="100">
         <v>48.95</v>
       </c>
-      <c r="N178" s="93"/>
-      <c r="O178" s="113">
+      <c r="N178" s="72"/>
+      <c r="O178" s="101">
         <v>1.8</v>
       </c>
-      <c r="P178" s="93"/>
-      <c r="Q178" s="99">
+      <c r="P178" s="72"/>
+      <c r="Q178" s="78">
         <v>42.17</v>
       </c>
-      <c r="R178" s="100"/>
-      <c r="S178" s="108">
+      <c r="R178" s="79"/>
+      <c r="S178" s="96">
         <v>1.4</v>
       </c>
-      <c r="T178" s="93"/>
+      <c r="T178" s="72"/>
     </row>
     <row r="179" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A179" s="92" t="s">
+      <c r="A179" s="71" t="s">
         <v>141</v>
       </c>
-      <c r="B179" s="93"/>
-      <c r="C179" s="92">
+      <c r="B179" s="72"/>
+      <c r="C179" s="71">
         <v>120</v>
       </c>
-      <c r="D179" s="93"/>
-      <c r="E179" s="94">
+      <c r="D179" s="72"/>
+      <c r="E179" s="73">
         <v>9</v>
       </c>
-      <c r="F179" s="93"/>
-      <c r="G179" s="94"/>
-      <c r="H179" s="93"/>
-      <c r="I179" s="95">
+      <c r="F179" s="72"/>
+      <c r="G179" s="73"/>
+      <c r="H179" s="72"/>
+      <c r="I179" s="74">
         <v>7.59</v>
       </c>
-      <c r="J179" s="93"/>
-      <c r="K179" s="96">
+      <c r="J179" s="72"/>
+      <c r="K179" s="75">
         <v>0.37</v>
       </c>
-      <c r="L179" s="93"/>
-      <c r="M179" s="97">
+      <c r="L179" s="72"/>
+      <c r="M179" s="76">
         <v>53.75</v>
       </c>
-      <c r="N179" s="93"/>
-      <c r="O179" s="98">
+      <c r="N179" s="72"/>
+      <c r="O179" s="77">
         <v>1.2</v>
       </c>
-      <c r="P179" s="93"/>
-      <c r="Q179" s="99">
+      <c r="P179" s="72"/>
+      <c r="Q179" s="78">
         <v>42.06</v>
       </c>
-      <c r="R179" s="100"/>
-      <c r="S179" s="94">
+      <c r="R179" s="79"/>
+      <c r="S179" s="73">
         <v>1.4</v>
       </c>
-      <c r="T179" s="93"/>
+      <c r="T179" s="72"/>
     </row>
     <row r="180" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A180" s="122" t="s">
+      <c r="A180" s="80" t="s">
         <v>142</v>
       </c>
-      <c r="B180" s="115"/>
-      <c r="C180" s="122">
+      <c r="B180" s="81"/>
+      <c r="C180" s="80">
         <v>120</v>
       </c>
-      <c r="D180" s="115"/>
-      <c r="E180" s="114">
+      <c r="D180" s="81"/>
+      <c r="E180" s="82">
         <v>4</v>
       </c>
-      <c r="F180" s="115"/>
-      <c r="G180" s="114">
+      <c r="F180" s="81"/>
+      <c r="G180" s="82">
         <v>0.5</v>
       </c>
-      <c r="H180" s="115"/>
-      <c r="I180" s="123">
+      <c r="H180" s="81"/>
+      <c r="I180" s="83">
         <v>10.31</v>
       </c>
-      <c r="J180" s="115"/>
-      <c r="K180" s="124">
+      <c r="J180" s="81"/>
+      <c r="K180" s="84">
         <v>0.63</v>
       </c>
-      <c r="L180" s="115"/>
-      <c r="M180" s="125">
+      <c r="L180" s="81"/>
+      <c r="M180" s="108">
         <v>65</v>
       </c>
-      <c r="N180" s="115"/>
-      <c r="O180" s="126">
+      <c r="N180" s="81"/>
+      <c r="O180" s="109">
         <v>0.7</v>
       </c>
-      <c r="P180" s="115"/>
-      <c r="Q180" s="127">
+      <c r="P180" s="81"/>
+      <c r="Q180" s="110">
         <v>41.79</v>
       </c>
-      <c r="R180" s="128"/>
-      <c r="S180" s="114">
+      <c r="R180" s="111"/>
+      <c r="S180" s="82">
         <v>1.4</v>
       </c>
-      <c r="T180" s="115"/>
+      <c r="T180" s="81"/>
     </row>
     <row r="181" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A181" s="116" t="s">
+      <c r="A181" s="85" t="s">
         <v>143</v>
       </c>
-      <c r="B181" s="91"/>
-      <c r="C181" s="116">
+      <c r="B181" s="66"/>
+      <c r="C181" s="85">
         <v>140</v>
       </c>
-      <c r="D181" s="91"/>
-      <c r="E181" s="117">
+      <c r="D181" s="66"/>
+      <c r="E181" s="86">
         <v>4.5</v>
       </c>
-      <c r="F181" s="91"/>
-      <c r="G181" s="117"/>
-      <c r="H181" s="91"/>
-      <c r="I181" s="118">
+      <c r="F181" s="66"/>
+      <c r="G181" s="86"/>
+      <c r="H181" s="66"/>
+      <c r="I181" s="87">
         <v>6.33</v>
       </c>
-      <c r="J181" s="91"/>
-      <c r="K181" s="119">
+      <c r="J181" s="66"/>
+      <c r="K181" s="88">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L181" s="91"/>
-      <c r="M181" s="120">
+      <c r="L181" s="66"/>
+      <c r="M181" s="103">
         <v>49.87</v>
       </c>
-      <c r="N181" s="91"/>
-      <c r="O181" s="121">
+      <c r="N181" s="66"/>
+      <c r="O181" s="104">
         <v>3</v>
       </c>
-      <c r="P181" s="91"/>
-      <c r="Q181" s="106">
+      <c r="P181" s="66"/>
+      <c r="Q181" s="105">
         <v>42.16</v>
       </c>
-      <c r="R181" s="107"/>
-      <c r="S181" s="117">
+      <c r="R181" s="69"/>
+      <c r="S181" s="86">
         <v>1.4</v>
       </c>
-      <c r="T181" s="91"/>
+      <c r="T181" s="66"/>
     </row>
     <row r="182" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A182" s="109" t="s">
+      <c r="A182" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="B182" s="93"/>
-      <c r="C182" s="109">
+      <c r="B182" s="72"/>
+      <c r="C182" s="98">
         <v>140</v>
       </c>
-      <c r="D182" s="93"/>
-      <c r="E182" s="108">
+      <c r="D182" s="72"/>
+      <c r="E182" s="96">
         <v>6</v>
       </c>
-      <c r="F182" s="93"/>
-      <c r="G182" s="108"/>
-      <c r="H182" s="93"/>
-      <c r="I182" s="110">
+      <c r="F182" s="72"/>
+      <c r="G182" s="96"/>
+      <c r="H182" s="72"/>
+      <c r="I182" s="99">
         <v>7.2</v>
       </c>
-      <c r="J182" s="93"/>
-      <c r="K182" s="111">
+      <c r="J182" s="72"/>
+      <c r="K182" s="97">
         <v>0.34</v>
       </c>
-      <c r="L182" s="93"/>
-      <c r="M182" s="112">
+      <c r="L182" s="72"/>
+      <c r="M182" s="100">
         <v>53.14</v>
       </c>
-      <c r="N182" s="93"/>
-      <c r="O182" s="113">
+      <c r="N182" s="72"/>
+      <c r="O182" s="101">
         <v>2.5</v>
       </c>
-      <c r="P182" s="93"/>
-      <c r="Q182" s="99">
+      <c r="P182" s="72"/>
+      <c r="Q182" s="78">
         <v>42.03</v>
       </c>
-      <c r="R182" s="100"/>
-      <c r="S182" s="108">
+      <c r="R182" s="79"/>
+      <c r="S182" s="96">
         <v>1.4</v>
       </c>
-      <c r="T182" s="93"/>
+      <c r="T182" s="72"/>
     </row>
     <row r="183" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A183" s="92" t="s">
+      <c r="A183" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B183" s="93"/>
-      <c r="C183" s="92">
+      <c r="B183" s="72"/>
+      <c r="C183" s="71">
         <v>140</v>
       </c>
-      <c r="D183" s="93"/>
-      <c r="E183" s="94">
+      <c r="D183" s="72"/>
+      <c r="E183" s="73">
         <v>9</v>
       </c>
-      <c r="F183" s="93"/>
-      <c r="G183" s="94"/>
-      <c r="H183" s="93"/>
-      <c r="I183" s="95">
+      <c r="F183" s="72"/>
+      <c r="G183" s="73"/>
+      <c r="H183" s="72"/>
+      <c r="I183" s="74">
         <v>8.44</v>
       </c>
-      <c r="J183" s="93"/>
-      <c r="K183" s="96">
+      <c r="J183" s="72"/>
+      <c r="K183" s="75">
         <v>0.45</v>
       </c>
-      <c r="L183" s="93"/>
-      <c r="M183" s="97">
+      <c r="L183" s="72"/>
+      <c r="M183" s="76">
         <v>58.06</v>
       </c>
-      <c r="N183" s="93"/>
-      <c r="O183" s="98">
+      <c r="N183" s="72"/>
+      <c r="O183" s="77">
         <v>1.8</v>
       </c>
-      <c r="P183" s="93"/>
-      <c r="Q183" s="99">
+      <c r="P183" s="72"/>
+      <c r="Q183" s="78">
         <v>41.94</v>
       </c>
-      <c r="R183" s="100"/>
-      <c r="S183" s="94">
+      <c r="R183" s="79"/>
+      <c r="S183" s="73">
         <v>1.4</v>
       </c>
-      <c r="T183" s="93"/>
+      <c r="T183" s="72"/>
     </row>
     <row r="184" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A184" s="109" t="s">
+      <c r="A184" s="98" t="s">
         <v>145</v>
       </c>
-      <c r="B184" s="93"/>
-      <c r="C184" s="109">
+      <c r="B184" s="72"/>
+      <c r="C184" s="98">
         <v>140</v>
       </c>
-      <c r="D184" s="93"/>
-      <c r="E184" s="108">
+      <c r="D184" s="72"/>
+      <c r="E184" s="96">
         <v>4</v>
       </c>
-      <c r="F184" s="93"/>
-      <c r="G184" s="108">
+      <c r="F184" s="72"/>
+      <c r="G184" s="96">
         <v>0.5</v>
       </c>
-      <c r="H184" s="93"/>
-      <c r="I184" s="110"/>
-      <c r="J184" s="93"/>
-      <c r="K184" s="111">
+      <c r="H184" s="72"/>
+      <c r="I184" s="99"/>
+      <c r="J184" s="72"/>
+      <c r="K184" s="97">
         <v>0.77</v>
       </c>
-      <c r="L184" s="93"/>
-      <c r="M184" s="112">
+      <c r="L184" s="72"/>
+      <c r="M184" s="100">
         <v>69.849999999999994</v>
       </c>
-      <c r="N184" s="93"/>
-      <c r="O184" s="113">
+      <c r="N184" s="72"/>
+      <c r="O184" s="101">
         <v>1.2</v>
       </c>
-      <c r="P184" s="93"/>
-      <c r="Q184" s="99">
+      <c r="P184" s="72"/>
+      <c r="Q184" s="78">
         <v>41.63</v>
       </c>
-      <c r="R184" s="100"/>
-      <c r="S184" s="108">
+      <c r="R184" s="79"/>
+      <c r="S184" s="96">
         <v>1.4</v>
       </c>
-      <c r="T184" s="93"/>
+      <c r="T184" s="72"/>
     </row>
     <row r="185" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A185" s="129" t="s">
+      <c r="A185" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="B185" s="115"/>
-      <c r="C185" s="129">
+      <c r="B185" s="81"/>
+      <c r="C185" s="91">
         <v>140</v>
       </c>
-      <c r="D185" s="115"/>
-      <c r="E185" s="130">
+      <c r="D185" s="81"/>
+      <c r="E185" s="92">
         <v>4</v>
       </c>
-      <c r="F185" s="115"/>
-      <c r="G185" s="130">
+      <c r="F185" s="81"/>
+      <c r="G185" s="92">
         <v>1</v>
       </c>
-      <c r="H185" s="115"/>
-      <c r="I185" s="131"/>
-      <c r="J185" s="115"/>
-      <c r="K185" s="132">
+      <c r="H185" s="81"/>
+      <c r="I185" s="93"/>
+      <c r="J185" s="81"/>
+      <c r="K185" s="94">
         <v>1.03</v>
       </c>
-      <c r="L185" s="115"/>
-      <c r="M185" s="133">
+      <c r="L185" s="81"/>
+      <c r="M185" s="95">
         <v>78.52</v>
       </c>
-      <c r="N185" s="115"/>
-      <c r="O185" s="134">
+      <c r="N185" s="81"/>
+      <c r="O185" s="112">
         <v>0.6</v>
       </c>
-      <c r="P185" s="115"/>
-      <c r="Q185" s="127">
+      <c r="P185" s="81"/>
+      <c r="Q185" s="110">
         <v>41.5</v>
       </c>
-      <c r="R185" s="128"/>
-      <c r="S185" s="130">
+      <c r="R185" s="111"/>
+      <c r="S185" s="92">
         <v>1.4</v>
       </c>
-      <c r="T185" s="115"/>
+      <c r="T185" s="81"/>
     </row>
     <row r="186" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A186" s="101" t="s">
+      <c r="A186" s="102" t="s">
         <v>147</v>
       </c>
-      <c r="B186" s="91"/>
-      <c r="C186" s="101">
+      <c r="B186" s="66"/>
+      <c r="C186" s="102">
         <v>150</v>
       </c>
-      <c r="D186" s="91"/>
-      <c r="E186" s="90">
+      <c r="D186" s="66"/>
+      <c r="E186" s="70">
         <v>6</v>
       </c>
-      <c r="F186" s="91"/>
-      <c r="G186" s="90"/>
-      <c r="H186" s="91"/>
-      <c r="I186" s="102">
+      <c r="F186" s="66"/>
+      <c r="G186" s="70"/>
+      <c r="H186" s="66"/>
+      <c r="I186" s="122">
         <v>7.58</v>
       </c>
-      <c r="J186" s="91"/>
-      <c r="K186" s="103">
+      <c r="J186" s="66"/>
+      <c r="K186" s="123">
         <v>0.38</v>
       </c>
-      <c r="L186" s="91"/>
-      <c r="M186" s="104">
+      <c r="L186" s="66"/>
+      <c r="M186" s="89">
         <v>55.19</v>
       </c>
-      <c r="N186" s="91"/>
-      <c r="O186" s="105">
+      <c r="N186" s="66"/>
+      <c r="O186" s="90">
         <v>2.8</v>
       </c>
-      <c r="P186" s="91"/>
-      <c r="Q186" s="106">
+      <c r="P186" s="66"/>
+      <c r="Q186" s="105">
         <v>42.01</v>
       </c>
-      <c r="R186" s="107"/>
-      <c r="S186" s="90">
+      <c r="R186" s="69"/>
+      <c r="S186" s="70">
         <v>1.4</v>
       </c>
-      <c r="T186" s="91"/>
+      <c r="T186" s="66"/>
     </row>
     <row r="187" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A187" s="92" t="s">
+      <c r="A187" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="B187" s="93"/>
-      <c r="C187" s="92">
+      <c r="B187" s="72"/>
+      <c r="C187" s="71">
         <v>150</v>
       </c>
-      <c r="D187" s="93"/>
-      <c r="E187" s="94">
+      <c r="D187" s="72"/>
+      <c r="E187" s="73">
         <v>9</v>
       </c>
-      <c r="F187" s="93"/>
-      <c r="G187" s="94"/>
-      <c r="H187" s="93"/>
-      <c r="I187" s="95">
+      <c r="F187" s="72"/>
+      <c r="G187" s="73"/>
+      <c r="H187" s="72"/>
+      <c r="I187" s="74">
         <v>8.83</v>
       </c>
-      <c r="J187" s="93"/>
-      <c r="K187" s="96">
+      <c r="J187" s="72"/>
+      <c r="K187" s="75">
         <v>0.49</v>
       </c>
-      <c r="L187" s="93"/>
-      <c r="M187" s="97">
+      <c r="L187" s="72"/>
+      <c r="M187" s="76">
         <v>60.13</v>
       </c>
-      <c r="N187" s="93"/>
-      <c r="O187" s="98">
+      <c r="N187" s="72"/>
+      <c r="O187" s="77">
         <v>2.1</v>
       </c>
-      <c r="P187" s="93"/>
-      <c r="Q187" s="99">
+      <c r="P187" s="72"/>
+      <c r="Q187" s="78">
         <v>41.87</v>
       </c>
-      <c r="R187" s="100"/>
-      <c r="S187" s="94">
+      <c r="R187" s="79"/>
+      <c r="S187" s="73">
         <v>1.4</v>
       </c>
-      <c r="T187" s="93"/>
+      <c r="T187" s="72"/>
     </row>
     <row r="188" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A188" s="109" t="s">
+      <c r="A188" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B188" s="93"/>
-      <c r="C188" s="109">
+      <c r="B188" s="72"/>
+      <c r="C188" s="98">
         <v>150</v>
       </c>
-      <c r="D188" s="93"/>
-      <c r="E188" s="108">
+      <c r="D188" s="72"/>
+      <c r="E188" s="96">
         <v>4</v>
       </c>
-      <c r="F188" s="93"/>
-      <c r="G188" s="108">
+      <c r="F188" s="72"/>
+      <c r="G188" s="96">
         <v>0.5</v>
       </c>
-      <c r="H188" s="93"/>
-      <c r="I188" s="110"/>
-      <c r="J188" s="93"/>
-      <c r="K188" s="111">
+      <c r="H188" s="72"/>
+      <c r="I188" s="99"/>
+      <c r="J188" s="72"/>
+      <c r="K188" s="97">
         <v>0.84</v>
       </c>
-      <c r="L188" s="93"/>
-      <c r="M188" s="112">
+      <c r="L188" s="72"/>
+      <c r="M188" s="100">
         <v>72.150000000000006</v>
       </c>
-      <c r="N188" s="93"/>
-      <c r="O188" s="113">
+      <c r="N188" s="72"/>
+      <c r="O188" s="101">
         <v>1.4</v>
       </c>
-      <c r="P188" s="93"/>
-      <c r="Q188" s="99">
+      <c r="P188" s="72"/>
+      <c r="Q188" s="78">
         <v>41.58</v>
       </c>
-      <c r="R188" s="100"/>
-      <c r="S188" s="108">
+      <c r="R188" s="79"/>
+      <c r="S188" s="96">
         <v>1.4</v>
       </c>
-      <c r="T188" s="93"/>
+      <c r="T188" s="72"/>
     </row>
     <row r="189" spans="1:20" ht="14.1" customHeight="1">
-      <c r="A189" s="92" t="s">
+      <c r="A189" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="B189" s="93"/>
-      <c r="C189" s="92">
+      <c r="B189" s="72"/>
+      <c r="C189" s="71">
         <v>150</v>
       </c>
-      <c r="D189" s="93"/>
-      <c r="E189" s="94">
+      <c r="D189" s="72"/>
+      <c r="E189" s="73">
         <v>4</v>
       </c>
-      <c r="F189" s="93"/>
-      <c r="G189" s="94">
+      <c r="F189" s="72"/>
+      <c r="G189" s="73">
         <v>1</v>
       </c>
-      <c r="H189" s="93"/>
-      <c r="I189" s="95"/>
-      <c r="J189" s="93"/>
-      <c r="K189" s="96">
+      <c r="H189" s="72"/>
+      <c r="I189" s="74"/>
+      <c r="J189" s="72"/>
+      <c r="K189" s="75">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L189" s="93"/>
-      <c r="M189" s="97">
+      <c r="L189" s="72"/>
+      <c r="M189" s="76">
         <v>81.36</v>
       </c>
-      <c r="N189" s="93"/>
-      <c r="O189" s="98">
+      <c r="N189" s="72"/>
+      <c r="O189" s="77">
         <v>0.9</v>
       </c>
-      <c r="P189" s="93"/>
-      <c r="Q189" s="99">
+      <c r="P189" s="72"/>
+      <c r="Q189" s="78">
         <v>41.45</v>
       </c>
-      <c r="R189" s="100"/>
-      <c r="S189" s="94">
+      <c r="R189" s="79"/>
+      <c r="S189" s="73">
         <v>1.4</v>
       </c>
-      <c r="T189" s="93"/>
+      <c r="T189" s="72"/>
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1">
-      <c r="A190" s="122" t="s">
+      <c r="A190" s="80" t="s">
         <v>150</v>
       </c>
-      <c r="B190" s="115"/>
-      <c r="C190" s="122">
+      <c r="B190" s="81"/>
+      <c r="C190" s="80">
         <v>150</v>
       </c>
-      <c r="D190" s="115"/>
-      <c r="E190" s="114">
+      <c r="D190" s="81"/>
+      <c r="E190" s="82">
         <v>4</v>
       </c>
-      <c r="F190" s="115"/>
-      <c r="G190" s="114">
+      <c r="F190" s="81"/>
+      <c r="G190" s="82">
         <v>1.6</v>
       </c>
-      <c r="H190" s="115"/>
-      <c r="I190" s="123"/>
-      <c r="J190" s="115"/>
-      <c r="K190" s="124">
+      <c r="H190" s="81"/>
+      <c r="I190" s="83"/>
+      <c r="J190" s="81"/>
+      <c r="K190" s="84">
         <v>1.38</v>
       </c>
-      <c r="L190" s="115"/>
-      <c r="M190" s="125">
+      <c r="L190" s="81"/>
+      <c r="M190" s="108">
         <v>89.07</v>
       </c>
-      <c r="N190" s="115"/>
-      <c r="O190" s="126">
+      <c r="N190" s="81"/>
+      <c r="O190" s="109">
         <v>0.4</v>
       </c>
-      <c r="P190" s="115"/>
-      <c r="Q190" s="127">
+      <c r="P190" s="81"/>
+      <c r="Q190" s="110">
         <v>41.28</v>
       </c>
-      <c r="R190" s="128"/>
-      <c r="S190" s="114">
+      <c r="R190" s="111"/>
+      <c r="S190" s="82">
         <v>1.4</v>
       </c>
-      <c r="T190" s="115"/>
+      <c r="T190" s="81"/>
     </row>
     <row r="191" spans="1:20" ht="8.1" customHeight="1"/>
     <row r="192" spans="1:20" ht="21" customHeight="1">
@@ -6947,966 +6951,966 @@
       </c>
     </row>
     <row r="197" spans="1:20" ht="60" customHeight="1">
-      <c r="A197" s="135" t="s">
+      <c r="A197" s="106" t="s">
         <v>76</v>
       </c>
-      <c r="B197" s="65"/>
-      <c r="C197" s="135" t="s">
+      <c r="B197" s="107"/>
+      <c r="C197" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="D197" s="65"/>
-      <c r="E197" s="135" t="s">
+      <c r="D197" s="107"/>
+      <c r="E197" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="F197" s="65"/>
-      <c r="G197" s="135" t="s">
+      <c r="F197" s="107"/>
+      <c r="G197" s="106" t="s">
         <v>78</v>
       </c>
-      <c r="H197" s="65"/>
-      <c r="I197" s="135" t="s">
+      <c r="H197" s="107"/>
+      <c r="I197" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="J197" s="65"/>
-      <c r="K197" s="135" t="s">
+      <c r="J197" s="107"/>
+      <c r="K197" s="106" t="s">
         <v>100</v>
       </c>
-      <c r="L197" s="65"/>
-      <c r="M197" s="135" t="s">
+      <c r="L197" s="107"/>
+      <c r="M197" s="106" t="s">
         <v>81</v>
       </c>
-      <c r="N197" s="65"/>
-      <c r="O197" s="135" t="s">
+      <c r="N197" s="107"/>
+      <c r="O197" s="106" t="s">
         <v>82</v>
       </c>
-      <c r="P197" s="65"/>
-      <c r="Q197" s="158" t="s">
+      <c r="P197" s="107"/>
+      <c r="Q197" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="R197" s="65"/>
-      <c r="S197" s="135" t="s">
+      <c r="R197" s="107"/>
+      <c r="S197" s="106" t="s">
         <v>84</v>
       </c>
-      <c r="T197" s="65"/>
+      <c r="T197" s="107"/>
     </row>
     <row r="198" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A198" s="165"/>
-      <c r="B198" s="164"/>
-      <c r="C198" s="163" t="s">
+      <c r="A198" s="64"/>
+      <c r="B198" s="63"/>
+      <c r="C198" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="D198" s="164"/>
-      <c r="E198" s="163" t="s">
+      <c r="D198" s="63"/>
+      <c r="E198" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="F198" s="164"/>
-      <c r="G198" s="163" t="s">
+      <c r="F198" s="63"/>
+      <c r="G198" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="H198" s="164"/>
-      <c r="I198" s="163" t="s">
+      <c r="H198" s="63"/>
+      <c r="I198" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="J198" s="164"/>
-      <c r="K198" s="163" t="s">
+      <c r="J198" s="63"/>
+      <c r="K198" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L198" s="164"/>
-      <c r="M198" s="163" t="s">
+      <c r="L198" s="63"/>
+      <c r="M198" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="N198" s="164"/>
-      <c r="O198" s="163" t="s">
+      <c r="N198" s="63"/>
+      <c r="O198" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="P198" s="164"/>
-      <c r="Q198" s="163" t="s">
+      <c r="P198" s="63"/>
+      <c r="Q198" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="R198" s="164"/>
-      <c r="S198" s="163" t="s">
+      <c r="R198" s="63"/>
+      <c r="S198" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="T198" s="164"/>
+      <c r="T198" s="63"/>
     </row>
     <row r="199" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A199" s="116" t="s">
+      <c r="A199" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="B199" s="91"/>
-      <c r="C199" s="116">
+      <c r="B199" s="66"/>
+      <c r="C199" s="85">
         <v>200</v>
       </c>
-      <c r="D199" s="91"/>
-      <c r="E199" s="117">
+      <c r="D199" s="66"/>
+      <c r="E199" s="86">
         <v>9</v>
       </c>
-      <c r="F199" s="91"/>
-      <c r="G199" s="117"/>
-      <c r="H199" s="91"/>
-      <c r="I199" s="118">
+      <c r="F199" s="66"/>
+      <c r="G199" s="86"/>
+      <c r="H199" s="66"/>
+      <c r="I199" s="87">
         <v>10.53</v>
       </c>
-      <c r="J199" s="91"/>
-      <c r="K199" s="119">
+      <c r="J199" s="66"/>
+      <c r="K199" s="88">
         <v>0.73</v>
       </c>
-      <c r="L199" s="91"/>
-      <c r="M199" s="120">
+      <c r="L199" s="66"/>
+      <c r="M199" s="103">
         <v>69.760000000000005</v>
       </c>
-      <c r="N199" s="91"/>
-      <c r="O199" s="121">
+      <c r="N199" s="66"/>
+      <c r="O199" s="104">
         <v>2.9</v>
       </c>
-      <c r="P199" s="91"/>
-      <c r="Q199" s="106">
+      <c r="P199" s="66"/>
+      <c r="Q199" s="105">
         <v>41.63</v>
       </c>
-      <c r="R199" s="107"/>
-      <c r="S199" s="117">
+      <c r="R199" s="69"/>
+      <c r="S199" s="86">
         <v>1.4</v>
       </c>
-      <c r="T199" s="91"/>
+      <c r="T199" s="66"/>
     </row>
     <row r="200" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A200" s="109" t="s">
+      <c r="A200" s="98" t="s">
         <v>152</v>
       </c>
-      <c r="B200" s="93"/>
-      <c r="C200" s="109">
+      <c r="B200" s="72"/>
+      <c r="C200" s="98">
         <v>200</v>
       </c>
-      <c r="D200" s="93"/>
-      <c r="E200" s="108">
+      <c r="D200" s="72"/>
+      <c r="E200" s="96">
         <v>4</v>
       </c>
-      <c r="F200" s="93"/>
-      <c r="G200" s="108">
+      <c r="F200" s="72"/>
+      <c r="G200" s="96">
         <v>0.5</v>
       </c>
-      <c r="H200" s="93"/>
-      <c r="I200" s="110"/>
-      <c r="J200" s="93"/>
-      <c r="K200" s="111">
+      <c r="H200" s="72"/>
+      <c r="I200" s="99"/>
+      <c r="J200" s="72"/>
+      <c r="K200" s="97">
         <v>1.21</v>
       </c>
-      <c r="L200" s="93"/>
-      <c r="M200" s="112">
+      <c r="L200" s="72"/>
+      <c r="M200" s="100">
         <v>82.81</v>
       </c>
-      <c r="N200" s="93"/>
-      <c r="O200" s="113">
+      <c r="N200" s="72"/>
+      <c r="O200" s="101">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P200" s="93"/>
-      <c r="Q200" s="99">
+      <c r="P200" s="72"/>
+      <c r="Q200" s="78">
         <v>41.43</v>
       </c>
-      <c r="R200" s="100"/>
-      <c r="S200" s="108">
+      <c r="R200" s="79"/>
+      <c r="S200" s="96">
         <v>1.4</v>
       </c>
-      <c r="T200" s="93"/>
+      <c r="T200" s="72"/>
     </row>
     <row r="201" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A201" s="92" t="s">
+      <c r="A201" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="B201" s="93"/>
-      <c r="C201" s="92">
+      <c r="B201" s="72"/>
+      <c r="C201" s="71">
         <v>200</v>
       </c>
-      <c r="D201" s="93"/>
-      <c r="E201" s="94">
+      <c r="D201" s="72"/>
+      <c r="E201" s="73">
         <v>4</v>
       </c>
-      <c r="F201" s="93"/>
-      <c r="G201" s="94">
+      <c r="F201" s="72"/>
+      <c r="G201" s="73">
         <v>1</v>
       </c>
-      <c r="H201" s="93"/>
-      <c r="I201" s="95"/>
-      <c r="J201" s="93"/>
-      <c r="K201" s="96">
+      <c r="H201" s="72"/>
+      <c r="I201" s="74"/>
+      <c r="J201" s="72"/>
+      <c r="K201" s="75">
         <v>1.63</v>
       </c>
-      <c r="L201" s="93"/>
-      <c r="M201" s="97">
+      <c r="L201" s="72"/>
+      <c r="M201" s="76">
         <v>94.74</v>
       </c>
-      <c r="N201" s="93"/>
-      <c r="O201" s="98">
+      <c r="N201" s="72"/>
+      <c r="O201" s="77">
         <v>1.6</v>
       </c>
-      <c r="P201" s="93"/>
-      <c r="Q201" s="99">
+      <c r="P201" s="72"/>
+      <c r="Q201" s="78">
         <v>41.29</v>
       </c>
-      <c r="R201" s="100"/>
-      <c r="S201" s="94">
+      <c r="R201" s="79"/>
+      <c r="S201" s="73">
         <v>1.4</v>
       </c>
-      <c r="T201" s="93"/>
+      <c r="T201" s="72"/>
     </row>
     <row r="202" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A202" s="109" t="s">
+      <c r="A202" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="B202" s="93"/>
-      <c r="C202" s="109">
+      <c r="B202" s="72"/>
+      <c r="C202" s="98">
         <v>200</v>
       </c>
-      <c r="D202" s="93"/>
-      <c r="E202" s="108">
+      <c r="D202" s="72"/>
+      <c r="E202" s="96">
         <v>4</v>
       </c>
-      <c r="F202" s="93"/>
-      <c r="G202" s="108">
+      <c r="F202" s="72"/>
+      <c r="G202" s="96">
         <v>1.6</v>
       </c>
-      <c r="H202" s="93"/>
-      <c r="I202" s="110"/>
-      <c r="J202" s="93"/>
-      <c r="K202" s="111">
+      <c r="H202" s="72"/>
+      <c r="I202" s="99"/>
+      <c r="J202" s="72"/>
+      <c r="K202" s="97">
         <v>2</v>
       </c>
-      <c r="L202" s="93"/>
-      <c r="M202" s="112">
+      <c r="L202" s="72"/>
+      <c r="M202" s="100">
         <v>105.25</v>
       </c>
-      <c r="N202" s="93"/>
-      <c r="O202" s="113">
+      <c r="N202" s="72"/>
+      <c r="O202" s="101">
         <v>1.2</v>
       </c>
-      <c r="P202" s="93"/>
-      <c r="Q202" s="99">
+      <c r="P202" s="72"/>
+      <c r="Q202" s="78">
         <v>41.2</v>
       </c>
-      <c r="R202" s="100"/>
-      <c r="S202" s="108">
+      <c r="R202" s="79"/>
+      <c r="S202" s="96">
         <v>1.4</v>
       </c>
-      <c r="T202" s="93"/>
+      <c r="T202" s="72"/>
     </row>
     <row r="203" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A203" s="129" t="s">
+      <c r="A203" s="91" t="s">
         <v>154</v>
       </c>
-      <c r="B203" s="115"/>
-      <c r="C203" s="129">
+      <c r="B203" s="81"/>
+      <c r="C203" s="91">
         <v>200</v>
       </c>
-      <c r="D203" s="115"/>
-      <c r="E203" s="130">
+      <c r="D203" s="81"/>
+      <c r="E203" s="92">
         <v>4</v>
       </c>
-      <c r="F203" s="115"/>
-      <c r="G203" s="130">
+      <c r="F203" s="81"/>
+      <c r="G203" s="92">
         <v>3</v>
       </c>
-      <c r="H203" s="115"/>
-      <c r="I203" s="131"/>
-      <c r="J203" s="115"/>
-      <c r="K203" s="132">
+      <c r="H203" s="81"/>
+      <c r="I203" s="93"/>
+      <c r="J203" s="81"/>
+      <c r="K203" s="94">
         <v>2.54</v>
       </c>
-      <c r="L203" s="115"/>
-      <c r="M203" s="133">
+      <c r="L203" s="81"/>
+      <c r="M203" s="95">
         <v>120.15</v>
       </c>
-      <c r="N203" s="115"/>
-      <c r="O203" s="134">
+      <c r="N203" s="81"/>
+      <c r="O203" s="112">
         <v>0.6</v>
       </c>
-      <c r="P203" s="115"/>
-      <c r="Q203" s="127">
+      <c r="P203" s="81"/>
+      <c r="Q203" s="110">
         <v>41.06</v>
       </c>
-      <c r="R203" s="128"/>
-      <c r="S203" s="130">
+      <c r="R203" s="111"/>
+      <c r="S203" s="92">
         <v>1.4</v>
       </c>
-      <c r="T203" s="115"/>
+      <c r="T203" s="81"/>
     </row>
     <row r="204" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A204" s="101" t="s">
+      <c r="A204" s="102" t="s">
         <v>155</v>
       </c>
-      <c r="B204" s="91"/>
-      <c r="C204" s="101">
+      <c r="B204" s="66"/>
+      <c r="C204" s="102">
         <v>250</v>
       </c>
-      <c r="D204" s="91"/>
-      <c r="E204" s="90">
+      <c r="D204" s="66"/>
+      <c r="E204" s="70">
         <v>4</v>
       </c>
-      <c r="F204" s="91"/>
-      <c r="G204" s="90">
+      <c r="F204" s="66"/>
+      <c r="G204" s="70">
         <v>0.5</v>
       </c>
-      <c r="H204" s="91"/>
-      <c r="I204" s="102"/>
-      <c r="J204" s="91"/>
-      <c r="K204" s="103">
+      <c r="H204" s="66"/>
+      <c r="I204" s="122"/>
+      <c r="J204" s="66"/>
+      <c r="K204" s="123">
         <v>1.61</v>
       </c>
-      <c r="L204" s="91"/>
-      <c r="M204" s="104">
+      <c r="L204" s="66"/>
+      <c r="M204" s="89">
         <v>92.84</v>
       </c>
-      <c r="N204" s="91"/>
-      <c r="O204" s="105">
+      <c r="N204" s="66"/>
+      <c r="O204" s="90">
         <v>3</v>
       </c>
-      <c r="P204" s="91"/>
-      <c r="Q204" s="106">
+      <c r="P204" s="66"/>
+      <c r="Q204" s="105">
         <v>41.34</v>
       </c>
-      <c r="R204" s="107"/>
-      <c r="S204" s="90">
+      <c r="R204" s="69"/>
+      <c r="S204" s="70">
         <v>1.4</v>
       </c>
-      <c r="T204" s="91"/>
+      <c r="T204" s="66"/>
     </row>
     <row r="205" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A205" s="92" t="s">
+      <c r="A205" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="B205" s="93"/>
-      <c r="C205" s="92">
+      <c r="B205" s="72"/>
+      <c r="C205" s="71">
         <v>250</v>
       </c>
-      <c r="D205" s="93"/>
-      <c r="E205" s="94">
+      <c r="D205" s="72"/>
+      <c r="E205" s="73">
         <v>4</v>
       </c>
-      <c r="F205" s="93"/>
-      <c r="G205" s="94">
+      <c r="F205" s="72"/>
+      <c r="G205" s="73">
         <v>1</v>
       </c>
-      <c r="H205" s="93"/>
-      <c r="I205" s="95"/>
-      <c r="J205" s="93"/>
-      <c r="K205" s="96">
+      <c r="H205" s="72"/>
+      <c r="I205" s="74"/>
+      <c r="J205" s="72"/>
+      <c r="K205" s="75">
         <v>2.14</v>
       </c>
-      <c r="L205" s="93"/>
-      <c r="M205" s="97">
+      <c r="L205" s="72"/>
+      <c r="M205" s="76">
         <v>107.32</v>
       </c>
-      <c r="N205" s="93"/>
-      <c r="O205" s="98">
+      <c r="N205" s="72"/>
+      <c r="O205" s="77">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P205" s="93"/>
-      <c r="Q205" s="99">
+      <c r="P205" s="72"/>
+      <c r="Q205" s="78">
         <v>41.25</v>
       </c>
-      <c r="R205" s="100"/>
-      <c r="S205" s="94">
+      <c r="R205" s="79"/>
+      <c r="S205" s="73">
         <v>1.4</v>
       </c>
-      <c r="T205" s="93"/>
+      <c r="T205" s="72"/>
     </row>
     <row r="206" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A206" s="109" t="s">
+      <c r="A206" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B206" s="93"/>
-      <c r="C206" s="109">
+      <c r="B206" s="72"/>
+      <c r="C206" s="98">
         <v>250</v>
       </c>
-      <c r="D206" s="93"/>
-      <c r="E206" s="108">
+      <c r="D206" s="72"/>
+      <c r="E206" s="96">
         <v>4</v>
       </c>
-      <c r="F206" s="93"/>
-      <c r="G206" s="108">
+      <c r="F206" s="72"/>
+      <c r="G206" s="96">
         <v>1.6</v>
       </c>
-      <c r="H206" s="93"/>
-      <c r="I206" s="110"/>
-      <c r="J206" s="93"/>
-      <c r="K206" s="111">
+      <c r="H206" s="72"/>
+      <c r="I206" s="99"/>
+      <c r="J206" s="72"/>
+      <c r="K206" s="97">
         <v>2.57</v>
       </c>
-      <c r="L206" s="93"/>
-      <c r="M206" s="112">
+      <c r="L206" s="72"/>
+      <c r="M206" s="100">
         <v>120.1</v>
       </c>
-      <c r="N206" s="93"/>
-      <c r="O206" s="113">
+      <c r="N206" s="72"/>
+      <c r="O206" s="101">
         <v>1.8</v>
       </c>
-      <c r="P206" s="93"/>
-      <c r="Q206" s="99">
+      <c r="P206" s="72"/>
+      <c r="Q206" s="78">
         <v>41.18</v>
       </c>
-      <c r="R206" s="100"/>
-      <c r="S206" s="108">
+      <c r="R206" s="79"/>
+      <c r="S206" s="96">
         <v>1.4</v>
       </c>
-      <c r="T206" s="93"/>
+      <c r="T206" s="72"/>
     </row>
     <row r="207" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A207" s="92" t="s">
+      <c r="A207" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="B207" s="93"/>
-      <c r="C207" s="92">
+      <c r="B207" s="72"/>
+      <c r="C207" s="71">
         <v>250</v>
       </c>
-      <c r="D207" s="93"/>
-      <c r="E207" s="94">
+      <c r="D207" s="72"/>
+      <c r="E207" s="73">
         <v>4</v>
       </c>
-      <c r="F207" s="93"/>
-      <c r="G207" s="94">
+      <c r="F207" s="72"/>
+      <c r="G207" s="73">
         <v>3</v>
       </c>
-      <c r="H207" s="93"/>
-      <c r="I207" s="95"/>
-      <c r="J207" s="93"/>
-      <c r="K207" s="96">
+      <c r="H207" s="72"/>
+      <c r="I207" s="74"/>
+      <c r="J207" s="72"/>
+      <c r="K207" s="75">
         <v>3.16</v>
       </c>
-      <c r="L207" s="93"/>
-      <c r="M207" s="97">
+      <c r="L207" s="72"/>
+      <c r="M207" s="76">
         <v>137.46</v>
       </c>
-      <c r="N207" s="93"/>
-      <c r="O207" s="98">
+      <c r="N207" s="72"/>
+      <c r="O207" s="77">
         <v>1.2</v>
       </c>
-      <c r="P207" s="93"/>
-      <c r="Q207" s="99">
+      <c r="P207" s="72"/>
+      <c r="Q207" s="78">
         <v>41.09</v>
       </c>
-      <c r="R207" s="100"/>
-      <c r="S207" s="94">
+      <c r="R207" s="79"/>
+      <c r="S207" s="73">
         <v>1.4</v>
       </c>
-      <c r="T207" s="93"/>
+      <c r="T207" s="72"/>
     </row>
     <row r="208" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A208" s="122" t="s">
+      <c r="A208" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="B208" s="115"/>
-      <c r="C208" s="122">
+      <c r="B208" s="81"/>
+      <c r="C208" s="80">
         <v>250</v>
       </c>
-      <c r="D208" s="115"/>
-      <c r="E208" s="114">
+      <c r="D208" s="81"/>
+      <c r="E208" s="82">
         <v>4</v>
       </c>
-      <c r="F208" s="115"/>
-      <c r="G208" s="114">
+      <c r="F208" s="81"/>
+      <c r="G208" s="82">
         <v>5</v>
       </c>
-      <c r="H208" s="115"/>
-      <c r="I208" s="123"/>
-      <c r="J208" s="115"/>
-      <c r="K208" s="124">
+      <c r="H208" s="81"/>
+      <c r="I208" s="83"/>
+      <c r="J208" s="81"/>
+      <c r="K208" s="84">
         <v>3.6</v>
       </c>
-      <c r="L208" s="115"/>
-      <c r="M208" s="125">
+      <c r="L208" s="81"/>
+      <c r="M208" s="108">
         <v>149.51</v>
       </c>
-      <c r="N208" s="115"/>
-      <c r="O208" s="126">
+      <c r="N208" s="81"/>
+      <c r="O208" s="109">
         <v>0.7</v>
       </c>
-      <c r="P208" s="115"/>
-      <c r="Q208" s="127">
+      <c r="P208" s="81"/>
+      <c r="Q208" s="110">
         <v>41.09</v>
       </c>
-      <c r="R208" s="128"/>
-      <c r="S208" s="114">
+      <c r="R208" s="111"/>
+      <c r="S208" s="82">
         <v>1.4</v>
       </c>
-      <c r="T208" s="115"/>
+      <c r="T208" s="81"/>
     </row>
     <row r="209" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A209" s="92" t="s">
+      <c r="A209" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="B209" s="93"/>
-      <c r="C209" s="92">
+      <c r="B209" s="72"/>
+      <c r="C209" s="71">
         <v>280</v>
       </c>
-      <c r="D209" s="93"/>
-      <c r="E209" s="94">
+      <c r="D209" s="72"/>
+      <c r="E209" s="73">
         <v>4</v>
       </c>
-      <c r="F209" s="93"/>
-      <c r="G209" s="94">
+      <c r="F209" s="72"/>
+      <c r="G209" s="73">
         <v>1</v>
       </c>
-      <c r="H209" s="93"/>
-      <c r="I209" s="95"/>
-      <c r="J209" s="93"/>
-      <c r="K209" s="96">
+      <c r="H209" s="72"/>
+      <c r="I209" s="74"/>
+      <c r="J209" s="72"/>
+      <c r="K209" s="75">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L209" s="93"/>
-      <c r="M209" s="97">
+      <c r="L209" s="72"/>
+      <c r="M209" s="76">
         <v>114.61</v>
       </c>
-      <c r="N209" s="93"/>
-      <c r="O209" s="98">
+      <c r="N209" s="72"/>
+      <c r="O209" s="77">
         <v>2.5</v>
       </c>
-      <c r="P209" s="93"/>
-      <c r="Q209" s="99">
+      <c r="P209" s="72"/>
+      <c r="Q209" s="78">
         <v>41.15</v>
       </c>
-      <c r="R209" s="100"/>
-      <c r="S209" s="94">
+      <c r="R209" s="79"/>
+      <c r="S209" s="73">
         <v>1.4</v>
       </c>
-      <c r="T209" s="93"/>
+      <c r="T209" s="72"/>
     </row>
     <row r="210" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A210" s="109" t="s">
+      <c r="A210" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="B210" s="93"/>
-      <c r="C210" s="109">
+      <c r="B210" s="72"/>
+      <c r="C210" s="98">
         <v>280</v>
       </c>
-      <c r="D210" s="93"/>
-      <c r="E210" s="108">
+      <c r="D210" s="72"/>
+      <c r="E210" s="96">
         <v>4</v>
       </c>
-      <c r="F210" s="93"/>
-      <c r="G210" s="108">
+      <c r="F210" s="72"/>
+      <c r="G210" s="96">
         <v>1.6</v>
       </c>
-      <c r="H210" s="93"/>
-      <c r="I210" s="110"/>
-      <c r="J210" s="93"/>
-      <c r="K210" s="111">
+      <c r="H210" s="72"/>
+      <c r="I210" s="99"/>
+      <c r="J210" s="72"/>
+      <c r="K210" s="97">
         <v>2.88</v>
       </c>
-      <c r="L210" s="93"/>
-      <c r="M210" s="112">
+      <c r="L210" s="72"/>
+      <c r="M210" s="100">
         <v>128.5</v>
       </c>
-      <c r="N210" s="93"/>
-      <c r="O210" s="113">
+      <c r="N210" s="72"/>
+      <c r="O210" s="101">
         <v>2</v>
       </c>
-      <c r="P210" s="93"/>
-      <c r="Q210" s="99">
+      <c r="P210" s="72"/>
+      <c r="Q210" s="78">
         <v>41.05</v>
       </c>
-      <c r="R210" s="100"/>
-      <c r="S210" s="108">
+      <c r="R210" s="79"/>
+      <c r="S210" s="96">
         <v>1.4</v>
       </c>
-      <c r="T210" s="93"/>
+      <c r="T210" s="72"/>
     </row>
     <row r="211" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A211" s="92" t="s">
+      <c r="A211" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="B211" s="93"/>
-      <c r="C211" s="92">
+      <c r="B211" s="72"/>
+      <c r="C211" s="71">
         <v>280</v>
       </c>
-      <c r="D211" s="93"/>
-      <c r="E211" s="94">
+      <c r="D211" s="72"/>
+      <c r="E211" s="73">
         <v>4</v>
       </c>
-      <c r="F211" s="93"/>
-      <c r="G211" s="94">
+      <c r="F211" s="72"/>
+      <c r="G211" s="73">
         <v>3</v>
       </c>
-      <c r="H211" s="93"/>
-      <c r="I211" s="95"/>
-      <c r="J211" s="93"/>
-      <c r="K211" s="96">
+      <c r="H211" s="72"/>
+      <c r="I211" s="74"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="75">
         <v>3.5</v>
       </c>
-      <c r="L211" s="93"/>
-      <c r="M211" s="97">
+      <c r="L211" s="72"/>
+      <c r="M211" s="76">
         <v>147.05000000000001</v>
       </c>
-      <c r="N211" s="93"/>
-      <c r="O211" s="98">
+      <c r="N211" s="72"/>
+      <c r="O211" s="77">
         <v>1.4</v>
       </c>
-      <c r="P211" s="93"/>
-      <c r="Q211" s="99">
+      <c r="P211" s="72"/>
+      <c r="Q211" s="78">
         <v>41.02</v>
       </c>
-      <c r="R211" s="100"/>
-      <c r="S211" s="94">
+      <c r="R211" s="79"/>
+      <c r="S211" s="73">
         <v>1.4</v>
       </c>
-      <c r="T211" s="93"/>
+      <c r="T211" s="72"/>
     </row>
     <row r="212" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A212" s="122" t="s">
+      <c r="A212" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="B212" s="115"/>
-      <c r="C212" s="122">
+      <c r="B212" s="81"/>
+      <c r="C212" s="80">
         <v>280</v>
       </c>
-      <c r="D212" s="115"/>
-      <c r="E212" s="114">
+      <c r="D212" s="81"/>
+      <c r="E212" s="82">
         <v>4</v>
       </c>
-      <c r="F212" s="115"/>
-      <c r="G212" s="114">
+      <c r="F212" s="81"/>
+      <c r="G212" s="82">
         <v>5</v>
       </c>
-      <c r="H212" s="115"/>
-      <c r="I212" s="123"/>
-      <c r="J212" s="115"/>
-      <c r="K212" s="124">
+      <c r="H212" s="81"/>
+      <c r="I212" s="83"/>
+      <c r="J212" s="81"/>
+      <c r="K212" s="84">
         <v>3.93</v>
       </c>
-      <c r="L212" s="115"/>
-      <c r="M212" s="125">
+      <c r="L212" s="81"/>
+      <c r="M212" s="108">
         <v>159.91999999999999</v>
       </c>
-      <c r="N212" s="115"/>
-      <c r="O212" s="126">
+      <c r="N212" s="81"/>
+      <c r="O212" s="109">
         <v>0.9</v>
       </c>
-      <c r="P212" s="115"/>
-      <c r="Q212" s="127">
+      <c r="P212" s="81"/>
+      <c r="Q212" s="110">
         <v>40.96</v>
       </c>
-      <c r="R212" s="128"/>
-      <c r="S212" s="114">
+      <c r="R212" s="111"/>
+      <c r="S212" s="82">
         <v>1.4</v>
       </c>
-      <c r="T212" s="115"/>
+      <c r="T212" s="81"/>
     </row>
     <row r="213" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A213" s="116" t="s">
+      <c r="A213" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="B213" s="91"/>
-      <c r="C213" s="116">
+      <c r="B213" s="66"/>
+      <c r="C213" s="85">
         <v>300</v>
       </c>
-      <c r="D213" s="91"/>
-      <c r="E213" s="117">
+      <c r="D213" s="66"/>
+      <c r="E213" s="86">
         <v>4</v>
       </c>
-      <c r="F213" s="91"/>
-      <c r="G213" s="117">
+      <c r="F213" s="66"/>
+      <c r="G213" s="86">
         <v>1.6</v>
       </c>
-      <c r="H213" s="91"/>
-      <c r="I213" s="118"/>
-      <c r="J213" s="91"/>
-      <c r="K213" s="119">
+      <c r="H213" s="66"/>
+      <c r="I213" s="87"/>
+      <c r="J213" s="66"/>
+      <c r="K213" s="88">
         <v>3.1</v>
       </c>
-      <c r="L213" s="91"/>
-      <c r="M213" s="120">
+      <c r="L213" s="66"/>
+      <c r="M213" s="103">
         <v>133.91999999999999</v>
       </c>
-      <c r="N213" s="91"/>
-      <c r="O213" s="121">
+      <c r="N213" s="66"/>
+      <c r="O213" s="104">
         <v>2.4</v>
       </c>
-      <c r="P213" s="91"/>
-      <c r="Q213" s="106">
+      <c r="P213" s="66"/>
+      <c r="Q213" s="105">
         <v>41.05</v>
       </c>
-      <c r="R213" s="107"/>
-      <c r="S213" s="117">
+      <c r="R213" s="69"/>
+      <c r="S213" s="86">
         <v>1.4</v>
       </c>
-      <c r="T213" s="91"/>
+      <c r="T213" s="66"/>
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A214" s="109" t="s">
+      <c r="A214" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="B214" s="93"/>
-      <c r="C214" s="109">
+      <c r="B214" s="72"/>
+      <c r="C214" s="98">
         <v>300</v>
       </c>
-      <c r="D214" s="93"/>
-      <c r="E214" s="108">
+      <c r="D214" s="72"/>
+      <c r="E214" s="96">
         <v>4</v>
       </c>
-      <c r="F214" s="93"/>
-      <c r="G214" s="108">
+      <c r="F214" s="72"/>
+      <c r="G214" s="96">
         <v>3</v>
       </c>
-      <c r="H214" s="93"/>
-      <c r="I214" s="110"/>
-      <c r="J214" s="93"/>
-      <c r="K214" s="111">
+      <c r="H214" s="72"/>
+      <c r="I214" s="99"/>
+      <c r="J214" s="72"/>
+      <c r="K214" s="97">
         <v>3.7</v>
       </c>
-      <c r="L214" s="93"/>
-      <c r="M214" s="112">
+      <c r="L214" s="72"/>
+      <c r="M214" s="100">
         <v>153.21</v>
       </c>
-      <c r="N214" s="93"/>
-      <c r="O214" s="113">
+      <c r="N214" s="72"/>
+      <c r="O214" s="101">
         <v>1.7</v>
       </c>
-      <c r="P214" s="93"/>
-      <c r="Q214" s="99">
+      <c r="P214" s="72"/>
+      <c r="Q214" s="78">
         <v>40.950000000000003</v>
       </c>
-      <c r="R214" s="100"/>
-      <c r="S214" s="108">
+      <c r="R214" s="79"/>
+      <c r="S214" s="96">
         <v>1.4</v>
       </c>
-      <c r="T214" s="93"/>
+      <c r="T214" s="72"/>
     </row>
     <row r="215" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A215" s="92" t="s">
+      <c r="A215" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="B215" s="93"/>
-      <c r="C215" s="92">
+      <c r="B215" s="72"/>
+      <c r="C215" s="71">
         <v>300</v>
       </c>
-      <c r="D215" s="93"/>
-      <c r="E215" s="94">
+      <c r="D215" s="72"/>
+      <c r="E215" s="73">
         <v>4</v>
       </c>
-      <c r="F215" s="93"/>
-      <c r="G215" s="94">
+      <c r="F215" s="72"/>
+      <c r="G215" s="73">
         <v>5</v>
       </c>
-      <c r="H215" s="93"/>
-      <c r="I215" s="95"/>
-      <c r="J215" s="93"/>
-      <c r="K215" s="96">
+      <c r="H215" s="72"/>
+      <c r="I215" s="74"/>
+      <c r="J215" s="72"/>
+      <c r="K215" s="75">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L215" s="93"/>
-      <c r="M215" s="97">
+      <c r="L215" s="72"/>
+      <c r="M215" s="76">
         <v>166.58</v>
       </c>
-      <c r="N215" s="93"/>
-      <c r="O215" s="98">
+      <c r="N215" s="72"/>
+      <c r="O215" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P215" s="93"/>
-      <c r="Q215" s="99">
+      <c r="P215" s="72"/>
+      <c r="Q215" s="78">
         <v>40.950000000000003</v>
       </c>
-      <c r="R215" s="100"/>
-      <c r="S215" s="94">
+      <c r="R215" s="79"/>
+      <c r="S215" s="73">
         <v>1.4</v>
       </c>
-      <c r="T215" s="93"/>
+      <c r="T215" s="72"/>
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A216" s="101" t="s">
+      <c r="A216" s="102" t="s">
         <v>164</v>
       </c>
-      <c r="B216" s="91"/>
-      <c r="C216" s="101">
+      <c r="B216" s="66"/>
+      <c r="C216" s="102">
         <v>320</v>
       </c>
-      <c r="D216" s="91"/>
-      <c r="E216" s="90">
+      <c r="D216" s="66"/>
+      <c r="E216" s="70">
         <v>4</v>
       </c>
-      <c r="F216" s="91"/>
-      <c r="G216" s="90">
+      <c r="F216" s="66"/>
+      <c r="G216" s="70">
         <v>3</v>
       </c>
-      <c r="H216" s="91"/>
-      <c r="I216" s="102"/>
-      <c r="J216" s="91"/>
-      <c r="K216" s="103">
+      <c r="H216" s="66"/>
+      <c r="I216" s="122"/>
+      <c r="J216" s="66"/>
+      <c r="K216" s="123">
         <v>3.9</v>
       </c>
-      <c r="L216" s="91"/>
-      <c r="M216" s="104">
+      <c r="L216" s="66"/>
+      <c r="M216" s="89">
         <v>159.22</v>
       </c>
-      <c r="N216" s="91"/>
-      <c r="O216" s="105">
+      <c r="N216" s="66"/>
+      <c r="O216" s="90">
         <v>1.6</v>
       </c>
-      <c r="P216" s="91"/>
-      <c r="Q216" s="106">
+      <c r="P216" s="66"/>
+      <c r="Q216" s="105">
         <v>40.9</v>
       </c>
-      <c r="R216" s="107"/>
-      <c r="S216" s="90">
+      <c r="R216" s="69"/>
+      <c r="S216" s="70">
         <v>1.4</v>
       </c>
-      <c r="T216" s="91"/>
+      <c r="T216" s="66"/>
     </row>
     <row r="217" spans="1:20" ht="14.25" customHeight="1">
-      <c r="A217" s="92" t="s">
+      <c r="A217" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="B217" s="93"/>
-      <c r="C217" s="92">
+      <c r="B217" s="72"/>
+      <c r="C217" s="71">
         <v>320</v>
       </c>
-      <c r="D217" s="93"/>
-      <c r="E217" s="94">
+      <c r="D217" s="72"/>
+      <c r="E217" s="73">
         <v>4</v>
       </c>
-      <c r="F217" s="93"/>
-      <c r="G217" s="94">
+      <c r="F217" s="72"/>
+      <c r="G217" s="73">
         <v>5</v>
       </c>
-      <c r="H217" s="93"/>
-      <c r="I217" s="95"/>
-      <c r="J217" s="93"/>
-      <c r="K217" s="96">
+      <c r="H217" s="72"/>
+      <c r="I217" s="74"/>
+      <c r="J217" s="72"/>
+      <c r="K217" s="75">
         <v>4.34</v>
       </c>
-      <c r="L217" s="93"/>
-      <c r="M217" s="97">
+      <c r="L217" s="72"/>
+      <c r="M217" s="76">
         <v>173.06</v>
       </c>
-      <c r="N217" s="93"/>
-      <c r="O217" s="98">
+      <c r="N217" s="72"/>
+      <c r="O217" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P217" s="93"/>
-      <c r="Q217" s="99">
+      <c r="P217" s="72"/>
+      <c r="Q217" s="78">
         <v>40.83</v>
       </c>
-      <c r="R217" s="100"/>
-      <c r="S217" s="94">
+      <c r="R217" s="79"/>
+      <c r="S217" s="73">
         <v>1.4</v>
       </c>
-      <c r="T217" s="93"/>
+      <c r="T217" s="72"/>
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1">
-      <c r="A218" s="69" t="s">
+      <c r="A218" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="B218" s="65"/>
-      <c r="C218" s="69">
+      <c r="B218" s="107"/>
+      <c r="C218" s="163">
         <v>250</v>
       </c>
-      <c r="D218" s="65"/>
-      <c r="E218" s="64">
+      <c r="D218" s="107"/>
+      <c r="E218" s="144">
         <v>4</v>
       </c>
-      <c r="F218" s="65"/>
-      <c r="G218" s="64">
+      <c r="F218" s="107"/>
+      <c r="G218" s="144">
         <v>1.6</v>
       </c>
-      <c r="H218" s="65"/>
-      <c r="I218" s="70"/>
-      <c r="J218" s="65"/>
-      <c r="K218" s="71">
+      <c r="H218" s="107"/>
+      <c r="I218" s="145"/>
+      <c r="J218" s="107"/>
+      <c r="K218" s="146">
         <v>2.57</v>
       </c>
-      <c r="L218" s="65"/>
-      <c r="M218" s="72">
+      <c r="L218" s="107"/>
+      <c r="M218" s="147">
         <v>120.1</v>
       </c>
-      <c r="N218" s="65"/>
-      <c r="O218" s="73">
+      <c r="N218" s="107"/>
+      <c r="O218" s="148">
         <v>1.8</v>
       </c>
-      <c r="P218" s="65"/>
-      <c r="Q218" s="62">
+      <c r="P218" s="107"/>
+      <c r="Q218" s="149">
         <v>41.04</v>
       </c>
-      <c r="R218" s="63"/>
-      <c r="S218" s="64">
+      <c r="R218" s="143"/>
+      <c r="S218" s="144">
         <v>1.4</v>
       </c>
-      <c r="T218" s="65"/>
+      <c r="T218" s="107"/>
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1">
-      <c r="A219" s="74" t="s">
+      <c r="A219" s="164" t="s">
         <v>167</v>
       </c>
-      <c r="B219" s="65"/>
-      <c r="C219" s="74">
+      <c r="B219" s="107"/>
+      <c r="C219" s="164">
         <v>280</v>
       </c>
-      <c r="D219" s="65"/>
-      <c r="E219" s="68">
+      <c r="D219" s="107"/>
+      <c r="E219" s="162">
         <v>4</v>
       </c>
-      <c r="F219" s="65"/>
-      <c r="G219" s="68">
+      <c r="F219" s="107"/>
+      <c r="G219" s="162">
         <v>3</v>
       </c>
-      <c r="H219" s="65"/>
-      <c r="I219" s="75"/>
-      <c r="J219" s="65"/>
-      <c r="K219" s="76">
+      <c r="H219" s="107"/>
+      <c r="I219" s="165"/>
+      <c r="J219" s="107"/>
+      <c r="K219" s="166">
         <v>3.5</v>
       </c>
-      <c r="L219" s="65"/>
-      <c r="M219" s="77">
+      <c r="L219" s="107"/>
+      <c r="M219" s="167">
         <v>147.05000000000001</v>
       </c>
-      <c r="N219" s="65"/>
-      <c r="O219" s="78">
+      <c r="N219" s="107"/>
+      <c r="O219" s="168">
         <v>1.4</v>
       </c>
-      <c r="P219" s="65"/>
-      <c r="Q219" s="62">
+      <c r="P219" s="107"/>
+      <c r="Q219" s="149">
         <v>41.11</v>
       </c>
-      <c r="R219" s="63"/>
-      <c r="S219" s="68">
+      <c r="R219" s="143"/>
+      <c r="S219" s="162">
         <v>1.4</v>
       </c>
-      <c r="T219" s="65"/>
+      <c r="T219" s="107"/>
     </row>
     <row r="220" spans="1:20" ht="15" customHeight="1">
-      <c r="A220" s="69" t="s">
+      <c r="A220" s="163" t="s">
         <v>116</v>
       </c>
-      <c r="B220" s="65"/>
-      <c r="C220" s="69">
+      <c r="B220" s="107"/>
+      <c r="C220" s="163">
         <v>300</v>
       </c>
-      <c r="D220" s="65"/>
-      <c r="E220" s="64">
+      <c r="D220" s="107"/>
+      <c r="E220" s="144">
         <v>4</v>
       </c>
-      <c r="F220" s="65"/>
-      <c r="G220" s="64">
+      <c r="F220" s="107"/>
+      <c r="G220" s="144">
         <v>3</v>
       </c>
-      <c r="H220" s="65"/>
-      <c r="I220" s="70"/>
-      <c r="J220" s="65"/>
-      <c r="K220" s="71">
+      <c r="H220" s="107"/>
+      <c r="I220" s="145"/>
+      <c r="J220" s="107"/>
+      <c r="K220" s="146">
         <v>3.7</v>
       </c>
-      <c r="L220" s="65"/>
-      <c r="M220" s="72">
+      <c r="L220" s="107"/>
+      <c r="M220" s="147">
         <v>153.21</v>
       </c>
-      <c r="N220" s="65"/>
-      <c r="O220" s="73">
+      <c r="N220" s="107"/>
+      <c r="O220" s="148">
         <v>1.7</v>
       </c>
-      <c r="P220" s="65"/>
-      <c r="Q220" s="62">
+      <c r="P220" s="107"/>
+      <c r="Q220" s="149">
         <v>41.06</v>
       </c>
-      <c r="R220" s="63"/>
-      <c r="S220" s="64">
+      <c r="R220" s="143"/>
+      <c r="S220" s="144">
         <v>1.4</v>
       </c>
-      <c r="T220" s="65"/>
+      <c r="T220" s="107"/>
     </row>
     <row r="221" spans="1:20" ht="15" customHeight="1">
       <c r="A221" s="22" t="s">
@@ -8132,16 +8136,780 @@
     </row>
   </sheetData>
   <mergeCells count="808">
-    <mergeCell ref="S198:T198"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="I198:J198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="O198:P198"/>
-    <mergeCell ref="Q198:R198"/>
+    <mergeCell ref="Q220:R220"/>
+    <mergeCell ref="S220:T220"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="Q219:R219"/>
+    <mergeCell ref="S219:T219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="M220:N220"/>
+    <mergeCell ref="O220:P220"/>
+    <mergeCell ref="S218:T218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="I219:J219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="M219:N219"/>
+    <mergeCell ref="O219:P219"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A7:T7"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="A60:T60"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="B80:T80"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="T28:T40"/>
+    <mergeCell ref="B66:T66"/>
+    <mergeCell ref="B69:T69"/>
+    <mergeCell ref="B70:T70"/>
+    <mergeCell ref="B73:Q73"/>
+    <mergeCell ref="B76:Q76"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="I218:J218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="M218:N218"/>
+    <mergeCell ref="O218:P218"/>
+    <mergeCell ref="Q218:R218"/>
+    <mergeCell ref="S216:T216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="I217:J217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="O217:P217"/>
+    <mergeCell ref="Q217:R217"/>
+    <mergeCell ref="S217:T217"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="I216:J216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="M216:N216"/>
+    <mergeCell ref="O216:P216"/>
+    <mergeCell ref="Q216:R216"/>
+    <mergeCell ref="S214:T214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="I215:J215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="M215:N215"/>
+    <mergeCell ref="O215:P215"/>
+    <mergeCell ref="Q215:R215"/>
+    <mergeCell ref="S215:T215"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="I214:J214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="M214:N214"/>
+    <mergeCell ref="O214:P214"/>
+    <mergeCell ref="Q214:R214"/>
+    <mergeCell ref="S212:T212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="M213:N213"/>
+    <mergeCell ref="O213:P213"/>
+    <mergeCell ref="Q213:R213"/>
+    <mergeCell ref="S213:T213"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="O212:P212"/>
+    <mergeCell ref="Q212:R212"/>
+    <mergeCell ref="S210:T210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="I211:J211"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="O211:P211"/>
+    <mergeCell ref="Q211:R211"/>
+    <mergeCell ref="S211:T211"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="I210:J210"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="O210:P210"/>
+    <mergeCell ref="Q210:R210"/>
+    <mergeCell ref="S208:T208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="I209:J209"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="M209:N209"/>
+    <mergeCell ref="O209:P209"/>
+    <mergeCell ref="Q209:R209"/>
+    <mergeCell ref="S209:T209"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="I208:J208"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M208:N208"/>
+    <mergeCell ref="O208:P208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="S206:T206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="I207:J207"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="M207:N207"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="Q207:R207"/>
+    <mergeCell ref="S207:T207"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="I206:J206"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="O206:P206"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="S204:T204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="I205:J205"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="O205:P205"/>
+    <mergeCell ref="Q205:R205"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="I204:J204"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="M204:N204"/>
+    <mergeCell ref="O204:P204"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="S202:T202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="I203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="O203:P203"/>
+    <mergeCell ref="Q203:R203"/>
+    <mergeCell ref="S203:T203"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="Q202:R202"/>
+    <mergeCell ref="S200:T200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="I201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="S201:T201"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="I200:J200"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="Q200:R200"/>
+    <mergeCell ref="S190:T190"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="I199:J199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:N199"/>
+    <mergeCell ref="O199:P199"/>
+    <mergeCell ref="Q199:R199"/>
+    <mergeCell ref="S199:T199"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="I190:J190"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="O190:P190"/>
+    <mergeCell ref="Q190:R190"/>
+    <mergeCell ref="S197:T197"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="S188:T188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="I189:J189"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="O189:P189"/>
+    <mergeCell ref="Q189:R189"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="I188:J188"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="O188:P188"/>
+    <mergeCell ref="Q188:R188"/>
+    <mergeCell ref="S186:T186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="Q187:R187"/>
+    <mergeCell ref="S187:T187"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="Q186:R186"/>
+    <mergeCell ref="S184:T184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="O185:P185"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="S185:T185"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="I184:J184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="O184:P184"/>
+    <mergeCell ref="Q184:R184"/>
+    <mergeCell ref="S182:T182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="I183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="Q183:R183"/>
+    <mergeCell ref="S183:T183"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="Q182:R182"/>
+    <mergeCell ref="S180:T180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="Q181:R181"/>
+    <mergeCell ref="S181:T181"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="S178:T178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="S179:T179"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="S176:T176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="O177:P177"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="S177:T177"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="O176:P176"/>
+    <mergeCell ref="Q176:R176"/>
+    <mergeCell ref="S174:T174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="O175:P175"/>
+    <mergeCell ref="Q175:R175"/>
+    <mergeCell ref="S175:T175"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="O174:P174"/>
+    <mergeCell ref="Q174:R174"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="Q172:R172"/>
+    <mergeCell ref="Q171:R171"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="O165:P165"/>
+    <mergeCell ref="Q165:R165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="O166:P166"/>
+    <mergeCell ref="Q166:R166"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="O160:P160"/>
+    <mergeCell ref="Q160:R160"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="O156:P156"/>
+    <mergeCell ref="Q156:R156"/>
+    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="O152:P152"/>
+    <mergeCell ref="Q152:R152"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="O154:P154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="Q153:R153"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="S140:T140"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="I149:J149"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="S149:T149"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="Q140:R140"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="O139:P139"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="S139:T139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="O138:P138"/>
+    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="O136:P136"/>
+    <mergeCell ref="Q136:R136"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="O134:P134"/>
+    <mergeCell ref="Q134:R134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="O131:P131"/>
+    <mergeCell ref="Q131:R131"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="O132:P132"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="O155:P155"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="B83:T83"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="A109:T109"/>
+    <mergeCell ref="Q128:R128"/>
+    <mergeCell ref="S128:T128"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="O168:P168"/>
+    <mergeCell ref="Q168:R168"/>
+    <mergeCell ref="S168:T168"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="S161:T161"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="Q157:R157"/>
+    <mergeCell ref="S166:T166"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="O173:P173"/>
+    <mergeCell ref="Q173:R173"/>
+    <mergeCell ref="S173:T173"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="O158:P158"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="S171:T171"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="O169:P169"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="O171:P171"/>
+    <mergeCell ref="Q170:R170"/>
+    <mergeCell ref="S169:T169"/>
+    <mergeCell ref="S163:T163"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="O164:P164"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="S164:T164"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="S165:T165"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="I164:J164"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="I197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:R163"/>
+    <mergeCell ref="Q197:R197"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="I171:J171"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="O162:P162"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="I167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="Q162:R162"/>
+    <mergeCell ref="S162:T162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="O161:P161"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="S172:T172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="O167:P167"/>
+    <mergeCell ref="Q167:R167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="I168:J168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="I169:J169"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
     <mergeCell ref="S129:T129"/>
     <mergeCell ref="A150:B150"/>
     <mergeCell ref="C150:D150"/>
@@ -8166,780 +8934,16 @@
     <mergeCell ref="M130:N130"/>
     <mergeCell ref="O130:P130"/>
     <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="S172:T172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="O167:P167"/>
-    <mergeCell ref="Q167:R167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="I168:J168"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="I169:J169"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="Q162:R162"/>
-    <mergeCell ref="S162:T162"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="O162:P162"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="O159:P159"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="I167:J167"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="O161:P161"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="I164:J164"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="I197:J197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:R163"/>
-    <mergeCell ref="S163:T163"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="O164:P164"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="S164:T164"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="S165:T165"/>
-    <mergeCell ref="S166:T166"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="O173:P173"/>
-    <mergeCell ref="Q173:R173"/>
-    <mergeCell ref="S173:T173"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="O158:P158"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="O168:P168"/>
-    <mergeCell ref="Q168:R168"/>
-    <mergeCell ref="S168:T168"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="S161:T161"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="Q197:R197"/>
-    <mergeCell ref="B83:T83"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="A109:T109"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="S128:T128"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="O155:P155"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="Q157:R157"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="O131:P131"/>
-    <mergeCell ref="Q131:R131"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="Q133:R133"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="O132:P132"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="O134:P134"/>
-    <mergeCell ref="Q134:R134"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="K136:L136"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="Q136:R136"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="O139:P139"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="S139:T139"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="O138:P138"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="S140:T140"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="S149:T149"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="Q140:R140"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="Q153:R153"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="O156:P156"/>
-    <mergeCell ref="Q156:R156"/>
-    <mergeCell ref="S151:T151"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="Q152:R152"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="O154:P154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="O160:P160"/>
-    <mergeCell ref="Q160:R160"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="O166:P166"/>
-    <mergeCell ref="Q166:R166"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="I165:J165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="O165:P165"/>
-    <mergeCell ref="Q165:R165"/>
-    <mergeCell ref="S171:T171"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="I171:J171"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="O169:P169"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="O171:P171"/>
-    <mergeCell ref="Q170:R170"/>
-    <mergeCell ref="S169:T169"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="Q172:R172"/>
-    <mergeCell ref="Q171:R171"/>
-    <mergeCell ref="S174:T174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="O175:P175"/>
-    <mergeCell ref="Q175:R175"/>
-    <mergeCell ref="S175:T175"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="O174:P174"/>
-    <mergeCell ref="Q174:R174"/>
-    <mergeCell ref="S176:T176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="O177:P177"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="S177:T177"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="O176:P176"/>
-    <mergeCell ref="Q176:R176"/>
-    <mergeCell ref="S178:T178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="S179:T179"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="S180:T180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="K181:L181"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="Q181:R181"/>
-    <mergeCell ref="S181:T181"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="S182:T182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="S183:T183"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="Q182:R182"/>
-    <mergeCell ref="S184:T184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="O185:P185"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="S185:T185"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="I184:J184"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="O184:P184"/>
-    <mergeCell ref="Q184:R184"/>
-    <mergeCell ref="S186:T186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="I187:J187"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="O187:P187"/>
-    <mergeCell ref="Q187:R187"/>
-    <mergeCell ref="S187:T187"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="Q186:R186"/>
-    <mergeCell ref="S188:T188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="I189:J189"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="O189:P189"/>
-    <mergeCell ref="Q189:R189"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="I188:J188"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="O188:P188"/>
-    <mergeCell ref="Q188:R188"/>
-    <mergeCell ref="S190:T190"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="I199:J199"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="O199:P199"/>
-    <mergeCell ref="Q199:R199"/>
-    <mergeCell ref="S199:T199"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="I190:J190"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="O190:P190"/>
-    <mergeCell ref="Q190:R190"/>
-    <mergeCell ref="S197:T197"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="S200:T200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="I201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="S201:T201"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="I200:J200"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="O200:P200"/>
-    <mergeCell ref="Q200:R200"/>
-    <mergeCell ref="S202:T202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="I203:J203"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="O203:P203"/>
-    <mergeCell ref="Q203:R203"/>
-    <mergeCell ref="S203:T203"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="I202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="O202:P202"/>
-    <mergeCell ref="Q202:R202"/>
-    <mergeCell ref="S204:T204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="I205:J205"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="O205:P205"/>
-    <mergeCell ref="Q205:R205"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="I204:J204"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="M204:N204"/>
-    <mergeCell ref="O204:P204"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="S206:T206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="I207:J207"/>
-    <mergeCell ref="K207:L207"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="S207:T207"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="I206:J206"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="O206:P206"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="S208:T208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="I209:J209"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="M209:N209"/>
-    <mergeCell ref="O209:P209"/>
-    <mergeCell ref="Q209:R209"/>
-    <mergeCell ref="S209:T209"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="I208:J208"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M208:N208"/>
-    <mergeCell ref="O208:P208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="S210:T210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="I211:J211"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="O211:P211"/>
-    <mergeCell ref="Q211:R211"/>
-    <mergeCell ref="S211:T211"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="I210:J210"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="O210:P210"/>
-    <mergeCell ref="Q210:R210"/>
-    <mergeCell ref="S212:T212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="I213:J213"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="M213:N213"/>
-    <mergeCell ref="O213:P213"/>
-    <mergeCell ref="Q213:R213"/>
-    <mergeCell ref="S213:T213"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="I212:J212"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="O212:P212"/>
-    <mergeCell ref="Q212:R212"/>
-    <mergeCell ref="M216:N216"/>
-    <mergeCell ref="O216:P216"/>
-    <mergeCell ref="Q216:R216"/>
-    <mergeCell ref="S214:T214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="I215:J215"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="M215:N215"/>
-    <mergeCell ref="O215:P215"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="S215:T215"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="I214:J214"/>
-    <mergeCell ref="K214:L214"/>
-    <mergeCell ref="M214:N214"/>
-    <mergeCell ref="O214:P214"/>
-    <mergeCell ref="Q214:R214"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="I218:J218"/>
-    <mergeCell ref="K218:L218"/>
-    <mergeCell ref="M218:N218"/>
-    <mergeCell ref="O218:P218"/>
-    <mergeCell ref="Q218:R218"/>
-    <mergeCell ref="S216:T216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="I217:J217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="O217:P217"/>
-    <mergeCell ref="Q217:R217"/>
-    <mergeCell ref="S217:T217"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="I216:J216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="A7:T7"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="A60:T60"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="B80:T80"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="T28:T40"/>
-    <mergeCell ref="B66:T66"/>
-    <mergeCell ref="B69:T69"/>
-    <mergeCell ref="B70:T70"/>
-    <mergeCell ref="B73:Q73"/>
-    <mergeCell ref="B76:Q76"/>
-    <mergeCell ref="Q220:R220"/>
-    <mergeCell ref="S220:T220"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="Q219:R219"/>
-    <mergeCell ref="S219:T219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="G220:H220"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="K220:L220"/>
-    <mergeCell ref="M220:N220"/>
-    <mergeCell ref="O220:P220"/>
-    <mergeCell ref="S218:T218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="I219:J219"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="M219:N219"/>
-    <mergeCell ref="O219:P219"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="S198:T198"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="O198:P198"/>
+    <mergeCell ref="Q198:R198"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/app/export/pdf_template.xlsx
+++ b/app/export/pdf_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Disk\projects\DC-Boxjelly\app\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A0EA26-F00D-4F75-8CBC-33317EC4B707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B01796C-B44D-4CFA-8266-C49ADBD5F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="380" windowWidth="16920" windowHeight="13590" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="184">
   <si>
     <t>Primary Standards Dosimetry Laboratory,  Medical Radiation Services</t>
   </si>
@@ -659,80 +659,6 @@
   </si>
   <si>
     <t>Figure 1: Calibration coefficients for IBA FC65-G serial number 457 grouped by kVp</t>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [2]</t>
-    </r>
-    <phoneticPr fontId="42" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [2]</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> [2]</t>
-    </r>
-    <phoneticPr fontId="42" type="noConversion"/>
   </si>
   <si>
     <t>-300v</t>
@@ -763,6 +689,72 @@
     </r>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [2]</t>
+    </r>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color indexed="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> [2]</t>
+    </r>
+    <phoneticPr fontId="42" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -771,7 +763,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1059,6 +1051,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1066,16 +1073,17 @@
       <family val="1"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
+      <i/>
       <sz val="10.5"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <vertAlign val="subscript"/>
+      <sz val="10.5"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1698,24 +1706,235 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1728,19 +1947,7 @@
     <xf numFmtId="176" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="41" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1778,225 +1985,26 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2321,7 +2329,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>241</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
@@ -2371,7 +2379,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>271</xdr:row>
       <xdr:rowOff>17817</xdr:rowOff>
     </xdr:to>
@@ -2421,7 +2429,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>273050</xdr:colOff>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>298</xdr:row>
       <xdr:rowOff>19046</xdr:rowOff>
     </xdr:to>
@@ -2789,8 +2797,8 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:X312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W128" sqref="W128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -2798,7 +2806,7 @@
     <col min="1" max="13" width="4.453125" style="28" customWidth="1"/>
     <col min="14" max="14" width="5.1796875" style="28" customWidth="1"/>
     <col min="15" max="16" width="4.453125" style="28" customWidth="1"/>
-    <col min="17" max="17" width="5" style="28" customWidth="1"/>
+    <col min="17" max="17" width="5.6328125" style="28" customWidth="1"/>
     <col min="18" max="18" width="1.1796875" style="28" customWidth="1"/>
     <col min="19" max="19" width="0.81640625" style="28" customWidth="1"/>
     <col min="20" max="20" width="4.453125" style="28" customWidth="1"/>
@@ -2808,100 +2816,100 @@
     <row r="1" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80" t="s">
+      <c r="A7" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="68"/>
-      <c r="T7" s="68"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
     </row>
     <row r="8" spans="1:20" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="68"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="68"/>
-      <c r="J8" s="68"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
-      <c r="R8" s="68"/>
-      <c r="S8" s="68"/>
-      <c r="T8" s="68"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
     </row>
     <row r="9" spans="1:20" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="153" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="68"/>
-      <c r="T9" s="68"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
     </row>
     <row r="10" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="154" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="155"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="155"/>
+      <c r="H10" s="155"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="155"/>
+      <c r="K10" s="155"/>
+      <c r="L10" s="155"/>
+      <c r="M10" s="155"/>
+      <c r="N10" s="155"/>
+      <c r="O10" s="155"/>
+      <c r="P10" s="155"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
     </row>
     <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="22"/>
@@ -2971,76 +2979,76 @@
       <c r="S13" s="22"/>
     </row>
     <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="119" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
     </row>
     <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="86" t="s">
+      <c r="A15" s="157" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
     </row>
     <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="86" t="s">
+      <c r="A16" s="157" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="68"/>
-      <c r="T16" s="68"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
     </row>
     <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
@@ -3291,7 +3299,7 @@
       <c r="P28" s="13"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="90" t="s">
+      <c r="T28" s="161" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3314,7 +3322,7 @@
       <c r="P29" s="13"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
-      <c r="T29" s="68"/>
+      <c r="T29" s="117"/>
     </row>
     <row r="30" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
@@ -3339,7 +3347,7 @@
       <c r="P30" s="13"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
-      <c r="T30" s="68"/>
+      <c r="T30" s="117"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14" t="s">
@@ -3364,7 +3372,7 @@
       <c r="P31" s="13"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
-      <c r="T31" s="68"/>
+      <c r="T31" s="117"/>
     </row>
     <row r="32" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
@@ -3389,7 +3397,7 @@
       <c r="P32" s="13"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
-      <c r="T32" s="68"/>
+      <c r="T32" s="117"/>
     </row>
     <row r="33" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="14"/>
@@ -3410,7 +3418,7 @@
       <c r="P33" s="13"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="68"/>
+      <c r="T33" s="117"/>
     </row>
     <row r="34" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="13" t="s">
@@ -3435,7 +3443,7 @@
       <c r="P34" s="13"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
-      <c r="T34" s="68"/>
+      <c r="T34" s="117"/>
     </row>
     <row r="35" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
@@ -3460,7 +3468,7 @@
       <c r="P35" s="13"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
-      <c r="T35" s="68"/>
+      <c r="T35" s="117"/>
     </row>
     <row r="36" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
@@ -3481,7 +3489,7 @@
       <c r="P36" s="13"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
-      <c r="T36" s="68"/>
+      <c r="T36" s="117"/>
     </row>
     <row r="37" spans="1:20" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
@@ -3503,7 +3511,7 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
-      <c r="T37" s="68"/>
+      <c r="T37" s="117"/>
     </row>
     <row r="38" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13" t="s">
@@ -3525,12 +3533,12 @@
       <c r="N38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O38" s="88"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
+      <c r="O38" s="159"/>
+      <c r="P38" s="160"/>
+      <c r="Q38" s="160"/>
+      <c r="R38" s="160"/>
       <c r="S38" s="22"/>
-      <c r="T38" s="68"/>
+      <c r="T38" s="117"/>
     </row>
     <row r="39" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
@@ -3552,7 +3560,7 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
-      <c r="T39" s="68"/>
+      <c r="T39" s="117"/>
     </row>
     <row r="40" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
@@ -3576,7 +3584,7 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
-      <c r="T40" s="68"/>
+      <c r="T40" s="117"/>
     </row>
     <row r="41" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13" t="s">
@@ -3772,28 +3780,28 @@
       </c>
     </row>
     <row r="60" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="85" t="s">
+      <c r="A60" s="156" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
-      <c r="R60" s="68"/>
-      <c r="S60" s="68"/>
-      <c r="T60" s="68"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="117"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="117"/>
+      <c r="K60" s="117"/>
+      <c r="L60" s="117"/>
+      <c r="M60" s="117"/>
+      <c r="N60" s="117"/>
+      <c r="O60" s="117"/>
+      <c r="P60" s="117"/>
+      <c r="Q60" s="117"/>
+      <c r="R60" s="117"/>
+      <c r="S60" s="117"/>
+      <c r="T60" s="117"/>
     </row>
     <row r="61" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="13"/>
@@ -3902,27 +3910,27 @@
       <c r="A66" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="91" t="s">
+      <c r="B66" s="162" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="68"/>
-      <c r="P66" s="68"/>
-      <c r="Q66" s="68"/>
-      <c r="R66" s="68"/>
-      <c r="S66" s="68"/>
-      <c r="T66" s="68"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="117"/>
+      <c r="I66" s="117"/>
+      <c r="J66" s="117"/>
+      <c r="K66" s="117"/>
+      <c r="L66" s="117"/>
+      <c r="M66" s="117"/>
+      <c r="N66" s="117"/>
+      <c r="O66" s="117"/>
+      <c r="P66" s="117"/>
+      <c r="Q66" s="117"/>
+      <c r="R66" s="117"/>
+      <c r="S66" s="117"/>
+      <c r="T66" s="117"/>
     </row>
     <row r="67" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
@@ -3968,53 +3976,53 @@
       <c r="A69" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="68"/>
-      <c r="D69" s="68"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="68"/>
-      <c r="G69" s="68"/>
-      <c r="H69" s="68"/>
-      <c r="I69" s="68"/>
-      <c r="J69" s="68"/>
-      <c r="K69" s="68"/>
-      <c r="L69" s="68"/>
-      <c r="M69" s="68"/>
-      <c r="N69" s="68"/>
-      <c r="O69" s="68"/>
-      <c r="P69" s="68"/>
-      <c r="Q69" s="68"/>
-      <c r="R69" s="68"/>
-      <c r="S69" s="68"/>
-      <c r="T69" s="68"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="117"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="117"/>
+      <c r="I69" s="117"/>
+      <c r="J69" s="117"/>
+      <c r="K69" s="117"/>
+      <c r="L69" s="117"/>
+      <c r="M69" s="117"/>
+      <c r="N69" s="117"/>
+      <c r="O69" s="117"/>
+      <c r="P69" s="117"/>
+      <c r="Q69" s="117"/>
+      <c r="R69" s="117"/>
+      <c r="S69" s="117"/>
+      <c r="T69" s="117"/>
     </row>
     <row r="70" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="68"/>
-      <c r="N70" s="68"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="68"/>
-      <c r="Q70" s="68"/>
-      <c r="R70" s="68"/>
-      <c r="S70" s="68"/>
-      <c r="T70" s="68"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="117"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="117"/>
+      <c r="I70" s="117"/>
+      <c r="J70" s="117"/>
+      <c r="K70" s="117"/>
+      <c r="L70" s="117"/>
+      <c r="M70" s="117"/>
+      <c r="N70" s="117"/>
+      <c r="O70" s="117"/>
+      <c r="P70" s="117"/>
+      <c r="Q70" s="117"/>
+      <c r="R70" s="117"/>
+      <c r="S70" s="117"/>
+      <c r="T70" s="117"/>
     </row>
     <row r="72" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
@@ -4025,24 +4033,24 @@
       <c r="A73" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="91" t="s">
+      <c r="B73" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="68"/>
-      <c r="D73" s="68"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="68"/>
-      <c r="G73" s="68"/>
-      <c r="H73" s="68"/>
-      <c r="I73" s="68"/>
-      <c r="J73" s="68"/>
-      <c r="K73" s="68"/>
-      <c r="L73" s="68"/>
-      <c r="M73" s="68"/>
-      <c r="N73" s="68"/>
-      <c r="O73" s="68"/>
-      <c r="P73" s="68"/>
-      <c r="Q73" s="68"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="117"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="117"/>
+      <c r="K73" s="117"/>
+      <c r="L73" s="117"/>
+      <c r="M73" s="117"/>
+      <c r="N73" s="117"/>
+      <c r="O73" s="117"/>
+      <c r="P73" s="117"/>
+      <c r="Q73" s="117"/>
     </row>
     <row r="74" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15"/>
@@ -4056,24 +4064,24 @@
       <c r="A76" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="91" t="s">
+      <c r="B76" s="162" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="68"/>
-      <c r="N76" s="68"/>
-      <c r="O76" s="68"/>
-      <c r="P76" s="68"/>
-      <c r="Q76" s="68"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="117"/>
+      <c r="I76" s="117"/>
+      <c r="J76" s="117"/>
+      <c r="K76" s="117"/>
+      <c r="L76" s="117"/>
+      <c r="M76" s="117"/>
+      <c r="N76" s="117"/>
+      <c r="O76" s="117"/>
+      <c r="P76" s="117"/>
+      <c r="Q76" s="117"/>
     </row>
     <row r="77" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="24"/>
@@ -4138,27 +4146,27 @@
       <c r="A80" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="87" t="s">
+      <c r="B80" s="158" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
-      <c r="N80" s="68"/>
-      <c r="O80" s="68"/>
-      <c r="P80" s="68"/>
-      <c r="Q80" s="68"/>
-      <c r="R80" s="68"/>
-      <c r="S80" s="68"/>
-      <c r="T80" s="68"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="117"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="117"/>
+      <c r="I80" s="117"/>
+      <c r="J80" s="117"/>
+      <c r="K80" s="117"/>
+      <c r="L80" s="117"/>
+      <c r="M80" s="117"/>
+      <c r="N80" s="117"/>
+      <c r="O80" s="117"/>
+      <c r="P80" s="117"/>
+      <c r="Q80" s="117"/>
+      <c r="R80" s="117"/>
+      <c r="S80" s="117"/>
+      <c r="T80" s="117"/>
     </row>
     <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15"/>
@@ -4204,27 +4212,27 @@
       <c r="A83" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="92" t="s">
+      <c r="B83" s="116" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="68"/>
-      <c r="D83" s="68"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="68"/>
-      <c r="G83" s="68"/>
-      <c r="H83" s="68"/>
-      <c r="I83" s="68"/>
-      <c r="J83" s="68"/>
-      <c r="K83" s="68"/>
-      <c r="L83" s="68"/>
-      <c r="M83" s="68"/>
-      <c r="N83" s="68"/>
-      <c r="O83" s="68"/>
-      <c r="P83" s="68"/>
-      <c r="Q83" s="68"/>
-      <c r="R83" s="68"/>
-      <c r="S83" s="68"/>
-      <c r="T83" s="68"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
+      <c r="H83" s="117"/>
+      <c r="I83" s="117"/>
+      <c r="J83" s="117"/>
+      <c r="K83" s="117"/>
+      <c r="L83" s="117"/>
+      <c r="M83" s="117"/>
+      <c r="N83" s="117"/>
+      <c r="O83" s="117"/>
+      <c r="P83" s="117"/>
+      <c r="Q83" s="117"/>
+      <c r="R83" s="117"/>
+      <c r="S83" s="117"/>
+      <c r="T83" s="117"/>
     </row>
     <row r="84" spans="1:20" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="15"/>
@@ -4297,28 +4305,28 @@
       <c r="U103" s="31"/>
     </row>
     <row r="109" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="67" t="s">
+      <c r="A109" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="68"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="68"/>
-      <c r="G109" s="68"/>
-      <c r="H109" s="68"/>
-      <c r="I109" s="68"/>
-      <c r="J109" s="68"/>
-      <c r="K109" s="68"/>
-      <c r="L109" s="68"/>
-      <c r="M109" s="68"/>
-      <c r="N109" s="68"/>
-      <c r="O109" s="68"/>
-      <c r="P109" s="68"/>
-      <c r="Q109" s="68"/>
-      <c r="R109" s="68"/>
-      <c r="S109" s="68"/>
-      <c r="T109" s="68"/>
+      <c r="B109" s="117"/>
+      <c r="C109" s="117"/>
+      <c r="D109" s="117"/>
+      <c r="E109" s="117"/>
+      <c r="F109" s="117"/>
+      <c r="G109" s="117"/>
+      <c r="H109" s="117"/>
+      <c r="I109" s="117"/>
+      <c r="J109" s="117"/>
+      <c r="K109" s="117"/>
+      <c r="L109" s="117"/>
+      <c r="M109" s="117"/>
+      <c r="N109" s="117"/>
+      <c r="O109" s="117"/>
+      <c r="P109" s="117"/>
+      <c r="Q109" s="117"/>
+      <c r="R109" s="117"/>
+      <c r="S109" s="117"/>
+      <c r="T109" s="117"/>
     </row>
     <row r="110" spans="1:21" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="22"/>
@@ -4392,7 +4400,7 @@
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
       <c r="G113" s="62" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H113" s="32"/>
       <c r="I113" s="32"/>
@@ -4602,7 +4610,7 @@
       <c r="D123" s="22"/>
       <c r="E123" s="22"/>
       <c r="G123" s="23" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H123" s="22"/>
       <c r="I123" s="22"/>
@@ -4698,526 +4706,526 @@
       <c r="Q127" s="22"/>
     </row>
     <row r="128" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="158" t="s">
+      <c r="A128" s="118" t="s">
         <v>75</v>
       </c>
-      <c r="B128" s="94"/>
-      <c r="C128" s="158" t="s">
+      <c r="B128" s="67"/>
+      <c r="C128" s="118" t="s">
         <v>76</v>
       </c>
-      <c r="D128" s="94"/>
-      <c r="E128" s="158" t="s">
+      <c r="D128" s="67"/>
+      <c r="E128" s="118" t="s">
         <v>77</v>
       </c>
-      <c r="F128" s="94"/>
-      <c r="G128" s="158" t="s">
+      <c r="F128" s="67"/>
+      <c r="G128" s="118" t="s">
         <v>78</v>
       </c>
-      <c r="H128" s="94"/>
-      <c r="I128" s="158" t="s">
+      <c r="H128" s="67"/>
+      <c r="I128" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="J128" s="94"/>
-      <c r="K128" s="158" t="s">
+      <c r="J128" s="67"/>
+      <c r="K128" s="118" t="s">
         <v>79</v>
       </c>
-      <c r="L128" s="94"/>
-      <c r="M128" s="158" t="s">
+      <c r="L128" s="67"/>
+      <c r="M128" s="118" t="s">
         <v>80</v>
       </c>
-      <c r="N128" s="94"/>
-      <c r="O128" s="158" t="s">
+      <c r="N128" s="67"/>
+      <c r="O128" s="118" t="s">
         <v>81</v>
       </c>
-      <c r="P128" s="94"/>
-      <c r="Q128" s="162" t="s">
-        <v>180</v>
-      </c>
-      <c r="R128" s="94"/>
-      <c r="S128" s="158" t="s">
+      <c r="P128" s="67"/>
+      <c r="Q128" s="120" t="s">
+        <v>182</v>
+      </c>
+      <c r="R128" s="67"/>
+      <c r="S128" s="118" t="s">
         <v>82</v>
       </c>
-      <c r="T128" s="94"/>
+      <c r="T128" s="67"/>
     </row>
     <row r="129" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="166"/>
-      <c r="B129" s="165"/>
-      <c r="C129" s="164" t="s">
+      <c r="A129" s="65"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D129" s="165"/>
-      <c r="E129" s="164" t="s">
+      <c r="D129" s="64"/>
+      <c r="E129" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="165"/>
-      <c r="G129" s="164" t="s">
+      <c r="F129" s="64"/>
+      <c r="G129" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H129" s="165"/>
-      <c r="I129" s="164" t="s">
+      <c r="H129" s="64"/>
+      <c r="I129" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="J129" s="165"/>
-      <c r="K129" s="164" t="s">
+      <c r="J129" s="64"/>
+      <c r="K129" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="L129" s="165"/>
-      <c r="M129" s="164" t="s">
+      <c r="L129" s="64"/>
+      <c r="M129" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="N129" s="165"/>
-      <c r="O129" s="164" t="s">
+      <c r="N129" s="64"/>
+      <c r="O129" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P129" s="165"/>
-      <c r="Q129" s="164" t="s">
+      <c r="P129" s="64"/>
+      <c r="Q129" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="R129" s="165"/>
-      <c r="S129" s="164" t="s">
+      <c r="R129" s="64"/>
+      <c r="S129" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="T129" s="165"/>
+      <c r="T129" s="64"/>
     </row>
     <row r="130" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="159" t="s">
+      <c r="A130" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="B130" s="94"/>
-      <c r="C130" s="159">
+      <c r="B130" s="67"/>
+      <c r="C130" s="121">
         <v>50</v>
       </c>
-      <c r="D130" s="94"/>
-      <c r="E130" s="160">
+      <c r="D130" s="67"/>
+      <c r="E130" s="122">
         <v>4</v>
       </c>
-      <c r="F130" s="94"/>
-      <c r="G130" s="159"/>
-      <c r="H130" s="94"/>
-      <c r="I130" s="161">
+      <c r="F130" s="67"/>
+      <c r="G130" s="121"/>
+      <c r="H130" s="67"/>
+      <c r="I130" s="123">
         <v>2.39</v>
       </c>
-      <c r="J130" s="94"/>
-      <c r="K130" s="167">
+      <c r="J130" s="67"/>
+      <c r="K130" s="66">
         <v>0.08</v>
       </c>
-      <c r="L130" s="94"/>
-      <c r="M130" s="168">
+      <c r="L130" s="67"/>
+      <c r="M130" s="68">
         <v>29.93</v>
       </c>
-      <c r="N130" s="94"/>
-      <c r="O130" s="168">
+      <c r="N130" s="67"/>
+      <c r="O130" s="68">
         <v>0.4</v>
       </c>
-      <c r="P130" s="94"/>
-      <c r="Q130" s="169">
+      <c r="P130" s="67"/>
+      <c r="Q130" s="69">
         <v>43.09</v>
       </c>
-      <c r="R130" s="110"/>
-      <c r="S130" s="160">
+      <c r="R130" s="70"/>
+      <c r="S130" s="122">
         <v>1.4</v>
       </c>
-      <c r="T130" s="94"/>
+      <c r="T130" s="67"/>
     </row>
     <row r="131" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="148" t="s">
+      <c r="A131" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="B131" s="96"/>
-      <c r="C131" s="148">
+      <c r="B131" s="72"/>
+      <c r="C131" s="126">
         <v>70</v>
       </c>
-      <c r="D131" s="96"/>
-      <c r="E131" s="149">
+      <c r="D131" s="72"/>
+      <c r="E131" s="124">
         <v>4</v>
       </c>
-      <c r="F131" s="96"/>
-      <c r="G131" s="148"/>
-      <c r="H131" s="96"/>
-      <c r="I131" s="157">
+      <c r="F131" s="72"/>
+      <c r="G131" s="126"/>
+      <c r="H131" s="72"/>
+      <c r="I131" s="129">
         <v>3.19</v>
       </c>
-      <c r="J131" s="96"/>
-      <c r="K131" s="150">
+      <c r="J131" s="72"/>
+      <c r="K131" s="130">
         <v>0.11</v>
       </c>
-      <c r="L131" s="96"/>
-      <c r="M131" s="151">
+      <c r="L131" s="72"/>
+      <c r="M131" s="131">
         <v>34.270000000000003</v>
       </c>
-      <c r="N131" s="96"/>
-      <c r="O131" s="151">
+      <c r="N131" s="72"/>
+      <c r="O131" s="131">
         <v>0.8</v>
       </c>
-      <c r="P131" s="96"/>
-      <c r="Q131" s="152">
+      <c r="P131" s="72"/>
+      <c r="Q131" s="132">
         <v>42.83</v>
       </c>
-      <c r="R131" s="103"/>
-      <c r="S131" s="149">
+      <c r="R131" s="79"/>
+      <c r="S131" s="124">
         <v>1.4</v>
       </c>
-      <c r="T131" s="96"/>
+      <c r="T131" s="72"/>
     </row>
     <row r="132" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="153" t="s">
+      <c r="A132" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="B132" s="96"/>
-      <c r="C132" s="153">
+      <c r="B132" s="72"/>
+      <c r="C132" s="127">
         <v>100</v>
       </c>
-      <c r="D132" s="96"/>
-      <c r="E132" s="146">
+      <c r="D132" s="72"/>
+      <c r="E132" s="125">
         <v>4.5</v>
       </c>
-      <c r="F132" s="96"/>
-      <c r="G132" s="153"/>
-      <c r="H132" s="96"/>
-      <c r="I132" s="156">
+      <c r="F132" s="72"/>
+      <c r="G132" s="127"/>
+      <c r="H132" s="72"/>
+      <c r="I132" s="133">
         <v>4.74</v>
       </c>
-      <c r="J132" s="96"/>
-      <c r="K132" s="154">
+      <c r="J132" s="72"/>
+      <c r="K132" s="134">
         <v>0.18</v>
       </c>
-      <c r="L132" s="96"/>
-      <c r="M132" s="155">
+      <c r="L132" s="72"/>
+      <c r="M132" s="135">
         <v>41.59</v>
       </c>
-      <c r="N132" s="96"/>
-      <c r="O132" s="155">
+      <c r="N132" s="72"/>
+      <c r="O132" s="135">
         <v>1.6</v>
       </c>
-      <c r="P132" s="96"/>
-      <c r="Q132" s="152">
+      <c r="P132" s="72"/>
+      <c r="Q132" s="132">
         <v>42.51</v>
       </c>
-      <c r="R132" s="103"/>
-      <c r="S132" s="146">
+      <c r="R132" s="79"/>
+      <c r="S132" s="125">
         <v>1.4</v>
       </c>
-      <c r="T132" s="96"/>
+      <c r="T132" s="72"/>
     </row>
     <row r="133" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="148" t="s">
+      <c r="A133" s="126" t="s">
         <v>107</v>
       </c>
-      <c r="B133" s="96"/>
-      <c r="C133" s="148">
+      <c r="B133" s="72"/>
+      <c r="C133" s="126">
         <v>120</v>
       </c>
-      <c r="D133" s="96"/>
-      <c r="E133" s="149">
+      <c r="D133" s="72"/>
+      <c r="E133" s="124">
         <v>6</v>
       </c>
-      <c r="F133" s="96"/>
-      <c r="G133" s="148"/>
-      <c r="H133" s="96"/>
-      <c r="I133" s="157">
+      <c r="F133" s="72"/>
+      <c r="G133" s="126"/>
+      <c r="H133" s="72"/>
+      <c r="I133" s="129">
         <v>6.38</v>
       </c>
-      <c r="J133" s="96"/>
-      <c r="K133" s="150">
+      <c r="J133" s="72"/>
+      <c r="K133" s="130">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L133" s="96"/>
-      <c r="M133" s="151">
+      <c r="L133" s="72"/>
+      <c r="M133" s="131">
         <v>48.95</v>
       </c>
-      <c r="N133" s="96"/>
-      <c r="O133" s="151">
+      <c r="N133" s="72"/>
+      <c r="O133" s="131">
         <v>1.8</v>
       </c>
-      <c r="P133" s="96"/>
-      <c r="Q133" s="152">
+      <c r="P133" s="72"/>
+      <c r="Q133" s="132">
         <v>42.17</v>
       </c>
-      <c r="R133" s="103"/>
-      <c r="S133" s="149">
+      <c r="R133" s="79"/>
+      <c r="S133" s="124">
         <v>1.4</v>
       </c>
-      <c r="T133" s="96"/>
+      <c r="T133" s="72"/>
     </row>
     <row r="134" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="153" t="s">
+      <c r="A134" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="96"/>
-      <c r="C134" s="153">
+      <c r="B134" s="72"/>
+      <c r="C134" s="127">
         <v>140</v>
       </c>
-      <c r="D134" s="96"/>
-      <c r="E134" s="146">
+      <c r="D134" s="72"/>
+      <c r="E134" s="125">
         <v>9</v>
       </c>
-      <c r="F134" s="96"/>
-      <c r="G134" s="153"/>
-      <c r="H134" s="96"/>
-      <c r="I134" s="156">
+      <c r="F134" s="72"/>
+      <c r="G134" s="127"/>
+      <c r="H134" s="72"/>
+      <c r="I134" s="133">
         <v>8.44</v>
       </c>
-      <c r="J134" s="96"/>
-      <c r="K134" s="154">
+      <c r="J134" s="72"/>
+      <c r="K134" s="134">
         <v>0.45</v>
       </c>
-      <c r="L134" s="96"/>
-      <c r="M134" s="155">
+      <c r="L134" s="72"/>
+      <c r="M134" s="135">
         <v>58.06</v>
       </c>
-      <c r="N134" s="96"/>
-      <c r="O134" s="155">
+      <c r="N134" s="72"/>
+      <c r="O134" s="135">
         <v>1.8</v>
       </c>
-      <c r="P134" s="96"/>
-      <c r="Q134" s="152">
+      <c r="P134" s="72"/>
+      <c r="Q134" s="132">
         <v>41.94</v>
       </c>
-      <c r="R134" s="103"/>
-      <c r="S134" s="146">
+      <c r="R134" s="79"/>
+      <c r="S134" s="125">
         <v>1.4</v>
       </c>
-      <c r="T134" s="96"/>
+      <c r="T134" s="72"/>
     </row>
     <row r="135" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="148" t="s">
+      <c r="A135" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="B135" s="96"/>
-      <c r="C135" s="148">
+      <c r="B135" s="72"/>
+      <c r="C135" s="126">
         <v>150</v>
       </c>
-      <c r="D135" s="96"/>
-      <c r="E135" s="149">
+      <c r="D135" s="72"/>
+      <c r="E135" s="124">
         <v>4</v>
       </c>
-      <c r="F135" s="96"/>
-      <c r="G135" s="149">
+      <c r="F135" s="72"/>
+      <c r="G135" s="124">
         <v>0.5</v>
       </c>
-      <c r="H135" s="96"/>
-      <c r="I135" s="148"/>
-      <c r="J135" s="96"/>
-      <c r="K135" s="150">
+      <c r="H135" s="72"/>
+      <c r="I135" s="126"/>
+      <c r="J135" s="72"/>
+      <c r="K135" s="130">
         <v>0.84</v>
       </c>
-      <c r="L135" s="96"/>
-      <c r="M135" s="151">
+      <c r="L135" s="72"/>
+      <c r="M135" s="131">
         <v>72.150000000000006</v>
       </c>
-      <c r="N135" s="96"/>
-      <c r="O135" s="151">
+      <c r="N135" s="72"/>
+      <c r="O135" s="131">
         <v>1.4</v>
       </c>
-      <c r="P135" s="96"/>
-      <c r="Q135" s="152">
+      <c r="P135" s="72"/>
+      <c r="Q135" s="132">
         <v>41.58</v>
       </c>
-      <c r="R135" s="103"/>
-      <c r="S135" s="149">
+      <c r="R135" s="79"/>
+      <c r="S135" s="124">
         <v>1.4</v>
       </c>
-      <c r="T135" s="96"/>
+      <c r="T135" s="72"/>
     </row>
     <row r="136" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="153" t="s">
+      <c r="A136" s="127" t="s">
         <v>110</v>
       </c>
-      <c r="B136" s="96"/>
-      <c r="C136" s="153">
+      <c r="B136" s="72"/>
+      <c r="C136" s="127">
         <v>200</v>
       </c>
-      <c r="D136" s="96"/>
-      <c r="E136" s="146">
+      <c r="D136" s="72"/>
+      <c r="E136" s="125">
         <v>4</v>
       </c>
-      <c r="F136" s="96"/>
-      <c r="G136" s="146">
+      <c r="F136" s="72"/>
+      <c r="G136" s="125">
         <v>1</v>
       </c>
-      <c r="H136" s="96"/>
-      <c r="I136" s="153"/>
-      <c r="J136" s="96"/>
-      <c r="K136" s="154">
+      <c r="H136" s="72"/>
+      <c r="I136" s="127"/>
+      <c r="J136" s="72"/>
+      <c r="K136" s="134">
         <v>1.63</v>
       </c>
-      <c r="L136" s="96"/>
-      <c r="M136" s="155">
+      <c r="L136" s="72"/>
+      <c r="M136" s="135">
         <v>94.74</v>
       </c>
-      <c r="N136" s="96"/>
-      <c r="O136" s="155">
+      <c r="N136" s="72"/>
+      <c r="O136" s="135">
         <v>1.6</v>
       </c>
-      <c r="P136" s="96"/>
-      <c r="Q136" s="152">
+      <c r="P136" s="72"/>
+      <c r="Q136" s="132">
         <v>41.29</v>
       </c>
-      <c r="R136" s="103"/>
-      <c r="S136" s="146">
+      <c r="R136" s="79"/>
+      <c r="S136" s="125">
         <v>1.4</v>
       </c>
-      <c r="T136" s="96"/>
+      <c r="T136" s="72"/>
     </row>
     <row r="137" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="148" t="s">
+      <c r="A137" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="96"/>
-      <c r="C137" s="148">
+      <c r="B137" s="72"/>
+      <c r="C137" s="126">
         <v>250</v>
       </c>
-      <c r="D137" s="96"/>
-      <c r="E137" s="149">
+      <c r="D137" s="72"/>
+      <c r="E137" s="124">
         <v>4</v>
       </c>
-      <c r="F137" s="96"/>
-      <c r="G137" s="149">
+      <c r="F137" s="72"/>
+      <c r="G137" s="124">
         <v>1.6</v>
       </c>
-      <c r="H137" s="96"/>
-      <c r="I137" s="148"/>
-      <c r="J137" s="96"/>
-      <c r="K137" s="150">
+      <c r="H137" s="72"/>
+      <c r="I137" s="126"/>
+      <c r="J137" s="72"/>
+      <c r="K137" s="130">
         <v>2.57</v>
       </c>
-      <c r="L137" s="96"/>
-      <c r="M137" s="151">
+      <c r="L137" s="72"/>
+      <c r="M137" s="131">
         <v>120.1</v>
       </c>
-      <c r="N137" s="96"/>
-      <c r="O137" s="151">
+      <c r="N137" s="72"/>
+      <c r="O137" s="131">
         <v>1.8</v>
       </c>
-      <c r="P137" s="96"/>
-      <c r="Q137" s="152">
+      <c r="P137" s="72"/>
+      <c r="Q137" s="132">
         <v>41.18</v>
       </c>
-      <c r="R137" s="103"/>
-      <c r="S137" s="149">
+      <c r="R137" s="79"/>
+      <c r="S137" s="124">
         <v>1.4</v>
       </c>
-      <c r="T137" s="96"/>
+      <c r="T137" s="72"/>
     </row>
     <row r="138" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="153" t="s">
+      <c r="A138" s="127" t="s">
         <v>112</v>
       </c>
-      <c r="B138" s="96"/>
-      <c r="C138" s="153">
+      <c r="B138" s="72"/>
+      <c r="C138" s="127">
         <v>280</v>
       </c>
-      <c r="D138" s="96"/>
-      <c r="E138" s="146">
+      <c r="D138" s="72"/>
+      <c r="E138" s="125">
         <v>4</v>
       </c>
-      <c r="F138" s="96"/>
-      <c r="G138" s="146">
+      <c r="F138" s="72"/>
+      <c r="G138" s="125">
         <v>3</v>
       </c>
-      <c r="H138" s="96"/>
-      <c r="I138" s="153"/>
-      <c r="J138" s="96"/>
-      <c r="K138" s="154">
+      <c r="H138" s="72"/>
+      <c r="I138" s="127"/>
+      <c r="J138" s="72"/>
+      <c r="K138" s="134">
         <v>3.5</v>
       </c>
-      <c r="L138" s="96"/>
-      <c r="M138" s="155">
+      <c r="L138" s="72"/>
+      <c r="M138" s="135">
         <v>147.05000000000001</v>
       </c>
-      <c r="N138" s="96"/>
-      <c r="O138" s="155">
+      <c r="N138" s="72"/>
+      <c r="O138" s="135">
         <v>1.4</v>
       </c>
-      <c r="P138" s="96"/>
-      <c r="Q138" s="152">
+      <c r="P138" s="72"/>
+      <c r="Q138" s="132">
         <v>41.02</v>
       </c>
-      <c r="R138" s="103"/>
-      <c r="S138" s="146">
+      <c r="R138" s="79"/>
+      <c r="S138" s="125">
         <v>1.4</v>
       </c>
-      <c r="T138" s="96"/>
+      <c r="T138" s="72"/>
     </row>
     <row r="139" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="147" t="s">
+      <c r="A139" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="118"/>
-      <c r="C139" s="148">
+      <c r="B139" s="81"/>
+      <c r="C139" s="126">
         <v>300</v>
       </c>
-      <c r="D139" s="96"/>
-      <c r="E139" s="149">
+      <c r="D139" s="72"/>
+      <c r="E139" s="124">
         <v>4</v>
       </c>
-      <c r="F139" s="96"/>
-      <c r="G139" s="149">
+      <c r="F139" s="72"/>
+      <c r="G139" s="124">
         <v>3</v>
       </c>
-      <c r="H139" s="96"/>
-      <c r="I139" s="148"/>
-      <c r="J139" s="96"/>
-      <c r="K139" s="150">
+      <c r="H139" s="72"/>
+      <c r="I139" s="126"/>
+      <c r="J139" s="72"/>
+      <c r="K139" s="130">
         <v>3.7</v>
       </c>
-      <c r="L139" s="96"/>
-      <c r="M139" s="151">
+      <c r="L139" s="72"/>
+      <c r="M139" s="131">
         <v>153.21</v>
       </c>
-      <c r="N139" s="96"/>
-      <c r="O139" s="151">
+      <c r="N139" s="72"/>
+      <c r="O139" s="131">
         <v>1.7</v>
       </c>
-      <c r="P139" s="96"/>
-      <c r="Q139" s="152">
+      <c r="P139" s="72"/>
+      <c r="Q139" s="132">
         <v>40.950000000000003</v>
       </c>
-      <c r="R139" s="103"/>
-      <c r="S139" s="149">
+      <c r="R139" s="79"/>
+      <c r="S139" s="124">
         <v>1.4</v>
       </c>
-      <c r="T139" s="96"/>
+      <c r="T139" s="72"/>
     </row>
     <row r="140" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="142" t="s">
+      <c r="A140" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="B140" s="66"/>
-      <c r="C140" s="142">
+      <c r="B140" s="108"/>
+      <c r="C140" s="140">
         <v>300</v>
       </c>
-      <c r="D140" s="66"/>
-      <c r="E140" s="139">
+      <c r="D140" s="108"/>
+      <c r="E140" s="137">
         <v>4</v>
       </c>
-      <c r="F140" s="66"/>
-      <c r="G140" s="139">
+      <c r="F140" s="108"/>
+      <c r="G140" s="137">
         <v>3</v>
       </c>
-      <c r="H140" s="66"/>
-      <c r="I140" s="142"/>
-      <c r="J140" s="66"/>
-      <c r="K140" s="143">
+      <c r="H140" s="108"/>
+      <c r="I140" s="140"/>
+      <c r="J140" s="108"/>
+      <c r="K140" s="141">
         <v>3.7</v>
       </c>
-      <c r="L140" s="66"/>
-      <c r="M140" s="144">
+      <c r="L140" s="108"/>
+      <c r="M140" s="142">
         <v>153.21</v>
       </c>
-      <c r="N140" s="66"/>
-      <c r="O140" s="144">
+      <c r="N140" s="108"/>
+      <c r="O140" s="142">
         <v>1.7</v>
       </c>
-      <c r="P140" s="66"/>
-      <c r="Q140" s="145">
+      <c r="P140" s="108"/>
+      <c r="Q140" s="143">
         <v>41.06</v>
       </c>
-      <c r="R140" s="64"/>
-      <c r="S140" s="139">
+      <c r="R140" s="144"/>
+      <c r="S140" s="137">
         <v>1.4</v>
       </c>
-      <c r="T140" s="66"/>
+      <c r="T140" s="108"/>
     </row>
     <row r="141" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="22" t="s">
@@ -5368,1660 +5376,1660 @@
       <c r="Q148" s="22"/>
     </row>
     <row r="149" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="140" t="s">
+      <c r="A149" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="B149" s="94"/>
-      <c r="C149" s="140" t="s">
+      <c r="B149" s="67"/>
+      <c r="C149" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="D149" s="94"/>
-      <c r="E149" s="140" t="s">
+      <c r="D149" s="67"/>
+      <c r="E149" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="F149" s="94"/>
-      <c r="G149" s="140" t="s">
+      <c r="F149" s="67"/>
+      <c r="G149" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="H149" s="94"/>
-      <c r="I149" s="140" t="s">
+      <c r="H149" s="67"/>
+      <c r="I149" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="J149" s="94"/>
-      <c r="K149" s="140" t="s">
+      <c r="J149" s="67"/>
+      <c r="K149" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="L149" s="94"/>
-      <c r="M149" s="140" t="s">
+      <c r="L149" s="67"/>
+      <c r="M149" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="N149" s="94"/>
-      <c r="O149" s="140" t="s">
+      <c r="N149" s="67"/>
+      <c r="O149" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="P149" s="94"/>
-      <c r="Q149" s="141" t="s">
-        <v>182</v>
-      </c>
-      <c r="R149" s="94"/>
-      <c r="S149" s="140" t="s">
+      <c r="P149" s="67"/>
+      <c r="Q149" s="139" t="s">
+        <v>183</v>
+      </c>
+      <c r="R149" s="67"/>
+      <c r="S149" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="T149" s="94"/>
+      <c r="T149" s="67"/>
     </row>
     <row r="150" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="166"/>
-      <c r="B150" s="165"/>
-      <c r="C150" s="164" t="s">
+      <c r="A150" s="65"/>
+      <c r="B150" s="64"/>
+      <c r="C150" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D150" s="165"/>
-      <c r="E150" s="164" t="s">
+      <c r="D150" s="64"/>
+      <c r="E150" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="F150" s="165"/>
-      <c r="G150" s="164" t="s">
+      <c r="F150" s="64"/>
+      <c r="G150" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H150" s="165"/>
-      <c r="I150" s="164" t="s">
+      <c r="H150" s="64"/>
+      <c r="I150" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="J150" s="165"/>
-      <c r="K150" s="164" t="s">
+      <c r="J150" s="64"/>
+      <c r="K150" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="L150" s="165"/>
-      <c r="M150" s="164" t="s">
+      <c r="L150" s="64"/>
+      <c r="M150" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="N150" s="165"/>
-      <c r="O150" s="164" t="s">
+      <c r="N150" s="64"/>
+      <c r="O150" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P150" s="165"/>
-      <c r="Q150" s="164" t="s">
+      <c r="P150" s="64"/>
+      <c r="Q150" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="R150" s="165"/>
-      <c r="S150" s="164" t="s">
+      <c r="R150" s="64"/>
+      <c r="S150" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="T150" s="165"/>
+      <c r="T150" s="64"/>
     </row>
     <row r="151" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="119" t="s">
+      <c r="A151" s="85" t="s">
         <v>115</v>
       </c>
-      <c r="B151" s="94"/>
-      <c r="C151" s="119">
+      <c r="B151" s="67"/>
+      <c r="C151" s="85">
         <v>40</v>
       </c>
-      <c r="D151" s="94"/>
-      <c r="E151" s="120">
+      <c r="D151" s="67"/>
+      <c r="E151" s="86">
         <v>0.5</v>
       </c>
-      <c r="F151" s="94"/>
-      <c r="G151" s="120"/>
-      <c r="H151" s="94"/>
-      <c r="I151" s="121">
+      <c r="F151" s="67"/>
+      <c r="G151" s="86"/>
+      <c r="H151" s="67"/>
+      <c r="I151" s="87">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J151" s="94"/>
-      <c r="K151" s="122"/>
-      <c r="L151" s="94"/>
-      <c r="M151" s="123">
+      <c r="J151" s="67"/>
+      <c r="K151" s="88"/>
+      <c r="L151" s="67"/>
+      <c r="M151" s="100">
         <v>17.96</v>
       </c>
-      <c r="N151" s="94"/>
-      <c r="O151" s="124">
+      <c r="N151" s="67"/>
+      <c r="O151" s="101">
         <v>1.8</v>
       </c>
-      <c r="P151" s="94"/>
-      <c r="Q151" s="109">
+      <c r="P151" s="67"/>
+      <c r="Q151" s="110">
         <v>45.8</v>
       </c>
-      <c r="R151" s="110"/>
-      <c r="S151" s="120">
+      <c r="R151" s="70"/>
+      <c r="S151" s="86">
         <v>1.4</v>
       </c>
-      <c r="T151" s="94"/>
+      <c r="T151" s="67"/>
     </row>
     <row r="152" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="112" t="s">
+      <c r="A152" s="98" t="s">
         <v>116</v>
       </c>
-      <c r="B152" s="96"/>
-      <c r="C152" s="112">
+      <c r="B152" s="72"/>
+      <c r="C152" s="98">
         <v>40</v>
       </c>
-      <c r="D152" s="96"/>
-      <c r="E152" s="111">
+      <c r="D152" s="72"/>
+      <c r="E152" s="96">
         <v>1</v>
       </c>
-      <c r="F152" s="96"/>
-      <c r="G152" s="111"/>
-      <c r="H152" s="96"/>
-      <c r="I152" s="113">
+      <c r="F152" s="72"/>
+      <c r="G152" s="96"/>
+      <c r="H152" s="72"/>
+      <c r="I152" s="99">
         <v>0.93</v>
       </c>
-      <c r="J152" s="96"/>
-      <c r="K152" s="114"/>
-      <c r="L152" s="96"/>
-      <c r="M152" s="115">
+      <c r="J152" s="72"/>
+      <c r="K152" s="97"/>
+      <c r="L152" s="72"/>
+      <c r="M152" s="103">
         <v>20.93</v>
       </c>
-      <c r="N152" s="96"/>
-      <c r="O152" s="116">
+      <c r="N152" s="72"/>
+      <c r="O152" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P152" s="96"/>
-      <c r="Q152" s="102">
+      <c r="P152" s="72"/>
+      <c r="Q152" s="78">
         <v>44.5</v>
       </c>
-      <c r="R152" s="103"/>
-      <c r="S152" s="111">
+      <c r="R152" s="79"/>
+      <c r="S152" s="96">
         <v>1.4</v>
       </c>
-      <c r="T152" s="96"/>
+      <c r="T152" s="72"/>
     </row>
     <row r="153" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="132" t="s">
+      <c r="A153" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="B153" s="118"/>
-      <c r="C153" s="132">
+      <c r="B153" s="81"/>
+      <c r="C153" s="91">
         <v>40</v>
       </c>
-      <c r="D153" s="118"/>
-      <c r="E153" s="133">
+      <c r="D153" s="81"/>
+      <c r="E153" s="92">
         <v>4</v>
       </c>
-      <c r="F153" s="118"/>
-      <c r="G153" s="133"/>
-      <c r="H153" s="118"/>
-      <c r="I153" s="134">
+      <c r="F153" s="81"/>
+      <c r="G153" s="92"/>
+      <c r="H153" s="81"/>
+      <c r="I153" s="93">
         <v>1.9</v>
       </c>
-      <c r="J153" s="118"/>
-      <c r="K153" s="135">
+      <c r="J153" s="81"/>
+      <c r="K153" s="94">
         <v>0.06</v>
       </c>
-      <c r="L153" s="118"/>
-      <c r="M153" s="136">
+      <c r="L153" s="81"/>
+      <c r="M153" s="95">
         <v>27.07</v>
       </c>
-      <c r="N153" s="118"/>
-      <c r="O153" s="137">
+      <c r="N153" s="81"/>
+      <c r="O153" s="115">
         <v>0.2</v>
       </c>
-      <c r="P153" s="118"/>
-      <c r="Q153" s="130">
+      <c r="P153" s="81"/>
+      <c r="Q153" s="113">
         <v>43.25</v>
       </c>
-      <c r="R153" s="131"/>
-      <c r="S153" s="133">
+      <c r="R153" s="114"/>
+      <c r="S153" s="92">
         <v>1.4</v>
       </c>
-      <c r="T153" s="118"/>
+      <c r="T153" s="81"/>
     </row>
     <row r="154" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="104" t="s">
+      <c r="A154" s="105" t="s">
         <v>118</v>
       </c>
-      <c r="B154" s="94"/>
-      <c r="C154" s="104">
+      <c r="B154" s="67"/>
+      <c r="C154" s="105">
         <v>50</v>
       </c>
-      <c r="D154" s="94"/>
-      <c r="E154" s="93">
+      <c r="D154" s="67"/>
+      <c r="E154" s="106">
         <v>0.5</v>
       </c>
-      <c r="F154" s="94"/>
-      <c r="G154" s="93"/>
-      <c r="H154" s="94"/>
-      <c r="I154" s="105">
+      <c r="F154" s="67"/>
+      <c r="G154" s="106"/>
+      <c r="H154" s="67"/>
+      <c r="I154" s="102">
         <v>0.68</v>
       </c>
-      <c r="J154" s="94"/>
-      <c r="K154" s="106"/>
-      <c r="L154" s="94"/>
-      <c r="M154" s="107">
+      <c r="J154" s="67"/>
+      <c r="K154" s="128"/>
+      <c r="L154" s="67"/>
+      <c r="M154" s="89">
         <v>19.5</v>
       </c>
-      <c r="N154" s="94"/>
-      <c r="O154" s="108">
+      <c r="N154" s="67"/>
+      <c r="O154" s="90">
         <v>2.7</v>
       </c>
-      <c r="P154" s="94"/>
-      <c r="Q154" s="109">
+      <c r="P154" s="67"/>
+      <c r="Q154" s="110">
         <v>45.31</v>
       </c>
-      <c r="R154" s="110"/>
-      <c r="S154" s="93">
+      <c r="R154" s="70"/>
+      <c r="S154" s="106">
         <v>1.4</v>
       </c>
-      <c r="T154" s="94"/>
+      <c r="T154" s="67"/>
     </row>
     <row r="155" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="95" t="s">
+      <c r="A155" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="96"/>
-      <c r="C155" s="95">
+      <c r="B155" s="72"/>
+      <c r="C155" s="71">
         <v>50</v>
       </c>
-      <c r="D155" s="96"/>
-      <c r="E155" s="97">
+      <c r="D155" s="72"/>
+      <c r="E155" s="73">
         <v>1</v>
       </c>
-      <c r="F155" s="96"/>
-      <c r="G155" s="97"/>
-      <c r="H155" s="96"/>
-      <c r="I155" s="98">
+      <c r="F155" s="72"/>
+      <c r="G155" s="73"/>
+      <c r="H155" s="72"/>
+      <c r="I155" s="74">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J155" s="96"/>
-      <c r="K155" s="99"/>
-      <c r="L155" s="96"/>
-      <c r="M155" s="100">
+      <c r="J155" s="72"/>
+      <c r="K155" s="75"/>
+      <c r="L155" s="72"/>
+      <c r="M155" s="76">
         <v>22.65</v>
       </c>
-      <c r="N155" s="96"/>
-      <c r="O155" s="101">
+      <c r="N155" s="72"/>
+      <c r="O155" s="77">
         <v>1.6</v>
       </c>
-      <c r="P155" s="96"/>
-      <c r="Q155" s="102">
+      <c r="P155" s="72"/>
+      <c r="Q155" s="78">
         <v>44.2</v>
       </c>
-      <c r="R155" s="103"/>
-      <c r="S155" s="97">
+      <c r="R155" s="79"/>
+      <c r="S155" s="73">
         <v>1.4</v>
       </c>
-      <c r="T155" s="96"/>
+      <c r="T155" s="72"/>
     </row>
     <row r="156" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="112" t="s">
+      <c r="A156" s="98" t="s">
         <v>104</v>
       </c>
-      <c r="B156" s="96"/>
-      <c r="C156" s="112">
+      <c r="B156" s="72"/>
+      <c r="C156" s="98">
         <v>50</v>
       </c>
-      <c r="D156" s="96"/>
-      <c r="E156" s="111">
+      <c r="D156" s="72"/>
+      <c r="E156" s="96">
         <v>4</v>
       </c>
-      <c r="F156" s="96"/>
-      <c r="G156" s="111"/>
-      <c r="H156" s="96"/>
-      <c r="I156" s="113">
+      <c r="F156" s="72"/>
+      <c r="G156" s="96"/>
+      <c r="H156" s="72"/>
+      <c r="I156" s="99">
         <v>2.39</v>
       </c>
-      <c r="J156" s="96"/>
-      <c r="K156" s="114">
+      <c r="J156" s="72"/>
+      <c r="K156" s="97">
         <v>0.08</v>
       </c>
-      <c r="L156" s="96"/>
-      <c r="M156" s="115">
+      <c r="L156" s="72"/>
+      <c r="M156" s="103">
         <v>29.93</v>
       </c>
-      <c r="N156" s="96"/>
-      <c r="O156" s="116">
+      <c r="N156" s="72"/>
+      <c r="O156" s="104">
         <v>0.4</v>
       </c>
-      <c r="P156" s="96"/>
-      <c r="Q156" s="102">
+      <c r="P156" s="72"/>
+      <c r="Q156" s="78">
         <v>43.09</v>
       </c>
-      <c r="R156" s="103"/>
-      <c r="S156" s="111">
+      <c r="R156" s="79"/>
+      <c r="S156" s="96">
         <v>1.4</v>
       </c>
-      <c r="T156" s="96"/>
+      <c r="T156" s="72"/>
     </row>
     <row r="157" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="132" t="s">
+      <c r="A157" s="91" t="s">
         <v>120</v>
       </c>
-      <c r="B157" s="118"/>
-      <c r="C157" s="132">
+      <c r="B157" s="81"/>
+      <c r="C157" s="91">
         <v>50</v>
       </c>
-      <c r="D157" s="118"/>
-      <c r="E157" s="133">
+      <c r="D157" s="81"/>
+      <c r="E157" s="92">
         <v>4.5</v>
       </c>
-      <c r="F157" s="118"/>
-      <c r="G157" s="133"/>
-      <c r="H157" s="118"/>
-      <c r="I157" s="134">
+      <c r="F157" s="81"/>
+      <c r="G157" s="92"/>
+      <c r="H157" s="81"/>
+      <c r="I157" s="93">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J157" s="118"/>
-      <c r="K157" s="135">
+      <c r="J157" s="81"/>
+      <c r="K157" s="94">
         <v>0.08</v>
       </c>
-      <c r="L157" s="118"/>
-      <c r="M157" s="136">
+      <c r="L157" s="81"/>
+      <c r="M157" s="95">
         <v>30.62</v>
       </c>
-      <c r="N157" s="118"/>
-      <c r="O157" s="137">
+      <c r="N157" s="81"/>
+      <c r="O157" s="115">
         <v>0.3</v>
       </c>
-      <c r="P157" s="118"/>
-      <c r="Q157" s="130">
+      <c r="P157" s="81"/>
+      <c r="Q157" s="113">
         <v>43.12</v>
       </c>
-      <c r="R157" s="131"/>
-      <c r="S157" s="133">
+      <c r="R157" s="114"/>
+      <c r="S157" s="92">
         <v>1.4</v>
       </c>
-      <c r="T157" s="118"/>
+      <c r="T157" s="81"/>
     </row>
     <row r="158" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="104" t="s">
+      <c r="A158" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="B158" s="94"/>
-      <c r="C158" s="104">
+      <c r="B158" s="67"/>
+      <c r="C158" s="105">
         <v>60</v>
       </c>
-      <c r="D158" s="94"/>
-      <c r="E158" s="93">
+      <c r="D158" s="67"/>
+      <c r="E158" s="106">
         <v>0.5</v>
       </c>
-      <c r="F158" s="94"/>
-      <c r="G158" s="93"/>
-      <c r="H158" s="94"/>
-      <c r="I158" s="105">
+      <c r="F158" s="67"/>
+      <c r="G158" s="106"/>
+      <c r="H158" s="67"/>
+      <c r="I158" s="102">
         <v>0.79</v>
       </c>
-      <c r="J158" s="94"/>
-      <c r="K158" s="106"/>
-      <c r="L158" s="94"/>
-      <c r="M158" s="107">
+      <c r="J158" s="67"/>
+      <c r="K158" s="128"/>
+      <c r="L158" s="67"/>
+      <c r="M158" s="89">
         <v>20.86</v>
       </c>
-      <c r="N158" s="94"/>
-      <c r="O158" s="108">
+      <c r="N158" s="67"/>
+      <c r="O158" s="90">
         <v>3.5</v>
       </c>
-      <c r="P158" s="94"/>
-      <c r="Q158" s="109">
+      <c r="P158" s="67"/>
+      <c r="Q158" s="110">
         <v>44.97</v>
       </c>
-      <c r="R158" s="110"/>
-      <c r="S158" s="93">
+      <c r="R158" s="70"/>
+      <c r="S158" s="106">
         <v>1.4</v>
       </c>
-      <c r="T158" s="94"/>
+      <c r="T158" s="67"/>
     </row>
     <row r="159" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="95" t="s">
+      <c r="A159" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="B159" s="96"/>
-      <c r="C159" s="95">
+      <c r="B159" s="72"/>
+      <c r="C159" s="71">
         <v>60</v>
       </c>
-      <c r="D159" s="96"/>
-      <c r="E159" s="97">
+      <c r="D159" s="72"/>
+      <c r="E159" s="73">
         <v>1</v>
       </c>
-      <c r="F159" s="96"/>
-      <c r="G159" s="97"/>
-      <c r="H159" s="96"/>
-      <c r="I159" s="98">
+      <c r="F159" s="72"/>
+      <c r="G159" s="73"/>
+      <c r="H159" s="72"/>
+      <c r="I159" s="74">
         <v>1.29</v>
       </c>
-      <c r="J159" s="96"/>
-      <c r="K159" s="99"/>
-      <c r="L159" s="96"/>
-      <c r="M159" s="100">
+      <c r="J159" s="72"/>
+      <c r="K159" s="75"/>
+      <c r="L159" s="72"/>
+      <c r="M159" s="76">
         <v>24.09</v>
       </c>
-      <c r="N159" s="96"/>
-      <c r="O159" s="101">
+      <c r="N159" s="72"/>
+      <c r="O159" s="77">
         <v>2.1</v>
       </c>
-      <c r="P159" s="96"/>
-      <c r="Q159" s="102">
+      <c r="P159" s="72"/>
+      <c r="Q159" s="78">
         <v>43.94</v>
       </c>
-      <c r="R159" s="103"/>
-      <c r="S159" s="97">
+      <c r="R159" s="79"/>
+      <c r="S159" s="73">
         <v>1.4</v>
       </c>
-      <c r="T159" s="96"/>
+      <c r="T159" s="72"/>
     </row>
     <row r="160" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="125" t="s">
+      <c r="A160" s="80" t="s">
         <v>123</v>
       </c>
-      <c r="B160" s="118"/>
-      <c r="C160" s="125">
+      <c r="B160" s="81"/>
+      <c r="C160" s="80">
         <v>60</v>
       </c>
-      <c r="D160" s="118"/>
-      <c r="E160" s="117">
+      <c r="D160" s="81"/>
+      <c r="E160" s="82">
         <v>4</v>
       </c>
-      <c r="F160" s="118"/>
-      <c r="G160" s="117"/>
-      <c r="H160" s="118"/>
-      <c r="I160" s="126">
+      <c r="F160" s="81"/>
+      <c r="G160" s="82"/>
+      <c r="H160" s="81"/>
+      <c r="I160" s="83">
         <v>2.81</v>
       </c>
-      <c r="J160" s="118"/>
-      <c r="K160" s="127">
+      <c r="J160" s="81"/>
+      <c r="K160" s="84">
         <v>0.1</v>
       </c>
-      <c r="L160" s="118"/>
-      <c r="M160" s="128">
+      <c r="L160" s="81"/>
+      <c r="M160" s="111">
         <v>32.25</v>
       </c>
-      <c r="N160" s="118"/>
-      <c r="O160" s="129">
+      <c r="N160" s="81"/>
+      <c r="O160" s="112">
         <v>0.6</v>
       </c>
-      <c r="P160" s="118"/>
-      <c r="Q160" s="130">
+      <c r="P160" s="81"/>
+      <c r="Q160" s="113">
         <v>42.92</v>
       </c>
-      <c r="R160" s="131"/>
-      <c r="S160" s="117">
+      <c r="R160" s="114"/>
+      <c r="S160" s="82">
         <v>1.4</v>
       </c>
-      <c r="T160" s="118"/>
+      <c r="T160" s="81"/>
     </row>
     <row r="161" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="119" t="s">
+      <c r="A161" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="B161" s="94"/>
-      <c r="C161" s="119">
+      <c r="B161" s="67"/>
+      <c r="C161" s="85">
         <v>70</v>
       </c>
-      <c r="D161" s="94"/>
-      <c r="E161" s="120">
+      <c r="D161" s="67"/>
+      <c r="E161" s="86">
         <v>0.5</v>
       </c>
-      <c r="F161" s="94"/>
-      <c r="G161" s="120"/>
-      <c r="H161" s="94"/>
-      <c r="I161" s="121">
+      <c r="F161" s="67"/>
+      <c r="G161" s="86"/>
+      <c r="H161" s="67"/>
+      <c r="I161" s="87">
         <v>0.9</v>
       </c>
-      <c r="J161" s="94"/>
-      <c r="K161" s="122"/>
-      <c r="L161" s="94"/>
-      <c r="M161" s="123">
+      <c r="J161" s="67"/>
+      <c r="K161" s="88"/>
+      <c r="L161" s="67"/>
+      <c r="M161" s="100">
         <v>22.15</v>
       </c>
-      <c r="N161" s="94"/>
-      <c r="O161" s="124">
+      <c r="N161" s="67"/>
+      <c r="O161" s="101">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P161" s="94"/>
-      <c r="Q161" s="109">
+      <c r="P161" s="67"/>
+      <c r="Q161" s="110">
         <v>44.68</v>
       </c>
-      <c r="R161" s="110"/>
-      <c r="S161" s="120">
+      <c r="R161" s="70"/>
+      <c r="S161" s="86">
         <v>1.4</v>
       </c>
-      <c r="T161" s="94"/>
+      <c r="T161" s="67"/>
     </row>
     <row r="162" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="112" t="s">
+      <c r="A162" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="B162" s="96"/>
-      <c r="C162" s="112">
+      <c r="B162" s="72"/>
+      <c r="C162" s="98">
         <v>70</v>
       </c>
-      <c r="D162" s="96"/>
-      <c r="E162" s="111">
+      <c r="D162" s="72"/>
+      <c r="E162" s="96">
         <v>1</v>
       </c>
-      <c r="F162" s="96"/>
-      <c r="G162" s="111"/>
-      <c r="H162" s="96"/>
-      <c r="I162" s="113">
+      <c r="F162" s="72"/>
+      <c r="G162" s="96"/>
+      <c r="H162" s="72"/>
+      <c r="I162" s="99">
         <v>1.46</v>
       </c>
-      <c r="J162" s="96"/>
-      <c r="K162" s="114"/>
-      <c r="L162" s="96"/>
-      <c r="M162" s="115">
+      <c r="J162" s="72"/>
+      <c r="K162" s="97"/>
+      <c r="L162" s="72"/>
+      <c r="M162" s="103">
         <v>25.44</v>
       </c>
-      <c r="N162" s="96"/>
-      <c r="O162" s="116">
+      <c r="N162" s="72"/>
+      <c r="O162" s="104">
         <v>2.6</v>
       </c>
-      <c r="P162" s="96"/>
-      <c r="Q162" s="102">
+      <c r="P162" s="72"/>
+      <c r="Q162" s="78">
         <v>43.72</v>
       </c>
-      <c r="R162" s="103"/>
-      <c r="S162" s="111">
+      <c r="R162" s="79"/>
+      <c r="S162" s="96">
         <v>1.4</v>
       </c>
-      <c r="T162" s="96"/>
+      <c r="T162" s="72"/>
     </row>
     <row r="163" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="95" t="s">
+      <c r="A163" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="B163" s="96"/>
-      <c r="C163" s="95">
+      <c r="B163" s="72"/>
+      <c r="C163" s="71">
         <v>70</v>
       </c>
-      <c r="D163" s="96"/>
-      <c r="E163" s="97">
+      <c r="D163" s="72"/>
+      <c r="E163" s="73">
         <v>4</v>
       </c>
-      <c r="F163" s="96"/>
-      <c r="G163" s="97"/>
-      <c r="H163" s="96"/>
-      <c r="I163" s="98">
+      <c r="F163" s="72"/>
+      <c r="G163" s="73"/>
+      <c r="H163" s="72"/>
+      <c r="I163" s="74">
         <v>3.19</v>
       </c>
-      <c r="J163" s="96"/>
-      <c r="K163" s="99">
+      <c r="J163" s="72"/>
+      <c r="K163" s="75">
         <v>0.11</v>
       </c>
-      <c r="L163" s="96"/>
-      <c r="M163" s="100">
+      <c r="L163" s="72"/>
+      <c r="M163" s="76">
         <v>34.270000000000003</v>
       </c>
-      <c r="N163" s="96"/>
-      <c r="O163" s="101">
+      <c r="N163" s="72"/>
+      <c r="O163" s="77">
         <v>0.8</v>
       </c>
-      <c r="P163" s="96"/>
-      <c r="Q163" s="102">
+      <c r="P163" s="72"/>
+      <c r="Q163" s="78">
         <v>42.83</v>
       </c>
-      <c r="R163" s="103"/>
-      <c r="S163" s="97">
+      <c r="R163" s="79"/>
+      <c r="S163" s="73">
         <v>1.4</v>
       </c>
-      <c r="T163" s="96"/>
+      <c r="T163" s="72"/>
     </row>
     <row r="164" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="112" t="s">
+      <c r="A164" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="B164" s="96"/>
-      <c r="C164" s="112">
+      <c r="B164" s="72"/>
+      <c r="C164" s="98">
         <v>70</v>
       </c>
-      <c r="D164" s="96"/>
-      <c r="E164" s="111">
+      <c r="D164" s="72"/>
+      <c r="E164" s="96">
         <v>4.5</v>
       </c>
-      <c r="F164" s="96"/>
-      <c r="G164" s="111"/>
-      <c r="H164" s="96"/>
-      <c r="I164" s="113">
+      <c r="F164" s="72"/>
+      <c r="G164" s="96"/>
+      <c r="H164" s="72"/>
+      <c r="I164" s="99">
         <v>3.39</v>
       </c>
-      <c r="J164" s="96"/>
-      <c r="K164" s="114">
+      <c r="J164" s="72"/>
+      <c r="K164" s="97">
         <v>0.12</v>
       </c>
-      <c r="L164" s="96"/>
-      <c r="M164" s="115">
+      <c r="L164" s="72"/>
+      <c r="M164" s="103">
         <v>35.19</v>
       </c>
-      <c r="N164" s="96"/>
-      <c r="O164" s="116">
+      <c r="N164" s="72"/>
+      <c r="O164" s="104">
         <v>0.7</v>
       </c>
-      <c r="P164" s="96"/>
-      <c r="Q164" s="102">
+      <c r="P164" s="72"/>
+      <c r="Q164" s="78">
         <v>42.81</v>
       </c>
-      <c r="R164" s="103"/>
-      <c r="S164" s="111">
+      <c r="R164" s="79"/>
+      <c r="S164" s="96">
         <v>1.4</v>
       </c>
-      <c r="T164" s="96"/>
+      <c r="T164" s="72"/>
     </row>
     <row r="165" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="95" t="s">
+      <c r="A165" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="B165" s="96"/>
-      <c r="C165" s="95">
+      <c r="B165" s="72"/>
+      <c r="C165" s="71">
         <v>70</v>
       </c>
-      <c r="D165" s="96"/>
-      <c r="E165" s="97">
+      <c r="D165" s="72"/>
+      <c r="E165" s="73">
         <v>6</v>
       </c>
-      <c r="F165" s="96"/>
-      <c r="G165" s="97"/>
-      <c r="H165" s="96"/>
-      <c r="I165" s="98">
+      <c r="F165" s="72"/>
+      <c r="G165" s="73"/>
+      <c r="H165" s="72"/>
+      <c r="I165" s="74">
         <v>3.95</v>
       </c>
-      <c r="J165" s="96"/>
-      <c r="K165" s="99">
+      <c r="J165" s="72"/>
+      <c r="K165" s="75">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L165" s="96"/>
-      <c r="M165" s="100">
+      <c r="L165" s="72"/>
+      <c r="M165" s="76">
         <v>37.51</v>
       </c>
-      <c r="N165" s="96"/>
-      <c r="O165" s="101">
+      <c r="N165" s="72"/>
+      <c r="O165" s="77">
         <v>0.5</v>
       </c>
-      <c r="P165" s="96"/>
-      <c r="Q165" s="102">
+      <c r="P165" s="72"/>
+      <c r="Q165" s="78">
         <v>42.68</v>
       </c>
-      <c r="R165" s="103"/>
-      <c r="S165" s="97">
+      <c r="R165" s="79"/>
+      <c r="S165" s="73">
         <v>1.4</v>
       </c>
-      <c r="T165" s="96"/>
+      <c r="T165" s="72"/>
     </row>
     <row r="166" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="104" t="s">
+      <c r="A166" s="105" t="s">
         <v>128</v>
       </c>
-      <c r="B166" s="94"/>
-      <c r="C166" s="104">
+      <c r="B166" s="67"/>
+      <c r="C166" s="105">
         <v>80</v>
       </c>
-      <c r="D166" s="94"/>
-      <c r="E166" s="93">
+      <c r="D166" s="67"/>
+      <c r="E166" s="106">
         <v>0.5</v>
       </c>
-      <c r="F166" s="94"/>
-      <c r="G166" s="93"/>
-      <c r="H166" s="94"/>
-      <c r="I166" s="105">
+      <c r="F166" s="67"/>
+      <c r="G166" s="106"/>
+      <c r="H166" s="67"/>
+      <c r="I166" s="102">
         <v>1.02</v>
       </c>
-      <c r="J166" s="94"/>
-      <c r="K166" s="106"/>
-      <c r="L166" s="94"/>
-      <c r="M166" s="107">
+      <c r="J166" s="67"/>
+      <c r="K166" s="128"/>
+      <c r="L166" s="67"/>
+      <c r="M166" s="89">
         <v>23.48</v>
       </c>
-      <c r="N166" s="94"/>
-      <c r="O166" s="108">
+      <c r="N166" s="67"/>
+      <c r="O166" s="90">
         <v>4.8</v>
       </c>
-      <c r="P166" s="94"/>
-      <c r="Q166" s="109">
+      <c r="P166" s="67"/>
+      <c r="Q166" s="110">
         <v>44.42</v>
       </c>
-      <c r="R166" s="110"/>
-      <c r="S166" s="93">
+      <c r="R166" s="70"/>
+      <c r="S166" s="106">
         <v>1.4</v>
       </c>
-      <c r="T166" s="94"/>
+      <c r="T166" s="67"/>
     </row>
     <row r="167" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="95" t="s">
+      <c r="A167" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="96"/>
-      <c r="C167" s="95">
+      <c r="B167" s="72"/>
+      <c r="C167" s="71">
         <v>80</v>
       </c>
-      <c r="D167" s="96"/>
-      <c r="E167" s="97">
+      <c r="D167" s="72"/>
+      <c r="E167" s="73">
         <v>1</v>
       </c>
-      <c r="F167" s="96"/>
-      <c r="G167" s="97"/>
-      <c r="H167" s="96"/>
-      <c r="I167" s="98">
+      <c r="F167" s="72"/>
+      <c r="G167" s="73"/>
+      <c r="H167" s="72"/>
+      <c r="I167" s="74">
         <v>1.64</v>
       </c>
-      <c r="J167" s="96"/>
-      <c r="K167" s="99"/>
-      <c r="L167" s="96"/>
-      <c r="M167" s="100">
+      <c r="J167" s="72"/>
+      <c r="K167" s="75"/>
+      <c r="L167" s="72"/>
+      <c r="M167" s="76">
         <v>26.84</v>
       </c>
-      <c r="N167" s="96"/>
-      <c r="O167" s="101">
+      <c r="N167" s="72"/>
+      <c r="O167" s="77">
         <v>3.2</v>
       </c>
-      <c r="P167" s="96"/>
-      <c r="Q167" s="102">
+      <c r="P167" s="72"/>
+      <c r="Q167" s="78">
         <v>43.52</v>
       </c>
-      <c r="R167" s="103"/>
-      <c r="S167" s="97">
+      <c r="R167" s="79"/>
+      <c r="S167" s="73">
         <v>1.4</v>
       </c>
-      <c r="T167" s="96"/>
+      <c r="T167" s="72"/>
     </row>
     <row r="168" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="125" t="s">
+      <c r="A168" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="B168" s="118"/>
-      <c r="C168" s="125">
+      <c r="B168" s="81"/>
+      <c r="C168" s="80">
         <v>80</v>
       </c>
-      <c r="D168" s="118"/>
-      <c r="E168" s="117">
+      <c r="D168" s="81"/>
+      <c r="E168" s="82">
         <v>4</v>
       </c>
-      <c r="F168" s="118"/>
-      <c r="G168" s="117"/>
-      <c r="H168" s="118"/>
-      <c r="I168" s="126">
+      <c r="F168" s="81"/>
+      <c r="G168" s="82"/>
+      <c r="H168" s="81"/>
+      <c r="I168" s="83">
         <v>3.62</v>
       </c>
-      <c r="J168" s="118"/>
-      <c r="K168" s="127">
+      <c r="J168" s="81"/>
+      <c r="K168" s="84">
         <v>0.13</v>
       </c>
-      <c r="L168" s="118"/>
-      <c r="M168" s="128">
+      <c r="L168" s="81"/>
+      <c r="M168" s="111">
         <v>36.33</v>
       </c>
-      <c r="N168" s="118"/>
-      <c r="O168" s="129">
+      <c r="N168" s="81"/>
+      <c r="O168" s="112">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P168" s="118"/>
-      <c r="Q168" s="130">
+      <c r="P168" s="81"/>
+      <c r="Q168" s="113">
         <v>42.75</v>
       </c>
-      <c r="R168" s="131"/>
-      <c r="S168" s="117">
+      <c r="R168" s="114"/>
+      <c r="S168" s="82">
         <v>1.4</v>
       </c>
-      <c r="T168" s="118"/>
+      <c r="T168" s="81"/>
     </row>
     <row r="169" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="119" t="s">
+      <c r="A169" s="85" t="s">
         <v>131</v>
       </c>
-      <c r="B169" s="94"/>
-      <c r="C169" s="119">
+      <c r="B169" s="67"/>
+      <c r="C169" s="85">
         <v>90</v>
       </c>
-      <c r="D169" s="94"/>
-      <c r="E169" s="120">
+      <c r="D169" s="67"/>
+      <c r="E169" s="86">
         <v>0.5</v>
       </c>
-      <c r="F169" s="94"/>
-      <c r="G169" s="120"/>
-      <c r="H169" s="94"/>
-      <c r="I169" s="121">
+      <c r="F169" s="67"/>
+      <c r="G169" s="86"/>
+      <c r="H169" s="67"/>
+      <c r="I169" s="87">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J169" s="94"/>
-      <c r="K169" s="122"/>
-      <c r="L169" s="94"/>
-      <c r="M169" s="123">
+      <c r="J169" s="67"/>
+      <c r="K169" s="88"/>
+      <c r="L169" s="67"/>
+      <c r="M169" s="100">
         <v>24.88</v>
       </c>
-      <c r="N169" s="94"/>
-      <c r="O169" s="124">
+      <c r="N169" s="67"/>
+      <c r="O169" s="101">
         <v>5.5</v>
       </c>
-      <c r="P169" s="94"/>
-      <c r="Q169" s="109">
+      <c r="P169" s="67"/>
+      <c r="Q169" s="110">
         <v>44.12</v>
       </c>
-      <c r="R169" s="110"/>
-      <c r="S169" s="120">
+      <c r="R169" s="70"/>
+      <c r="S169" s="86">
         <v>1.4</v>
       </c>
-      <c r="T169" s="94"/>
+      <c r="T169" s="67"/>
     </row>
     <row r="170" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="112" t="s">
+      <c r="A170" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="B170" s="96"/>
-      <c r="C170" s="112">
+      <c r="B170" s="72"/>
+      <c r="C170" s="98">
         <v>90</v>
       </c>
-      <c r="D170" s="96"/>
-      <c r="E170" s="111">
+      <c r="D170" s="72"/>
+      <c r="E170" s="96">
         <v>1</v>
       </c>
-      <c r="F170" s="96"/>
-      <c r="G170" s="111"/>
-      <c r="H170" s="96"/>
-      <c r="I170" s="113">
+      <c r="F170" s="72"/>
+      <c r="G170" s="96"/>
+      <c r="H170" s="72"/>
+      <c r="I170" s="99">
         <v>1.84</v>
       </c>
-      <c r="J170" s="96"/>
-      <c r="K170" s="114"/>
-      <c r="L170" s="96"/>
-      <c r="M170" s="115">
+      <c r="J170" s="72"/>
+      <c r="K170" s="97"/>
+      <c r="L170" s="72"/>
+      <c r="M170" s="103">
         <v>28.32</v>
       </c>
-      <c r="N170" s="96"/>
-      <c r="O170" s="116">
+      <c r="N170" s="72"/>
+      <c r="O170" s="104">
         <v>3.7</v>
       </c>
-      <c r="P170" s="96"/>
-      <c r="Q170" s="102">
+      <c r="P170" s="72"/>
+      <c r="Q170" s="78">
         <v>43.44</v>
       </c>
-      <c r="R170" s="103"/>
-      <c r="S170" s="111">
+      <c r="R170" s="79"/>
+      <c r="S170" s="96">
         <v>1.4</v>
       </c>
-      <c r="T170" s="96"/>
+      <c r="T170" s="72"/>
     </row>
     <row r="171" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="95" t="s">
+      <c r="A171" s="71" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="96"/>
-      <c r="C171" s="95">
+      <c r="B171" s="72"/>
+      <c r="C171" s="71">
         <v>90</v>
       </c>
-      <c r="D171" s="96"/>
-      <c r="E171" s="97">
+      <c r="D171" s="72"/>
+      <c r="E171" s="73">
         <v>4</v>
       </c>
-      <c r="F171" s="96"/>
-      <c r="G171" s="97"/>
-      <c r="H171" s="96"/>
-      <c r="I171" s="98">
+      <c r="F171" s="72"/>
+      <c r="G171" s="73"/>
+      <c r="H171" s="72"/>
+      <c r="I171" s="74">
         <v>4.04</v>
       </c>
-      <c r="J171" s="96"/>
-      <c r="K171" s="99">
+      <c r="J171" s="72"/>
+      <c r="K171" s="75">
         <v>0.15</v>
       </c>
-      <c r="L171" s="96"/>
-      <c r="M171" s="100">
+      <c r="L171" s="72"/>
+      <c r="M171" s="76">
         <v>38.380000000000003</v>
       </c>
-      <c r="N171" s="96"/>
-      <c r="O171" s="101">
+      <c r="N171" s="72"/>
+      <c r="O171" s="77">
         <v>1.4</v>
       </c>
-      <c r="P171" s="96"/>
-      <c r="Q171" s="102">
+      <c r="P171" s="72"/>
+      <c r="Q171" s="78">
         <v>42.62</v>
       </c>
-      <c r="R171" s="103"/>
-      <c r="S171" s="97">
+      <c r="R171" s="79"/>
+      <c r="S171" s="73">
         <v>1.4</v>
       </c>
-      <c r="T171" s="96"/>
+      <c r="T171" s="72"/>
     </row>
     <row r="172" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="104" t="s">
+      <c r="A172" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="B172" s="94"/>
-      <c r="C172" s="104">
+      <c r="B172" s="67"/>
+      <c r="C172" s="105">
         <v>100</v>
       </c>
-      <c r="D172" s="94"/>
-      <c r="E172" s="93">
+      <c r="D172" s="67"/>
+      <c r="E172" s="106">
         <v>0.5</v>
       </c>
-      <c r="F172" s="94"/>
-      <c r="G172" s="93"/>
-      <c r="H172" s="94"/>
-      <c r="I172" s="105">
+      <c r="F172" s="67"/>
+      <c r="G172" s="106"/>
+      <c r="H172" s="67"/>
+      <c r="I172" s="102">
         <v>1.3</v>
       </c>
-      <c r="J172" s="94"/>
-      <c r="K172" s="106"/>
-      <c r="L172" s="94"/>
-      <c r="M172" s="107">
+      <c r="J172" s="67"/>
+      <c r="K172" s="128"/>
+      <c r="L172" s="67"/>
+      <c r="M172" s="89">
         <v>26.34</v>
       </c>
-      <c r="N172" s="94"/>
-      <c r="O172" s="108">
+      <c r="N172" s="67"/>
+      <c r="O172" s="90">
         <v>6.1</v>
       </c>
-      <c r="P172" s="94"/>
-      <c r="Q172" s="109">
+      <c r="P172" s="67"/>
+      <c r="Q172" s="110">
         <v>43.9</v>
       </c>
-      <c r="R172" s="110"/>
-      <c r="S172" s="93">
+      <c r="R172" s="70"/>
+      <c r="S172" s="106">
         <v>1.4</v>
       </c>
-      <c r="T172" s="94"/>
+      <c r="T172" s="67"/>
     </row>
     <row r="173" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="95" t="s">
+      <c r="A173" s="71" t="s">
         <v>135</v>
       </c>
-      <c r="B173" s="96"/>
-      <c r="C173" s="95">
+      <c r="B173" s="72"/>
+      <c r="C173" s="71">
         <v>100</v>
       </c>
-      <c r="D173" s="96"/>
-      <c r="E173" s="97">
+      <c r="D173" s="72"/>
+      <c r="E173" s="73">
         <v>1</v>
       </c>
-      <c r="F173" s="96"/>
-      <c r="G173" s="97"/>
-      <c r="H173" s="96"/>
-      <c r="I173" s="98">
+      <c r="F173" s="72"/>
+      <c r="G173" s="73"/>
+      <c r="H173" s="72"/>
+      <c r="I173" s="74">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J173" s="96"/>
-      <c r="K173" s="99"/>
-      <c r="L173" s="96"/>
-      <c r="M173" s="100">
+      <c r="J173" s="72"/>
+      <c r="K173" s="75"/>
+      <c r="L173" s="72"/>
+      <c r="M173" s="76">
         <v>29.87</v>
       </c>
-      <c r="N173" s="96"/>
-      <c r="O173" s="101">
+      <c r="N173" s="72"/>
+      <c r="O173" s="77">
         <v>4.3</v>
       </c>
-      <c r="P173" s="96"/>
-      <c r="Q173" s="102">
+      <c r="P173" s="72"/>
+      <c r="Q173" s="78">
         <v>43.23</v>
       </c>
-      <c r="R173" s="103"/>
-      <c r="S173" s="97">
+      <c r="R173" s="79"/>
+      <c r="S173" s="73">
         <v>1.4</v>
       </c>
-      <c r="T173" s="96"/>
+      <c r="T173" s="72"/>
     </row>
     <row r="174" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="112" t="s">
+      <c r="A174" s="98" t="s">
         <v>106</v>
       </c>
-      <c r="B174" s="96"/>
-      <c r="C174" s="112">
+      <c r="B174" s="72"/>
+      <c r="C174" s="98">
         <v>100</v>
       </c>
-      <c r="D174" s="96"/>
-      <c r="E174" s="111">
+      <c r="D174" s="72"/>
+      <c r="E174" s="96">
         <v>4.5</v>
       </c>
-      <c r="F174" s="96"/>
-      <c r="G174" s="111"/>
-      <c r="H174" s="96"/>
-      <c r="I174" s="113">
+      <c r="F174" s="72"/>
+      <c r="G174" s="96"/>
+      <c r="H174" s="72"/>
+      <c r="I174" s="99">
         <v>4.74</v>
       </c>
-      <c r="J174" s="96"/>
-      <c r="K174" s="114">
+      <c r="J174" s="72"/>
+      <c r="K174" s="97">
         <v>0.18</v>
       </c>
-      <c r="L174" s="96"/>
-      <c r="M174" s="115">
+      <c r="L174" s="72"/>
+      <c r="M174" s="103">
         <v>41.59</v>
       </c>
-      <c r="N174" s="96"/>
-      <c r="O174" s="116">
+      <c r="N174" s="72"/>
+      <c r="O174" s="104">
         <v>1.6</v>
       </c>
-      <c r="P174" s="96"/>
-      <c r="Q174" s="102">
+      <c r="P174" s="72"/>
+      <c r="Q174" s="78">
         <v>42.51</v>
       </c>
-      <c r="R174" s="103"/>
-      <c r="S174" s="111">
+      <c r="R174" s="79"/>
+      <c r="S174" s="96">
         <v>1.4</v>
       </c>
-      <c r="T174" s="96"/>
+      <c r="T174" s="72"/>
     </row>
     <row r="175" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="95" t="s">
+      <c r="A175" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="B175" s="96"/>
-      <c r="C175" s="95">
+      <c r="B175" s="72"/>
+      <c r="C175" s="71">
         <v>100</v>
       </c>
-      <c r="D175" s="96"/>
-      <c r="E175" s="97">
+      <c r="D175" s="72"/>
+      <c r="E175" s="73">
         <v>6</v>
       </c>
-      <c r="F175" s="96"/>
-      <c r="G175" s="97"/>
-      <c r="H175" s="96"/>
-      <c r="I175" s="98">
+      <c r="F175" s="72"/>
+      <c r="G175" s="73"/>
+      <c r="H175" s="72"/>
+      <c r="I175" s="74">
         <v>5.49</v>
       </c>
-      <c r="J175" s="96"/>
-      <c r="K175" s="99">
+      <c r="J175" s="72"/>
+      <c r="K175" s="75">
         <v>0.22</v>
       </c>
-      <c r="L175" s="96"/>
-      <c r="M175" s="100">
+      <c r="L175" s="72"/>
+      <c r="M175" s="76">
         <v>44.58</v>
       </c>
-      <c r="N175" s="96"/>
-      <c r="O175" s="101">
+      <c r="N175" s="72"/>
+      <c r="O175" s="77">
         <v>1.2</v>
       </c>
-      <c r="P175" s="96"/>
-      <c r="Q175" s="102">
+      <c r="P175" s="72"/>
+      <c r="Q175" s="78">
         <v>42.44</v>
       </c>
-      <c r="R175" s="103"/>
-      <c r="S175" s="97">
+      <c r="R175" s="79"/>
+      <c r="S175" s="73">
         <v>1.4</v>
       </c>
-      <c r="T175" s="96"/>
+      <c r="T175" s="72"/>
     </row>
     <row r="176" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="125" t="s">
+      <c r="A176" s="80" t="s">
         <v>137</v>
       </c>
-      <c r="B176" s="118"/>
-      <c r="C176" s="125">
+      <c r="B176" s="81"/>
+      <c r="C176" s="80">
         <v>100</v>
       </c>
-      <c r="D176" s="118"/>
-      <c r="E176" s="117">
+      <c r="D176" s="81"/>
+      <c r="E176" s="82">
         <v>9</v>
       </c>
-      <c r="F176" s="118"/>
-      <c r="G176" s="117"/>
-      <c r="H176" s="118"/>
-      <c r="I176" s="126">
+      <c r="F176" s="81"/>
+      <c r="G176" s="82"/>
+      <c r="H176" s="81"/>
+      <c r="I176" s="83">
         <v>6.61</v>
       </c>
-      <c r="J176" s="118"/>
-      <c r="K176" s="127">
+      <c r="J176" s="81"/>
+      <c r="K176" s="84">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L176" s="118"/>
-      <c r="M176" s="128">
+      <c r="L176" s="81"/>
+      <c r="M176" s="111">
         <v>49.08</v>
       </c>
-      <c r="N176" s="118"/>
-      <c r="O176" s="129">
+      <c r="N176" s="81"/>
+      <c r="O176" s="112">
         <v>0.8</v>
       </c>
-      <c r="P176" s="118"/>
-      <c r="Q176" s="130">
+      <c r="P176" s="81"/>
+      <c r="Q176" s="113">
         <v>42.23</v>
       </c>
-      <c r="R176" s="131"/>
-      <c r="S176" s="117">
+      <c r="R176" s="114"/>
+      <c r="S176" s="82">
         <v>1.4</v>
       </c>
-      <c r="T176" s="118"/>
+      <c r="T176" s="81"/>
     </row>
     <row r="177" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="95" t="s">
+      <c r="A177" s="71" t="s">
         <v>138</v>
       </c>
-      <c r="B177" s="96"/>
-      <c r="C177" s="95">
+      <c r="B177" s="72"/>
+      <c r="C177" s="71">
         <v>120</v>
       </c>
-      <c r="D177" s="96"/>
-      <c r="E177" s="97">
+      <c r="D177" s="72"/>
+      <c r="E177" s="73">
         <v>4.5</v>
       </c>
-      <c r="F177" s="96"/>
-      <c r="G177" s="97"/>
-      <c r="H177" s="96"/>
-      <c r="I177" s="98">
+      <c r="F177" s="72"/>
+      <c r="G177" s="73"/>
+      <c r="H177" s="72"/>
+      <c r="I177" s="74">
         <v>5.56</v>
       </c>
-      <c r="J177" s="96"/>
-      <c r="K177" s="99">
+      <c r="J177" s="72"/>
+      <c r="K177" s="75">
         <v>0.23</v>
       </c>
-      <c r="L177" s="96"/>
-      <c r="M177" s="100">
+      <c r="L177" s="72"/>
+      <c r="M177" s="76">
         <v>45.74</v>
       </c>
-      <c r="N177" s="96"/>
-      <c r="O177" s="101">
+      <c r="N177" s="72"/>
+      <c r="O177" s="77">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P177" s="96"/>
-      <c r="Q177" s="102">
+      <c r="P177" s="72"/>
+      <c r="Q177" s="78">
         <v>42.3</v>
       </c>
-      <c r="R177" s="103"/>
-      <c r="S177" s="97">
+      <c r="R177" s="79"/>
+      <c r="S177" s="73">
         <v>1.4</v>
       </c>
-      <c r="T177" s="96"/>
+      <c r="T177" s="72"/>
     </row>
     <row r="178" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="112" t="s">
+      <c r="A178" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="B178" s="96"/>
-      <c r="C178" s="112">
+      <c r="B178" s="72"/>
+      <c r="C178" s="98">
         <v>120</v>
       </c>
-      <c r="D178" s="96"/>
-      <c r="E178" s="111">
+      <c r="D178" s="72"/>
+      <c r="E178" s="96">
         <v>6</v>
       </c>
-      <c r="F178" s="96"/>
-      <c r="G178" s="111"/>
-      <c r="H178" s="96"/>
-      <c r="I178" s="113">
+      <c r="F178" s="72"/>
+      <c r="G178" s="96"/>
+      <c r="H178" s="72"/>
+      <c r="I178" s="99">
         <v>6.38</v>
       </c>
-      <c r="J178" s="96"/>
-      <c r="K178" s="114">
+      <c r="J178" s="72"/>
+      <c r="K178" s="97">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L178" s="96"/>
-      <c r="M178" s="115">
+      <c r="L178" s="72"/>
+      <c r="M178" s="103">
         <v>48.95</v>
       </c>
-      <c r="N178" s="96"/>
-      <c r="O178" s="116">
+      <c r="N178" s="72"/>
+      <c r="O178" s="104">
         <v>1.8</v>
       </c>
-      <c r="P178" s="96"/>
-      <c r="Q178" s="102">
+      <c r="P178" s="72"/>
+      <c r="Q178" s="78">
         <v>42.17</v>
       </c>
-      <c r="R178" s="103"/>
-      <c r="S178" s="111">
+      <c r="R178" s="79"/>
+      <c r="S178" s="96">
         <v>1.4</v>
       </c>
-      <c r="T178" s="96"/>
+      <c r="T178" s="72"/>
     </row>
     <row r="179" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="95" t="s">
+      <c r="A179" s="71" t="s">
         <v>139</v>
       </c>
-      <c r="B179" s="96"/>
-      <c r="C179" s="95">
+      <c r="B179" s="72"/>
+      <c r="C179" s="71">
         <v>120</v>
       </c>
-      <c r="D179" s="96"/>
-      <c r="E179" s="97">
+      <c r="D179" s="72"/>
+      <c r="E179" s="73">
         <v>9</v>
       </c>
-      <c r="F179" s="96"/>
-      <c r="G179" s="97"/>
-      <c r="H179" s="96"/>
-      <c r="I179" s="98">
+      <c r="F179" s="72"/>
+      <c r="G179" s="73"/>
+      <c r="H179" s="72"/>
+      <c r="I179" s="74">
         <v>7.59</v>
       </c>
-      <c r="J179" s="96"/>
-      <c r="K179" s="99">
+      <c r="J179" s="72"/>
+      <c r="K179" s="75">
         <v>0.37</v>
       </c>
-      <c r="L179" s="96"/>
-      <c r="M179" s="100">
+      <c r="L179" s="72"/>
+      <c r="M179" s="76">
         <v>53.75</v>
       </c>
-      <c r="N179" s="96"/>
-      <c r="O179" s="101">
+      <c r="N179" s="72"/>
+      <c r="O179" s="77">
         <v>1.2</v>
       </c>
-      <c r="P179" s="96"/>
-      <c r="Q179" s="102">
+      <c r="P179" s="72"/>
+      <c r="Q179" s="78">
         <v>42.06</v>
       </c>
-      <c r="R179" s="103"/>
-      <c r="S179" s="97">
+      <c r="R179" s="79"/>
+      <c r="S179" s="73">
         <v>1.4</v>
       </c>
-      <c r="T179" s="96"/>
+      <c r="T179" s="72"/>
     </row>
     <row r="180" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="125" t="s">
+      <c r="A180" s="80" t="s">
         <v>140</v>
       </c>
-      <c r="B180" s="118"/>
-      <c r="C180" s="125">
+      <c r="B180" s="81"/>
+      <c r="C180" s="80">
         <v>120</v>
       </c>
-      <c r="D180" s="118"/>
-      <c r="E180" s="117">
+      <c r="D180" s="81"/>
+      <c r="E180" s="82">
         <v>4</v>
       </c>
-      <c r="F180" s="118"/>
-      <c r="G180" s="117">
+      <c r="F180" s="81"/>
+      <c r="G180" s="82">
         <v>0.5</v>
       </c>
-      <c r="H180" s="118"/>
-      <c r="I180" s="126">
+      <c r="H180" s="81"/>
+      <c r="I180" s="83">
         <v>10.31</v>
       </c>
-      <c r="J180" s="118"/>
-      <c r="K180" s="127">
+      <c r="J180" s="81"/>
+      <c r="K180" s="84">
         <v>0.63</v>
       </c>
-      <c r="L180" s="118"/>
-      <c r="M180" s="128">
+      <c r="L180" s="81"/>
+      <c r="M180" s="111">
         <v>65</v>
       </c>
-      <c r="N180" s="118"/>
-      <c r="O180" s="129">
+      <c r="N180" s="81"/>
+      <c r="O180" s="112">
         <v>0.7</v>
       </c>
-      <c r="P180" s="118"/>
-      <c r="Q180" s="130">
+      <c r="P180" s="81"/>
+      <c r="Q180" s="113">
         <v>41.79</v>
       </c>
-      <c r="R180" s="131"/>
-      <c r="S180" s="117">
+      <c r="R180" s="114"/>
+      <c r="S180" s="82">
         <v>1.4</v>
       </c>
-      <c r="T180" s="118"/>
+      <c r="T180" s="81"/>
     </row>
     <row r="181" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="119" t="s">
+      <c r="A181" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="B181" s="94"/>
-      <c r="C181" s="119">
+      <c r="B181" s="67"/>
+      <c r="C181" s="85">
         <v>140</v>
       </c>
-      <c r="D181" s="94"/>
-      <c r="E181" s="120">
+      <c r="D181" s="67"/>
+      <c r="E181" s="86">
         <v>4.5</v>
       </c>
-      <c r="F181" s="94"/>
-      <c r="G181" s="120"/>
-      <c r="H181" s="94"/>
-      <c r="I181" s="121">
+      <c r="F181" s="67"/>
+      <c r="G181" s="86"/>
+      <c r="H181" s="67"/>
+      <c r="I181" s="87">
         <v>6.33</v>
       </c>
-      <c r="J181" s="94"/>
-      <c r="K181" s="122">
+      <c r="J181" s="67"/>
+      <c r="K181" s="88">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L181" s="94"/>
-      <c r="M181" s="123">
+      <c r="L181" s="67"/>
+      <c r="M181" s="100">
         <v>49.87</v>
       </c>
-      <c r="N181" s="94"/>
-      <c r="O181" s="124">
+      <c r="N181" s="67"/>
+      <c r="O181" s="101">
         <v>3</v>
       </c>
-      <c r="P181" s="94"/>
-      <c r="Q181" s="109">
+      <c r="P181" s="67"/>
+      <c r="Q181" s="110">
         <v>42.16</v>
       </c>
-      <c r="R181" s="110"/>
-      <c r="S181" s="120">
+      <c r="R181" s="70"/>
+      <c r="S181" s="86">
         <v>1.4</v>
       </c>
-      <c r="T181" s="94"/>
+      <c r="T181" s="67"/>
     </row>
     <row r="182" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="112" t="s">
+      <c r="A182" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="B182" s="96"/>
-      <c r="C182" s="112">
+      <c r="B182" s="72"/>
+      <c r="C182" s="98">
         <v>140</v>
       </c>
-      <c r="D182" s="96"/>
-      <c r="E182" s="111">
+      <c r="D182" s="72"/>
+      <c r="E182" s="96">
         <v>6</v>
       </c>
-      <c r="F182" s="96"/>
-      <c r="G182" s="111"/>
-      <c r="H182" s="96"/>
-      <c r="I182" s="113">
+      <c r="F182" s="72"/>
+      <c r="G182" s="96"/>
+      <c r="H182" s="72"/>
+      <c r="I182" s="99">
         <v>7.2</v>
       </c>
-      <c r="J182" s="96"/>
-      <c r="K182" s="114">
+      <c r="J182" s="72"/>
+      <c r="K182" s="97">
         <v>0.34</v>
       </c>
-      <c r="L182" s="96"/>
-      <c r="M182" s="115">
+      <c r="L182" s="72"/>
+      <c r="M182" s="103">
         <v>53.14</v>
       </c>
-      <c r="N182" s="96"/>
-      <c r="O182" s="116">
+      <c r="N182" s="72"/>
+      <c r="O182" s="104">
         <v>2.5</v>
       </c>
-      <c r="P182" s="96"/>
-      <c r="Q182" s="102">
+      <c r="P182" s="72"/>
+      <c r="Q182" s="78">
         <v>42.03</v>
       </c>
-      <c r="R182" s="103"/>
-      <c r="S182" s="111">
+      <c r="R182" s="79"/>
+      <c r="S182" s="96">
         <v>1.4</v>
       </c>
-      <c r="T182" s="96"/>
+      <c r="T182" s="72"/>
     </row>
     <row r="183" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="95" t="s">
+      <c r="A183" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="B183" s="96"/>
-      <c r="C183" s="95">
+      <c r="B183" s="72"/>
+      <c r="C183" s="71">
         <v>140</v>
       </c>
-      <c r="D183" s="96"/>
-      <c r="E183" s="97">
+      <c r="D183" s="72"/>
+      <c r="E183" s="73">
         <v>9</v>
       </c>
-      <c r="F183" s="96"/>
-      <c r="G183" s="97"/>
-      <c r="H183" s="96"/>
-      <c r="I183" s="98">
+      <c r="F183" s="72"/>
+      <c r="G183" s="73"/>
+      <c r="H183" s="72"/>
+      <c r="I183" s="74">
         <v>8.44</v>
       </c>
-      <c r="J183" s="96"/>
-      <c r="K183" s="99">
+      <c r="J183" s="72"/>
+      <c r="K183" s="75">
         <v>0.45</v>
       </c>
-      <c r="L183" s="96"/>
-      <c r="M183" s="100">
+      <c r="L183" s="72"/>
+      <c r="M183" s="76">
         <v>58.06</v>
       </c>
-      <c r="N183" s="96"/>
-      <c r="O183" s="101">
+      <c r="N183" s="72"/>
+      <c r="O183" s="77">
         <v>1.8</v>
       </c>
-      <c r="P183" s="96"/>
-      <c r="Q183" s="102">
+      <c r="P183" s="72"/>
+      <c r="Q183" s="78">
         <v>41.94</v>
       </c>
-      <c r="R183" s="103"/>
-      <c r="S183" s="97">
+      <c r="R183" s="79"/>
+      <c r="S183" s="73">
         <v>1.4</v>
       </c>
-      <c r="T183" s="96"/>
+      <c r="T183" s="72"/>
     </row>
     <row r="184" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="112" t="s">
+      <c r="A184" s="98" t="s">
         <v>143</v>
       </c>
-      <c r="B184" s="96"/>
-      <c r="C184" s="112">
+      <c r="B184" s="72"/>
+      <c r="C184" s="98">
         <v>140</v>
       </c>
-      <c r="D184" s="96"/>
-      <c r="E184" s="111">
+      <c r="D184" s="72"/>
+      <c r="E184" s="96">
         <v>4</v>
       </c>
-      <c r="F184" s="96"/>
-      <c r="G184" s="111">
+      <c r="F184" s="72"/>
+      <c r="G184" s="96">
         <v>0.5</v>
       </c>
-      <c r="H184" s="96"/>
-      <c r="I184" s="113"/>
-      <c r="J184" s="96"/>
-      <c r="K184" s="114">
+      <c r="H184" s="72"/>
+      <c r="I184" s="99"/>
+      <c r="J184" s="72"/>
+      <c r="K184" s="97">
         <v>0.77</v>
       </c>
-      <c r="L184" s="96"/>
-      <c r="M184" s="115">
+      <c r="L184" s="72"/>
+      <c r="M184" s="103">
         <v>69.849999999999994</v>
       </c>
-      <c r="N184" s="96"/>
-      <c r="O184" s="116">
+      <c r="N184" s="72"/>
+      <c r="O184" s="104">
         <v>1.2</v>
       </c>
-      <c r="P184" s="96"/>
-      <c r="Q184" s="102">
+      <c r="P184" s="72"/>
+      <c r="Q184" s="78">
         <v>41.63</v>
       </c>
-      <c r="R184" s="103"/>
-      <c r="S184" s="111">
+      <c r="R184" s="79"/>
+      <c r="S184" s="96">
         <v>1.4</v>
       </c>
-      <c r="T184" s="96"/>
+      <c r="T184" s="72"/>
     </row>
     <row r="185" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="132" t="s">
+      <c r="A185" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="B185" s="118"/>
-      <c r="C185" s="132">
+      <c r="B185" s="81"/>
+      <c r="C185" s="91">
         <v>140</v>
       </c>
-      <c r="D185" s="118"/>
-      <c r="E185" s="133">
+      <c r="D185" s="81"/>
+      <c r="E185" s="92">
         <v>4</v>
       </c>
-      <c r="F185" s="118"/>
-      <c r="G185" s="133">
+      <c r="F185" s="81"/>
+      <c r="G185" s="92">
         <v>1</v>
       </c>
-      <c r="H185" s="118"/>
-      <c r="I185" s="134"/>
-      <c r="J185" s="118"/>
-      <c r="K185" s="135">
+      <c r="H185" s="81"/>
+      <c r="I185" s="93"/>
+      <c r="J185" s="81"/>
+      <c r="K185" s="94">
         <v>1.03</v>
       </c>
-      <c r="L185" s="118"/>
-      <c r="M185" s="136">
+      <c r="L185" s="81"/>
+      <c r="M185" s="95">
         <v>78.52</v>
       </c>
-      <c r="N185" s="118"/>
-      <c r="O185" s="137">
+      <c r="N185" s="81"/>
+      <c r="O185" s="115">
         <v>0.6</v>
       </c>
-      <c r="P185" s="118"/>
-      <c r="Q185" s="130">
+      <c r="P185" s="81"/>
+      <c r="Q185" s="113">
         <v>41.5</v>
       </c>
-      <c r="R185" s="131"/>
-      <c r="S185" s="133">
+      <c r="R185" s="114"/>
+      <c r="S185" s="92">
         <v>1.4</v>
       </c>
-      <c r="T185" s="118"/>
+      <c r="T185" s="81"/>
     </row>
     <row r="186" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="104" t="s">
+      <c r="A186" s="105" t="s">
         <v>145</v>
       </c>
-      <c r="B186" s="94"/>
-      <c r="C186" s="104">
+      <c r="B186" s="67"/>
+      <c r="C186" s="105">
         <v>150</v>
       </c>
-      <c r="D186" s="94"/>
-      <c r="E186" s="93">
+      <c r="D186" s="67"/>
+      <c r="E186" s="106">
         <v>6</v>
       </c>
-      <c r="F186" s="94"/>
-      <c r="G186" s="93"/>
-      <c r="H186" s="94"/>
-      <c r="I186" s="105">
+      <c r="F186" s="67"/>
+      <c r="G186" s="106"/>
+      <c r="H186" s="67"/>
+      <c r="I186" s="102">
         <v>7.58</v>
       </c>
-      <c r="J186" s="94"/>
-      <c r="K186" s="106">
+      <c r="J186" s="67"/>
+      <c r="K186" s="128">
         <v>0.38</v>
       </c>
-      <c r="L186" s="94"/>
-      <c r="M186" s="107">
+      <c r="L186" s="67"/>
+      <c r="M186" s="89">
         <v>55.19</v>
       </c>
-      <c r="N186" s="94"/>
-      <c r="O186" s="108">
+      <c r="N186" s="67"/>
+      <c r="O186" s="90">
         <v>2.8</v>
       </c>
-      <c r="P186" s="94"/>
-      <c r="Q186" s="109">
+      <c r="P186" s="67"/>
+      <c r="Q186" s="110">
         <v>42.01</v>
       </c>
-      <c r="R186" s="110"/>
-      <c r="S186" s="93">
+      <c r="R186" s="70"/>
+      <c r="S186" s="106">
         <v>1.4</v>
       </c>
-      <c r="T186" s="94"/>
+      <c r="T186" s="67"/>
     </row>
     <row r="187" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="95" t="s">
+      <c r="A187" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="B187" s="96"/>
-      <c r="C187" s="95">
+      <c r="B187" s="72"/>
+      <c r="C187" s="71">
         <v>150</v>
       </c>
-      <c r="D187" s="96"/>
-      <c r="E187" s="97">
+      <c r="D187" s="72"/>
+      <c r="E187" s="73">
         <v>9</v>
       </c>
-      <c r="F187" s="96"/>
-      <c r="G187" s="97"/>
-      <c r="H187" s="96"/>
-      <c r="I187" s="98">
+      <c r="F187" s="72"/>
+      <c r="G187" s="73"/>
+      <c r="H187" s="72"/>
+      <c r="I187" s="74">
         <v>8.83</v>
       </c>
-      <c r="J187" s="96"/>
-      <c r="K187" s="99">
+      <c r="J187" s="72"/>
+      <c r="K187" s="75">
         <v>0.49</v>
       </c>
-      <c r="L187" s="96"/>
-      <c r="M187" s="100">
+      <c r="L187" s="72"/>
+      <c r="M187" s="76">
         <v>60.13</v>
       </c>
-      <c r="N187" s="96"/>
-      <c r="O187" s="101">
+      <c r="N187" s="72"/>
+      <c r="O187" s="77">
         <v>2.1</v>
       </c>
-      <c r="P187" s="96"/>
-      <c r="Q187" s="102">
+      <c r="P187" s="72"/>
+      <c r="Q187" s="78">
         <v>41.87</v>
       </c>
-      <c r="R187" s="103"/>
-      <c r="S187" s="97">
+      <c r="R187" s="79"/>
+      <c r="S187" s="73">
         <v>1.4</v>
       </c>
-      <c r="T187" s="96"/>
+      <c r="T187" s="72"/>
     </row>
     <row r="188" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="112" t="s">
+      <c r="A188" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="B188" s="96"/>
-      <c r="C188" s="112">
+      <c r="B188" s="72"/>
+      <c r="C188" s="98">
         <v>150</v>
       </c>
-      <c r="D188" s="96"/>
-      <c r="E188" s="111">
+      <c r="D188" s="72"/>
+      <c r="E188" s="96">
         <v>4</v>
       </c>
-      <c r="F188" s="96"/>
-      <c r="G188" s="111">
+      <c r="F188" s="72"/>
+      <c r="G188" s="96">
         <v>0.5</v>
       </c>
-      <c r="H188" s="96"/>
-      <c r="I188" s="113"/>
-      <c r="J188" s="96"/>
-      <c r="K188" s="114">
+      <c r="H188" s="72"/>
+      <c r="I188" s="99"/>
+      <c r="J188" s="72"/>
+      <c r="K188" s="97">
         <v>0.84</v>
       </c>
-      <c r="L188" s="96"/>
-      <c r="M188" s="115">
+      <c r="L188" s="72"/>
+      <c r="M188" s="103">
         <v>72.150000000000006</v>
       </c>
-      <c r="N188" s="96"/>
-      <c r="O188" s="116">
+      <c r="N188" s="72"/>
+      <c r="O188" s="104">
         <v>1.4</v>
       </c>
-      <c r="P188" s="96"/>
-      <c r="Q188" s="102">
+      <c r="P188" s="72"/>
+      <c r="Q188" s="78">
         <v>41.58</v>
       </c>
-      <c r="R188" s="103"/>
-      <c r="S188" s="111">
+      <c r="R188" s="79"/>
+      <c r="S188" s="96">
         <v>1.4</v>
       </c>
-      <c r="T188" s="96"/>
+      <c r="T188" s="72"/>
     </row>
     <row r="189" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="95" t="s">
+      <c r="A189" s="71" t="s">
         <v>147</v>
       </c>
-      <c r="B189" s="96"/>
-      <c r="C189" s="95">
+      <c r="B189" s="72"/>
+      <c r="C189" s="71">
         <v>150</v>
       </c>
-      <c r="D189" s="96"/>
-      <c r="E189" s="97">
+      <c r="D189" s="72"/>
+      <c r="E189" s="73">
         <v>4</v>
       </c>
-      <c r="F189" s="96"/>
-      <c r="G189" s="97">
+      <c r="F189" s="72"/>
+      <c r="G189" s="73">
         <v>1</v>
       </c>
-      <c r="H189" s="96"/>
-      <c r="I189" s="98"/>
-      <c r="J189" s="96"/>
-      <c r="K189" s="99">
+      <c r="H189" s="72"/>
+      <c r="I189" s="74"/>
+      <c r="J189" s="72"/>
+      <c r="K189" s="75">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L189" s="96"/>
-      <c r="M189" s="100">
+      <c r="L189" s="72"/>
+      <c r="M189" s="76">
         <v>81.36</v>
       </c>
-      <c r="N189" s="96"/>
-      <c r="O189" s="101">
+      <c r="N189" s="72"/>
+      <c r="O189" s="77">
         <v>0.9</v>
       </c>
-      <c r="P189" s="96"/>
-      <c r="Q189" s="102">
+      <c r="P189" s="72"/>
+      <c r="Q189" s="78">
         <v>41.45</v>
       </c>
-      <c r="R189" s="103"/>
-      <c r="S189" s="97">
+      <c r="R189" s="79"/>
+      <c r="S189" s="73">
         <v>1.4</v>
       </c>
-      <c r="T189" s="96"/>
+      <c r="T189" s="72"/>
     </row>
     <row r="190" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="125" t="s">
+      <c r="A190" s="80" t="s">
         <v>148</v>
       </c>
-      <c r="B190" s="118"/>
-      <c r="C190" s="125">
+      <c r="B190" s="81"/>
+      <c r="C190" s="80">
         <v>150</v>
       </c>
-      <c r="D190" s="118"/>
-      <c r="E190" s="117">
+      <c r="D190" s="81"/>
+      <c r="E190" s="82">
         <v>4</v>
       </c>
-      <c r="F190" s="118"/>
-      <c r="G190" s="117">
+      <c r="F190" s="81"/>
+      <c r="G190" s="82">
         <v>1.6</v>
       </c>
-      <c r="H190" s="118"/>
-      <c r="I190" s="126"/>
-      <c r="J190" s="118"/>
-      <c r="K190" s="127">
+      <c r="H190" s="81"/>
+      <c r="I190" s="83"/>
+      <c r="J190" s="81"/>
+      <c r="K190" s="84">
         <v>1.38</v>
       </c>
-      <c r="L190" s="118"/>
-      <c r="M190" s="128">
+      <c r="L190" s="81"/>
+      <c r="M190" s="111">
         <v>89.07</v>
       </c>
-      <c r="N190" s="118"/>
-      <c r="O190" s="129">
+      <c r="N190" s="81"/>
+      <c r="O190" s="112">
         <v>0.4</v>
       </c>
-      <c r="P190" s="118"/>
-      <c r="Q190" s="130">
+      <c r="P190" s="81"/>
+      <c r="Q190" s="113">
         <v>41.28</v>
       </c>
-      <c r="R190" s="131"/>
-      <c r="S190" s="117">
+      <c r="R190" s="114"/>
+      <c r="S190" s="82">
         <v>1.4</v>
       </c>
-      <c r="T190" s="118"/>
+      <c r="T190" s="81"/>
     </row>
     <row r="191" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="192" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -7064,966 +7072,966 @@
       </c>
     </row>
     <row r="197" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="138" t="s">
+      <c r="A197" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B197" s="66"/>
-      <c r="C197" s="138" t="s">
+      <c r="B197" s="108"/>
+      <c r="C197" s="107" t="s">
         <v>76</v>
       </c>
-      <c r="D197" s="66"/>
-      <c r="E197" s="138" t="s">
+      <c r="D197" s="108"/>
+      <c r="E197" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="F197" s="66"/>
-      <c r="G197" s="138" t="s">
+      <c r="F197" s="108"/>
+      <c r="G197" s="107" t="s">
         <v>77</v>
       </c>
-      <c r="H197" s="66"/>
-      <c r="I197" s="138" t="s">
+      <c r="H197" s="108"/>
+      <c r="I197" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="J197" s="66"/>
-      <c r="K197" s="138" t="s">
+      <c r="J197" s="108"/>
+      <c r="K197" s="107" t="s">
         <v>98</v>
       </c>
-      <c r="L197" s="66"/>
-      <c r="M197" s="138" t="s">
+      <c r="L197" s="108"/>
+      <c r="M197" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="N197" s="66"/>
-      <c r="O197" s="138" t="s">
+      <c r="N197" s="108"/>
+      <c r="O197" s="107" t="s">
         <v>81</v>
       </c>
-      <c r="P197" s="66"/>
-      <c r="Q197" s="163" t="s">
-        <v>181</v>
-      </c>
-      <c r="R197" s="66"/>
-      <c r="S197" s="138" t="s">
+      <c r="P197" s="108"/>
+      <c r="Q197" s="109" t="s">
+        <v>183</v>
+      </c>
+      <c r="R197" s="108"/>
+      <c r="S197" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="T197" s="66"/>
+      <c r="T197" s="108"/>
     </row>
     <row r="198" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="166"/>
-      <c r="B198" s="165"/>
-      <c r="C198" s="164" t="s">
+      <c r="A198" s="65"/>
+      <c r="B198" s="64"/>
+      <c r="C198" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D198" s="165"/>
-      <c r="E198" s="164" t="s">
+      <c r="D198" s="64"/>
+      <c r="E198" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="F198" s="165"/>
-      <c r="G198" s="164" t="s">
+      <c r="F198" s="64"/>
+      <c r="G198" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="H198" s="165"/>
-      <c r="I198" s="164" t="s">
+      <c r="H198" s="64"/>
+      <c r="I198" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="J198" s="165"/>
-      <c r="K198" s="164" t="s">
+      <c r="J198" s="64"/>
+      <c r="K198" s="63" t="s">
         <v>85</v>
       </c>
-      <c r="L198" s="165"/>
-      <c r="M198" s="164" t="s">
+      <c r="L198" s="64"/>
+      <c r="M198" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="N198" s="165"/>
-      <c r="O198" s="164" t="s">
+      <c r="N198" s="64"/>
+      <c r="O198" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="P198" s="165"/>
-      <c r="Q198" s="164" t="s">
+      <c r="P198" s="64"/>
+      <c r="Q198" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="R198" s="165"/>
-      <c r="S198" s="164" t="s">
+      <c r="R198" s="64"/>
+      <c r="S198" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="T198" s="165"/>
+      <c r="T198" s="64"/>
     </row>
     <row r="199" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="119" t="s">
+      <c r="A199" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="B199" s="94"/>
-      <c r="C199" s="119">
+      <c r="B199" s="67"/>
+      <c r="C199" s="85">
         <v>200</v>
       </c>
-      <c r="D199" s="94"/>
-      <c r="E199" s="120">
+      <c r="D199" s="67"/>
+      <c r="E199" s="86">
         <v>9</v>
       </c>
-      <c r="F199" s="94"/>
-      <c r="G199" s="120"/>
-      <c r="H199" s="94"/>
-      <c r="I199" s="121">
+      <c r="F199" s="67"/>
+      <c r="G199" s="86"/>
+      <c r="H199" s="67"/>
+      <c r="I199" s="87">
         <v>10.53</v>
       </c>
-      <c r="J199" s="94"/>
-      <c r="K199" s="122">
+      <c r="J199" s="67"/>
+      <c r="K199" s="88">
         <v>0.73</v>
       </c>
-      <c r="L199" s="94"/>
-      <c r="M199" s="123">
+      <c r="L199" s="67"/>
+      <c r="M199" s="100">
         <v>69.760000000000005</v>
       </c>
-      <c r="N199" s="94"/>
-      <c r="O199" s="124">
+      <c r="N199" s="67"/>
+      <c r="O199" s="101">
         <v>2.9</v>
       </c>
-      <c r="P199" s="94"/>
-      <c r="Q199" s="109">
+      <c r="P199" s="67"/>
+      <c r="Q199" s="110">
         <v>41.63</v>
       </c>
-      <c r="R199" s="110"/>
-      <c r="S199" s="120">
+      <c r="R199" s="70"/>
+      <c r="S199" s="86">
         <v>1.4</v>
       </c>
-      <c r="T199" s="94"/>
+      <c r="T199" s="67"/>
     </row>
     <row r="200" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="112" t="s">
+      <c r="A200" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="B200" s="96"/>
-      <c r="C200" s="112">
+      <c r="B200" s="72"/>
+      <c r="C200" s="98">
         <v>200</v>
       </c>
-      <c r="D200" s="96"/>
-      <c r="E200" s="111">
+      <c r="D200" s="72"/>
+      <c r="E200" s="96">
         <v>4</v>
       </c>
-      <c r="F200" s="96"/>
-      <c r="G200" s="111">
+      <c r="F200" s="72"/>
+      <c r="G200" s="96">
         <v>0.5</v>
       </c>
-      <c r="H200" s="96"/>
-      <c r="I200" s="113"/>
-      <c r="J200" s="96"/>
-      <c r="K200" s="114">
+      <c r="H200" s="72"/>
+      <c r="I200" s="99"/>
+      <c r="J200" s="72"/>
+      <c r="K200" s="97">
         <v>1.21</v>
       </c>
-      <c r="L200" s="96"/>
-      <c r="M200" s="115">
+      <c r="L200" s="72"/>
+      <c r="M200" s="103">
         <v>82.81</v>
       </c>
-      <c r="N200" s="96"/>
-      <c r="O200" s="116">
+      <c r="N200" s="72"/>
+      <c r="O200" s="104">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P200" s="96"/>
-      <c r="Q200" s="102">
+      <c r="P200" s="72"/>
+      <c r="Q200" s="78">
         <v>41.43</v>
       </c>
-      <c r="R200" s="103"/>
-      <c r="S200" s="111">
+      <c r="R200" s="79"/>
+      <c r="S200" s="96">
         <v>1.4</v>
       </c>
-      <c r="T200" s="96"/>
+      <c r="T200" s="72"/>
     </row>
     <row r="201" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="95" t="s">
+      <c r="A201" s="71" t="s">
         <v>110</v>
       </c>
-      <c r="B201" s="96"/>
-      <c r="C201" s="95">
+      <c r="B201" s="72"/>
+      <c r="C201" s="71">
         <v>200</v>
       </c>
-      <c r="D201" s="96"/>
-      <c r="E201" s="97">
+      <c r="D201" s="72"/>
+      <c r="E201" s="73">
         <v>4</v>
       </c>
-      <c r="F201" s="96"/>
-      <c r="G201" s="97">
+      <c r="F201" s="72"/>
+      <c r="G201" s="73">
         <v>1</v>
       </c>
-      <c r="H201" s="96"/>
-      <c r="I201" s="98"/>
-      <c r="J201" s="96"/>
-      <c r="K201" s="99">
+      <c r="H201" s="72"/>
+      <c r="I201" s="74"/>
+      <c r="J201" s="72"/>
+      <c r="K201" s="75">
         <v>1.63</v>
       </c>
-      <c r="L201" s="96"/>
-      <c r="M201" s="100">
+      <c r="L201" s="72"/>
+      <c r="M201" s="76">
         <v>94.74</v>
       </c>
-      <c r="N201" s="96"/>
-      <c r="O201" s="101">
+      <c r="N201" s="72"/>
+      <c r="O201" s="77">
         <v>1.6</v>
       </c>
-      <c r="P201" s="96"/>
-      <c r="Q201" s="102">
+      <c r="P201" s="72"/>
+      <c r="Q201" s="78">
         <v>41.29</v>
       </c>
-      <c r="R201" s="103"/>
-      <c r="S201" s="97">
+      <c r="R201" s="79"/>
+      <c r="S201" s="73">
         <v>1.4</v>
       </c>
-      <c r="T201" s="96"/>
+      <c r="T201" s="72"/>
     </row>
     <row r="202" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="112" t="s">
+      <c r="A202" s="98" t="s">
         <v>151</v>
       </c>
-      <c r="B202" s="96"/>
-      <c r="C202" s="112">
+      <c r="B202" s="72"/>
+      <c r="C202" s="98">
         <v>200</v>
       </c>
-      <c r="D202" s="96"/>
-      <c r="E202" s="111">
+      <c r="D202" s="72"/>
+      <c r="E202" s="96">
         <v>4</v>
       </c>
-      <c r="F202" s="96"/>
-      <c r="G202" s="111">
+      <c r="F202" s="72"/>
+      <c r="G202" s="96">
         <v>1.6</v>
       </c>
-      <c r="H202" s="96"/>
-      <c r="I202" s="113"/>
-      <c r="J202" s="96"/>
-      <c r="K202" s="114">
+      <c r="H202" s="72"/>
+      <c r="I202" s="99"/>
+      <c r="J202" s="72"/>
+      <c r="K202" s="97">
         <v>2</v>
       </c>
-      <c r="L202" s="96"/>
-      <c r="M202" s="115">
+      <c r="L202" s="72"/>
+      <c r="M202" s="103">
         <v>105.25</v>
       </c>
-      <c r="N202" s="96"/>
-      <c r="O202" s="116">
+      <c r="N202" s="72"/>
+      <c r="O202" s="104">
         <v>1.2</v>
       </c>
-      <c r="P202" s="96"/>
-      <c r="Q202" s="102">
+      <c r="P202" s="72"/>
+      <c r="Q202" s="78">
         <v>41.2</v>
       </c>
-      <c r="R202" s="103"/>
-      <c r="S202" s="111">
+      <c r="R202" s="79"/>
+      <c r="S202" s="96">
         <v>1.4</v>
       </c>
-      <c r="T202" s="96"/>
+      <c r="T202" s="72"/>
     </row>
     <row r="203" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="132" t="s">
+      <c r="A203" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="B203" s="118"/>
-      <c r="C203" s="132">
+      <c r="B203" s="81"/>
+      <c r="C203" s="91">
         <v>200</v>
       </c>
-      <c r="D203" s="118"/>
-      <c r="E203" s="133">
+      <c r="D203" s="81"/>
+      <c r="E203" s="92">
         <v>4</v>
       </c>
-      <c r="F203" s="118"/>
-      <c r="G203" s="133">
+      <c r="F203" s="81"/>
+      <c r="G203" s="92">
         <v>3</v>
       </c>
-      <c r="H203" s="118"/>
-      <c r="I203" s="134"/>
-      <c r="J203" s="118"/>
-      <c r="K203" s="135">
+      <c r="H203" s="81"/>
+      <c r="I203" s="93"/>
+      <c r="J203" s="81"/>
+      <c r="K203" s="94">
         <v>2.54</v>
       </c>
-      <c r="L203" s="118"/>
-      <c r="M203" s="136">
+      <c r="L203" s="81"/>
+      <c r="M203" s="95">
         <v>120.15</v>
       </c>
-      <c r="N203" s="118"/>
-      <c r="O203" s="137">
+      <c r="N203" s="81"/>
+      <c r="O203" s="115">
         <v>0.6</v>
       </c>
-      <c r="P203" s="118"/>
-      <c r="Q203" s="130">
+      <c r="P203" s="81"/>
+      <c r="Q203" s="113">
         <v>41.06</v>
       </c>
-      <c r="R203" s="131"/>
-      <c r="S203" s="133">
+      <c r="R203" s="114"/>
+      <c r="S203" s="92">
         <v>1.4</v>
       </c>
-      <c r="T203" s="118"/>
+      <c r="T203" s="81"/>
     </row>
     <row r="204" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="104" t="s">
+      <c r="A204" s="105" t="s">
         <v>153</v>
       </c>
-      <c r="B204" s="94"/>
-      <c r="C204" s="104">
+      <c r="B204" s="67"/>
+      <c r="C204" s="105">
         <v>250</v>
       </c>
-      <c r="D204" s="94"/>
-      <c r="E204" s="93">
+      <c r="D204" s="67"/>
+      <c r="E204" s="106">
         <v>4</v>
       </c>
-      <c r="F204" s="94"/>
-      <c r="G204" s="93">
+      <c r="F204" s="67"/>
+      <c r="G204" s="106">
         <v>0.5</v>
       </c>
-      <c r="H204" s="94"/>
-      <c r="I204" s="105"/>
-      <c r="J204" s="94"/>
-      <c r="K204" s="106">
+      <c r="H204" s="67"/>
+      <c r="I204" s="102"/>
+      <c r="J204" s="67"/>
+      <c r="K204" s="128">
         <v>1.61</v>
       </c>
-      <c r="L204" s="94"/>
-      <c r="M204" s="107">
+      <c r="L204" s="67"/>
+      <c r="M204" s="89">
         <v>92.84</v>
       </c>
-      <c r="N204" s="94"/>
-      <c r="O204" s="108">
+      <c r="N204" s="67"/>
+      <c r="O204" s="90">
         <v>3</v>
       </c>
-      <c r="P204" s="94"/>
-      <c r="Q204" s="109">
+      <c r="P204" s="67"/>
+      <c r="Q204" s="110">
         <v>41.34</v>
       </c>
-      <c r="R204" s="110"/>
-      <c r="S204" s="93">
+      <c r="R204" s="70"/>
+      <c r="S204" s="106">
         <v>1.4</v>
       </c>
-      <c r="T204" s="94"/>
+      <c r="T204" s="67"/>
     </row>
     <row r="205" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="95" t="s">
+      <c r="A205" s="71" t="s">
         <v>154</v>
       </c>
-      <c r="B205" s="96"/>
-      <c r="C205" s="95">
+      <c r="B205" s="72"/>
+      <c r="C205" s="71">
         <v>250</v>
       </c>
-      <c r="D205" s="96"/>
-      <c r="E205" s="97">
+      <c r="D205" s="72"/>
+      <c r="E205" s="73">
         <v>4</v>
       </c>
-      <c r="F205" s="96"/>
-      <c r="G205" s="97">
+      <c r="F205" s="72"/>
+      <c r="G205" s="73">
         <v>1</v>
       </c>
-      <c r="H205" s="96"/>
-      <c r="I205" s="98"/>
-      <c r="J205" s="96"/>
-      <c r="K205" s="99">
+      <c r="H205" s="72"/>
+      <c r="I205" s="74"/>
+      <c r="J205" s="72"/>
+      <c r="K205" s="75">
         <v>2.14</v>
       </c>
-      <c r="L205" s="96"/>
-      <c r="M205" s="100">
+      <c r="L205" s="72"/>
+      <c r="M205" s="76">
         <v>107.32</v>
       </c>
-      <c r="N205" s="96"/>
-      <c r="O205" s="101">
+      <c r="N205" s="72"/>
+      <c r="O205" s="77">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P205" s="96"/>
-      <c r="Q205" s="102">
+      <c r="P205" s="72"/>
+      <c r="Q205" s="78">
         <v>41.25</v>
       </c>
-      <c r="R205" s="103"/>
-      <c r="S205" s="97">
+      <c r="R205" s="79"/>
+      <c r="S205" s="73">
         <v>1.4</v>
       </c>
-      <c r="T205" s="96"/>
+      <c r="T205" s="72"/>
     </row>
     <row r="206" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="112" t="s">
+      <c r="A206" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="B206" s="96"/>
-      <c r="C206" s="112">
+      <c r="B206" s="72"/>
+      <c r="C206" s="98">
         <v>250</v>
       </c>
-      <c r="D206" s="96"/>
-      <c r="E206" s="111">
+      <c r="D206" s="72"/>
+      <c r="E206" s="96">
         <v>4</v>
       </c>
-      <c r="F206" s="96"/>
-      <c r="G206" s="111">
+      <c r="F206" s="72"/>
+      <c r="G206" s="96">
         <v>1.6</v>
       </c>
-      <c r="H206" s="96"/>
-      <c r="I206" s="113"/>
-      <c r="J206" s="96"/>
-      <c r="K206" s="114">
+      <c r="H206" s="72"/>
+      <c r="I206" s="99"/>
+      <c r="J206" s="72"/>
+      <c r="K206" s="97">
         <v>2.57</v>
       </c>
-      <c r="L206" s="96"/>
-      <c r="M206" s="115">
+      <c r="L206" s="72"/>
+      <c r="M206" s="103">
         <v>120.1</v>
       </c>
-      <c r="N206" s="96"/>
-      <c r="O206" s="116">
+      <c r="N206" s="72"/>
+      <c r="O206" s="104">
         <v>1.8</v>
       </c>
-      <c r="P206" s="96"/>
-      <c r="Q206" s="102">
+      <c r="P206" s="72"/>
+      <c r="Q206" s="78">
         <v>41.18</v>
       </c>
-      <c r="R206" s="103"/>
-      <c r="S206" s="111">
+      <c r="R206" s="79"/>
+      <c r="S206" s="96">
         <v>1.4</v>
       </c>
-      <c r="T206" s="96"/>
+      <c r="T206" s="72"/>
     </row>
     <row r="207" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="95" t="s">
+      <c r="A207" s="71" t="s">
         <v>155</v>
       </c>
-      <c r="B207" s="96"/>
-      <c r="C207" s="95">
+      <c r="B207" s="72"/>
+      <c r="C207" s="71">
         <v>250</v>
       </c>
-      <c r="D207" s="96"/>
-      <c r="E207" s="97">
+      <c r="D207" s="72"/>
+      <c r="E207" s="73">
         <v>4</v>
       </c>
-      <c r="F207" s="96"/>
-      <c r="G207" s="97">
+      <c r="F207" s="72"/>
+      <c r="G207" s="73">
         <v>3</v>
       </c>
-      <c r="H207" s="96"/>
-      <c r="I207" s="98"/>
-      <c r="J207" s="96"/>
-      <c r="K207" s="99">
+      <c r="H207" s="72"/>
+      <c r="I207" s="74"/>
+      <c r="J207" s="72"/>
+      <c r="K207" s="75">
         <v>3.16</v>
       </c>
-      <c r="L207" s="96"/>
-      <c r="M207" s="100">
+      <c r="L207" s="72"/>
+      <c r="M207" s="76">
         <v>137.46</v>
       </c>
-      <c r="N207" s="96"/>
-      <c r="O207" s="101">
+      <c r="N207" s="72"/>
+      <c r="O207" s="77">
         <v>1.2</v>
       </c>
-      <c r="P207" s="96"/>
-      <c r="Q207" s="102">
+      <c r="P207" s="72"/>
+      <c r="Q207" s="78">
         <v>41.09</v>
       </c>
-      <c r="R207" s="103"/>
-      <c r="S207" s="97">
+      <c r="R207" s="79"/>
+      <c r="S207" s="73">
         <v>1.4</v>
       </c>
-      <c r="T207" s="96"/>
+      <c r="T207" s="72"/>
     </row>
     <row r="208" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="125" t="s">
+      <c r="A208" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="B208" s="118"/>
-      <c r="C208" s="125">
+      <c r="B208" s="81"/>
+      <c r="C208" s="80">
         <v>250</v>
       </c>
-      <c r="D208" s="118"/>
-      <c r="E208" s="117">
+      <c r="D208" s="81"/>
+      <c r="E208" s="82">
         <v>4</v>
       </c>
-      <c r="F208" s="118"/>
-      <c r="G208" s="117">
+      <c r="F208" s="81"/>
+      <c r="G208" s="82">
         <v>5</v>
       </c>
-      <c r="H208" s="118"/>
-      <c r="I208" s="126"/>
-      <c r="J208" s="118"/>
-      <c r="K208" s="127">
+      <c r="H208" s="81"/>
+      <c r="I208" s="83"/>
+      <c r="J208" s="81"/>
+      <c r="K208" s="84">
         <v>3.6</v>
       </c>
-      <c r="L208" s="118"/>
-      <c r="M208" s="128">
+      <c r="L208" s="81"/>
+      <c r="M208" s="111">
         <v>149.51</v>
       </c>
-      <c r="N208" s="118"/>
-      <c r="O208" s="129">
+      <c r="N208" s="81"/>
+      <c r="O208" s="112">
         <v>0.7</v>
       </c>
-      <c r="P208" s="118"/>
-      <c r="Q208" s="130">
+      <c r="P208" s="81"/>
+      <c r="Q208" s="113">
         <v>41.09</v>
       </c>
-      <c r="R208" s="131"/>
-      <c r="S208" s="117">
+      <c r="R208" s="114"/>
+      <c r="S208" s="82">
         <v>1.4</v>
       </c>
-      <c r="T208" s="118"/>
+      <c r="T208" s="81"/>
     </row>
     <row r="209" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="95" t="s">
+      <c r="A209" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="B209" s="96"/>
-      <c r="C209" s="95">
+      <c r="B209" s="72"/>
+      <c r="C209" s="71">
         <v>280</v>
       </c>
-      <c r="D209" s="96"/>
-      <c r="E209" s="97">
+      <c r="D209" s="72"/>
+      <c r="E209" s="73">
         <v>4</v>
       </c>
-      <c r="F209" s="96"/>
-      <c r="G209" s="97">
+      <c r="F209" s="72"/>
+      <c r="G209" s="73">
         <v>1</v>
       </c>
-      <c r="H209" s="96"/>
-      <c r="I209" s="98"/>
-      <c r="J209" s="96"/>
-      <c r="K209" s="99">
+      <c r="H209" s="72"/>
+      <c r="I209" s="74"/>
+      <c r="J209" s="72"/>
+      <c r="K209" s="75">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L209" s="96"/>
-      <c r="M209" s="100">
+      <c r="L209" s="72"/>
+      <c r="M209" s="76">
         <v>114.61</v>
       </c>
-      <c r="N209" s="96"/>
-      <c r="O209" s="101">
+      <c r="N209" s="72"/>
+      <c r="O209" s="77">
         <v>2.5</v>
       </c>
-      <c r="P209" s="96"/>
-      <c r="Q209" s="102">
+      <c r="P209" s="72"/>
+      <c r="Q209" s="78">
         <v>41.15</v>
       </c>
-      <c r="R209" s="103"/>
-      <c r="S209" s="97">
+      <c r="R209" s="79"/>
+      <c r="S209" s="73">
         <v>1.4</v>
       </c>
-      <c r="T209" s="96"/>
+      <c r="T209" s="72"/>
     </row>
     <row r="210" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="112" t="s">
+      <c r="A210" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="B210" s="96"/>
-      <c r="C210" s="112">
+      <c r="B210" s="72"/>
+      <c r="C210" s="98">
         <v>280</v>
       </c>
-      <c r="D210" s="96"/>
-      <c r="E210" s="111">
+      <c r="D210" s="72"/>
+      <c r="E210" s="96">
         <v>4</v>
       </c>
-      <c r="F210" s="96"/>
-      <c r="G210" s="111">
+      <c r="F210" s="72"/>
+      <c r="G210" s="96">
         <v>1.6</v>
       </c>
-      <c r="H210" s="96"/>
-      <c r="I210" s="113"/>
-      <c r="J210" s="96"/>
-      <c r="K210" s="114">
+      <c r="H210" s="72"/>
+      <c r="I210" s="99"/>
+      <c r="J210" s="72"/>
+      <c r="K210" s="97">
         <v>2.88</v>
       </c>
-      <c r="L210" s="96"/>
-      <c r="M210" s="115">
+      <c r="L210" s="72"/>
+      <c r="M210" s="103">
         <v>128.5</v>
       </c>
-      <c r="N210" s="96"/>
-      <c r="O210" s="116">
+      <c r="N210" s="72"/>
+      <c r="O210" s="104">
         <v>2</v>
       </c>
-      <c r="P210" s="96"/>
-      <c r="Q210" s="102">
+      <c r="P210" s="72"/>
+      <c r="Q210" s="78">
         <v>41.05</v>
       </c>
-      <c r="R210" s="103"/>
-      <c r="S210" s="111">
+      <c r="R210" s="79"/>
+      <c r="S210" s="96">
         <v>1.4</v>
       </c>
-      <c r="T210" s="96"/>
+      <c r="T210" s="72"/>
     </row>
     <row r="211" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="95" t="s">
+      <c r="A211" s="71" t="s">
         <v>112</v>
       </c>
-      <c r="B211" s="96"/>
-      <c r="C211" s="95">
+      <c r="B211" s="72"/>
+      <c r="C211" s="71">
         <v>280</v>
       </c>
-      <c r="D211" s="96"/>
-      <c r="E211" s="97">
+      <c r="D211" s="72"/>
+      <c r="E211" s="73">
         <v>4</v>
       </c>
-      <c r="F211" s="96"/>
-      <c r="G211" s="97">
+      <c r="F211" s="72"/>
+      <c r="G211" s="73">
         <v>3</v>
       </c>
-      <c r="H211" s="96"/>
-      <c r="I211" s="98"/>
-      <c r="J211" s="96"/>
-      <c r="K211" s="99">
+      <c r="H211" s="72"/>
+      <c r="I211" s="74"/>
+      <c r="J211" s="72"/>
+      <c r="K211" s="75">
         <v>3.5</v>
       </c>
-      <c r="L211" s="96"/>
-      <c r="M211" s="100">
+      <c r="L211" s="72"/>
+      <c r="M211" s="76">
         <v>147.05000000000001</v>
       </c>
-      <c r="N211" s="96"/>
-      <c r="O211" s="101">
+      <c r="N211" s="72"/>
+      <c r="O211" s="77">
         <v>1.4</v>
       </c>
-      <c r="P211" s="96"/>
-      <c r="Q211" s="102">
+      <c r="P211" s="72"/>
+      <c r="Q211" s="78">
         <v>41.02</v>
       </c>
-      <c r="R211" s="103"/>
-      <c r="S211" s="97">
+      <c r="R211" s="79"/>
+      <c r="S211" s="73">
         <v>1.4</v>
       </c>
-      <c r="T211" s="96"/>
+      <c r="T211" s="72"/>
     </row>
     <row r="212" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="125" t="s">
+      <c r="A212" s="80" t="s">
         <v>159</v>
       </c>
-      <c r="B212" s="118"/>
-      <c r="C212" s="125">
+      <c r="B212" s="81"/>
+      <c r="C212" s="80">
         <v>280</v>
       </c>
-      <c r="D212" s="118"/>
-      <c r="E212" s="117">
+      <c r="D212" s="81"/>
+      <c r="E212" s="82">
         <v>4</v>
       </c>
-      <c r="F212" s="118"/>
-      <c r="G212" s="117">
+      <c r="F212" s="81"/>
+      <c r="G212" s="82">
         <v>5</v>
       </c>
-      <c r="H212" s="118"/>
-      <c r="I212" s="126"/>
-      <c r="J212" s="118"/>
-      <c r="K212" s="127">
+      <c r="H212" s="81"/>
+      <c r="I212" s="83"/>
+      <c r="J212" s="81"/>
+      <c r="K212" s="84">
         <v>3.93</v>
       </c>
-      <c r="L212" s="118"/>
-      <c r="M212" s="128">
+      <c r="L212" s="81"/>
+      <c r="M212" s="111">
         <v>159.91999999999999</v>
       </c>
-      <c r="N212" s="118"/>
-      <c r="O212" s="129">
+      <c r="N212" s="81"/>
+      <c r="O212" s="112">
         <v>0.9</v>
       </c>
-      <c r="P212" s="118"/>
-      <c r="Q212" s="130">
+      <c r="P212" s="81"/>
+      <c r="Q212" s="113">
         <v>40.96</v>
       </c>
-      <c r="R212" s="131"/>
-      <c r="S212" s="117">
+      <c r="R212" s="114"/>
+      <c r="S212" s="82">
         <v>1.4</v>
       </c>
-      <c r="T212" s="118"/>
+      <c r="T212" s="81"/>
     </row>
     <row r="213" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="119" t="s">
+      <c r="A213" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="B213" s="94"/>
-      <c r="C213" s="119">
+      <c r="B213" s="67"/>
+      <c r="C213" s="85">
         <v>300</v>
       </c>
-      <c r="D213" s="94"/>
-      <c r="E213" s="120">
+      <c r="D213" s="67"/>
+      <c r="E213" s="86">
         <v>4</v>
       </c>
-      <c r="F213" s="94"/>
-      <c r="G213" s="120">
+      <c r="F213" s="67"/>
+      <c r="G213" s="86">
         <v>1.6</v>
       </c>
-      <c r="H213" s="94"/>
-      <c r="I213" s="121"/>
-      <c r="J213" s="94"/>
-      <c r="K213" s="122">
+      <c r="H213" s="67"/>
+      <c r="I213" s="87"/>
+      <c r="J213" s="67"/>
+      <c r="K213" s="88">
         <v>3.1</v>
       </c>
-      <c r="L213" s="94"/>
-      <c r="M213" s="123">
+      <c r="L213" s="67"/>
+      <c r="M213" s="100">
         <v>133.91999999999999</v>
       </c>
-      <c r="N213" s="94"/>
-      <c r="O213" s="124">
+      <c r="N213" s="67"/>
+      <c r="O213" s="101">
         <v>2.4</v>
       </c>
-      <c r="P213" s="94"/>
-      <c r="Q213" s="109">
+      <c r="P213" s="67"/>
+      <c r="Q213" s="110">
         <v>41.05</v>
       </c>
-      <c r="R213" s="110"/>
-      <c r="S213" s="120">
+      <c r="R213" s="70"/>
+      <c r="S213" s="86">
         <v>1.4</v>
       </c>
-      <c r="T213" s="94"/>
+      <c r="T213" s="67"/>
     </row>
     <row r="214" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="112" t="s">
+      <c r="A214" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B214" s="96"/>
-      <c r="C214" s="112">
+      <c r="B214" s="72"/>
+      <c r="C214" s="98">
         <v>300</v>
       </c>
-      <c r="D214" s="96"/>
-      <c r="E214" s="111">
+      <c r="D214" s="72"/>
+      <c r="E214" s="96">
         <v>4</v>
       </c>
-      <c r="F214" s="96"/>
-      <c r="G214" s="111">
+      <c r="F214" s="72"/>
+      <c r="G214" s="96">
         <v>3</v>
       </c>
-      <c r="H214" s="96"/>
-      <c r="I214" s="113"/>
-      <c r="J214" s="96"/>
-      <c r="K214" s="114">
+      <c r="H214" s="72"/>
+      <c r="I214" s="99"/>
+      <c r="J214" s="72"/>
+      <c r="K214" s="97">
         <v>3.7</v>
       </c>
-      <c r="L214" s="96"/>
-      <c r="M214" s="115">
+      <c r="L214" s="72"/>
+      <c r="M214" s="103">
         <v>153.21</v>
       </c>
-      <c r="N214" s="96"/>
-      <c r="O214" s="116">
+      <c r="N214" s="72"/>
+      <c r="O214" s="104">
         <v>1.7</v>
       </c>
-      <c r="P214" s="96"/>
-      <c r="Q214" s="102">
+      <c r="P214" s="72"/>
+      <c r="Q214" s="78">
         <v>40.950000000000003</v>
       </c>
-      <c r="R214" s="103"/>
-      <c r="S214" s="111">
+      <c r="R214" s="79"/>
+      <c r="S214" s="96">
         <v>1.4</v>
       </c>
-      <c r="T214" s="96"/>
+      <c r="T214" s="72"/>
     </row>
     <row r="215" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="95" t="s">
+      <c r="A215" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="B215" s="96"/>
-      <c r="C215" s="95">
+      <c r="B215" s="72"/>
+      <c r="C215" s="71">
         <v>300</v>
       </c>
-      <c r="D215" s="96"/>
-      <c r="E215" s="97">
+      <c r="D215" s="72"/>
+      <c r="E215" s="73">
         <v>4</v>
       </c>
-      <c r="F215" s="96"/>
-      <c r="G215" s="97">
+      <c r="F215" s="72"/>
+      <c r="G215" s="73">
         <v>5</v>
       </c>
-      <c r="H215" s="96"/>
-      <c r="I215" s="98"/>
-      <c r="J215" s="96"/>
-      <c r="K215" s="99">
+      <c r="H215" s="72"/>
+      <c r="I215" s="74"/>
+      <c r="J215" s="72"/>
+      <c r="K215" s="75">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L215" s="96"/>
-      <c r="M215" s="100">
+      <c r="L215" s="72"/>
+      <c r="M215" s="76">
         <v>166.58</v>
       </c>
-      <c r="N215" s="96"/>
-      <c r="O215" s="101">
+      <c r="N215" s="72"/>
+      <c r="O215" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P215" s="96"/>
-      <c r="Q215" s="102">
+      <c r="P215" s="72"/>
+      <c r="Q215" s="78">
         <v>40.950000000000003</v>
       </c>
-      <c r="R215" s="103"/>
-      <c r="S215" s="97">
+      <c r="R215" s="79"/>
+      <c r="S215" s="73">
         <v>1.4</v>
       </c>
-      <c r="T215" s="96"/>
+      <c r="T215" s="72"/>
     </row>
     <row r="216" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="104" t="s">
+      <c r="A216" s="105" t="s">
         <v>162</v>
       </c>
-      <c r="B216" s="94"/>
-      <c r="C216" s="104">
+      <c r="B216" s="67"/>
+      <c r="C216" s="105">
         <v>320</v>
       </c>
-      <c r="D216" s="94"/>
-      <c r="E216" s="93">
+      <c r="D216" s="67"/>
+      <c r="E216" s="106">
         <v>4</v>
       </c>
-      <c r="F216" s="94"/>
-      <c r="G216" s="93">
+      <c r="F216" s="67"/>
+      <c r="G216" s="106">
         <v>3</v>
       </c>
-      <c r="H216" s="94"/>
-      <c r="I216" s="105"/>
-      <c r="J216" s="94"/>
-      <c r="K216" s="106">
+      <c r="H216" s="67"/>
+      <c r="I216" s="102"/>
+      <c r="J216" s="67"/>
+      <c r="K216" s="128">
         <v>3.9</v>
       </c>
-      <c r="L216" s="94"/>
-      <c r="M216" s="107">
+      <c r="L216" s="67"/>
+      <c r="M216" s="89">
         <v>159.22</v>
       </c>
-      <c r="N216" s="94"/>
-      <c r="O216" s="108">
+      <c r="N216" s="67"/>
+      <c r="O216" s="90">
         <v>1.6</v>
       </c>
-      <c r="P216" s="94"/>
-      <c r="Q216" s="109">
+      <c r="P216" s="67"/>
+      <c r="Q216" s="110">
         <v>40.9</v>
       </c>
-      <c r="R216" s="110"/>
-      <c r="S216" s="93">
+      <c r="R216" s="70"/>
+      <c r="S216" s="106">
         <v>1.4</v>
       </c>
-      <c r="T216" s="94"/>
+      <c r="T216" s="67"/>
     </row>
     <row r="217" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="95" t="s">
+      <c r="A217" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="B217" s="96"/>
-      <c r="C217" s="95">
+      <c r="B217" s="72"/>
+      <c r="C217" s="71">
         <v>320</v>
       </c>
-      <c r="D217" s="96"/>
-      <c r="E217" s="97">
+      <c r="D217" s="72"/>
+      <c r="E217" s="73">
         <v>4</v>
       </c>
-      <c r="F217" s="96"/>
-      <c r="G217" s="97">
+      <c r="F217" s="72"/>
+      <c r="G217" s="73">
         <v>5</v>
       </c>
-      <c r="H217" s="96"/>
-      <c r="I217" s="98"/>
-      <c r="J217" s="96"/>
-      <c r="K217" s="99">
+      <c r="H217" s="72"/>
+      <c r="I217" s="74"/>
+      <c r="J217" s="72"/>
+      <c r="K217" s="75">
         <v>4.34</v>
       </c>
-      <c r="L217" s="96"/>
-      <c r="M217" s="100">
+      <c r="L217" s="72"/>
+      <c r="M217" s="76">
         <v>173.06</v>
       </c>
-      <c r="N217" s="96"/>
-      <c r="O217" s="101">
+      <c r="N217" s="72"/>
+      <c r="O217" s="77">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P217" s="96"/>
-      <c r="Q217" s="102">
+      <c r="P217" s="72"/>
+      <c r="Q217" s="78">
         <v>40.83</v>
       </c>
-      <c r="R217" s="103"/>
-      <c r="S217" s="97">
+      <c r="R217" s="79"/>
+      <c r="S217" s="73">
         <v>1.4</v>
       </c>
-      <c r="T217" s="96"/>
+      <c r="T217" s="72"/>
     </row>
     <row r="218" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="70" t="s">
+      <c r="A218" s="164" t="s">
         <v>164</v>
       </c>
-      <c r="B218" s="66"/>
-      <c r="C218" s="70">
+      <c r="B218" s="108"/>
+      <c r="C218" s="164">
         <v>250</v>
       </c>
-      <c r="D218" s="66"/>
-      <c r="E218" s="65">
+      <c r="D218" s="108"/>
+      <c r="E218" s="145">
         <v>4</v>
       </c>
-      <c r="F218" s="66"/>
-      <c r="G218" s="65">
+      <c r="F218" s="108"/>
+      <c r="G218" s="145">
         <v>1.6</v>
       </c>
-      <c r="H218" s="66"/>
-      <c r="I218" s="71"/>
-      <c r="J218" s="66"/>
-      <c r="K218" s="72">
+      <c r="H218" s="108"/>
+      <c r="I218" s="146"/>
+      <c r="J218" s="108"/>
+      <c r="K218" s="147">
         <v>2.57</v>
       </c>
-      <c r="L218" s="66"/>
-      <c r="M218" s="73">
+      <c r="L218" s="108"/>
+      <c r="M218" s="148">
         <v>120.1</v>
       </c>
-      <c r="N218" s="66"/>
-      <c r="O218" s="74">
+      <c r="N218" s="108"/>
+      <c r="O218" s="149">
         <v>1.8</v>
       </c>
-      <c r="P218" s="66"/>
-      <c r="Q218" s="63">
+      <c r="P218" s="108"/>
+      <c r="Q218" s="150">
         <v>41.04</v>
       </c>
-      <c r="R218" s="64"/>
-      <c r="S218" s="65">
+      <c r="R218" s="144"/>
+      <c r="S218" s="145">
         <v>1.4</v>
       </c>
-      <c r="T218" s="66"/>
+      <c r="T218" s="108"/>
     </row>
     <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="75" t="s">
+      <c r="A219" s="165" t="s">
         <v>165</v>
       </c>
-      <c r="B219" s="66"/>
-      <c r="C219" s="75">
+      <c r="B219" s="108"/>
+      <c r="C219" s="165">
         <v>280</v>
       </c>
-      <c r="D219" s="66"/>
-      <c r="E219" s="69">
+      <c r="D219" s="108"/>
+      <c r="E219" s="163">
         <v>4</v>
       </c>
-      <c r="F219" s="66"/>
-      <c r="G219" s="69">
+      <c r="F219" s="108"/>
+      <c r="G219" s="163">
         <v>3</v>
       </c>
-      <c r="H219" s="66"/>
-      <c r="I219" s="76"/>
-      <c r="J219" s="66"/>
-      <c r="K219" s="77">
+      <c r="H219" s="108"/>
+      <c r="I219" s="166"/>
+      <c r="J219" s="108"/>
+      <c r="K219" s="167">
         <v>3.5</v>
       </c>
-      <c r="L219" s="66"/>
-      <c r="M219" s="78">
+      <c r="L219" s="108"/>
+      <c r="M219" s="168">
         <v>147.05000000000001</v>
       </c>
-      <c r="N219" s="66"/>
-      <c r="O219" s="79">
+      <c r="N219" s="108"/>
+      <c r="O219" s="169">
         <v>1.4</v>
       </c>
-      <c r="P219" s="66"/>
-      <c r="Q219" s="63">
+      <c r="P219" s="108"/>
+      <c r="Q219" s="150">
         <v>41.11</v>
       </c>
-      <c r="R219" s="64"/>
-      <c r="S219" s="69">
+      <c r="R219" s="144"/>
+      <c r="S219" s="163">
         <v>1.4</v>
       </c>
-      <c r="T219" s="66"/>
+      <c r="T219" s="108"/>
     </row>
     <row r="220" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="70" t="s">
+      <c r="A220" s="164" t="s">
         <v>114</v>
       </c>
-      <c r="B220" s="66"/>
-      <c r="C220" s="70">
+      <c r="B220" s="108"/>
+      <c r="C220" s="164">
         <v>300</v>
       </c>
-      <c r="D220" s="66"/>
-      <c r="E220" s="65">
+      <c r="D220" s="108"/>
+      <c r="E220" s="145">
         <v>4</v>
       </c>
-      <c r="F220" s="66"/>
-      <c r="G220" s="65">
+      <c r="F220" s="108"/>
+      <c r="G220" s="145">
         <v>3</v>
       </c>
-      <c r="H220" s="66"/>
-      <c r="I220" s="71"/>
-      <c r="J220" s="66"/>
-      <c r="K220" s="72">
+      <c r="H220" s="108"/>
+      <c r="I220" s="146"/>
+      <c r="J220" s="108"/>
+      <c r="K220" s="147">
         <v>3.7</v>
       </c>
-      <c r="L220" s="66"/>
-      <c r="M220" s="73">
+      <c r="L220" s="108"/>
+      <c r="M220" s="148">
         <v>153.21</v>
       </c>
-      <c r="N220" s="66"/>
-      <c r="O220" s="74">
+      <c r="N220" s="108"/>
+      <c r="O220" s="149">
         <v>1.7</v>
       </c>
-      <c r="P220" s="66"/>
-      <c r="Q220" s="63">
+      <c r="P220" s="108"/>
+      <c r="Q220" s="150">
         <v>41.06</v>
       </c>
-      <c r="R220" s="64"/>
-      <c r="S220" s="65">
+      <c r="R220" s="144"/>
+      <c r="S220" s="145">
         <v>1.4</v>
       </c>
-      <c r="T220" s="66"/>
+      <c r="T220" s="108"/>
     </row>
     <row r="221" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="22" t="s">
@@ -8249,16 +8257,780 @@
     </row>
   </sheetData>
   <mergeCells count="808">
-    <mergeCell ref="S198:T198"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="C198:D198"/>
-    <mergeCell ref="E198:F198"/>
-    <mergeCell ref="G198:H198"/>
-    <mergeCell ref="I198:J198"/>
-    <mergeCell ref="K198:L198"/>
-    <mergeCell ref="M198:N198"/>
-    <mergeCell ref="O198:P198"/>
-    <mergeCell ref="Q198:R198"/>
+    <mergeCell ref="Q220:R220"/>
+    <mergeCell ref="S220:T220"/>
+    <mergeCell ref="A14:T14"/>
+    <mergeCell ref="Q219:R219"/>
+    <mergeCell ref="S219:T219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="C220:D220"/>
+    <mergeCell ref="E220:F220"/>
+    <mergeCell ref="G220:H220"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="K220:L220"/>
+    <mergeCell ref="M220:N220"/>
+    <mergeCell ref="O220:P220"/>
+    <mergeCell ref="S218:T218"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="E219:F219"/>
+    <mergeCell ref="G219:H219"/>
+    <mergeCell ref="I219:J219"/>
+    <mergeCell ref="K219:L219"/>
+    <mergeCell ref="M219:N219"/>
+    <mergeCell ref="O219:P219"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="A7:T7"/>
+    <mergeCell ref="A8:T8"/>
+    <mergeCell ref="A9:T9"/>
+    <mergeCell ref="A10:T10"/>
+    <mergeCell ref="A60:T60"/>
+    <mergeCell ref="A15:T15"/>
+    <mergeCell ref="A16:T16"/>
+    <mergeCell ref="B80:T80"/>
+    <mergeCell ref="O38:R38"/>
+    <mergeCell ref="T28:T40"/>
+    <mergeCell ref="B66:T66"/>
+    <mergeCell ref="B69:T69"/>
+    <mergeCell ref="B70:T70"/>
+    <mergeCell ref="B73:Q73"/>
+    <mergeCell ref="B76:Q76"/>
+    <mergeCell ref="E218:F218"/>
+    <mergeCell ref="G218:H218"/>
+    <mergeCell ref="I218:J218"/>
+    <mergeCell ref="K218:L218"/>
+    <mergeCell ref="M218:N218"/>
+    <mergeCell ref="O218:P218"/>
+    <mergeCell ref="Q218:R218"/>
+    <mergeCell ref="S216:T216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="E217:F217"/>
+    <mergeCell ref="G217:H217"/>
+    <mergeCell ref="I217:J217"/>
+    <mergeCell ref="K217:L217"/>
+    <mergeCell ref="M217:N217"/>
+    <mergeCell ref="O217:P217"/>
+    <mergeCell ref="Q217:R217"/>
+    <mergeCell ref="S217:T217"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="E216:F216"/>
+    <mergeCell ref="G216:H216"/>
+    <mergeCell ref="I216:J216"/>
+    <mergeCell ref="K216:L216"/>
+    <mergeCell ref="M216:N216"/>
+    <mergeCell ref="O216:P216"/>
+    <mergeCell ref="Q216:R216"/>
+    <mergeCell ref="S214:T214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="E215:F215"/>
+    <mergeCell ref="G215:H215"/>
+    <mergeCell ref="I215:J215"/>
+    <mergeCell ref="K215:L215"/>
+    <mergeCell ref="M215:N215"/>
+    <mergeCell ref="O215:P215"/>
+    <mergeCell ref="Q215:R215"/>
+    <mergeCell ref="S215:T215"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="E214:F214"/>
+    <mergeCell ref="G214:H214"/>
+    <mergeCell ref="I214:J214"/>
+    <mergeCell ref="K214:L214"/>
+    <mergeCell ref="M214:N214"/>
+    <mergeCell ref="O214:P214"/>
+    <mergeCell ref="Q214:R214"/>
+    <mergeCell ref="S212:T212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="C213:D213"/>
+    <mergeCell ref="E213:F213"/>
+    <mergeCell ref="G213:H213"/>
+    <mergeCell ref="I213:J213"/>
+    <mergeCell ref="K213:L213"/>
+    <mergeCell ref="M213:N213"/>
+    <mergeCell ref="O213:P213"/>
+    <mergeCell ref="Q213:R213"/>
+    <mergeCell ref="S213:T213"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="C212:D212"/>
+    <mergeCell ref="E212:F212"/>
+    <mergeCell ref="G212:H212"/>
+    <mergeCell ref="I212:J212"/>
+    <mergeCell ref="K212:L212"/>
+    <mergeCell ref="M212:N212"/>
+    <mergeCell ref="O212:P212"/>
+    <mergeCell ref="Q212:R212"/>
+    <mergeCell ref="S210:T210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="C211:D211"/>
+    <mergeCell ref="E211:F211"/>
+    <mergeCell ref="G211:H211"/>
+    <mergeCell ref="I211:J211"/>
+    <mergeCell ref="K211:L211"/>
+    <mergeCell ref="M211:N211"/>
+    <mergeCell ref="O211:P211"/>
+    <mergeCell ref="Q211:R211"/>
+    <mergeCell ref="S211:T211"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="C210:D210"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="I210:J210"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="O210:P210"/>
+    <mergeCell ref="Q210:R210"/>
+    <mergeCell ref="S208:T208"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="C209:D209"/>
+    <mergeCell ref="E209:F209"/>
+    <mergeCell ref="G209:H209"/>
+    <mergeCell ref="I209:J209"/>
+    <mergeCell ref="K209:L209"/>
+    <mergeCell ref="M209:N209"/>
+    <mergeCell ref="O209:P209"/>
+    <mergeCell ref="Q209:R209"/>
+    <mergeCell ref="S209:T209"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="C208:D208"/>
+    <mergeCell ref="E208:F208"/>
+    <mergeCell ref="G208:H208"/>
+    <mergeCell ref="I208:J208"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="M208:N208"/>
+    <mergeCell ref="O208:P208"/>
+    <mergeCell ref="Q208:R208"/>
+    <mergeCell ref="S206:T206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="C207:D207"/>
+    <mergeCell ref="E207:F207"/>
+    <mergeCell ref="G207:H207"/>
+    <mergeCell ref="I207:J207"/>
+    <mergeCell ref="K207:L207"/>
+    <mergeCell ref="M207:N207"/>
+    <mergeCell ref="O207:P207"/>
+    <mergeCell ref="Q207:R207"/>
+    <mergeCell ref="S207:T207"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="C206:D206"/>
+    <mergeCell ref="E206:F206"/>
+    <mergeCell ref="G206:H206"/>
+    <mergeCell ref="I206:J206"/>
+    <mergeCell ref="K206:L206"/>
+    <mergeCell ref="M206:N206"/>
+    <mergeCell ref="O206:P206"/>
+    <mergeCell ref="Q206:R206"/>
+    <mergeCell ref="S204:T204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="C205:D205"/>
+    <mergeCell ref="E205:F205"/>
+    <mergeCell ref="G205:H205"/>
+    <mergeCell ref="I205:J205"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="M205:N205"/>
+    <mergeCell ref="O205:P205"/>
+    <mergeCell ref="Q205:R205"/>
+    <mergeCell ref="S205:T205"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="C204:D204"/>
+    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="G204:H204"/>
+    <mergeCell ref="I204:J204"/>
+    <mergeCell ref="K204:L204"/>
+    <mergeCell ref="M204:N204"/>
+    <mergeCell ref="O204:P204"/>
+    <mergeCell ref="Q204:R204"/>
+    <mergeCell ref="S202:T202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="C203:D203"/>
+    <mergeCell ref="E203:F203"/>
+    <mergeCell ref="G203:H203"/>
+    <mergeCell ref="I203:J203"/>
+    <mergeCell ref="K203:L203"/>
+    <mergeCell ref="M203:N203"/>
+    <mergeCell ref="O203:P203"/>
+    <mergeCell ref="Q203:R203"/>
+    <mergeCell ref="S203:T203"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="C202:D202"/>
+    <mergeCell ref="E202:F202"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="I202:J202"/>
+    <mergeCell ref="K202:L202"/>
+    <mergeCell ref="M202:N202"/>
+    <mergeCell ref="O202:P202"/>
+    <mergeCell ref="Q202:R202"/>
+    <mergeCell ref="S200:T200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:D201"/>
+    <mergeCell ref="E201:F201"/>
+    <mergeCell ref="G201:H201"/>
+    <mergeCell ref="I201:J201"/>
+    <mergeCell ref="K201:L201"/>
+    <mergeCell ref="M201:N201"/>
+    <mergeCell ref="O201:P201"/>
+    <mergeCell ref="Q201:R201"/>
+    <mergeCell ref="S201:T201"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="C200:D200"/>
+    <mergeCell ref="E200:F200"/>
+    <mergeCell ref="G200:H200"/>
+    <mergeCell ref="I200:J200"/>
+    <mergeCell ref="K200:L200"/>
+    <mergeCell ref="M200:N200"/>
+    <mergeCell ref="O200:P200"/>
+    <mergeCell ref="Q200:R200"/>
+    <mergeCell ref="S190:T190"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="C199:D199"/>
+    <mergeCell ref="E199:F199"/>
+    <mergeCell ref="G199:H199"/>
+    <mergeCell ref="I199:J199"/>
+    <mergeCell ref="K199:L199"/>
+    <mergeCell ref="M199:N199"/>
+    <mergeCell ref="O199:P199"/>
+    <mergeCell ref="Q199:R199"/>
+    <mergeCell ref="S199:T199"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="E190:F190"/>
+    <mergeCell ref="G190:H190"/>
+    <mergeCell ref="I190:J190"/>
+    <mergeCell ref="K190:L190"/>
+    <mergeCell ref="M190:N190"/>
+    <mergeCell ref="O190:P190"/>
+    <mergeCell ref="Q190:R190"/>
+    <mergeCell ref="S197:T197"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="S188:T188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="C189:D189"/>
+    <mergeCell ref="E189:F189"/>
+    <mergeCell ref="G189:H189"/>
+    <mergeCell ref="I189:J189"/>
+    <mergeCell ref="K189:L189"/>
+    <mergeCell ref="M189:N189"/>
+    <mergeCell ref="O189:P189"/>
+    <mergeCell ref="Q189:R189"/>
+    <mergeCell ref="S189:T189"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="C188:D188"/>
+    <mergeCell ref="E188:F188"/>
+    <mergeCell ref="G188:H188"/>
+    <mergeCell ref="I188:J188"/>
+    <mergeCell ref="K188:L188"/>
+    <mergeCell ref="M188:N188"/>
+    <mergeCell ref="O188:P188"/>
+    <mergeCell ref="Q188:R188"/>
+    <mergeCell ref="S186:T186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="G187:H187"/>
+    <mergeCell ref="I187:J187"/>
+    <mergeCell ref="K187:L187"/>
+    <mergeCell ref="M187:N187"/>
+    <mergeCell ref="O187:P187"/>
+    <mergeCell ref="Q187:R187"/>
+    <mergeCell ref="S187:T187"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="C186:D186"/>
+    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="G186:H186"/>
+    <mergeCell ref="I186:J186"/>
+    <mergeCell ref="K186:L186"/>
+    <mergeCell ref="M186:N186"/>
+    <mergeCell ref="O186:P186"/>
+    <mergeCell ref="Q186:R186"/>
+    <mergeCell ref="S184:T184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="E185:F185"/>
+    <mergeCell ref="G185:H185"/>
+    <mergeCell ref="I185:J185"/>
+    <mergeCell ref="K185:L185"/>
+    <mergeCell ref="M185:N185"/>
+    <mergeCell ref="O185:P185"/>
+    <mergeCell ref="Q185:R185"/>
+    <mergeCell ref="S185:T185"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="G184:H184"/>
+    <mergeCell ref="I184:J184"/>
+    <mergeCell ref="K184:L184"/>
+    <mergeCell ref="M184:N184"/>
+    <mergeCell ref="O184:P184"/>
+    <mergeCell ref="Q184:R184"/>
+    <mergeCell ref="S182:T182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="G183:H183"/>
+    <mergeCell ref="I183:J183"/>
+    <mergeCell ref="K183:L183"/>
+    <mergeCell ref="M183:N183"/>
+    <mergeCell ref="O183:P183"/>
+    <mergeCell ref="Q183:R183"/>
+    <mergeCell ref="S183:T183"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="C182:D182"/>
+    <mergeCell ref="E182:F182"/>
+    <mergeCell ref="G182:H182"/>
+    <mergeCell ref="I182:J182"/>
+    <mergeCell ref="K182:L182"/>
+    <mergeCell ref="M182:N182"/>
+    <mergeCell ref="O182:P182"/>
+    <mergeCell ref="Q182:R182"/>
+    <mergeCell ref="S180:T180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:D181"/>
+    <mergeCell ref="E181:F181"/>
+    <mergeCell ref="G181:H181"/>
+    <mergeCell ref="I181:J181"/>
+    <mergeCell ref="K181:L181"/>
+    <mergeCell ref="M181:N181"/>
+    <mergeCell ref="O181:P181"/>
+    <mergeCell ref="Q181:R181"/>
+    <mergeCell ref="S181:T181"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="C180:D180"/>
+    <mergeCell ref="E180:F180"/>
+    <mergeCell ref="G180:H180"/>
+    <mergeCell ref="I180:J180"/>
+    <mergeCell ref="K180:L180"/>
+    <mergeCell ref="M180:N180"/>
+    <mergeCell ref="O180:P180"/>
+    <mergeCell ref="Q180:R180"/>
+    <mergeCell ref="S178:T178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="C179:D179"/>
+    <mergeCell ref="E179:F179"/>
+    <mergeCell ref="G179:H179"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="O179:P179"/>
+    <mergeCell ref="Q179:R179"/>
+    <mergeCell ref="S179:T179"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="C178:D178"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="O178:P178"/>
+    <mergeCell ref="Q178:R178"/>
+    <mergeCell ref="S176:T176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="C177:D177"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="O177:P177"/>
+    <mergeCell ref="Q177:R177"/>
+    <mergeCell ref="S177:T177"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="C176:D176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="O176:P176"/>
+    <mergeCell ref="Q176:R176"/>
+    <mergeCell ref="S174:T174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="C175:D175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="O175:P175"/>
+    <mergeCell ref="Q175:R175"/>
+    <mergeCell ref="S175:T175"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="C174:D174"/>
+    <mergeCell ref="E174:F174"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="O174:P174"/>
+    <mergeCell ref="Q174:R174"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="C172:D172"/>
+    <mergeCell ref="E172:F172"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:D171"/>
+    <mergeCell ref="Q172:R172"/>
+    <mergeCell ref="Q171:R171"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="C165:D165"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="O165:P165"/>
+    <mergeCell ref="Q165:R165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="C166:D166"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="O166:P166"/>
+    <mergeCell ref="Q166:R166"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="C155:D155"/>
+    <mergeCell ref="E155:F155"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="E154:F154"/>
+    <mergeCell ref="S160:T160"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="C159:D159"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="C160:D160"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="O160:P160"/>
+    <mergeCell ref="Q160:R160"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="C156:D156"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="O156:P156"/>
+    <mergeCell ref="Q156:R156"/>
+    <mergeCell ref="S151:T151"/>
+    <mergeCell ref="S153:T153"/>
+    <mergeCell ref="O152:P152"/>
+    <mergeCell ref="Q152:R152"/>
+    <mergeCell ref="S152:T152"/>
+    <mergeCell ref="G155:H155"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="I152:J152"/>
+    <mergeCell ref="K152:L152"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="O154:P154"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="E153:F153"/>
+    <mergeCell ref="G153:H153"/>
+    <mergeCell ref="I153:J153"/>
+    <mergeCell ref="K153:L153"/>
+    <mergeCell ref="M153:N153"/>
+    <mergeCell ref="O153:P153"/>
+    <mergeCell ref="Q153:R153"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="E151:F151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="I151:J151"/>
+    <mergeCell ref="K151:L151"/>
+    <mergeCell ref="M151:N151"/>
+    <mergeCell ref="O151:P151"/>
+    <mergeCell ref="Q151:R151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="E152:F152"/>
+    <mergeCell ref="S140:T140"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="I149:J149"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="O149:P149"/>
+    <mergeCell ref="Q149:R149"/>
+    <mergeCell ref="S149:T149"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="C140:D140"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="O140:P140"/>
+    <mergeCell ref="Q140:R140"/>
+    <mergeCell ref="M152:N152"/>
+    <mergeCell ref="S138:T138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="E139:F139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="I139:J139"/>
+    <mergeCell ref="K139:L139"/>
+    <mergeCell ref="M139:N139"/>
+    <mergeCell ref="O139:P139"/>
+    <mergeCell ref="Q139:R139"/>
+    <mergeCell ref="S139:T139"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="C138:D138"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="K138:L138"/>
+    <mergeCell ref="M138:N138"/>
+    <mergeCell ref="O138:P138"/>
+    <mergeCell ref="Q138:R138"/>
+    <mergeCell ref="S136:T136"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="C137:D137"/>
+    <mergeCell ref="E137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="K137:L137"/>
+    <mergeCell ref="M137:N137"/>
+    <mergeCell ref="O137:P137"/>
+    <mergeCell ref="Q137:R137"/>
+    <mergeCell ref="S137:T137"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="C136:D136"/>
+    <mergeCell ref="E136:F136"/>
+    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="K136:L136"/>
+    <mergeCell ref="M136:N136"/>
+    <mergeCell ref="O136:P136"/>
+    <mergeCell ref="Q136:R136"/>
+    <mergeCell ref="S135:T135"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="C134:D134"/>
+    <mergeCell ref="E134:F134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="M134:N134"/>
+    <mergeCell ref="O134:P134"/>
+    <mergeCell ref="Q134:R134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="C135:D135"/>
+    <mergeCell ref="E135:F135"/>
+    <mergeCell ref="G135:H135"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="K135:L135"/>
+    <mergeCell ref="M135:N135"/>
+    <mergeCell ref="O135:P135"/>
+    <mergeCell ref="Q135:R135"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="G131:H131"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="K131:L131"/>
+    <mergeCell ref="M131:N131"/>
+    <mergeCell ref="O131:P131"/>
+    <mergeCell ref="Q131:R131"/>
+    <mergeCell ref="K128:L128"/>
+    <mergeCell ref="M128:N128"/>
+    <mergeCell ref="O128:P128"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="K133:L133"/>
+    <mergeCell ref="M133:N133"/>
+    <mergeCell ref="O133:P133"/>
+    <mergeCell ref="Q133:R133"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="K132:L132"/>
+    <mergeCell ref="M132:N132"/>
+    <mergeCell ref="O132:P132"/>
+    <mergeCell ref="Q132:R132"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:D130"/>
+    <mergeCell ref="E130:F130"/>
+    <mergeCell ref="G130:H130"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="S130:T130"/>
+    <mergeCell ref="O155:P155"/>
+    <mergeCell ref="Q155:R155"/>
+    <mergeCell ref="S155:T155"/>
+    <mergeCell ref="Q154:R154"/>
+    <mergeCell ref="S154:T154"/>
+    <mergeCell ref="S131:T131"/>
+    <mergeCell ref="S132:T132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="C133:D133"/>
+    <mergeCell ref="E133:F133"/>
+    <mergeCell ref="S133:T133"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="C132:D132"/>
+    <mergeCell ref="E132:F132"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="E131:F131"/>
+    <mergeCell ref="S134:T134"/>
+    <mergeCell ref="B83:T83"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="A109:T109"/>
+    <mergeCell ref="Q128:R128"/>
+    <mergeCell ref="S128:T128"/>
+    <mergeCell ref="S156:T156"/>
+    <mergeCell ref="S157:T157"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="O168:P168"/>
+    <mergeCell ref="Q168:R168"/>
+    <mergeCell ref="S168:T168"/>
+    <mergeCell ref="O157:P157"/>
+    <mergeCell ref="S161:T161"/>
+    <mergeCell ref="Q159:R159"/>
+    <mergeCell ref="S159:T159"/>
+    <mergeCell ref="Q157:R157"/>
+    <mergeCell ref="S166:T166"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="O158:P158"/>
+    <mergeCell ref="Q158:R158"/>
+    <mergeCell ref="S158:T158"/>
+    <mergeCell ref="S171:T171"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="O169:P169"/>
+    <mergeCell ref="S170:T170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="O171:P171"/>
+    <mergeCell ref="Q170:R170"/>
+    <mergeCell ref="S169:T169"/>
+    <mergeCell ref="S163:T163"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="S164:T164"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="S165:T165"/>
+    <mergeCell ref="Q169:R169"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="O173:P173"/>
+    <mergeCell ref="Q173:R173"/>
+    <mergeCell ref="S173:T173"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="S172:T172"/>
+    <mergeCell ref="M197:N197"/>
+    <mergeCell ref="O197:P197"/>
+    <mergeCell ref="O163:P163"/>
+    <mergeCell ref="Q163:R163"/>
+    <mergeCell ref="Q197:R197"/>
+    <mergeCell ref="E171:F171"/>
+    <mergeCell ref="G171:H171"/>
+    <mergeCell ref="I171:J171"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="E164:F164"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="I164:J164"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="G197:H197"/>
+    <mergeCell ref="I197:J197"/>
+    <mergeCell ref="K197:L197"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="O164:P164"/>
+    <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="C170:D170"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="O162:P162"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="C158:D158"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="O159:P159"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="C167:D167"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="I167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="C163:D163"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="C164:D164"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="Q162:R162"/>
+    <mergeCell ref="S162:T162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="C162:D162"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="O161:P161"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="C173:D173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="O167:P167"/>
+    <mergeCell ref="Q167:R167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="C168:D168"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="I168:J168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="C169:D169"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="I169:J169"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="O172:P172"/>
+    <mergeCell ref="A170:B170"/>
     <mergeCell ref="S129:T129"/>
     <mergeCell ref="A150:B150"/>
     <mergeCell ref="C150:D150"/>
@@ -8283,780 +9055,16 @@
     <mergeCell ref="M130:N130"/>
     <mergeCell ref="O130:P130"/>
     <mergeCell ref="Q130:R130"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="C173:D173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="O167:P167"/>
-    <mergeCell ref="Q167:R167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="C168:D168"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="I168:J168"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="C169:D169"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="I169:J169"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="O172:P172"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="Q162:R162"/>
-    <mergeCell ref="S162:T162"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="C162:D162"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="C161:D161"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="O161:P161"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="C170:D170"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="O162:P162"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="C158:D158"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="O159:P159"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="C167:D167"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="I167:J167"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="C163:D163"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="M197:N197"/>
-    <mergeCell ref="O197:P197"/>
-    <mergeCell ref="O163:P163"/>
-    <mergeCell ref="Q163:R163"/>
-    <mergeCell ref="Q197:R197"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="G171:H171"/>
-    <mergeCell ref="I171:J171"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="C164:D164"/>
-    <mergeCell ref="E164:F164"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="I164:J164"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="G197:H197"/>
-    <mergeCell ref="I197:J197"/>
-    <mergeCell ref="K197:L197"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="O164:P164"/>
-    <mergeCell ref="Q164:R164"/>
-    <mergeCell ref="S164:T164"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="S165:T165"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="O173:P173"/>
-    <mergeCell ref="Q173:R173"/>
-    <mergeCell ref="S173:T173"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="O158:P158"/>
-    <mergeCell ref="Q158:R158"/>
-    <mergeCell ref="S158:T158"/>
-    <mergeCell ref="S171:T171"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="O169:P169"/>
-    <mergeCell ref="S170:T170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="O171:P171"/>
-    <mergeCell ref="Q170:R170"/>
-    <mergeCell ref="S169:T169"/>
-    <mergeCell ref="S163:T163"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="S172:T172"/>
-    <mergeCell ref="S156:T156"/>
-    <mergeCell ref="S157:T157"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="O168:P168"/>
-    <mergeCell ref="Q168:R168"/>
-    <mergeCell ref="S168:T168"/>
-    <mergeCell ref="O157:P157"/>
-    <mergeCell ref="S161:T161"/>
-    <mergeCell ref="Q159:R159"/>
-    <mergeCell ref="S159:T159"/>
-    <mergeCell ref="Q157:R157"/>
-    <mergeCell ref="S166:T166"/>
-    <mergeCell ref="B83:T83"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="A109:T109"/>
-    <mergeCell ref="Q128:R128"/>
-    <mergeCell ref="S128:T128"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="C130:D130"/>
-    <mergeCell ref="E130:F130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="S130:T130"/>
-    <mergeCell ref="O155:P155"/>
-    <mergeCell ref="Q155:R155"/>
-    <mergeCell ref="S155:T155"/>
-    <mergeCell ref="Q154:R154"/>
-    <mergeCell ref="S154:T154"/>
-    <mergeCell ref="S131:T131"/>
-    <mergeCell ref="S132:T132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="C133:D133"/>
-    <mergeCell ref="E133:F133"/>
-    <mergeCell ref="S133:T133"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="C132:D132"/>
-    <mergeCell ref="E132:F132"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
-    <mergeCell ref="E131:F131"/>
-    <mergeCell ref="S134:T134"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="G131:H131"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="K131:L131"/>
-    <mergeCell ref="M131:N131"/>
-    <mergeCell ref="O131:P131"/>
-    <mergeCell ref="Q131:R131"/>
-    <mergeCell ref="K128:L128"/>
-    <mergeCell ref="M128:N128"/>
-    <mergeCell ref="O128:P128"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="K133:L133"/>
-    <mergeCell ref="M133:N133"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="Q133:R133"/>
-    <mergeCell ref="G132:H132"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="K132:L132"/>
-    <mergeCell ref="M132:N132"/>
-    <mergeCell ref="O132:P132"/>
-    <mergeCell ref="Q132:R132"/>
-    <mergeCell ref="S135:T135"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="C134:D134"/>
-    <mergeCell ref="E134:F134"/>
-    <mergeCell ref="G134:H134"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="M134:N134"/>
-    <mergeCell ref="O134:P134"/>
-    <mergeCell ref="Q134:R134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="C135:D135"/>
-    <mergeCell ref="E135:F135"/>
-    <mergeCell ref="G135:H135"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="K135:L135"/>
-    <mergeCell ref="M135:N135"/>
-    <mergeCell ref="O135:P135"/>
-    <mergeCell ref="Q135:R135"/>
-    <mergeCell ref="S136:T136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="C137:D137"/>
-    <mergeCell ref="E137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="K137:L137"/>
-    <mergeCell ref="M137:N137"/>
-    <mergeCell ref="O137:P137"/>
-    <mergeCell ref="Q137:R137"/>
-    <mergeCell ref="S137:T137"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="C136:D136"/>
-    <mergeCell ref="E136:F136"/>
-    <mergeCell ref="G136:H136"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="K136:L136"/>
-    <mergeCell ref="M136:N136"/>
-    <mergeCell ref="O136:P136"/>
-    <mergeCell ref="Q136:R136"/>
-    <mergeCell ref="S138:T138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="E139:F139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="I139:J139"/>
-    <mergeCell ref="K139:L139"/>
-    <mergeCell ref="M139:N139"/>
-    <mergeCell ref="O139:P139"/>
-    <mergeCell ref="Q139:R139"/>
-    <mergeCell ref="S139:T139"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="C138:D138"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="K138:L138"/>
-    <mergeCell ref="M138:N138"/>
-    <mergeCell ref="O138:P138"/>
-    <mergeCell ref="Q138:R138"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="E152:F152"/>
-    <mergeCell ref="S140:T140"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="O149:P149"/>
-    <mergeCell ref="Q149:R149"/>
-    <mergeCell ref="S149:T149"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="C140:D140"/>
-    <mergeCell ref="E140:F140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="I140:J140"/>
-    <mergeCell ref="K140:L140"/>
-    <mergeCell ref="M140:N140"/>
-    <mergeCell ref="O140:P140"/>
-    <mergeCell ref="Q140:R140"/>
-    <mergeCell ref="M152:N152"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="E151:F151"/>
-    <mergeCell ref="G151:H151"/>
-    <mergeCell ref="I151:J151"/>
-    <mergeCell ref="K151:L151"/>
-    <mergeCell ref="M151:N151"/>
-    <mergeCell ref="O151:P151"/>
-    <mergeCell ref="Q151:R151"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="E153:F153"/>
-    <mergeCell ref="G153:H153"/>
-    <mergeCell ref="I153:J153"/>
-    <mergeCell ref="K153:L153"/>
-    <mergeCell ref="M153:N153"/>
-    <mergeCell ref="O153:P153"/>
-    <mergeCell ref="Q153:R153"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="O156:P156"/>
-    <mergeCell ref="Q156:R156"/>
-    <mergeCell ref="S151:T151"/>
-    <mergeCell ref="S153:T153"/>
-    <mergeCell ref="O152:P152"/>
-    <mergeCell ref="Q152:R152"/>
-    <mergeCell ref="S152:T152"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="G152:H152"/>
-    <mergeCell ref="I152:J152"/>
-    <mergeCell ref="K152:L152"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="O154:P154"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="C155:D155"/>
-    <mergeCell ref="E155:F155"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="E154:F154"/>
-    <mergeCell ref="S160:T160"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="C159:D159"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="C160:D160"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="O160:P160"/>
-    <mergeCell ref="Q160:R160"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="C156:D156"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="C166:D166"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="O166:P166"/>
-    <mergeCell ref="Q166:R166"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="C165:D165"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="I165:J165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="O165:P165"/>
-    <mergeCell ref="Q165:R165"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="C172:D172"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="C171:D171"/>
-    <mergeCell ref="Q172:R172"/>
-    <mergeCell ref="Q171:R171"/>
-    <mergeCell ref="S174:T174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="C175:D175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="G175:H175"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="O175:P175"/>
-    <mergeCell ref="Q175:R175"/>
-    <mergeCell ref="S175:T175"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="C174:D174"/>
-    <mergeCell ref="E174:F174"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="O174:P174"/>
-    <mergeCell ref="Q174:R174"/>
-    <mergeCell ref="S176:T176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="C177:D177"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="O177:P177"/>
-    <mergeCell ref="Q177:R177"/>
-    <mergeCell ref="S177:T177"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="C176:D176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="O176:P176"/>
-    <mergeCell ref="Q176:R176"/>
-    <mergeCell ref="S178:T178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="C179:D179"/>
-    <mergeCell ref="E179:F179"/>
-    <mergeCell ref="G179:H179"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="O179:P179"/>
-    <mergeCell ref="Q179:R179"/>
-    <mergeCell ref="S179:T179"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="C178:D178"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="O178:P178"/>
-    <mergeCell ref="Q178:R178"/>
-    <mergeCell ref="S180:T180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="C181:D181"/>
-    <mergeCell ref="E181:F181"/>
-    <mergeCell ref="G181:H181"/>
-    <mergeCell ref="I181:J181"/>
-    <mergeCell ref="K181:L181"/>
-    <mergeCell ref="M181:N181"/>
-    <mergeCell ref="O181:P181"/>
-    <mergeCell ref="Q181:R181"/>
-    <mergeCell ref="S181:T181"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="C180:D180"/>
-    <mergeCell ref="E180:F180"/>
-    <mergeCell ref="G180:H180"/>
-    <mergeCell ref="I180:J180"/>
-    <mergeCell ref="K180:L180"/>
-    <mergeCell ref="M180:N180"/>
-    <mergeCell ref="O180:P180"/>
-    <mergeCell ref="Q180:R180"/>
-    <mergeCell ref="S182:T182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="G183:H183"/>
-    <mergeCell ref="I183:J183"/>
-    <mergeCell ref="K183:L183"/>
-    <mergeCell ref="M183:N183"/>
-    <mergeCell ref="O183:P183"/>
-    <mergeCell ref="Q183:R183"/>
-    <mergeCell ref="S183:T183"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="C182:D182"/>
-    <mergeCell ref="E182:F182"/>
-    <mergeCell ref="G182:H182"/>
-    <mergeCell ref="I182:J182"/>
-    <mergeCell ref="K182:L182"/>
-    <mergeCell ref="M182:N182"/>
-    <mergeCell ref="O182:P182"/>
-    <mergeCell ref="Q182:R182"/>
-    <mergeCell ref="S184:T184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="G185:H185"/>
-    <mergeCell ref="I185:J185"/>
-    <mergeCell ref="K185:L185"/>
-    <mergeCell ref="M185:N185"/>
-    <mergeCell ref="O185:P185"/>
-    <mergeCell ref="Q185:R185"/>
-    <mergeCell ref="S185:T185"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="G184:H184"/>
-    <mergeCell ref="I184:J184"/>
-    <mergeCell ref="K184:L184"/>
-    <mergeCell ref="M184:N184"/>
-    <mergeCell ref="O184:P184"/>
-    <mergeCell ref="Q184:R184"/>
-    <mergeCell ref="S186:T186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="G187:H187"/>
-    <mergeCell ref="I187:J187"/>
-    <mergeCell ref="K187:L187"/>
-    <mergeCell ref="M187:N187"/>
-    <mergeCell ref="O187:P187"/>
-    <mergeCell ref="Q187:R187"/>
-    <mergeCell ref="S187:T187"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="C186:D186"/>
-    <mergeCell ref="E186:F186"/>
-    <mergeCell ref="G186:H186"/>
-    <mergeCell ref="I186:J186"/>
-    <mergeCell ref="K186:L186"/>
-    <mergeCell ref="M186:N186"/>
-    <mergeCell ref="O186:P186"/>
-    <mergeCell ref="Q186:R186"/>
-    <mergeCell ref="S188:T188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="C189:D189"/>
-    <mergeCell ref="E189:F189"/>
-    <mergeCell ref="G189:H189"/>
-    <mergeCell ref="I189:J189"/>
-    <mergeCell ref="K189:L189"/>
-    <mergeCell ref="M189:N189"/>
-    <mergeCell ref="O189:P189"/>
-    <mergeCell ref="Q189:R189"/>
-    <mergeCell ref="S189:T189"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="C188:D188"/>
-    <mergeCell ref="E188:F188"/>
-    <mergeCell ref="G188:H188"/>
-    <mergeCell ref="I188:J188"/>
-    <mergeCell ref="K188:L188"/>
-    <mergeCell ref="M188:N188"/>
-    <mergeCell ref="O188:P188"/>
-    <mergeCell ref="Q188:R188"/>
-    <mergeCell ref="S190:T190"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="C199:D199"/>
-    <mergeCell ref="E199:F199"/>
-    <mergeCell ref="G199:H199"/>
-    <mergeCell ref="I199:J199"/>
-    <mergeCell ref="K199:L199"/>
-    <mergeCell ref="M199:N199"/>
-    <mergeCell ref="O199:P199"/>
-    <mergeCell ref="Q199:R199"/>
-    <mergeCell ref="S199:T199"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="E190:F190"/>
-    <mergeCell ref="G190:H190"/>
-    <mergeCell ref="I190:J190"/>
-    <mergeCell ref="K190:L190"/>
-    <mergeCell ref="M190:N190"/>
-    <mergeCell ref="O190:P190"/>
-    <mergeCell ref="Q190:R190"/>
-    <mergeCell ref="S197:T197"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="C197:D197"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="S200:T200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="C201:D201"/>
-    <mergeCell ref="E201:F201"/>
-    <mergeCell ref="G201:H201"/>
-    <mergeCell ref="I201:J201"/>
-    <mergeCell ref="K201:L201"/>
-    <mergeCell ref="M201:N201"/>
-    <mergeCell ref="O201:P201"/>
-    <mergeCell ref="Q201:R201"/>
-    <mergeCell ref="S201:T201"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="C200:D200"/>
-    <mergeCell ref="E200:F200"/>
-    <mergeCell ref="G200:H200"/>
-    <mergeCell ref="I200:J200"/>
-    <mergeCell ref="K200:L200"/>
-    <mergeCell ref="M200:N200"/>
-    <mergeCell ref="O200:P200"/>
-    <mergeCell ref="Q200:R200"/>
-    <mergeCell ref="S202:T202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="C203:D203"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="G203:H203"/>
-    <mergeCell ref="I203:J203"/>
-    <mergeCell ref="K203:L203"/>
-    <mergeCell ref="M203:N203"/>
-    <mergeCell ref="O203:P203"/>
-    <mergeCell ref="Q203:R203"/>
-    <mergeCell ref="S203:T203"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="C202:D202"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="I202:J202"/>
-    <mergeCell ref="K202:L202"/>
-    <mergeCell ref="M202:N202"/>
-    <mergeCell ref="O202:P202"/>
-    <mergeCell ref="Q202:R202"/>
-    <mergeCell ref="S204:T204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="C205:D205"/>
-    <mergeCell ref="E205:F205"/>
-    <mergeCell ref="G205:H205"/>
-    <mergeCell ref="I205:J205"/>
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="M205:N205"/>
-    <mergeCell ref="O205:P205"/>
-    <mergeCell ref="Q205:R205"/>
-    <mergeCell ref="S205:T205"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="C204:D204"/>
-    <mergeCell ref="E204:F204"/>
-    <mergeCell ref="G204:H204"/>
-    <mergeCell ref="I204:J204"/>
-    <mergeCell ref="K204:L204"/>
-    <mergeCell ref="M204:N204"/>
-    <mergeCell ref="O204:P204"/>
-    <mergeCell ref="Q204:R204"/>
-    <mergeCell ref="S206:T206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="C207:D207"/>
-    <mergeCell ref="E207:F207"/>
-    <mergeCell ref="G207:H207"/>
-    <mergeCell ref="I207:J207"/>
-    <mergeCell ref="K207:L207"/>
-    <mergeCell ref="M207:N207"/>
-    <mergeCell ref="O207:P207"/>
-    <mergeCell ref="Q207:R207"/>
-    <mergeCell ref="S207:T207"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="C206:D206"/>
-    <mergeCell ref="E206:F206"/>
-    <mergeCell ref="G206:H206"/>
-    <mergeCell ref="I206:J206"/>
-    <mergeCell ref="K206:L206"/>
-    <mergeCell ref="M206:N206"/>
-    <mergeCell ref="O206:P206"/>
-    <mergeCell ref="Q206:R206"/>
-    <mergeCell ref="S208:T208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="C209:D209"/>
-    <mergeCell ref="E209:F209"/>
-    <mergeCell ref="G209:H209"/>
-    <mergeCell ref="I209:J209"/>
-    <mergeCell ref="K209:L209"/>
-    <mergeCell ref="M209:N209"/>
-    <mergeCell ref="O209:P209"/>
-    <mergeCell ref="Q209:R209"/>
-    <mergeCell ref="S209:T209"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="C208:D208"/>
-    <mergeCell ref="E208:F208"/>
-    <mergeCell ref="G208:H208"/>
-    <mergeCell ref="I208:J208"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="M208:N208"/>
-    <mergeCell ref="O208:P208"/>
-    <mergeCell ref="Q208:R208"/>
-    <mergeCell ref="S210:T210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="C211:D211"/>
-    <mergeCell ref="E211:F211"/>
-    <mergeCell ref="G211:H211"/>
-    <mergeCell ref="I211:J211"/>
-    <mergeCell ref="K211:L211"/>
-    <mergeCell ref="M211:N211"/>
-    <mergeCell ref="O211:P211"/>
-    <mergeCell ref="Q211:R211"/>
-    <mergeCell ref="S211:T211"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="C210:D210"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="G210:H210"/>
-    <mergeCell ref="I210:J210"/>
-    <mergeCell ref="K210:L210"/>
-    <mergeCell ref="M210:N210"/>
-    <mergeCell ref="O210:P210"/>
-    <mergeCell ref="Q210:R210"/>
-    <mergeCell ref="S212:T212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="C213:D213"/>
-    <mergeCell ref="E213:F213"/>
-    <mergeCell ref="G213:H213"/>
-    <mergeCell ref="I213:J213"/>
-    <mergeCell ref="K213:L213"/>
-    <mergeCell ref="M213:N213"/>
-    <mergeCell ref="O213:P213"/>
-    <mergeCell ref="Q213:R213"/>
-    <mergeCell ref="S213:T213"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="C212:D212"/>
-    <mergeCell ref="E212:F212"/>
-    <mergeCell ref="G212:H212"/>
-    <mergeCell ref="I212:J212"/>
-    <mergeCell ref="K212:L212"/>
-    <mergeCell ref="M212:N212"/>
-    <mergeCell ref="O212:P212"/>
-    <mergeCell ref="Q212:R212"/>
-    <mergeCell ref="M216:N216"/>
-    <mergeCell ref="O216:P216"/>
-    <mergeCell ref="Q216:R216"/>
-    <mergeCell ref="S214:T214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="E215:F215"/>
-    <mergeCell ref="G215:H215"/>
-    <mergeCell ref="I215:J215"/>
-    <mergeCell ref="K215:L215"/>
-    <mergeCell ref="M215:N215"/>
-    <mergeCell ref="O215:P215"/>
-    <mergeCell ref="Q215:R215"/>
-    <mergeCell ref="S215:T215"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="E214:F214"/>
-    <mergeCell ref="G214:H214"/>
-    <mergeCell ref="I214:J214"/>
-    <mergeCell ref="K214:L214"/>
-    <mergeCell ref="M214:N214"/>
-    <mergeCell ref="O214:P214"/>
-    <mergeCell ref="Q214:R214"/>
-    <mergeCell ref="E218:F218"/>
-    <mergeCell ref="G218:H218"/>
-    <mergeCell ref="I218:J218"/>
-    <mergeCell ref="K218:L218"/>
-    <mergeCell ref="M218:N218"/>
-    <mergeCell ref="O218:P218"/>
-    <mergeCell ref="Q218:R218"/>
-    <mergeCell ref="S216:T216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="C217:D217"/>
-    <mergeCell ref="E217:F217"/>
-    <mergeCell ref="G217:H217"/>
-    <mergeCell ref="I217:J217"/>
-    <mergeCell ref="K217:L217"/>
-    <mergeCell ref="M217:N217"/>
-    <mergeCell ref="O217:P217"/>
-    <mergeCell ref="Q217:R217"/>
-    <mergeCell ref="S217:T217"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="E216:F216"/>
-    <mergeCell ref="G216:H216"/>
-    <mergeCell ref="I216:J216"/>
-    <mergeCell ref="K216:L216"/>
-    <mergeCell ref="A7:T7"/>
-    <mergeCell ref="A8:T8"/>
-    <mergeCell ref="A9:T9"/>
-    <mergeCell ref="A10:T10"/>
-    <mergeCell ref="A60:T60"/>
-    <mergeCell ref="A15:T15"/>
-    <mergeCell ref="A16:T16"/>
-    <mergeCell ref="B80:T80"/>
-    <mergeCell ref="O38:R38"/>
-    <mergeCell ref="T28:T40"/>
-    <mergeCell ref="B66:T66"/>
-    <mergeCell ref="B69:T69"/>
-    <mergeCell ref="B70:T70"/>
-    <mergeCell ref="B73:Q73"/>
-    <mergeCell ref="B76:Q76"/>
-    <mergeCell ref="Q220:R220"/>
-    <mergeCell ref="S220:T220"/>
-    <mergeCell ref="A14:T14"/>
-    <mergeCell ref="Q219:R219"/>
-    <mergeCell ref="S219:T219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="C220:D220"/>
-    <mergeCell ref="E220:F220"/>
-    <mergeCell ref="G220:H220"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="K220:L220"/>
-    <mergeCell ref="M220:N220"/>
-    <mergeCell ref="O220:P220"/>
-    <mergeCell ref="S218:T218"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="E219:F219"/>
-    <mergeCell ref="G219:H219"/>
-    <mergeCell ref="I219:J219"/>
-    <mergeCell ref="K219:L219"/>
-    <mergeCell ref="M219:N219"/>
-    <mergeCell ref="O219:P219"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="S198:T198"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="C198:D198"/>
+    <mergeCell ref="E198:F198"/>
+    <mergeCell ref="G198:H198"/>
+    <mergeCell ref="I198:J198"/>
+    <mergeCell ref="K198:L198"/>
+    <mergeCell ref="M198:N198"/>
+    <mergeCell ref="O198:P198"/>
+    <mergeCell ref="Q198:R198"/>
   </mergeCells>
   <phoneticPr fontId="42" type="noConversion"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/app/export/pdf_template.xlsx
+++ b/app/export/pdf_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D_Disk\projects\DC-Boxjelly\app\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John\Desktop\Final\DC-Boxjelly\app\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B01796C-B44D-4CFA-8266-C49ADBD5F11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EB8449-AA91-443E-92B0-FAD9138DD581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="16920" windowHeight="13590" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="807" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEXReport" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,14 @@
     <definedName name="REPORT_Dir">#REF!</definedName>
     <definedName name="THIS_Dir">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="185">
   <si>
     <t>Primary Standards Dosimetry Laboratory,  Medical Radiation Services</t>
   </si>
@@ -755,15 +757,18 @@
     </r>
     <phoneticPr fontId="42" type="noConversion"/>
   </si>
+  <si>
+    <t>Calibration No: CAL00003</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -832,21 +837,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -854,7 +859,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -862,7 +867,7 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -870,14 +875,14 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -885,7 +890,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -893,7 +898,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -901,28 +906,28 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -930,7 +935,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -938,14 +943,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -984,7 +989,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1086,6 +1091,12 @@
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1281,7 +1292,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1538,6 +1549,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1587,7 +1616,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="19"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1673,28 +1702,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="34" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="36" fillId="34" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="36" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1706,6 +1713,44 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="34" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="34" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="36" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1717,7 +1762,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="34" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1728,7 +1773,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1740,7 +1785,7 @@
     <xf numFmtId="1" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1751,7 +1796,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1763,7 +1808,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1775,13 +1820,16 @@
     <xf numFmtId="1" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1793,22 +1841,19 @@
     <xf numFmtId="1" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1817,13 +1862,13 @@
     <xf numFmtId="1" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1839,14 +1884,14 @@
     <xf numFmtId="1" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="34" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1865,16 +1910,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1892,7 +1937,7 @@
     <xf numFmtId="2" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1904,13 +1949,13 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1925,14 +1970,14 @@
     <xf numFmtId="2" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="28" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1944,7 +1989,7 @@
     <xf numFmtId="1" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="41" fillId="34" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1985,7 +2030,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2003,8 +2048,14 @@
     <xf numFmtId="1" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="46">
@@ -2798,120 +2849,120 @@
   <dimension ref="A1:X312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W128" sqref="W128"/>
+      <selection activeCell="Y192" sqref="Y192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="13" width="4.453125" style="28" customWidth="1"/>
-    <col min="14" max="14" width="5.1796875" style="28" customWidth="1"/>
-    <col min="15" max="16" width="4.453125" style="28" customWidth="1"/>
-    <col min="17" max="17" width="5.6328125" style="28" customWidth="1"/>
-    <col min="18" max="18" width="1.1796875" style="28" customWidth="1"/>
-    <col min="19" max="19" width="0.81640625" style="28" customWidth="1"/>
-    <col min="20" max="20" width="4.453125" style="28" customWidth="1"/>
+    <col min="1" max="13" width="4.42578125" style="28" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" style="28" customWidth="1"/>
+    <col min="15" max="16" width="4.42578125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="28" customWidth="1"/>
+    <col min="18" max="18" width="1.140625" style="28" customWidth="1"/>
+    <col min="19" max="19" width="0.85546875" style="28" customWidth="1"/>
+    <col min="20" max="20" width="4.42578125" style="28" customWidth="1"/>
     <col min="21" max="24" width="5" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="151" t="s">
+    <row r="1" spans="1:20" ht="12" customHeight="1"/>
+    <row r="6" spans="1:20" ht="8.25" customHeight="1"/>
+    <row r="7" spans="1:20" ht="12.75" customHeight="1">
+      <c r="A7" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="117"/>
-      <c r="C7" s="117"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
-      <c r="H7" s="117"/>
-      <c r="I7" s="117"/>
-      <c r="J7" s="117"/>
-      <c r="K7" s="117"/>
-      <c r="L7" s="117"/>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
-      <c r="O7" s="117"/>
-      <c r="P7" s="117"/>
-      <c r="Q7" s="117"/>
-      <c r="R7" s="117"/>
-      <c r="S7" s="117"/>
-      <c r="T7" s="117"/>
-    </row>
-    <row r="8" spans="1:20" ht="13" x14ac:dyDescent="0.25">
-      <c r="A8" s="152" t="s">
+      <c r="B7" s="126"/>
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="126"/>
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="126"/>
+      <c r="Q7" s="126"/>
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="117"/>
-      <c r="C8" s="117"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="117"/>
-      <c r="R8" s="117"/>
-      <c r="S8" s="117"/>
-      <c r="T8" s="117"/>
-    </row>
-    <row r="9" spans="1:20" ht="13" x14ac:dyDescent="0.25">
-      <c r="A9" s="153" t="s">
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
+      <c r="G8" s="126"/>
+      <c r="H8" s="126"/>
+      <c r="I8" s="126"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="126"/>
+      <c r="N8" s="126"/>
+      <c r="O8" s="126"/>
+      <c r="P8" s="126"/>
+      <c r="Q8" s="126"/>
+      <c r="R8" s="126"/>
+      <c r="S8" s="126"/>
+      <c r="T8" s="126"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="117"/>
-      <c r="C9" s="117"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
-      <c r="Q9" s="117"/>
-      <c r="R9" s="117"/>
-      <c r="S9" s="117"/>
-      <c r="T9" s="117"/>
-    </row>
-    <row r="10" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="154" t="s">
+      <c r="B9" s="126"/>
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="126"/>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="126"/>
+      <c r="P9" s="126"/>
+      <c r="Q9" s="126"/>
+      <c r="R9" s="126"/>
+      <c r="S9" s="126"/>
+      <c r="T9" s="126"/>
+    </row>
+    <row r="10" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A10" s="163" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="155"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="155"/>
-      <c r="F10" s="155"/>
-      <c r="G10" s="155"/>
-      <c r="H10" s="155"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="155"/>
-      <c r="K10" s="155"/>
-      <c r="L10" s="155"/>
-      <c r="M10" s="155"/>
-      <c r="N10" s="155"/>
-      <c r="O10" s="155"/>
-      <c r="P10" s="155"/>
-      <c r="Q10" s="155"/>
-      <c r="R10" s="155"/>
-      <c r="S10" s="155"/>
-      <c r="T10" s="155"/>
-    </row>
-    <row r="11" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="164"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="164"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+    </row>
+    <row r="11" spans="1:20" ht="22.5" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="22"/>
       <c r="C11" s="22"/>
@@ -2933,7 +2984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="15.95" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
@@ -2957,7 +3008,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="14.1" customHeight="1">
       <c r="A13" s="22"/>
       <c r="B13" s="22"/>
       <c r="C13" s="22"/>
@@ -2978,80 +3029,80 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="119" t="s">
+    <row r="14" spans="1:20" ht="18" customHeight="1">
+      <c r="A14" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="117"/>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
-      <c r="Q14" s="117"/>
-      <c r="R14" s="117"/>
-      <c r="S14" s="117"/>
-      <c r="T14" s="117"/>
-    </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="157" t="s">
+      <c r="B14" s="126"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="126"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="126"/>
+      <c r="N14" s="126"/>
+      <c r="O14" s="126"/>
+      <c r="P14" s="126"/>
+      <c r="Q14" s="126"/>
+      <c r="R14" s="126"/>
+      <c r="S14" s="126"/>
+      <c r="T14" s="126"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" customHeight="1">
+      <c r="A15" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
-      <c r="Q15" s="117"/>
-      <c r="R15" s="117"/>
-      <c r="S15" s="117"/>
-      <c r="T15" s="117"/>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="157" t="s">
+      <c r="B15" s="126"/>
+      <c r="C15" s="126"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="126"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="126"/>
+      <c r="N15" s="126"/>
+      <c r="O15" s="126"/>
+      <c r="P15" s="126"/>
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="126"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1">
+      <c r="A16" s="166" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
-      <c r="Q16" s="117"/>
-      <c r="R16" s="117"/>
-      <c r="S16" s="117"/>
-      <c r="T16" s="117"/>
-    </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="126"/>
+      <c r="C16" s="126"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="126"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="126"/>
+      <c r="L16" s="126"/>
+      <c r="M16" s="126"/>
+      <c r="N16" s="126"/>
+      <c r="O16" s="126"/>
+      <c r="P16" s="126"/>
+      <c r="Q16" s="126"/>
+      <c r="R16" s="126"/>
+      <c r="S16" s="126"/>
+      <c r="T16" s="126"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" customHeight="1"/>
+    <row r="18" spans="1:20" ht="14.1" customHeight="1">
       <c r="A18" s="22"/>
       <c r="B18" s="22"/>
       <c r="C18" s="22"/>
@@ -3072,7 +3123,7 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
     </row>
-    <row r="19" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:20" ht="15.95" customHeight="1">
       <c r="A19" s="14" t="s">
         <v>8</v>
       </c>
@@ -3097,7 +3148,7 @@
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
     </row>
-    <row r="20" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:20" ht="15.95" customHeight="1">
       <c r="A20" s="14"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -3120,7 +3171,7 @@
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
     </row>
-    <row r="21" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:20" ht="15.95" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -3143,7 +3194,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
     </row>
-    <row r="22" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:20" ht="15.95" customHeight="1">
       <c r="A22" s="14"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -3164,7 +3215,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
     </row>
-    <row r="23" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:20" ht="15.95" customHeight="1">
       <c r="A23" s="14"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3185,7 +3236,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
     </row>
-    <row r="24" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:20" ht="15.95" customHeight="1">
       <c r="A24" s="14" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3261,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
     </row>
-    <row r="25" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:20" ht="15.95" customHeight="1">
       <c r="A25" s="14"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -3231,7 +3282,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
     </row>
-    <row r="26" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:20" ht="15.95" customHeight="1">
       <c r="A26" s="14" t="s">
         <v>102</v>
       </c>
@@ -3256,7 +3307,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
     </row>
-    <row r="27" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:20" ht="15.95" customHeight="1">
       <c r="A27" s="14"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -3277,7 +3328,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
     </row>
-    <row r="28" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:20" ht="15.75" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>10</v>
       </c>
@@ -3299,11 +3350,11 @@
       <c r="P28" s="13"/>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
-      <c r="T28" s="161" t="s">
+      <c r="T28" s="170" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:20" ht="15.95" customHeight="1">
       <c r="A29" s="14"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -3322,9 +3373,9 @@
       <c r="P29" s="13"/>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
-      <c r="T29" s="117"/>
-    </row>
-    <row r="30" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T29" s="126"/>
+    </row>
+    <row r="30" spans="1:20" ht="15.95" customHeight="1">
       <c r="A30" s="14" t="s">
         <v>13</v>
       </c>
@@ -3347,9 +3398,9 @@
       <c r="P30" s="13"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
-      <c r="T30" s="117"/>
-    </row>
-    <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T30" s="126"/>
+    </row>
+    <row r="31" spans="1:20" ht="15.75" customHeight="1">
       <c r="A31" s="14" t="s">
         <v>14</v>
       </c>
@@ -3372,9 +3423,9 @@
       <c r="P31" s="13"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
-      <c r="T31" s="117"/>
-    </row>
-    <row r="32" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T31" s="126"/>
+    </row>
+    <row r="32" spans="1:20" ht="15.95" customHeight="1">
       <c r="A32" s="14" t="s">
         <v>15</v>
       </c>
@@ -3397,9 +3448,9 @@
       <c r="P32" s="13"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
-      <c r="T32" s="117"/>
-    </row>
-    <row r="33" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T32" s="126"/>
+    </row>
+    <row r="33" spans="1:20" ht="15.95" customHeight="1">
       <c r="A33" s="14"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -3418,9 +3469,9 @@
       <c r="P33" s="13"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="117"/>
-    </row>
-    <row r="34" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T33" s="126"/>
+    </row>
+    <row r="34" spans="1:20" ht="15.95" customHeight="1">
       <c r="A34" s="13" t="s">
         <v>16</v>
       </c>
@@ -3443,9 +3494,9 @@
       <c r="P34" s="13"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
-      <c r="T34" s="117"/>
-    </row>
-    <row r="35" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T34" s="126"/>
+    </row>
+    <row r="35" spans="1:20" ht="15.95" customHeight="1">
       <c r="A35" s="14" t="s">
         <v>18</v>
       </c>
@@ -3468,9 +3519,9 @@
       <c r="P35" s="13"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
-      <c r="T35" s="117"/>
-    </row>
-    <row r="36" spans="1:20" ht="13" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T35" s="126"/>
+    </row>
+    <row r="36" spans="1:20" ht="12.95" customHeight="1">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -3489,9 +3540,9 @@
       <c r="P36" s="13"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
-      <c r="T36" s="117"/>
-    </row>
-    <row r="37" spans="1:20" ht="27" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T36" s="126"/>
+    </row>
+    <row r="37" spans="1:20" ht="27" hidden="1" customHeight="1">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -3511,9 +3562,9 @@
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
-      <c r="T37" s="117"/>
-    </row>
-    <row r="38" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T37" s="126"/>
+    </row>
+    <row r="38" spans="1:20" ht="15.95" customHeight="1">
       <c r="A38" s="13" t="s">
         <v>20</v>
       </c>
@@ -3533,14 +3584,14 @@
       <c r="N38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="O38" s="159"/>
-      <c r="P38" s="160"/>
-      <c r="Q38" s="160"/>
-      <c r="R38" s="160"/>
+      <c r="O38" s="168"/>
+      <c r="P38" s="169"/>
+      <c r="Q38" s="169"/>
+      <c r="R38" s="169"/>
       <c r="S38" s="22"/>
-      <c r="T38" s="117"/>
-    </row>
-    <row r="39" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T38" s="126"/>
+    </row>
+    <row r="39" spans="1:20" ht="15.95" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -3560,9 +3611,9 @@
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
-      <c r="T39" s="117"/>
-    </row>
-    <row r="40" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T39" s="126"/>
+    </row>
+    <row r="40" spans="1:20" ht="15.95" customHeight="1">
       <c r="A40" s="5" t="s">
         <v>23</v>
       </c>
@@ -3584,9 +3635,9 @@
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
-      <c r="T40" s="117"/>
-    </row>
-    <row r="41" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T40" s="126"/>
+    </row>
+    <row r="41" spans="1:20" ht="15.95" customHeight="1">
       <c r="A41" s="13" t="s">
         <v>24</v>
       </c>
@@ -3609,7 +3660,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" ht="14.1" customHeight="1">
       <c r="A42" s="22"/>
       <c r="B42" s="22"/>
       <c r="C42" s="22"/>
@@ -3630,21 +3681,21 @@
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="45" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="15" customHeight="1">
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="1:20" ht="10" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="9.9499999999999993" customHeight="1"/>
+    <row r="47" spans="1:20" ht="8.1" customHeight="1">
       <c r="N47" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="8.1" customHeight="1">
       <c r="N48" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="8.1" customHeight="1">
       <c r="E49" s="9" t="s">
         <v>27</v>
       </c>
@@ -3652,7 +3703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="8.1" customHeight="1">
       <c r="E50" s="9" t="s">
         <v>29</v>
       </c>
@@ -3660,7 +3711,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="8.1" customHeight="1">
       <c r="C51" s="9"/>
       <c r="E51" s="9" t="s">
         <v>31</v>
@@ -3669,7 +3720,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="8.1" customHeight="1">
       <c r="E52" s="9" t="s">
         <v>33</v>
       </c>
@@ -3677,7 +3728,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="13.5" customHeight="1">
       <c r="E53" s="10" t="s">
         <v>35</v>
       </c>
@@ -3685,7 +3736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -3707,7 +3758,7 @@
       <c r="S55" s="44"/>
       <c r="T55" s="44"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -3729,7 +3780,7 @@
       <c r="S56" s="44"/>
       <c r="T56" s="44"/>
     </row>
-    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="15.75">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -3748,62 +3799,83 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
     </row>
-    <row r="58" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:20" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A59" s="45" t="s">
+    <row r="58" spans="1:20" s="43" customFormat="1">
+      <c r="A58" s="51"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="53"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="51"/>
+      <c r="H58" s="51"/>
+      <c r="I58" s="51"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="53"/>
+    </row>
+    <row r="59" spans="1:20" s="43" customFormat="1">
+      <c r="A59" s="59" t="s">
         <v>175</v>
       </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="46"/>
-      <c r="D59" s="46"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="47"/>
-      <c r="G59" s="47"/>
-      <c r="H59" s="47"/>
-      <c r="I59" s="48" t="s">
+      <c r="B59" s="54"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="55"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="J59" s="46"/>
-      <c r="K59" s="47"/>
-      <c r="L59" s="47"/>
-      <c r="M59" s="47"/>
-      <c r="N59" s="49" t="s">
+      <c r="J59" s="54"/>
+      <c r="K59" s="55"/>
+      <c r="L59" s="61"/>
+      <c r="M59" s="61"/>
+      <c r="N59" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="O59" s="50"/>
-      <c r="P59" s="51"/>
-      <c r="Q59" s="50"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="50" t="s">
+      <c r="O59" s="57"/>
+      <c r="P59" s="58"/>
+      <c r="Q59" s="57"/>
+      <c r="R59" s="63"/>
+      <c r="S59" s="63"/>
+      <c r="T59" s="57" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="156" t="s">
+    <row r="60" spans="1:20" ht="15.95" customHeight="1">
+      <c r="A60" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="117"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="117"/>
-      <c r="I60" s="117"/>
-      <c r="J60" s="117"/>
-      <c r="K60" s="117"/>
-      <c r="L60" s="117"/>
-      <c r="M60" s="117"/>
-      <c r="N60" s="117"/>
-      <c r="O60" s="117"/>
-      <c r="P60" s="117"/>
-      <c r="Q60" s="117"/>
-      <c r="R60" s="117"/>
-      <c r="S60" s="117"/>
-      <c r="T60" s="117"/>
-    </row>
-    <row r="61" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B60" s="126"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="126"/>
+      <c r="I60" s="126"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
+      <c r="M60" s="126"/>
+      <c r="N60" s="126"/>
+      <c r="O60" s="126"/>
+      <c r="P60" s="126"/>
+      <c r="Q60" s="126"/>
+      <c r="R60" s="126"/>
+      <c r="S60" s="126"/>
+      <c r="T60" s="126"/>
+    </row>
+    <row r="61" spans="1:20" ht="15.95" customHeight="1">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -3822,7 +3894,7 @@
       <c r="P61" s="12"/>
       <c r="Q61" s="12"/>
     </row>
-    <row r="62" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:20" ht="15.95" customHeight="1">
       <c r="A62" s="14" t="s">
         <v>40</v>
       </c>
@@ -3843,7 +3915,7 @@
       <c r="P62" s="12"/>
       <c r="Q62" s="12"/>
     </row>
-    <row r="63" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:20" ht="15.95" customHeight="1">
       <c r="A63" s="24" t="s">
         <v>41</v>
       </c>
@@ -3866,7 +3938,7 @@
       <c r="P63" s="12"/>
       <c r="Q63" s="12"/>
     </row>
-    <row r="64" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="15.95" customHeight="1">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -3885,7 +3957,7 @@
       <c r="P64" s="12"/>
       <c r="Q64" s="12"/>
     </row>
-    <row r="65" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="15.95" customHeight="1">
       <c r="A65" s="15" t="s">
         <v>43</v>
       </c>
@@ -3906,33 +3978,33 @@
       <c r="P65" s="12"/>
       <c r="Q65" s="12"/>
     </row>
-    <row r="66" spans="1:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="48.75" customHeight="1">
       <c r="A66" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B66" s="162" t="s">
+      <c r="B66" s="171" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="117"/>
-      <c r="D66" s="117"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="117"/>
-      <c r="H66" s="117"/>
-      <c r="I66" s="117"/>
-      <c r="J66" s="117"/>
-      <c r="K66" s="117"/>
-      <c r="L66" s="117"/>
-      <c r="M66" s="117"/>
-      <c r="N66" s="117"/>
-      <c r="O66" s="117"/>
-      <c r="P66" s="117"/>
-      <c r="Q66" s="117"/>
-      <c r="R66" s="117"/>
-      <c r="S66" s="117"/>
-      <c r="T66" s="117"/>
-    </row>
-    <row r="67" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="126"/>
+      <c r="D66" s="126"/>
+      <c r="E66" s="126"/>
+      <c r="F66" s="126"/>
+      <c r="G66" s="126"/>
+      <c r="H66" s="126"/>
+      <c r="I66" s="126"/>
+      <c r="J66" s="126"/>
+      <c r="K66" s="126"/>
+      <c r="L66" s="126"/>
+      <c r="M66" s="126"/>
+      <c r="N66" s="126"/>
+      <c r="O66" s="126"/>
+      <c r="P66" s="126"/>
+      <c r="Q66" s="126"/>
+      <c r="R66" s="126"/>
+      <c r="S66" s="126"/>
+      <c r="T66" s="126"/>
+    </row>
+    <row r="67" spans="1:20" ht="15.95" customHeight="1">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -3951,7 +4023,7 @@
       <c r="P67" s="12"/>
       <c r="Q67" s="12"/>
     </row>
-    <row r="68" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="15.95" customHeight="1">
       <c r="A68" s="19" t="s">
         <v>45</v>
       </c>
@@ -3972,118 +4044,118 @@
       <c r="P68" s="12"/>
       <c r="Q68" s="12"/>
     </row>
-    <row r="69" spans="1:20" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="65.25" customHeight="1">
       <c r="A69" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B69" s="116" t="s">
+      <c r="B69" s="125" t="s">
         <v>46</v>
       </c>
-      <c r="C69" s="117"/>
-      <c r="D69" s="117"/>
-      <c r="E69" s="117"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="117"/>
-      <c r="H69" s="117"/>
-      <c r="I69" s="117"/>
-      <c r="J69" s="117"/>
-      <c r="K69" s="117"/>
-      <c r="L69" s="117"/>
-      <c r="M69" s="117"/>
-      <c r="N69" s="117"/>
-      <c r="O69" s="117"/>
-      <c r="P69" s="117"/>
-      <c r="Q69" s="117"/>
-      <c r="R69" s="117"/>
-      <c r="S69" s="117"/>
-      <c r="T69" s="117"/>
-    </row>
-    <row r="70" spans="1:20" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
+      <c r="G69" s="126"/>
+      <c r="H69" s="126"/>
+      <c r="I69" s="126"/>
+      <c r="J69" s="126"/>
+      <c r="K69" s="126"/>
+      <c r="L69" s="126"/>
+      <c r="M69" s="126"/>
+      <c r="N69" s="126"/>
+      <c r="O69" s="126"/>
+      <c r="P69" s="126"/>
+      <c r="Q69" s="126"/>
+      <c r="R69" s="126"/>
+      <c r="S69" s="126"/>
+      <c r="T69" s="126"/>
+    </row>
+    <row r="70" spans="1:20" ht="33" customHeight="1">
       <c r="A70" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B70" s="116" t="s">
+      <c r="B70" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="C70" s="117"/>
-      <c r="D70" s="117"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="117"/>
-      <c r="H70" s="117"/>
-      <c r="I70" s="117"/>
-      <c r="J70" s="117"/>
-      <c r="K70" s="117"/>
-      <c r="L70" s="117"/>
-      <c r="M70" s="117"/>
-      <c r="N70" s="117"/>
-      <c r="O70" s="117"/>
-      <c r="P70" s="117"/>
-      <c r="Q70" s="117"/>
-      <c r="R70" s="117"/>
-      <c r="S70" s="117"/>
-      <c r="T70" s="117"/>
-    </row>
-    <row r="72" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="126"/>
+      <c r="D70" s="126"/>
+      <c r="E70" s="126"/>
+      <c r="F70" s="126"/>
+      <c r="G70" s="126"/>
+      <c r="H70" s="126"/>
+      <c r="I70" s="126"/>
+      <c r="J70" s="126"/>
+      <c r="K70" s="126"/>
+      <c r="L70" s="126"/>
+      <c r="M70" s="126"/>
+      <c r="N70" s="126"/>
+      <c r="O70" s="126"/>
+      <c r="P70" s="126"/>
+      <c r="Q70" s="126"/>
+      <c r="R70" s="126"/>
+      <c r="S70" s="126"/>
+      <c r="T70" s="126"/>
+    </row>
+    <row r="72" spans="1:20" ht="15.95" customHeight="1">
       <c r="A72" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="73" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="15.95" customHeight="1">
       <c r="A73" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B73" s="162" t="s">
+      <c r="B73" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="C73" s="117"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="117"/>
-      <c r="K73" s="117"/>
-      <c r="L73" s="117"/>
-      <c r="M73" s="117"/>
-      <c r="N73" s="117"/>
-      <c r="O73" s="117"/>
-      <c r="P73" s="117"/>
-      <c r="Q73" s="117"/>
-    </row>
-    <row r="74" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="126"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
+      <c r="G73" s="126"/>
+      <c r="H73" s="126"/>
+      <c r="I73" s="126"/>
+      <c r="J73" s="126"/>
+      <c r="K73" s="126"/>
+      <c r="L73" s="126"/>
+      <c r="M73" s="126"/>
+      <c r="N73" s="126"/>
+      <c r="O73" s="126"/>
+      <c r="P73" s="126"/>
+      <c r="Q73" s="126"/>
+    </row>
+    <row r="74" spans="1:20" ht="15.95" customHeight="1">
       <c r="A74" s="15"/>
     </row>
-    <row r="75" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="15.95" customHeight="1">
       <c r="A75" s="15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="15.95" customHeight="1">
       <c r="A76" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B76" s="162" t="s">
+      <c r="B76" s="171" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="117"/>
-      <c r="D76" s="117"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="117"/>
-      <c r="H76" s="117"/>
-      <c r="I76" s="117"/>
-      <c r="J76" s="117"/>
-      <c r="K76" s="117"/>
-      <c r="L76" s="117"/>
-      <c r="M76" s="117"/>
-      <c r="N76" s="117"/>
-      <c r="O76" s="117"/>
-      <c r="P76" s="117"/>
-      <c r="Q76" s="117"/>
-    </row>
-    <row r="77" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="G76" s="126"/>
+      <c r="H76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
+      <c r="K76" s="126"/>
+      <c r="L76" s="126"/>
+      <c r="M76" s="126"/>
+      <c r="N76" s="126"/>
+      <c r="O76" s="126"/>
+      <c r="P76" s="126"/>
+      <c r="Q76" s="126"/>
+    </row>
+    <row r="77" spans="1:20" ht="15.95" customHeight="1">
       <c r="A77" s="24"/>
       <c r="B77" s="30"/>
       <c r="C77" s="30"/>
@@ -4102,7 +4174,7 @@
       <c r="P77" s="30"/>
       <c r="Q77" s="30"/>
     </row>
-    <row r="78" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="15.95" customHeight="1">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -4121,7 +4193,7 @@
       <c r="P78" s="15"/>
       <c r="Q78" s="15"/>
     </row>
-    <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="15" customHeight="1">
       <c r="A79" s="29" t="s">
         <v>51</v>
       </c>
@@ -4142,33 +4214,33 @@
       <c r="P79" s="15"/>
       <c r="Q79" s="15"/>
     </row>
-    <row r="80" spans="1:20" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="43.5" customHeight="1">
       <c r="A80" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="158" t="s">
+      <c r="B80" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="C80" s="117"/>
-      <c r="D80" s="117"/>
-      <c r="E80" s="117"/>
-      <c r="F80" s="117"/>
-      <c r="G80" s="117"/>
-      <c r="H80" s="117"/>
-      <c r="I80" s="117"/>
-      <c r="J80" s="117"/>
-      <c r="K80" s="117"/>
-      <c r="L80" s="117"/>
-      <c r="M80" s="117"/>
-      <c r="N80" s="117"/>
-      <c r="O80" s="117"/>
-      <c r="P80" s="117"/>
-      <c r="Q80" s="117"/>
-      <c r="R80" s="117"/>
-      <c r="S80" s="117"/>
-      <c r="T80" s="117"/>
-    </row>
-    <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="126"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="126"/>
+      <c r="J80" s="126"/>
+      <c r="K80" s="126"/>
+      <c r="L80" s="126"/>
+      <c r="M80" s="126"/>
+      <c r="N80" s="126"/>
+      <c r="O80" s="126"/>
+      <c r="P80" s="126"/>
+      <c r="Q80" s="126"/>
+      <c r="R80" s="126"/>
+      <c r="S80" s="126"/>
+      <c r="T80" s="126"/>
+    </row>
+    <row r="81" spans="1:20" ht="15" customHeight="1">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -4187,7 +4259,7 @@
       <c r="P81" s="15"/>
       <c r="Q81" s="15"/>
     </row>
-    <row r="82" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="15.95" customHeight="1">
       <c r="A82" s="15" t="s">
         <v>53</v>
       </c>
@@ -4208,33 +4280,33 @@
       <c r="P82" s="15"/>
       <c r="Q82" s="15"/>
     </row>
-    <row r="83" spans="1:20" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" ht="63.95" customHeight="1" thickBot="1">
       <c r="A83" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="116" t="s">
+      <c r="B83" s="125" t="s">
         <v>55</v>
       </c>
-      <c r="C83" s="117"/>
-      <c r="D83" s="117"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="117"/>
-      <c r="G83" s="117"/>
-      <c r="H83" s="117"/>
-      <c r="I83" s="117"/>
-      <c r="J83" s="117"/>
-      <c r="K83" s="117"/>
-      <c r="L83" s="117"/>
-      <c r="M83" s="117"/>
-      <c r="N83" s="117"/>
-      <c r="O83" s="117"/>
-      <c r="P83" s="117"/>
-      <c r="Q83" s="117"/>
-      <c r="R83" s="117"/>
-      <c r="S83" s="117"/>
-      <c r="T83" s="117"/>
-    </row>
-    <row r="84" spans="1:20" ht="17.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C83" s="126"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="126"/>
+      <c r="G83" s="126"/>
+      <c r="H83" s="126"/>
+      <c r="I83" s="126"/>
+      <c r="J83" s="126"/>
+      <c r="K83" s="126"/>
+      <c r="L83" s="126"/>
+      <c r="M83" s="126"/>
+      <c r="N83" s="126"/>
+      <c r="O83" s="126"/>
+      <c r="P83" s="126"/>
+      <c r="Q83" s="126"/>
+      <c r="R83" s="126"/>
+      <c r="S83" s="126"/>
+      <c r="T83" s="126"/>
+    </row>
+    <row r="84" spans="1:20" ht="17.100000000000001" customHeight="1" thickBot="1">
       <c r="A84" s="15"/>
       <c r="B84" s="15"/>
       <c r="C84" s="15"/>
@@ -4253,82 +4325,98 @@
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
     </row>
-    <row r="85" spans="1:20" ht="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:20" ht="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:20" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:20" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:21" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:21" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:21" s="31" customFormat="1" ht="11.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="0.95" customHeight="1"/>
+    <row r="87" spans="1:20" ht="0.95" customHeight="1"/>
+    <row r="88" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="89" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="90" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="91" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="92" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="93" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="94" spans="1:20" ht="17.100000000000001" customHeight="1"/>
+    <row r="96" spans="1:20" s="41" customFormat="1"/>
+    <row r="97" spans="1:21" s="41" customFormat="1"/>
+    <row r="98" spans="1:21" s="41" customFormat="1"/>
+    <row r="99" spans="1:21" s="41" customFormat="1"/>
+    <row r="100" spans="1:21" ht="14.1" customHeight="1"/>
+    <row r="101" spans="1:21" s="31" customFormat="1" ht="11.1" customHeight="1"/>
+    <row r="102" spans="1:21">
+      <c r="B102" s="52"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="52"/>
+      <c r="P102" s="52"/>
+      <c r="Q102" s="52"/>
+      <c r="T102" s="52"/>
       <c r="U102" s="31"/>
     </row>
-    <row r="103" spans="1:21" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A103" s="52" t="str">
+    <row r="103" spans="1:21" s="43" customFormat="1">
+      <c r="A103" s="64" t="str">
         <f>A59</f>
         <v>Calibration No: CAL00003</v>
       </c>
-      <c r="B103" s="52"/>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="53" t="str">
+      <c r="B103" s="46"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="46"/>
+      <c r="E103" s="46"/>
+      <c r="F103" s="46"/>
+      <c r="G103" s="46"/>
+      <c r="H103" s="46"/>
+      <c r="I103" s="47" t="str">
         <f>I59</f>
         <v>Report Date: 7 July 2021</v>
       </c>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="52"/>
-      <c r="M103" s="52"/>
-      <c r="N103" s="52" t="s">
+      <c r="J103" s="46"/>
+      <c r="K103" s="46"/>
+      <c r="L103" s="46"/>
+      <c r="M103" s="46"/>
+      <c r="N103" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O103" s="54"/>
-      <c r="P103" s="55"/>
-      <c r="Q103" s="54"/>
-      <c r="R103" s="54"/>
-      <c r="S103" s="54"/>
-      <c r="T103" s="54" t="s">
+      <c r="O103" s="65"/>
+      <c r="P103" s="49"/>
+      <c r="Q103" s="48"/>
+      <c r="R103" s="65"/>
+      <c r="S103" s="65"/>
+      <c r="T103" s="48" t="s">
         <v>56</v>
       </c>
       <c r="U103" s="31"/>
     </row>
-    <row r="109" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="119" t="s">
+    <row r="109" spans="1:21" ht="31.5" customHeight="1">
+      <c r="A109" s="128" t="s">
         <v>57</v>
       </c>
-      <c r="B109" s="117"/>
-      <c r="C109" s="117"/>
-      <c r="D109" s="117"/>
-      <c r="E109" s="117"/>
-      <c r="F109" s="117"/>
-      <c r="G109" s="117"/>
-      <c r="H109" s="117"/>
-      <c r="I109" s="117"/>
-      <c r="J109" s="117"/>
-      <c r="K109" s="117"/>
-      <c r="L109" s="117"/>
-      <c r="M109" s="117"/>
-      <c r="N109" s="117"/>
-      <c r="O109" s="117"/>
-      <c r="P109" s="117"/>
-      <c r="Q109" s="117"/>
-      <c r="R109" s="117"/>
-      <c r="S109" s="117"/>
-      <c r="T109" s="117"/>
-    </row>
-    <row r="110" spans="1:21" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="126"/>
+      <c r="C109" s="126"/>
+      <c r="D109" s="126"/>
+      <c r="E109" s="126"/>
+      <c r="F109" s="126"/>
+      <c r="G109" s="126"/>
+      <c r="H109" s="126"/>
+      <c r="I109" s="126"/>
+      <c r="J109" s="126"/>
+      <c r="K109" s="126"/>
+      <c r="L109" s="126"/>
+      <c r="M109" s="126"/>
+      <c r="N109" s="126"/>
+      <c r="O109" s="126"/>
+      <c r="P109" s="126"/>
+      <c r="Q109" s="126"/>
+      <c r="R109" s="126"/>
+      <c r="S109" s="126"/>
+      <c r="T109" s="126"/>
+    </row>
+    <row r="110" spans="1:21" ht="14.1" customHeight="1">
       <c r="A110" s="22"/>
       <c r="B110" s="22"/>
       <c r="C110" s="22"/>
@@ -4347,7 +4435,7 @@
       <c r="P110" s="22"/>
       <c r="Q110" s="22"/>
     </row>
-    <row r="111" spans="1:21" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A111" s="27" t="s">
         <v>8</v>
       </c>
@@ -4369,7 +4457,7 @@
       <c r="P111" s="21"/>
       <c r="Q111" s="21"/>
     </row>
-    <row r="112" spans="1:21" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:21" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A112" s="27" t="s">
         <v>9</v>
       </c>
@@ -4391,7 +4479,7 @@
       <c r="P112" s="21"/>
       <c r="Q112" s="21"/>
     </row>
-    <row r="113" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A113" s="22" t="s">
         <v>58</v>
       </c>
@@ -4399,7 +4487,7 @@
       <c r="C113" s="22"/>
       <c r="D113" s="22"/>
       <c r="E113" s="22"/>
-      <c r="G113" s="62" t="s">
+      <c r="G113" s="50" t="s">
         <v>180</v>
       </c>
       <c r="H113" s="32"/>
@@ -4413,7 +4501,7 @@
       <c r="P113" s="21"/>
       <c r="Q113" s="21"/>
     </row>
-    <row r="114" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A114" s="22" t="s">
         <v>59</v>
       </c>
@@ -4435,7 +4523,7 @@
       <c r="P114" s="21"/>
       <c r="Q114" s="21"/>
     </row>
-    <row r="115" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A115" s="22" t="s">
         <v>60</v>
       </c>
@@ -4457,7 +4545,7 @@
       <c r="P115" s="21"/>
       <c r="Q115" s="21"/>
     </row>
-    <row r="116" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A116" s="22" t="s">
         <v>61</v>
       </c>
@@ -4479,7 +4567,7 @@
       <c r="P116" s="21"/>
       <c r="Q116" s="21"/>
     </row>
-    <row r="117" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A117" s="22"/>
       <c r="B117" s="22"/>
       <c r="C117" s="22"/>
@@ -4499,7 +4587,7 @@
       <c r="P117" s="21"/>
       <c r="Q117" s="21"/>
     </row>
-    <row r="118" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A118" s="22"/>
       <c r="B118" s="22"/>
       <c r="C118" s="22"/>
@@ -4519,7 +4607,7 @@
       <c r="P118" s="21"/>
       <c r="Q118" s="21"/>
     </row>
-    <row r="119" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A119" s="22"/>
       <c r="B119" s="22"/>
       <c r="C119" s="22"/>
@@ -4539,7 +4627,7 @@
       <c r="P119" s="21"/>
       <c r="Q119" s="21"/>
     </row>
-    <row r="120" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A120" s="22"/>
       <c r="B120" s="22"/>
       <c r="C120" s="22"/>
@@ -4559,7 +4647,7 @@
       <c r="P120" s="21"/>
       <c r="Q120" s="21"/>
     </row>
-    <row r="121" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A121" s="22" t="s">
         <v>67</v>
       </c>
@@ -4581,7 +4669,7 @@
       <c r="P121" s="21"/>
       <c r="Q121" s="21"/>
     </row>
-    <row r="122" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A122" s="22" t="s">
         <v>69</v>
       </c>
@@ -4602,7 +4690,7 @@
       <c r="P122" s="21"/>
       <c r="Q122" s="21"/>
     </row>
-    <row r="123" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A123" s="22" t="s">
         <v>71</v>
       </c>
@@ -4623,7 +4711,7 @@
       <c r="P123" s="21"/>
       <c r="Q123" s="21"/>
     </row>
-    <row r="124" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A124" s="22" t="s">
         <v>72</v>
       </c>
@@ -4644,7 +4732,7 @@
       <c r="P124" s="21"/>
       <c r="Q124" s="21"/>
     </row>
-    <row r="125" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20" s="24" customFormat="1" ht="18" customHeight="1">
       <c r="A125" s="22" t="s">
         <v>73</v>
       </c>
@@ -4665,7 +4753,7 @@
       <c r="P125" s="21"/>
       <c r="Q125" s="21"/>
     </row>
-    <row r="126" spans="1:20" s="24" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" s="24" customFormat="1" ht="9.9499999999999993" customHeight="1">
       <c r="A126" s="21"/>
       <c r="B126" s="21"/>
       <c r="C126" s="21"/>
@@ -4684,7 +4772,7 @@
       <c r="P126" s="21"/>
       <c r="Q126" s="21"/>
     </row>
-    <row r="127" spans="1:20" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" ht="15.95" customHeight="1">
       <c r="A127" s="22"/>
       <c r="B127" s="22"/>
       <c r="C127" s="22"/>
@@ -4705,529 +4793,529 @@
       <c r="P127" s="22"/>
       <c r="Q127" s="22"/>
     </row>
-    <row r="128" spans="1:20" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="118" t="s">
+    <row r="128" spans="1:20" ht="59.25" customHeight="1">
+      <c r="A128" s="127" t="s">
         <v>75</v>
       </c>
-      <c r="B128" s="67"/>
-      <c r="C128" s="118" t="s">
+      <c r="B128" s="76"/>
+      <c r="C128" s="127" t="s">
         <v>76</v>
       </c>
-      <c r="D128" s="67"/>
-      <c r="E128" s="118" t="s">
+      <c r="D128" s="76"/>
+      <c r="E128" s="127" t="s">
         <v>77</v>
       </c>
-      <c r="F128" s="67"/>
-      <c r="G128" s="118" t="s">
+      <c r="F128" s="76"/>
+      <c r="G128" s="127" t="s">
         <v>78</v>
       </c>
-      <c r="H128" s="67"/>
-      <c r="I128" s="118" t="s">
+      <c r="H128" s="76"/>
+      <c r="I128" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="J128" s="67"/>
-      <c r="K128" s="118" t="s">
+      <c r="J128" s="76"/>
+      <c r="K128" s="127" t="s">
         <v>79</v>
       </c>
-      <c r="L128" s="67"/>
-      <c r="M128" s="118" t="s">
+      <c r="L128" s="76"/>
+      <c r="M128" s="127" t="s">
         <v>80</v>
       </c>
-      <c r="N128" s="67"/>
-      <c r="O128" s="118" t="s">
+      <c r="N128" s="76"/>
+      <c r="O128" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="P128" s="67"/>
-      <c r="Q128" s="120" t="s">
+      <c r="P128" s="76"/>
+      <c r="Q128" s="129" t="s">
         <v>182</v>
       </c>
-      <c r="R128" s="67"/>
-      <c r="S128" s="118" t="s">
+      <c r="R128" s="76"/>
+      <c r="S128" s="127" t="s">
         <v>82</v>
       </c>
-      <c r="T128" s="67"/>
-    </row>
-    <row r="129" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="65"/>
-      <c r="B129" s="64"/>
-      <c r="C129" s="63" t="s">
+      <c r="T128" s="76"/>
+    </row>
+    <row r="129" spans="1:20" ht="30" customHeight="1">
+      <c r="A129" s="74"/>
+      <c r="B129" s="73"/>
+      <c r="C129" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="D129" s="64"/>
-      <c r="E129" s="63" t="s">
+      <c r="D129" s="73"/>
+      <c r="E129" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F129" s="64"/>
-      <c r="G129" s="63" t="s">
+      <c r="F129" s="73"/>
+      <c r="G129" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H129" s="64"/>
-      <c r="I129" s="63" t="s">
+      <c r="H129" s="73"/>
+      <c r="I129" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="J129" s="64"/>
-      <c r="K129" s="63" t="s">
+      <c r="J129" s="73"/>
+      <c r="K129" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L129" s="64"/>
-      <c r="M129" s="63" t="s">
+      <c r="L129" s="73"/>
+      <c r="M129" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="N129" s="64"/>
-      <c r="O129" s="63" t="s">
+      <c r="N129" s="73"/>
+      <c r="O129" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="P129" s="64"/>
-      <c r="Q129" s="63" t="s">
+      <c r="P129" s="73"/>
+      <c r="Q129" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="R129" s="64"/>
-      <c r="S129" s="63" t="s">
+      <c r="R129" s="73"/>
+      <c r="S129" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="T129" s="64"/>
-    </row>
-    <row r="130" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="121" t="s">
+      <c r="T129" s="73"/>
+    </row>
+    <row r="130" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A130" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="B130" s="67"/>
-      <c r="C130" s="121">
+      <c r="B130" s="76"/>
+      <c r="C130" s="130">
         <v>50</v>
       </c>
-      <c r="D130" s="67"/>
-      <c r="E130" s="122">
+      <c r="D130" s="76"/>
+      <c r="E130" s="131">
         <v>4</v>
       </c>
-      <c r="F130" s="67"/>
-      <c r="G130" s="121"/>
-      <c r="H130" s="67"/>
-      <c r="I130" s="123">
+      <c r="F130" s="76"/>
+      <c r="G130" s="130"/>
+      <c r="H130" s="76"/>
+      <c r="I130" s="132">
         <v>2.39</v>
       </c>
-      <c r="J130" s="67"/>
-      <c r="K130" s="66">
+      <c r="J130" s="76"/>
+      <c r="K130" s="75">
         <v>0.08</v>
       </c>
-      <c r="L130" s="67"/>
-      <c r="M130" s="68">
+      <c r="L130" s="76"/>
+      <c r="M130" s="77">
         <v>29.93</v>
       </c>
-      <c r="N130" s="67"/>
-      <c r="O130" s="68">
+      <c r="N130" s="76"/>
+      <c r="O130" s="77">
         <v>0.4</v>
       </c>
-      <c r="P130" s="67"/>
-      <c r="Q130" s="69">
+      <c r="P130" s="76"/>
+      <c r="Q130" s="78">
         <v>43.09</v>
       </c>
-      <c r="R130" s="70"/>
-      <c r="S130" s="122">
+      <c r="R130" s="79"/>
+      <c r="S130" s="131">
         <v>1.4</v>
       </c>
-      <c r="T130" s="67"/>
-    </row>
-    <row r="131" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="126" t="s">
+      <c r="T130" s="76"/>
+    </row>
+    <row r="131" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A131" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="B131" s="72"/>
-      <c r="C131" s="126">
+      <c r="B131" s="81"/>
+      <c r="C131" s="135">
         <v>70</v>
       </c>
-      <c r="D131" s="72"/>
-      <c r="E131" s="124">
+      <c r="D131" s="81"/>
+      <c r="E131" s="133">
         <v>4</v>
       </c>
-      <c r="F131" s="72"/>
-      <c r="G131" s="126"/>
-      <c r="H131" s="72"/>
-      <c r="I131" s="129">
+      <c r="F131" s="81"/>
+      <c r="G131" s="135"/>
+      <c r="H131" s="81"/>
+      <c r="I131" s="138">
         <v>3.19</v>
       </c>
-      <c r="J131" s="72"/>
-      <c r="K131" s="130">
+      <c r="J131" s="81"/>
+      <c r="K131" s="139">
         <v>0.11</v>
       </c>
-      <c r="L131" s="72"/>
-      <c r="M131" s="131">
+      <c r="L131" s="81"/>
+      <c r="M131" s="140">
         <v>34.270000000000003</v>
       </c>
-      <c r="N131" s="72"/>
-      <c r="O131" s="131">
+      <c r="N131" s="81"/>
+      <c r="O131" s="140">
         <v>0.8</v>
       </c>
-      <c r="P131" s="72"/>
-      <c r="Q131" s="132">
+      <c r="P131" s="81"/>
+      <c r="Q131" s="141">
         <v>42.83</v>
       </c>
-      <c r="R131" s="79"/>
-      <c r="S131" s="124">
+      <c r="R131" s="88"/>
+      <c r="S131" s="133">
         <v>1.4</v>
       </c>
-      <c r="T131" s="72"/>
-    </row>
-    <row r="132" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="127" t="s">
+      <c r="T131" s="81"/>
+    </row>
+    <row r="132" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A132" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="B132" s="72"/>
-      <c r="C132" s="127">
+      <c r="B132" s="81"/>
+      <c r="C132" s="136">
         <v>100</v>
       </c>
-      <c r="D132" s="72"/>
-      <c r="E132" s="125">
+      <c r="D132" s="81"/>
+      <c r="E132" s="134">
         <v>4.5</v>
       </c>
-      <c r="F132" s="72"/>
-      <c r="G132" s="127"/>
-      <c r="H132" s="72"/>
-      <c r="I132" s="133">
+      <c r="F132" s="81"/>
+      <c r="G132" s="136"/>
+      <c r="H132" s="81"/>
+      <c r="I132" s="142">
         <v>4.74</v>
       </c>
-      <c r="J132" s="72"/>
-      <c r="K132" s="134">
+      <c r="J132" s="81"/>
+      <c r="K132" s="143">
         <v>0.18</v>
       </c>
-      <c r="L132" s="72"/>
-      <c r="M132" s="135">
+      <c r="L132" s="81"/>
+      <c r="M132" s="144">
         <v>41.59</v>
       </c>
-      <c r="N132" s="72"/>
-      <c r="O132" s="135">
+      <c r="N132" s="81"/>
+      <c r="O132" s="144">
         <v>1.6</v>
       </c>
-      <c r="P132" s="72"/>
-      <c r="Q132" s="132">
+      <c r="P132" s="81"/>
+      <c r="Q132" s="141">
         <v>42.51</v>
       </c>
-      <c r="R132" s="79"/>
-      <c r="S132" s="125">
+      <c r="R132" s="88"/>
+      <c r="S132" s="134">
         <v>1.4</v>
       </c>
-      <c r="T132" s="72"/>
-    </row>
-    <row r="133" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="126" t="s">
+      <c r="T132" s="81"/>
+    </row>
+    <row r="133" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A133" s="135" t="s">
         <v>107</v>
       </c>
-      <c r="B133" s="72"/>
-      <c r="C133" s="126">
+      <c r="B133" s="81"/>
+      <c r="C133" s="135">
         <v>120</v>
       </c>
-      <c r="D133" s="72"/>
-      <c r="E133" s="124">
+      <c r="D133" s="81"/>
+      <c r="E133" s="133">
         <v>6</v>
       </c>
-      <c r="F133" s="72"/>
-      <c r="G133" s="126"/>
-      <c r="H133" s="72"/>
-      <c r="I133" s="129">
+      <c r="F133" s="81"/>
+      <c r="G133" s="135"/>
+      <c r="H133" s="81"/>
+      <c r="I133" s="138">
         <v>6.38</v>
       </c>
-      <c r="J133" s="72"/>
-      <c r="K133" s="130">
+      <c r="J133" s="81"/>
+      <c r="K133" s="139">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L133" s="72"/>
-      <c r="M133" s="131">
+      <c r="L133" s="81"/>
+      <c r="M133" s="140">
         <v>48.95</v>
       </c>
-      <c r="N133" s="72"/>
-      <c r="O133" s="131">
+      <c r="N133" s="81"/>
+      <c r="O133" s="140">
         <v>1.8</v>
       </c>
-      <c r="P133" s="72"/>
-      <c r="Q133" s="132">
+      <c r="P133" s="81"/>
+      <c r="Q133" s="141">
         <v>42.17</v>
       </c>
-      <c r="R133" s="79"/>
-      <c r="S133" s="124">
+      <c r="R133" s="88"/>
+      <c r="S133" s="133">
         <v>1.4</v>
       </c>
-      <c r="T133" s="72"/>
-    </row>
-    <row r="134" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="127" t="s">
+      <c r="T133" s="81"/>
+    </row>
+    <row r="134" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A134" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="72"/>
-      <c r="C134" s="127">
+      <c r="B134" s="81"/>
+      <c r="C134" s="136">
         <v>140</v>
       </c>
-      <c r="D134" s="72"/>
-      <c r="E134" s="125">
+      <c r="D134" s="81"/>
+      <c r="E134" s="134">
         <v>9</v>
       </c>
-      <c r="F134" s="72"/>
-      <c r="G134" s="127"/>
-      <c r="H134" s="72"/>
-      <c r="I134" s="133">
+      <c r="F134" s="81"/>
+      <c r="G134" s="136"/>
+      <c r="H134" s="81"/>
+      <c r="I134" s="142">
         <v>8.44</v>
       </c>
-      <c r="J134" s="72"/>
-      <c r="K134" s="134">
+      <c r="J134" s="81"/>
+      <c r="K134" s="143">
         <v>0.45</v>
       </c>
-      <c r="L134" s="72"/>
-      <c r="M134" s="135">
+      <c r="L134" s="81"/>
+      <c r="M134" s="144">
         <v>58.06</v>
       </c>
-      <c r="N134" s="72"/>
-      <c r="O134" s="135">
+      <c r="N134" s="81"/>
+      <c r="O134" s="144">
         <v>1.8</v>
       </c>
-      <c r="P134" s="72"/>
-      <c r="Q134" s="132">
+      <c r="P134" s="81"/>
+      <c r="Q134" s="141">
         <v>41.94</v>
       </c>
-      <c r="R134" s="79"/>
-      <c r="S134" s="125">
+      <c r="R134" s="88"/>
+      <c r="S134" s="134">
         <v>1.4</v>
       </c>
-      <c r="T134" s="72"/>
-    </row>
-    <row r="135" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="126" t="s">
+      <c r="T134" s="81"/>
+    </row>
+    <row r="135" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A135" s="135" t="s">
         <v>109</v>
       </c>
-      <c r="B135" s="72"/>
-      <c r="C135" s="126">
+      <c r="B135" s="81"/>
+      <c r="C135" s="135">
         <v>150</v>
       </c>
-      <c r="D135" s="72"/>
-      <c r="E135" s="124">
+      <c r="D135" s="81"/>
+      <c r="E135" s="133">
         <v>4</v>
       </c>
-      <c r="F135" s="72"/>
-      <c r="G135" s="124">
+      <c r="F135" s="81"/>
+      <c r="G135" s="133">
         <v>0.5</v>
       </c>
-      <c r="H135" s="72"/>
-      <c r="I135" s="126"/>
-      <c r="J135" s="72"/>
-      <c r="K135" s="130">
+      <c r="H135" s="81"/>
+      <c r="I135" s="135"/>
+      <c r="J135" s="81"/>
+      <c r="K135" s="139">
         <v>0.84</v>
       </c>
-      <c r="L135" s="72"/>
-      <c r="M135" s="131">
+      <c r="L135" s="81"/>
+      <c r="M135" s="140">
         <v>72.150000000000006</v>
       </c>
-      <c r="N135" s="72"/>
-      <c r="O135" s="131">
+      <c r="N135" s="81"/>
+      <c r="O135" s="140">
         <v>1.4</v>
       </c>
-      <c r="P135" s="72"/>
-      <c r="Q135" s="132">
+      <c r="P135" s="81"/>
+      <c r="Q135" s="141">
         <v>41.58</v>
       </c>
-      <c r="R135" s="79"/>
-      <c r="S135" s="124">
+      <c r="R135" s="88"/>
+      <c r="S135" s="133">
         <v>1.4</v>
       </c>
-      <c r="T135" s="72"/>
-    </row>
-    <row r="136" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="127" t="s">
+      <c r="T135" s="81"/>
+    </row>
+    <row r="136" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A136" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="B136" s="72"/>
-      <c r="C136" s="127">
+      <c r="B136" s="81"/>
+      <c r="C136" s="136">
         <v>200</v>
       </c>
-      <c r="D136" s="72"/>
-      <c r="E136" s="125">
+      <c r="D136" s="81"/>
+      <c r="E136" s="134">
         <v>4</v>
       </c>
-      <c r="F136" s="72"/>
-      <c r="G136" s="125">
+      <c r="F136" s="81"/>
+      <c r="G136" s="134">
         <v>1</v>
       </c>
-      <c r="H136" s="72"/>
-      <c r="I136" s="127"/>
-      <c r="J136" s="72"/>
-      <c r="K136" s="134">
+      <c r="H136" s="81"/>
+      <c r="I136" s="136"/>
+      <c r="J136" s="81"/>
+      <c r="K136" s="143">
         <v>1.63</v>
       </c>
-      <c r="L136" s="72"/>
-      <c r="M136" s="135">
+      <c r="L136" s="81"/>
+      <c r="M136" s="144">
         <v>94.74</v>
       </c>
-      <c r="N136" s="72"/>
-      <c r="O136" s="135">
+      <c r="N136" s="81"/>
+      <c r="O136" s="144">
         <v>1.6</v>
       </c>
-      <c r="P136" s="72"/>
-      <c r="Q136" s="132">
+      <c r="P136" s="81"/>
+      <c r="Q136" s="141">
         <v>41.29</v>
       </c>
-      <c r="R136" s="79"/>
-      <c r="S136" s="125">
+      <c r="R136" s="88"/>
+      <c r="S136" s="134">
         <v>1.4</v>
       </c>
-      <c r="T136" s="72"/>
-    </row>
-    <row r="137" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="126" t="s">
+      <c r="T136" s="81"/>
+    </row>
+    <row r="137" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A137" s="135" t="s">
         <v>111</v>
       </c>
-      <c r="B137" s="72"/>
-      <c r="C137" s="126">
+      <c r="B137" s="81"/>
+      <c r="C137" s="135">
         <v>250</v>
       </c>
-      <c r="D137" s="72"/>
-      <c r="E137" s="124">
+      <c r="D137" s="81"/>
+      <c r="E137" s="133">
         <v>4</v>
       </c>
-      <c r="F137" s="72"/>
-      <c r="G137" s="124">
+      <c r="F137" s="81"/>
+      <c r="G137" s="133">
         <v>1.6</v>
       </c>
-      <c r="H137" s="72"/>
-      <c r="I137" s="126"/>
-      <c r="J137" s="72"/>
-      <c r="K137" s="130">
+      <c r="H137" s="81"/>
+      <c r="I137" s="135"/>
+      <c r="J137" s="81"/>
+      <c r="K137" s="139">
         <v>2.57</v>
       </c>
-      <c r="L137" s="72"/>
-      <c r="M137" s="131">
+      <c r="L137" s="81"/>
+      <c r="M137" s="140">
         <v>120.1</v>
       </c>
-      <c r="N137" s="72"/>
-      <c r="O137" s="131">
+      <c r="N137" s="81"/>
+      <c r="O137" s="140">
         <v>1.8</v>
       </c>
-      <c r="P137" s="72"/>
-      <c r="Q137" s="132">
+      <c r="P137" s="81"/>
+      <c r="Q137" s="141">
         <v>41.18</v>
       </c>
-      <c r="R137" s="79"/>
-      <c r="S137" s="124">
+      <c r="R137" s="88"/>
+      <c r="S137" s="133">
         <v>1.4</v>
       </c>
-      <c r="T137" s="72"/>
-    </row>
-    <row r="138" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="127" t="s">
+      <c r="T137" s="81"/>
+    </row>
+    <row r="138" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A138" s="136" t="s">
         <v>112</v>
       </c>
-      <c r="B138" s="72"/>
-      <c r="C138" s="127">
+      <c r="B138" s="81"/>
+      <c r="C138" s="136">
         <v>280</v>
       </c>
-      <c r="D138" s="72"/>
-      <c r="E138" s="125">
+      <c r="D138" s="81"/>
+      <c r="E138" s="134">
         <v>4</v>
       </c>
-      <c r="F138" s="72"/>
-      <c r="G138" s="125">
+      <c r="F138" s="81"/>
+      <c r="G138" s="134">
         <v>3</v>
       </c>
-      <c r="H138" s="72"/>
-      <c r="I138" s="127"/>
-      <c r="J138" s="72"/>
-      <c r="K138" s="134">
+      <c r="H138" s="81"/>
+      <c r="I138" s="136"/>
+      <c r="J138" s="81"/>
+      <c r="K138" s="143">
         <v>3.5</v>
       </c>
-      <c r="L138" s="72"/>
-      <c r="M138" s="135">
+      <c r="L138" s="81"/>
+      <c r="M138" s="144">
         <v>147.05000000000001</v>
       </c>
-      <c r="N138" s="72"/>
-      <c r="O138" s="135">
+      <c r="N138" s="81"/>
+      <c r="O138" s="144">
         <v>1.4</v>
       </c>
-      <c r="P138" s="72"/>
-      <c r="Q138" s="132">
+      <c r="P138" s="81"/>
+      <c r="Q138" s="141">
         <v>41.02</v>
       </c>
-      <c r="R138" s="79"/>
-      <c r="S138" s="125">
+      <c r="R138" s="88"/>
+      <c r="S138" s="134">
         <v>1.4</v>
       </c>
-      <c r="T138" s="72"/>
-    </row>
-    <row r="139" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="136" t="s">
+      <c r="T138" s="81"/>
+    </row>
+    <row r="139" spans="1:20" ht="20.25" customHeight="1">
+      <c r="A139" s="145" t="s">
         <v>113</v>
       </c>
-      <c r="B139" s="81"/>
-      <c r="C139" s="126">
+      <c r="B139" s="90"/>
+      <c r="C139" s="135">
         <v>300</v>
       </c>
-      <c r="D139" s="72"/>
-      <c r="E139" s="124">
+      <c r="D139" s="81"/>
+      <c r="E139" s="133">
         <v>4</v>
       </c>
-      <c r="F139" s="72"/>
-      <c r="G139" s="124">
+      <c r="F139" s="81"/>
+      <c r="G139" s="133">
         <v>3</v>
       </c>
-      <c r="H139" s="72"/>
-      <c r="I139" s="126"/>
-      <c r="J139" s="72"/>
-      <c r="K139" s="130">
+      <c r="H139" s="81"/>
+      <c r="I139" s="135"/>
+      <c r="J139" s="81"/>
+      <c r="K139" s="139">
         <v>3.7</v>
       </c>
-      <c r="L139" s="72"/>
-      <c r="M139" s="131">
+      <c r="L139" s="81"/>
+      <c r="M139" s="140">
         <v>153.21</v>
       </c>
-      <c r="N139" s="72"/>
-      <c r="O139" s="131">
+      <c r="N139" s="81"/>
+      <c r="O139" s="140">
         <v>1.7</v>
       </c>
-      <c r="P139" s="72"/>
-      <c r="Q139" s="132">
+      <c r="P139" s="81"/>
+      <c r="Q139" s="141">
         <v>40.950000000000003</v>
       </c>
-      <c r="R139" s="79"/>
-      <c r="S139" s="124">
+      <c r="R139" s="88"/>
+      <c r="S139" s="133">
         <v>1.4</v>
       </c>
-      <c r="T139" s="72"/>
-    </row>
-    <row r="140" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="140" t="s">
+      <c r="T139" s="81"/>
+    </row>
+    <row r="140" spans="1:20" ht="14.1" customHeight="1">
+      <c r="A140" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="B140" s="108"/>
-      <c r="C140" s="140">
+      <c r="B140" s="117"/>
+      <c r="C140" s="149">
         <v>300</v>
       </c>
-      <c r="D140" s="108"/>
-      <c r="E140" s="137">
+      <c r="D140" s="117"/>
+      <c r="E140" s="146">
         <v>4</v>
       </c>
-      <c r="F140" s="108"/>
-      <c r="G140" s="137">
+      <c r="F140" s="117"/>
+      <c r="G140" s="146">
         <v>3</v>
       </c>
-      <c r="H140" s="108"/>
-      <c r="I140" s="140"/>
-      <c r="J140" s="108"/>
-      <c r="K140" s="141">
+      <c r="H140" s="117"/>
+      <c r="I140" s="149"/>
+      <c r="J140" s="117"/>
+      <c r="K140" s="150">
         <v>3.7</v>
       </c>
-      <c r="L140" s="108"/>
-      <c r="M140" s="142">
+      <c r="L140" s="117"/>
+      <c r="M140" s="151">
         <v>153.21</v>
       </c>
-      <c r="N140" s="108"/>
-      <c r="O140" s="142">
+      <c r="N140" s="117"/>
+      <c r="O140" s="151">
         <v>1.7</v>
       </c>
-      <c r="P140" s="108"/>
-      <c r="Q140" s="143">
+      <c r="P140" s="117"/>
+      <c r="Q140" s="152">
         <v>41.06</v>
       </c>
-      <c r="R140" s="144"/>
-      <c r="S140" s="137">
+      <c r="R140" s="153"/>
+      <c r="S140" s="146">
         <v>1.4</v>
       </c>
-      <c r="T140" s="108"/>
-    </row>
-    <row r="141" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T140" s="117"/>
+    </row>
+    <row r="141" spans="1:20" ht="14.1" customHeight="1">
       <c r="A141" s="22" t="s">
         <v>90</v>
       </c>
@@ -5248,7 +5336,7 @@
       <c r="P141" s="22"/>
       <c r="Q141" s="22"/>
     </row>
-    <row r="142" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20" ht="14.1" customHeight="1">
       <c r="A142" s="22" t="s">
         <v>91</v>
       </c>
@@ -5269,7 +5357,7 @@
       <c r="P142" s="22"/>
       <c r="Q142" s="22"/>
     </row>
-    <row r="143" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20" ht="14.1" customHeight="1">
       <c r="A143" s="22" t="s">
         <v>92</v>
       </c>
@@ -5293,7 +5381,7 @@
       <c r="S143" s="44"/>
       <c r="T143" s="44"/>
     </row>
-    <row r="144" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20" ht="15" customHeight="1">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
@@ -5307,7 +5395,7 @@
       <c r="K144" s="22"/>
       <c r="S144" s="44"/>
     </row>
-    <row r="145" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" ht="15" customHeight="1">
       <c r="L145" s="40" t="s">
         <v>168</v>
       </c>
@@ -5318,43 +5406,51 @@
       <c r="Q145" s="40"/>
       <c r="R145" s="17"/>
     </row>
-    <row r="146" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" ht="14.45" customHeight="1">
+      <c r="A146" s="52"/>
+      <c r="C146" s="52"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="52"/>
+      <c r="H146" s="52"/>
+      <c r="L146" s="52"/>
+      <c r="O146" s="52"/>
+      <c r="P146" s="52"/>
       <c r="U146" s="31"/>
     </row>
-    <row r="147" spans="1:21" s="43" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="52" t="str">
+    <row r="147" spans="1:21" s="43" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A147" s="46" t="str">
         <f>A59</f>
         <v>Calibration No: CAL00003</v>
       </c>
-      <c r="B147" s="52"/>
-      <c r="C147" s="52"/>
-      <c r="D147" s="52"/>
-      <c r="E147" s="52"/>
-      <c r="F147" s="52"/>
-      <c r="G147" s="52"/>
-      <c r="H147" s="52"/>
-      <c r="I147" s="53" t="str">
+      <c r="B147" s="64"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="64"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="46"/>
+      <c r="H147" s="46"/>
+      <c r="I147" s="66" t="str">
         <f>I59</f>
         <v>Report Date: 7 July 2021</v>
       </c>
-      <c r="J147" s="52"/>
-      <c r="K147" s="52"/>
-      <c r="L147" s="52"/>
-      <c r="M147" s="52"/>
-      <c r="N147" s="52" t="s">
+      <c r="J147" s="64"/>
+      <c r="K147" s="64"/>
+      <c r="L147" s="46"/>
+      <c r="M147" s="64"/>
+      <c r="N147" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O147" s="54"/>
-      <c r="P147" s="55"/>
-      <c r="Q147" s="54"/>
-      <c r="R147" s="54"/>
-      <c r="S147" s="54"/>
-      <c r="T147" s="54" t="s">
+      <c r="O147" s="48"/>
+      <c r="P147" s="49"/>
+      <c r="Q147" s="65"/>
+      <c r="R147" s="65"/>
+      <c r="S147" s="65"/>
+      <c r="T147" s="65" t="s">
         <v>93</v>
       </c>
       <c r="U147" s="31"/>
     </row>
-    <row r="148" spans="1:21" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" ht="80.25" customHeight="1">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
@@ -5375,2704 +5471,2719 @@
       <c r="P148" s="22"/>
       <c r="Q148" s="22"/>
     </row>
-    <row r="149" spans="1:21" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="138" t="s">
+    <row r="149" spans="1:21" ht="59.25" customHeight="1">
+      <c r="A149" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="B149" s="67"/>
-      <c r="C149" s="138" t="s">
+      <c r="B149" s="76"/>
+      <c r="C149" s="147" t="s">
         <v>76</v>
       </c>
-      <c r="D149" s="67"/>
-      <c r="E149" s="138" t="s">
+      <c r="D149" s="76"/>
+      <c r="E149" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="F149" s="67"/>
-      <c r="G149" s="138" t="s">
+      <c r="F149" s="76"/>
+      <c r="G149" s="147" t="s">
         <v>77</v>
       </c>
-      <c r="H149" s="67"/>
-      <c r="I149" s="138" t="s">
+      <c r="H149" s="76"/>
+      <c r="I149" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="J149" s="67"/>
-      <c r="K149" s="138" t="s">
+      <c r="J149" s="76"/>
+      <c r="K149" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="L149" s="67"/>
-      <c r="M149" s="138" t="s">
+      <c r="L149" s="76"/>
+      <c r="M149" s="147" t="s">
         <v>80</v>
       </c>
-      <c r="N149" s="67"/>
-      <c r="O149" s="138" t="s">
+      <c r="N149" s="76"/>
+      <c r="O149" s="147" t="s">
         <v>81</v>
       </c>
-      <c r="P149" s="67"/>
-      <c r="Q149" s="139" t="s">
+      <c r="P149" s="76"/>
+      <c r="Q149" s="148" t="s">
         <v>183</v>
       </c>
-      <c r="R149" s="67"/>
-      <c r="S149" s="138" t="s">
+      <c r="R149" s="76"/>
+      <c r="S149" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="T149" s="67"/>
-    </row>
-    <row r="150" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="65"/>
-      <c r="B150" s="64"/>
-      <c r="C150" s="63" t="s">
+      <c r="T149" s="76"/>
+    </row>
+    <row r="150" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A150" s="74"/>
+      <c r="B150" s="73"/>
+      <c r="C150" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="D150" s="64"/>
-      <c r="E150" s="63" t="s">
+      <c r="D150" s="73"/>
+      <c r="E150" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F150" s="64"/>
-      <c r="G150" s="63" t="s">
+      <c r="F150" s="73"/>
+      <c r="G150" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H150" s="64"/>
-      <c r="I150" s="63" t="s">
+      <c r="H150" s="73"/>
+      <c r="I150" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="J150" s="64"/>
-      <c r="K150" s="63" t="s">
+      <c r="J150" s="73"/>
+      <c r="K150" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L150" s="64"/>
-      <c r="M150" s="63" t="s">
+      <c r="L150" s="73"/>
+      <c r="M150" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="N150" s="64"/>
-      <c r="O150" s="63" t="s">
+      <c r="N150" s="73"/>
+      <c r="O150" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="P150" s="64"/>
-      <c r="Q150" s="63" t="s">
+      <c r="P150" s="73"/>
+      <c r="Q150" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="R150" s="64"/>
-      <c r="S150" s="63" t="s">
+      <c r="R150" s="73"/>
+      <c r="S150" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="T150" s="64"/>
-    </row>
-    <row r="151" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="85" t="s">
+      <c r="T150" s="73"/>
+    </row>
+    <row r="151" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A151" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="B151" s="67"/>
-      <c r="C151" s="85">
+      <c r="B151" s="76"/>
+      <c r="C151" s="94">
         <v>40</v>
       </c>
-      <c r="D151" s="67"/>
-      <c r="E151" s="86">
+      <c r="D151" s="76"/>
+      <c r="E151" s="95">
         <v>0.5</v>
       </c>
-      <c r="F151" s="67"/>
-      <c r="G151" s="86"/>
-      <c r="H151" s="67"/>
-      <c r="I151" s="87">
+      <c r="F151" s="76"/>
+      <c r="G151" s="95"/>
+      <c r="H151" s="76"/>
+      <c r="I151" s="96">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J151" s="67"/>
-      <c r="K151" s="88"/>
-      <c r="L151" s="67"/>
-      <c r="M151" s="100">
+      <c r="J151" s="76"/>
+      <c r="K151" s="97"/>
+      <c r="L151" s="76"/>
+      <c r="M151" s="109">
         <v>17.96</v>
       </c>
-      <c r="N151" s="67"/>
-      <c r="O151" s="101">
+      <c r="N151" s="76"/>
+      <c r="O151" s="110">
         <v>1.8</v>
       </c>
-      <c r="P151" s="67"/>
-      <c r="Q151" s="110">
+      <c r="P151" s="76"/>
+      <c r="Q151" s="119">
         <v>45.8</v>
       </c>
-      <c r="R151" s="70"/>
-      <c r="S151" s="86">
+      <c r="R151" s="79"/>
+      <c r="S151" s="95">
         <v>1.4</v>
       </c>
-      <c r="T151" s="67"/>
-    </row>
-    <row r="152" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="98" t="s">
+      <c r="T151" s="76"/>
+    </row>
+    <row r="152" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A152" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="B152" s="72"/>
-      <c r="C152" s="98">
+      <c r="B152" s="81"/>
+      <c r="C152" s="100">
         <v>40</v>
       </c>
-      <c r="D152" s="72"/>
-      <c r="E152" s="96">
+      <c r="D152" s="81"/>
+      <c r="E152" s="106">
         <v>1</v>
       </c>
-      <c r="F152" s="72"/>
-      <c r="G152" s="96"/>
-      <c r="H152" s="72"/>
-      <c r="I152" s="99">
+      <c r="F152" s="81"/>
+      <c r="G152" s="106"/>
+      <c r="H152" s="81"/>
+      <c r="I152" s="108">
         <v>0.93</v>
       </c>
-      <c r="J152" s="72"/>
-      <c r="K152" s="97"/>
-      <c r="L152" s="72"/>
-      <c r="M152" s="103">
+      <c r="J152" s="81"/>
+      <c r="K152" s="107"/>
+      <c r="L152" s="81"/>
+      <c r="M152" s="112">
         <v>20.93</v>
       </c>
-      <c r="N152" s="72"/>
-      <c r="O152" s="104">
+      <c r="N152" s="81"/>
+      <c r="O152" s="113">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P152" s="72"/>
-      <c r="Q152" s="78">
+      <c r="P152" s="81"/>
+      <c r="Q152" s="87">
         <v>44.5</v>
       </c>
-      <c r="R152" s="79"/>
-      <c r="S152" s="96">
+      <c r="R152" s="88"/>
+      <c r="S152" s="106">
         <v>1.4</v>
       </c>
-      <c r="T152" s="72"/>
-    </row>
-    <row r="153" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="91" t="s">
+      <c r="T152" s="81"/>
+    </row>
+    <row r="153" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A153" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="B153" s="81"/>
-      <c r="C153" s="91">
+      <c r="B153" s="90"/>
+      <c r="C153" s="101">
         <v>40</v>
       </c>
-      <c r="D153" s="81"/>
-      <c r="E153" s="92">
+      <c r="D153" s="90"/>
+      <c r="E153" s="102">
         <v>4</v>
       </c>
-      <c r="F153" s="81"/>
-      <c r="G153" s="92"/>
-      <c r="H153" s="81"/>
-      <c r="I153" s="93">
+      <c r="F153" s="90"/>
+      <c r="G153" s="102"/>
+      <c r="H153" s="90"/>
+      <c r="I153" s="103">
         <v>1.9</v>
       </c>
-      <c r="J153" s="81"/>
-      <c r="K153" s="94">
+      <c r="J153" s="90"/>
+      <c r="K153" s="104">
         <v>0.06</v>
       </c>
-      <c r="L153" s="81"/>
-      <c r="M153" s="95">
+      <c r="L153" s="90"/>
+      <c r="M153" s="105">
         <v>27.07</v>
       </c>
-      <c r="N153" s="81"/>
-      <c r="O153" s="115">
+      <c r="N153" s="90"/>
+      <c r="O153" s="124">
         <v>0.2</v>
       </c>
-      <c r="P153" s="81"/>
-      <c r="Q153" s="113">
+      <c r="P153" s="90"/>
+      <c r="Q153" s="122">
         <v>43.25</v>
       </c>
-      <c r="R153" s="114"/>
-      <c r="S153" s="92">
+      <c r="R153" s="123"/>
+      <c r="S153" s="102">
         <v>1.4</v>
       </c>
-      <c r="T153" s="81"/>
-    </row>
-    <row r="154" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="105" t="s">
+      <c r="T153" s="90"/>
+    </row>
+    <row r="154" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A154" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="B154" s="67"/>
-      <c r="C154" s="105">
+      <c r="B154" s="76"/>
+      <c r="C154" s="114">
         <v>50</v>
       </c>
-      <c r="D154" s="67"/>
-      <c r="E154" s="106">
+      <c r="D154" s="76"/>
+      <c r="E154" s="115">
         <v>0.5</v>
       </c>
-      <c r="F154" s="67"/>
-      <c r="G154" s="106"/>
-      <c r="H154" s="67"/>
-      <c r="I154" s="102">
+      <c r="F154" s="76"/>
+      <c r="G154" s="115"/>
+      <c r="H154" s="76"/>
+      <c r="I154" s="111">
         <v>0.68</v>
       </c>
-      <c r="J154" s="67"/>
-      <c r="K154" s="128"/>
-      <c r="L154" s="67"/>
-      <c r="M154" s="89">
+      <c r="J154" s="76"/>
+      <c r="K154" s="137"/>
+      <c r="L154" s="76"/>
+      <c r="M154" s="98">
         <v>19.5</v>
       </c>
-      <c r="N154" s="67"/>
-      <c r="O154" s="90">
+      <c r="N154" s="76"/>
+      <c r="O154" s="99">
         <v>2.7</v>
       </c>
-      <c r="P154" s="67"/>
-      <c r="Q154" s="110">
+      <c r="P154" s="76"/>
+      <c r="Q154" s="119">
         <v>45.31</v>
       </c>
-      <c r="R154" s="70"/>
-      <c r="S154" s="106">
+      <c r="R154" s="79"/>
+      <c r="S154" s="115">
         <v>1.4</v>
       </c>
-      <c r="T154" s="67"/>
-    </row>
-    <row r="155" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="71" t="s">
+      <c r="T154" s="76"/>
+    </row>
+    <row r="155" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A155" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="B155" s="72"/>
-      <c r="C155" s="71">
+      <c r="B155" s="81"/>
+      <c r="C155" s="80">
         <v>50</v>
       </c>
-      <c r="D155" s="72"/>
-      <c r="E155" s="73">
+      <c r="D155" s="81"/>
+      <c r="E155" s="82">
         <v>1</v>
       </c>
-      <c r="F155" s="72"/>
-      <c r="G155" s="73"/>
-      <c r="H155" s="72"/>
-      <c r="I155" s="74">
+      <c r="F155" s="81"/>
+      <c r="G155" s="82"/>
+      <c r="H155" s="81"/>
+      <c r="I155" s="83">
         <v>1.1200000000000001</v>
       </c>
-      <c r="J155" s="72"/>
-      <c r="K155" s="75"/>
-      <c r="L155" s="72"/>
-      <c r="M155" s="76">
+      <c r="J155" s="81"/>
+      <c r="K155" s="84"/>
+      <c r="L155" s="81"/>
+      <c r="M155" s="85">
         <v>22.65</v>
       </c>
-      <c r="N155" s="72"/>
-      <c r="O155" s="77">
+      <c r="N155" s="81"/>
+      <c r="O155" s="86">
         <v>1.6</v>
       </c>
-      <c r="P155" s="72"/>
-      <c r="Q155" s="78">
+      <c r="P155" s="81"/>
+      <c r="Q155" s="87">
         <v>44.2</v>
       </c>
-      <c r="R155" s="79"/>
-      <c r="S155" s="73">
+      <c r="R155" s="88"/>
+      <c r="S155" s="82">
         <v>1.4</v>
       </c>
-      <c r="T155" s="72"/>
-    </row>
-    <row r="156" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="98" t="s">
+      <c r="T155" s="81"/>
+    </row>
+    <row r="156" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A156" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="B156" s="72"/>
-      <c r="C156" s="98">
+      <c r="B156" s="81"/>
+      <c r="C156" s="100">
         <v>50</v>
       </c>
-      <c r="D156" s="72"/>
-      <c r="E156" s="96">
+      <c r="D156" s="81"/>
+      <c r="E156" s="106">
         <v>4</v>
       </c>
-      <c r="F156" s="72"/>
-      <c r="G156" s="96"/>
-      <c r="H156" s="72"/>
-      <c r="I156" s="99">
+      <c r="F156" s="81"/>
+      <c r="G156" s="106"/>
+      <c r="H156" s="81"/>
+      <c r="I156" s="108">
         <v>2.39</v>
       </c>
-      <c r="J156" s="72"/>
-      <c r="K156" s="97">
+      <c r="J156" s="81"/>
+      <c r="K156" s="107">
         <v>0.08</v>
       </c>
-      <c r="L156" s="72"/>
-      <c r="M156" s="103">
+      <c r="L156" s="81"/>
+      <c r="M156" s="112">
         <v>29.93</v>
       </c>
-      <c r="N156" s="72"/>
-      <c r="O156" s="104">
+      <c r="N156" s="81"/>
+      <c r="O156" s="113">
         <v>0.4</v>
       </c>
-      <c r="P156" s="72"/>
-      <c r="Q156" s="78">
+      <c r="P156" s="81"/>
+      <c r="Q156" s="87">
         <v>43.09</v>
       </c>
-      <c r="R156" s="79"/>
-      <c r="S156" s="96">
+      <c r="R156" s="88"/>
+      <c r="S156" s="106">
         <v>1.4</v>
       </c>
-      <c r="T156" s="72"/>
-    </row>
-    <row r="157" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="91" t="s">
+      <c r="T156" s="81"/>
+    </row>
+    <row r="157" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A157" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="B157" s="81"/>
-      <c r="C157" s="91">
+      <c r="B157" s="90"/>
+      <c r="C157" s="101">
         <v>50</v>
       </c>
-      <c r="D157" s="81"/>
-      <c r="E157" s="92">
+      <c r="D157" s="90"/>
+      <c r="E157" s="102">
         <v>4.5</v>
       </c>
-      <c r="F157" s="81"/>
-      <c r="G157" s="92"/>
-      <c r="H157" s="81"/>
-      <c r="I157" s="93">
+      <c r="F157" s="90"/>
+      <c r="G157" s="102"/>
+      <c r="H157" s="90"/>
+      <c r="I157" s="103">
         <v>2.5299999999999998</v>
       </c>
-      <c r="J157" s="81"/>
-      <c r="K157" s="94">
+      <c r="J157" s="90"/>
+      <c r="K157" s="104">
         <v>0.08</v>
       </c>
-      <c r="L157" s="81"/>
-      <c r="M157" s="95">
+      <c r="L157" s="90"/>
+      <c r="M157" s="105">
         <v>30.62</v>
       </c>
-      <c r="N157" s="81"/>
-      <c r="O157" s="115">
+      <c r="N157" s="90"/>
+      <c r="O157" s="124">
         <v>0.3</v>
       </c>
-      <c r="P157" s="81"/>
-      <c r="Q157" s="113">
+      <c r="P157" s="90"/>
+      <c r="Q157" s="122">
         <v>43.12</v>
       </c>
-      <c r="R157" s="114"/>
-      <c r="S157" s="92">
+      <c r="R157" s="123"/>
+      <c r="S157" s="102">
         <v>1.4</v>
       </c>
-      <c r="T157" s="81"/>
-    </row>
-    <row r="158" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="105" t="s">
+      <c r="T157" s="90"/>
+    </row>
+    <row r="158" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A158" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="B158" s="67"/>
-      <c r="C158" s="105">
+      <c r="B158" s="76"/>
+      <c r="C158" s="114">
         <v>60</v>
       </c>
-      <c r="D158" s="67"/>
-      <c r="E158" s="106">
+      <c r="D158" s="76"/>
+      <c r="E158" s="115">
         <v>0.5</v>
       </c>
-      <c r="F158" s="67"/>
-      <c r="G158" s="106"/>
-      <c r="H158" s="67"/>
-      <c r="I158" s="102">
+      <c r="F158" s="76"/>
+      <c r="G158" s="115"/>
+      <c r="H158" s="76"/>
+      <c r="I158" s="111">
         <v>0.79</v>
       </c>
-      <c r="J158" s="67"/>
-      <c r="K158" s="128"/>
-      <c r="L158" s="67"/>
-      <c r="M158" s="89">
+      <c r="J158" s="76"/>
+      <c r="K158" s="137"/>
+      <c r="L158" s="76"/>
+      <c r="M158" s="98">
         <v>20.86</v>
       </c>
-      <c r="N158" s="67"/>
-      <c r="O158" s="90">
+      <c r="N158" s="76"/>
+      <c r="O158" s="99">
         <v>3.5</v>
       </c>
-      <c r="P158" s="67"/>
-      <c r="Q158" s="110">
+      <c r="P158" s="76"/>
+      <c r="Q158" s="119">
         <v>44.97</v>
       </c>
-      <c r="R158" s="70"/>
-      <c r="S158" s="106">
+      <c r="R158" s="79"/>
+      <c r="S158" s="115">
         <v>1.4</v>
       </c>
-      <c r="T158" s="67"/>
-    </row>
-    <row r="159" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="71" t="s">
+      <c r="T158" s="76"/>
+    </row>
+    <row r="159" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A159" s="80" t="s">
         <v>122</v>
       </c>
-      <c r="B159" s="72"/>
-      <c r="C159" s="71">
+      <c r="B159" s="81"/>
+      <c r="C159" s="80">
         <v>60</v>
       </c>
-      <c r="D159" s="72"/>
-      <c r="E159" s="73">
+      <c r="D159" s="81"/>
+      <c r="E159" s="82">
         <v>1</v>
       </c>
-      <c r="F159" s="72"/>
-      <c r="G159" s="73"/>
-      <c r="H159" s="72"/>
-      <c r="I159" s="74">
+      <c r="F159" s="81"/>
+      <c r="G159" s="82"/>
+      <c r="H159" s="81"/>
+      <c r="I159" s="83">
         <v>1.29</v>
       </c>
-      <c r="J159" s="72"/>
-      <c r="K159" s="75"/>
-      <c r="L159" s="72"/>
-      <c r="M159" s="76">
+      <c r="J159" s="81"/>
+      <c r="K159" s="84"/>
+      <c r="L159" s="81"/>
+      <c r="M159" s="85">
         <v>24.09</v>
       </c>
-      <c r="N159" s="72"/>
-      <c r="O159" s="77">
+      <c r="N159" s="81"/>
+      <c r="O159" s="86">
         <v>2.1</v>
       </c>
-      <c r="P159" s="72"/>
-      <c r="Q159" s="78">
+      <c r="P159" s="81"/>
+      <c r="Q159" s="87">
         <v>43.94</v>
       </c>
-      <c r="R159" s="79"/>
-      <c r="S159" s="73">
+      <c r="R159" s="88"/>
+      <c r="S159" s="82">
         <v>1.4</v>
       </c>
-      <c r="T159" s="72"/>
-    </row>
-    <row r="160" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="80" t="s">
+      <c r="T159" s="81"/>
+    </row>
+    <row r="160" spans="1:21" ht="14.25" customHeight="1">
+      <c r="A160" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="B160" s="81"/>
-      <c r="C160" s="80">
+      <c r="B160" s="90"/>
+      <c r="C160" s="89">
         <v>60</v>
       </c>
-      <c r="D160" s="81"/>
-      <c r="E160" s="82">
+      <c r="D160" s="90"/>
+      <c r="E160" s="91">
         <v>4</v>
       </c>
-      <c r="F160" s="81"/>
-      <c r="G160" s="82"/>
-      <c r="H160" s="81"/>
-      <c r="I160" s="83">
+      <c r="F160" s="90"/>
+      <c r="G160" s="91"/>
+      <c r="H160" s="90"/>
+      <c r="I160" s="92">
         <v>2.81</v>
       </c>
-      <c r="J160" s="81"/>
-      <c r="K160" s="84">
+      <c r="J160" s="90"/>
+      <c r="K160" s="93">
         <v>0.1</v>
       </c>
-      <c r="L160" s="81"/>
-      <c r="M160" s="111">
+      <c r="L160" s="90"/>
+      <c r="M160" s="120">
         <v>32.25</v>
       </c>
-      <c r="N160" s="81"/>
-      <c r="O160" s="112">
+      <c r="N160" s="90"/>
+      <c r="O160" s="121">
         <v>0.6</v>
       </c>
-      <c r="P160" s="81"/>
-      <c r="Q160" s="113">
+      <c r="P160" s="90"/>
+      <c r="Q160" s="122">
         <v>42.92</v>
       </c>
-      <c r="R160" s="114"/>
-      <c r="S160" s="82">
+      <c r="R160" s="123"/>
+      <c r="S160" s="91">
         <v>1.4</v>
       </c>
-      <c r="T160" s="81"/>
-    </row>
-    <row r="161" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="85" t="s">
+      <c r="T160" s="90"/>
+    </row>
+    <row r="161" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A161" s="94" t="s">
         <v>124</v>
       </c>
-      <c r="B161" s="67"/>
-      <c r="C161" s="85">
+      <c r="B161" s="76"/>
+      <c r="C161" s="94">
         <v>70</v>
       </c>
-      <c r="D161" s="67"/>
-      <c r="E161" s="86">
+      <c r="D161" s="76"/>
+      <c r="E161" s="95">
         <v>0.5</v>
       </c>
-      <c r="F161" s="67"/>
-      <c r="G161" s="86"/>
-      <c r="H161" s="67"/>
-      <c r="I161" s="87">
+      <c r="F161" s="76"/>
+      <c r="G161" s="95"/>
+      <c r="H161" s="76"/>
+      <c r="I161" s="96">
         <v>0.9</v>
       </c>
-      <c r="J161" s="67"/>
-      <c r="K161" s="88"/>
-      <c r="L161" s="67"/>
-      <c r="M161" s="100">
+      <c r="J161" s="76"/>
+      <c r="K161" s="97"/>
+      <c r="L161" s="76"/>
+      <c r="M161" s="109">
         <v>22.15</v>
       </c>
-      <c r="N161" s="67"/>
-      <c r="O161" s="101">
+      <c r="N161" s="76"/>
+      <c r="O161" s="110">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P161" s="67"/>
-      <c r="Q161" s="110">
+      <c r="P161" s="76"/>
+      <c r="Q161" s="119">
         <v>44.68</v>
       </c>
-      <c r="R161" s="70"/>
-      <c r="S161" s="86">
+      <c r="R161" s="79"/>
+      <c r="S161" s="95">
         <v>1.4</v>
       </c>
-      <c r="T161" s="67"/>
-    </row>
-    <row r="162" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="98" t="s">
+      <c r="T161" s="76"/>
+    </row>
+    <row r="162" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A162" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="B162" s="72"/>
-      <c r="C162" s="98">
+      <c r="B162" s="81"/>
+      <c r="C162" s="100">
         <v>70</v>
       </c>
-      <c r="D162" s="72"/>
-      <c r="E162" s="96">
+      <c r="D162" s="81"/>
+      <c r="E162" s="106">
         <v>1</v>
       </c>
-      <c r="F162" s="72"/>
-      <c r="G162" s="96"/>
-      <c r="H162" s="72"/>
-      <c r="I162" s="99">
+      <c r="F162" s="81"/>
+      <c r="G162" s="106"/>
+      <c r="H162" s="81"/>
+      <c r="I162" s="108">
         <v>1.46</v>
       </c>
-      <c r="J162" s="72"/>
-      <c r="K162" s="97"/>
-      <c r="L162" s="72"/>
-      <c r="M162" s="103">
+      <c r="J162" s="81"/>
+      <c r="K162" s="107"/>
+      <c r="L162" s="81"/>
+      <c r="M162" s="112">
         <v>25.44</v>
       </c>
-      <c r="N162" s="72"/>
-      <c r="O162" s="104">
+      <c r="N162" s="81"/>
+      <c r="O162" s="113">
         <v>2.6</v>
       </c>
-      <c r="P162" s="72"/>
-      <c r="Q162" s="78">
+      <c r="P162" s="81"/>
+      <c r="Q162" s="87">
         <v>43.72</v>
       </c>
-      <c r="R162" s="79"/>
-      <c r="S162" s="96">
+      <c r="R162" s="88"/>
+      <c r="S162" s="106">
         <v>1.4</v>
       </c>
-      <c r="T162" s="72"/>
-    </row>
-    <row r="163" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="71" t="s">
+      <c r="T162" s="81"/>
+    </row>
+    <row r="163" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A163" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="B163" s="72"/>
-      <c r="C163" s="71">
+      <c r="B163" s="81"/>
+      <c r="C163" s="80">
         <v>70</v>
       </c>
-      <c r="D163" s="72"/>
-      <c r="E163" s="73">
+      <c r="D163" s="81"/>
+      <c r="E163" s="82">
         <v>4</v>
       </c>
-      <c r="F163" s="72"/>
-      <c r="G163" s="73"/>
-      <c r="H163" s="72"/>
-      <c r="I163" s="74">
+      <c r="F163" s="81"/>
+      <c r="G163" s="82"/>
+      <c r="H163" s="81"/>
+      <c r="I163" s="83">
         <v>3.19</v>
       </c>
-      <c r="J163" s="72"/>
-      <c r="K163" s="75">
+      <c r="J163" s="81"/>
+      <c r="K163" s="84">
         <v>0.11</v>
       </c>
-      <c r="L163" s="72"/>
-      <c r="M163" s="76">
+      <c r="L163" s="81"/>
+      <c r="M163" s="85">
         <v>34.270000000000003</v>
       </c>
-      <c r="N163" s="72"/>
-      <c r="O163" s="77">
+      <c r="N163" s="81"/>
+      <c r="O163" s="86">
         <v>0.8</v>
       </c>
-      <c r="P163" s="72"/>
-      <c r="Q163" s="78">
+      <c r="P163" s="81"/>
+      <c r="Q163" s="87">
         <v>42.83</v>
       </c>
-      <c r="R163" s="79"/>
-      <c r="S163" s="73">
+      <c r="R163" s="88"/>
+      <c r="S163" s="82">
         <v>1.4</v>
       </c>
-      <c r="T163" s="72"/>
-    </row>
-    <row r="164" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="98" t="s">
+      <c r="T163" s="81"/>
+    </row>
+    <row r="164" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A164" s="100" t="s">
         <v>126</v>
       </c>
-      <c r="B164" s="72"/>
-      <c r="C164" s="98">
+      <c r="B164" s="81"/>
+      <c r="C164" s="100">
         <v>70</v>
       </c>
-      <c r="D164" s="72"/>
-      <c r="E164" s="96">
+      <c r="D164" s="81"/>
+      <c r="E164" s="106">
         <v>4.5</v>
       </c>
-      <c r="F164" s="72"/>
-      <c r="G164" s="96"/>
-      <c r="H164" s="72"/>
-      <c r="I164" s="99">
+      <c r="F164" s="81"/>
+      <c r="G164" s="106"/>
+      <c r="H164" s="81"/>
+      <c r="I164" s="108">
         <v>3.39</v>
       </c>
-      <c r="J164" s="72"/>
-      <c r="K164" s="97">
+      <c r="J164" s="81"/>
+      <c r="K164" s="107">
         <v>0.12</v>
       </c>
-      <c r="L164" s="72"/>
-      <c r="M164" s="103">
+      <c r="L164" s="81"/>
+      <c r="M164" s="112">
         <v>35.19</v>
       </c>
-      <c r="N164" s="72"/>
-      <c r="O164" s="104">
+      <c r="N164" s="81"/>
+      <c r="O164" s="113">
         <v>0.7</v>
       </c>
-      <c r="P164" s="72"/>
-      <c r="Q164" s="78">
+      <c r="P164" s="81"/>
+      <c r="Q164" s="87">
         <v>42.81</v>
       </c>
-      <c r="R164" s="79"/>
-      <c r="S164" s="96">
+      <c r="R164" s="88"/>
+      <c r="S164" s="106">
         <v>1.4</v>
       </c>
-      <c r="T164" s="72"/>
-    </row>
-    <row r="165" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="71" t="s">
+      <c r="T164" s="81"/>
+    </row>
+    <row r="165" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A165" s="80" t="s">
         <v>127</v>
       </c>
-      <c r="B165" s="72"/>
-      <c r="C165" s="71">
+      <c r="B165" s="81"/>
+      <c r="C165" s="80">
         <v>70</v>
       </c>
-      <c r="D165" s="72"/>
-      <c r="E165" s="73">
+      <c r="D165" s="81"/>
+      <c r="E165" s="82">
         <v>6</v>
       </c>
-      <c r="F165" s="72"/>
-      <c r="G165" s="73"/>
-      <c r="H165" s="72"/>
-      <c r="I165" s="74">
+      <c r="F165" s="81"/>
+      <c r="G165" s="82"/>
+      <c r="H165" s="81"/>
+      <c r="I165" s="83">
         <v>3.95</v>
       </c>
-      <c r="J165" s="72"/>
-      <c r="K165" s="75">
+      <c r="J165" s="81"/>
+      <c r="K165" s="84">
         <v>0.14000000000000001</v>
       </c>
-      <c r="L165" s="72"/>
-      <c r="M165" s="76">
+      <c r="L165" s="81"/>
+      <c r="M165" s="85">
         <v>37.51</v>
       </c>
-      <c r="N165" s="72"/>
-      <c r="O165" s="77">
+      <c r="N165" s="81"/>
+      <c r="O165" s="86">
         <v>0.5</v>
       </c>
-      <c r="P165" s="72"/>
-      <c r="Q165" s="78">
+      <c r="P165" s="81"/>
+      <c r="Q165" s="87">
         <v>42.68</v>
       </c>
-      <c r="R165" s="79"/>
-      <c r="S165" s="73">
+      <c r="R165" s="88"/>
+      <c r="S165" s="82">
         <v>1.4</v>
       </c>
-      <c r="T165" s="72"/>
-    </row>
-    <row r="166" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="105" t="s">
+      <c r="T165" s="81"/>
+    </row>
+    <row r="166" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A166" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="B166" s="67"/>
-      <c r="C166" s="105">
+      <c r="B166" s="76"/>
+      <c r="C166" s="114">
         <v>80</v>
       </c>
-      <c r="D166" s="67"/>
-      <c r="E166" s="106">
+      <c r="D166" s="76"/>
+      <c r="E166" s="115">
         <v>0.5</v>
       </c>
-      <c r="F166" s="67"/>
-      <c r="G166" s="106"/>
-      <c r="H166" s="67"/>
-      <c r="I166" s="102">
+      <c r="F166" s="76"/>
+      <c r="G166" s="115"/>
+      <c r="H166" s="76"/>
+      <c r="I166" s="111">
         <v>1.02</v>
       </c>
-      <c r="J166" s="67"/>
-      <c r="K166" s="128"/>
-      <c r="L166" s="67"/>
-      <c r="M166" s="89">
+      <c r="J166" s="76"/>
+      <c r="K166" s="137"/>
+      <c r="L166" s="76"/>
+      <c r="M166" s="98">
         <v>23.48</v>
       </c>
-      <c r="N166" s="67"/>
-      <c r="O166" s="90">
+      <c r="N166" s="76"/>
+      <c r="O166" s="99">
         <v>4.8</v>
       </c>
-      <c r="P166" s="67"/>
-      <c r="Q166" s="110">
+      <c r="P166" s="76"/>
+      <c r="Q166" s="119">
         <v>44.42</v>
       </c>
-      <c r="R166" s="70"/>
-      <c r="S166" s="106">
+      <c r="R166" s="79"/>
+      <c r="S166" s="115">
         <v>1.4</v>
       </c>
-      <c r="T166" s="67"/>
-    </row>
-    <row r="167" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="71" t="s">
+      <c r="T166" s="76"/>
+    </row>
+    <row r="167" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A167" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="B167" s="72"/>
-      <c r="C167" s="71">
+      <c r="B167" s="81"/>
+      <c r="C167" s="80">
         <v>80</v>
       </c>
-      <c r="D167" s="72"/>
-      <c r="E167" s="73">
+      <c r="D167" s="81"/>
+      <c r="E167" s="82">
         <v>1</v>
       </c>
-      <c r="F167" s="72"/>
-      <c r="G167" s="73"/>
-      <c r="H167" s="72"/>
-      <c r="I167" s="74">
+      <c r="F167" s="81"/>
+      <c r="G167" s="82"/>
+      <c r="H167" s="81"/>
+      <c r="I167" s="83">
         <v>1.64</v>
       </c>
-      <c r="J167" s="72"/>
-      <c r="K167" s="75"/>
-      <c r="L167" s="72"/>
-      <c r="M167" s="76">
+      <c r="J167" s="81"/>
+      <c r="K167" s="84"/>
+      <c r="L167" s="81"/>
+      <c r="M167" s="85">
         <v>26.84</v>
       </c>
-      <c r="N167" s="72"/>
-      <c r="O167" s="77">
+      <c r="N167" s="81"/>
+      <c r="O167" s="86">
         <v>3.2</v>
       </c>
-      <c r="P167" s="72"/>
-      <c r="Q167" s="78">
+      <c r="P167" s="81"/>
+      <c r="Q167" s="87">
         <v>43.52</v>
       </c>
-      <c r="R167" s="79"/>
-      <c r="S167" s="73">
+      <c r="R167" s="88"/>
+      <c r="S167" s="82">
         <v>1.4</v>
       </c>
-      <c r="T167" s="72"/>
-    </row>
-    <row r="168" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="80" t="s">
+      <c r="T167" s="81"/>
+    </row>
+    <row r="168" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A168" s="89" t="s">
         <v>130</v>
       </c>
-      <c r="B168" s="81"/>
-      <c r="C168" s="80">
+      <c r="B168" s="90"/>
+      <c r="C168" s="89">
         <v>80</v>
       </c>
-      <c r="D168" s="81"/>
-      <c r="E168" s="82">
+      <c r="D168" s="90"/>
+      <c r="E168" s="91">
         <v>4</v>
       </c>
-      <c r="F168" s="81"/>
-      <c r="G168" s="82"/>
-      <c r="H168" s="81"/>
-      <c r="I168" s="83">
+      <c r="F168" s="90"/>
+      <c r="G168" s="91"/>
+      <c r="H168" s="90"/>
+      <c r="I168" s="92">
         <v>3.62</v>
       </c>
-      <c r="J168" s="81"/>
-      <c r="K168" s="84">
+      <c r="J168" s="90"/>
+      <c r="K168" s="93">
         <v>0.13</v>
       </c>
-      <c r="L168" s="81"/>
-      <c r="M168" s="111">
+      <c r="L168" s="90"/>
+      <c r="M168" s="120">
         <v>36.33</v>
       </c>
-      <c r="N168" s="81"/>
-      <c r="O168" s="112">
+      <c r="N168" s="90"/>
+      <c r="O168" s="121">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P168" s="81"/>
-      <c r="Q168" s="113">
+      <c r="P168" s="90"/>
+      <c r="Q168" s="122">
         <v>42.75</v>
       </c>
-      <c r="R168" s="114"/>
-      <c r="S168" s="82">
+      <c r="R168" s="123"/>
+      <c r="S168" s="91">
         <v>1.4</v>
       </c>
-      <c r="T168" s="81"/>
-    </row>
-    <row r="169" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="85" t="s">
+      <c r="T168" s="90"/>
+    </row>
+    <row r="169" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A169" s="94" t="s">
         <v>131</v>
       </c>
-      <c r="B169" s="67"/>
-      <c r="C169" s="85">
+      <c r="B169" s="76"/>
+      <c r="C169" s="94">
         <v>90</v>
       </c>
-      <c r="D169" s="67"/>
-      <c r="E169" s="86">
+      <c r="D169" s="76"/>
+      <c r="E169" s="95">
         <v>0.5</v>
       </c>
-      <c r="F169" s="67"/>
-      <c r="G169" s="86"/>
-      <c r="H169" s="67"/>
-      <c r="I169" s="87">
+      <c r="F169" s="76"/>
+      <c r="G169" s="95"/>
+      <c r="H169" s="76"/>
+      <c r="I169" s="96">
         <v>1.1499999999999999</v>
       </c>
-      <c r="J169" s="67"/>
-      <c r="K169" s="88"/>
-      <c r="L169" s="67"/>
-      <c r="M169" s="100">
+      <c r="J169" s="76"/>
+      <c r="K169" s="97"/>
+      <c r="L169" s="76"/>
+      <c r="M169" s="109">
         <v>24.88</v>
       </c>
-      <c r="N169" s="67"/>
-      <c r="O169" s="101">
+      <c r="N169" s="76"/>
+      <c r="O169" s="110">
         <v>5.5</v>
       </c>
-      <c r="P169" s="67"/>
-      <c r="Q169" s="110">
+      <c r="P169" s="76"/>
+      <c r="Q169" s="119">
         <v>44.12</v>
       </c>
-      <c r="R169" s="70"/>
-      <c r="S169" s="86">
+      <c r="R169" s="79"/>
+      <c r="S169" s="95">
         <v>1.4</v>
       </c>
-      <c r="T169" s="67"/>
-    </row>
-    <row r="170" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="98" t="s">
+      <c r="T169" s="76"/>
+    </row>
+    <row r="170" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A170" s="100" t="s">
         <v>132</v>
       </c>
-      <c r="B170" s="72"/>
-      <c r="C170" s="98">
+      <c r="B170" s="81"/>
+      <c r="C170" s="100">
         <v>90</v>
       </c>
-      <c r="D170" s="72"/>
-      <c r="E170" s="96">
+      <c r="D170" s="81"/>
+      <c r="E170" s="106">
         <v>1</v>
       </c>
-      <c r="F170" s="72"/>
-      <c r="G170" s="96"/>
-      <c r="H170" s="72"/>
-      <c r="I170" s="99">
+      <c r="F170" s="81"/>
+      <c r="G170" s="106"/>
+      <c r="H170" s="81"/>
+      <c r="I170" s="108">
         <v>1.84</v>
       </c>
-      <c r="J170" s="72"/>
-      <c r="K170" s="97"/>
-      <c r="L170" s="72"/>
-      <c r="M170" s="103">
+      <c r="J170" s="81"/>
+      <c r="K170" s="107"/>
+      <c r="L170" s="81"/>
+      <c r="M170" s="112">
         <v>28.32</v>
       </c>
-      <c r="N170" s="72"/>
-      <c r="O170" s="104">
+      <c r="N170" s="81"/>
+      <c r="O170" s="113">
         <v>3.7</v>
       </c>
-      <c r="P170" s="72"/>
-      <c r="Q170" s="78">
+      <c r="P170" s="81"/>
+      <c r="Q170" s="87">
         <v>43.44</v>
       </c>
-      <c r="R170" s="79"/>
-      <c r="S170" s="96">
+      <c r="R170" s="88"/>
+      <c r="S170" s="106">
         <v>1.4</v>
       </c>
-      <c r="T170" s="72"/>
-    </row>
-    <row r="171" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="71" t="s">
+      <c r="T170" s="81"/>
+    </row>
+    <row r="171" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A171" s="80" t="s">
         <v>133</v>
       </c>
-      <c r="B171" s="72"/>
-      <c r="C171" s="71">
+      <c r="B171" s="81"/>
+      <c r="C171" s="80">
         <v>90</v>
       </c>
-      <c r="D171" s="72"/>
-      <c r="E171" s="73">
+      <c r="D171" s="81"/>
+      <c r="E171" s="82">
         <v>4</v>
       </c>
-      <c r="F171" s="72"/>
-      <c r="G171" s="73"/>
-      <c r="H171" s="72"/>
-      <c r="I171" s="74">
+      <c r="F171" s="81"/>
+      <c r="G171" s="82"/>
+      <c r="H171" s="81"/>
+      <c r="I171" s="83">
         <v>4.04</v>
       </c>
-      <c r="J171" s="72"/>
-      <c r="K171" s="75">
+      <c r="J171" s="81"/>
+      <c r="K171" s="84">
         <v>0.15</v>
       </c>
-      <c r="L171" s="72"/>
-      <c r="M171" s="76">
+      <c r="L171" s="81"/>
+      <c r="M171" s="85">
         <v>38.380000000000003</v>
       </c>
-      <c r="N171" s="72"/>
-      <c r="O171" s="77">
+      <c r="N171" s="81"/>
+      <c r="O171" s="86">
         <v>1.4</v>
       </c>
-      <c r="P171" s="72"/>
-      <c r="Q171" s="78">
+      <c r="P171" s="81"/>
+      <c r="Q171" s="87">
         <v>42.62</v>
       </c>
-      <c r="R171" s="79"/>
-      <c r="S171" s="73">
+      <c r="R171" s="88"/>
+      <c r="S171" s="82">
         <v>1.4</v>
       </c>
-      <c r="T171" s="72"/>
-    </row>
-    <row r="172" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="105" t="s">
+      <c r="T171" s="81"/>
+    </row>
+    <row r="172" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A172" s="114" t="s">
         <v>134</v>
       </c>
-      <c r="B172" s="67"/>
-      <c r="C172" s="105">
+      <c r="B172" s="76"/>
+      <c r="C172" s="114">
         <v>100</v>
       </c>
-      <c r="D172" s="67"/>
-      <c r="E172" s="106">
+      <c r="D172" s="76"/>
+      <c r="E172" s="115">
         <v>0.5</v>
       </c>
-      <c r="F172" s="67"/>
-      <c r="G172" s="106"/>
-      <c r="H172" s="67"/>
-      <c r="I172" s="102">
+      <c r="F172" s="76"/>
+      <c r="G172" s="115"/>
+      <c r="H172" s="76"/>
+      <c r="I172" s="111">
         <v>1.3</v>
       </c>
-      <c r="J172" s="67"/>
-      <c r="K172" s="128"/>
-      <c r="L172" s="67"/>
-      <c r="M172" s="89">
+      <c r="J172" s="76"/>
+      <c r="K172" s="137"/>
+      <c r="L172" s="76"/>
+      <c r="M172" s="98">
         <v>26.34</v>
       </c>
-      <c r="N172" s="67"/>
-      <c r="O172" s="90">
+      <c r="N172" s="76"/>
+      <c r="O172" s="99">
         <v>6.1</v>
       </c>
-      <c r="P172" s="67"/>
-      <c r="Q172" s="110">
+      <c r="P172" s="76"/>
+      <c r="Q172" s="119">
         <v>43.9</v>
       </c>
-      <c r="R172" s="70"/>
-      <c r="S172" s="106">
+      <c r="R172" s="79"/>
+      <c r="S172" s="115">
         <v>1.4</v>
       </c>
-      <c r="T172" s="67"/>
-    </row>
-    <row r="173" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="71" t="s">
+      <c r="T172" s="76"/>
+    </row>
+    <row r="173" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A173" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="B173" s="72"/>
-      <c r="C173" s="71">
+      <c r="B173" s="81"/>
+      <c r="C173" s="80">
         <v>100</v>
       </c>
-      <c r="D173" s="72"/>
-      <c r="E173" s="73">
+      <c r="D173" s="81"/>
+      <c r="E173" s="82">
         <v>1</v>
       </c>
-      <c r="F173" s="72"/>
-      <c r="G173" s="73"/>
-      <c r="H173" s="72"/>
-      <c r="I173" s="74">
+      <c r="F173" s="81"/>
+      <c r="G173" s="82"/>
+      <c r="H173" s="81"/>
+      <c r="I173" s="83">
         <v>2.0499999999999998</v>
       </c>
-      <c r="J173" s="72"/>
-      <c r="K173" s="75"/>
-      <c r="L173" s="72"/>
-      <c r="M173" s="76">
+      <c r="J173" s="81"/>
+      <c r="K173" s="84"/>
+      <c r="L173" s="81"/>
+      <c r="M173" s="85">
         <v>29.87</v>
       </c>
-      <c r="N173" s="72"/>
-      <c r="O173" s="77">
+      <c r="N173" s="81"/>
+      <c r="O173" s="86">
         <v>4.3</v>
       </c>
-      <c r="P173" s="72"/>
-      <c r="Q173" s="78">
+      <c r="P173" s="81"/>
+      <c r="Q173" s="87">
         <v>43.23</v>
       </c>
-      <c r="R173" s="79"/>
-      <c r="S173" s="73">
+      <c r="R173" s="88"/>
+      <c r="S173" s="82">
         <v>1.4</v>
       </c>
-      <c r="T173" s="72"/>
-    </row>
-    <row r="174" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="98" t="s">
+      <c r="T173" s="81"/>
+    </row>
+    <row r="174" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A174" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="B174" s="72"/>
-      <c r="C174" s="98">
+      <c r="B174" s="81"/>
+      <c r="C174" s="100">
         <v>100</v>
       </c>
-      <c r="D174" s="72"/>
-      <c r="E174" s="96">
+      <c r="D174" s="81"/>
+      <c r="E174" s="106">
         <v>4.5</v>
       </c>
-      <c r="F174" s="72"/>
-      <c r="G174" s="96"/>
-      <c r="H174" s="72"/>
-      <c r="I174" s="99">
+      <c r="F174" s="81"/>
+      <c r="G174" s="106"/>
+      <c r="H174" s="81"/>
+      <c r="I174" s="108">
         <v>4.74</v>
       </c>
-      <c r="J174" s="72"/>
-      <c r="K174" s="97">
+      <c r="J174" s="81"/>
+      <c r="K174" s="107">
         <v>0.18</v>
       </c>
-      <c r="L174" s="72"/>
-      <c r="M174" s="103">
+      <c r="L174" s="81"/>
+      <c r="M174" s="112">
         <v>41.59</v>
       </c>
-      <c r="N174" s="72"/>
-      <c r="O174" s="104">
+      <c r="N174" s="81"/>
+      <c r="O174" s="113">
         <v>1.6</v>
       </c>
-      <c r="P174" s="72"/>
-      <c r="Q174" s="78">
+      <c r="P174" s="81"/>
+      <c r="Q174" s="87">
         <v>42.51</v>
       </c>
-      <c r="R174" s="79"/>
-      <c r="S174" s="96">
+      <c r="R174" s="88"/>
+      <c r="S174" s="106">
         <v>1.4</v>
       </c>
-      <c r="T174" s="72"/>
-    </row>
-    <row r="175" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="71" t="s">
+      <c r="T174" s="81"/>
+    </row>
+    <row r="175" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A175" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="B175" s="72"/>
-      <c r="C175" s="71">
+      <c r="B175" s="81"/>
+      <c r="C175" s="80">
         <v>100</v>
       </c>
-      <c r="D175" s="72"/>
-      <c r="E175" s="73">
+      <c r="D175" s="81"/>
+      <c r="E175" s="82">
         <v>6</v>
       </c>
-      <c r="F175" s="72"/>
-      <c r="G175" s="73"/>
-      <c r="H175" s="72"/>
-      <c r="I175" s="74">
+      <c r="F175" s="81"/>
+      <c r="G175" s="82"/>
+      <c r="H175" s="81"/>
+      <c r="I175" s="83">
         <v>5.49</v>
       </c>
-      <c r="J175" s="72"/>
-      <c r="K175" s="75">
+      <c r="J175" s="81"/>
+      <c r="K175" s="84">
         <v>0.22</v>
       </c>
-      <c r="L175" s="72"/>
-      <c r="M175" s="76">
+      <c r="L175" s="81"/>
+      <c r="M175" s="85">
         <v>44.58</v>
       </c>
-      <c r="N175" s="72"/>
-      <c r="O175" s="77">
+      <c r="N175" s="81"/>
+      <c r="O175" s="86">
         <v>1.2</v>
       </c>
-      <c r="P175" s="72"/>
-      <c r="Q175" s="78">
+      <c r="P175" s="81"/>
+      <c r="Q175" s="87">
         <v>42.44</v>
       </c>
-      <c r="R175" s="79"/>
-      <c r="S175" s="73">
+      <c r="R175" s="88"/>
+      <c r="S175" s="82">
         <v>1.4</v>
       </c>
-      <c r="T175" s="72"/>
-    </row>
-    <row r="176" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="80" t="s">
+      <c r="T175" s="81"/>
+    </row>
+    <row r="176" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A176" s="89" t="s">
         <v>137</v>
       </c>
-      <c r="B176" s="81"/>
-      <c r="C176" s="80">
+      <c r="B176" s="90"/>
+      <c r="C176" s="89">
         <v>100</v>
       </c>
-      <c r="D176" s="81"/>
-      <c r="E176" s="82">
+      <c r="D176" s="90"/>
+      <c r="E176" s="91">
         <v>9</v>
       </c>
-      <c r="F176" s="81"/>
-      <c r="G176" s="82"/>
-      <c r="H176" s="81"/>
-      <c r="I176" s="83">
+      <c r="F176" s="90"/>
+      <c r="G176" s="91"/>
+      <c r="H176" s="90"/>
+      <c r="I176" s="92">
         <v>6.61</v>
       </c>
-      <c r="J176" s="81"/>
-      <c r="K176" s="84">
+      <c r="J176" s="90"/>
+      <c r="K176" s="93">
         <v>0.28999999999999998</v>
       </c>
-      <c r="L176" s="81"/>
-      <c r="M176" s="111">
+      <c r="L176" s="90"/>
+      <c r="M176" s="120">
         <v>49.08</v>
       </c>
-      <c r="N176" s="81"/>
-      <c r="O176" s="112">
+      <c r="N176" s="90"/>
+      <c r="O176" s="121">
         <v>0.8</v>
       </c>
-      <c r="P176" s="81"/>
-      <c r="Q176" s="113">
+      <c r="P176" s="90"/>
+      <c r="Q176" s="122">
         <v>42.23</v>
       </c>
-      <c r="R176" s="114"/>
-      <c r="S176" s="82">
+      <c r="R176" s="123"/>
+      <c r="S176" s="91">
         <v>1.4</v>
       </c>
-      <c r="T176" s="81"/>
-    </row>
-    <row r="177" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="71" t="s">
+      <c r="T176" s="90"/>
+    </row>
+    <row r="177" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A177" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="B177" s="72"/>
-      <c r="C177" s="71">
+      <c r="B177" s="81"/>
+      <c r="C177" s="80">
         <v>120</v>
       </c>
-      <c r="D177" s="72"/>
-      <c r="E177" s="73">
+      <c r="D177" s="81"/>
+      <c r="E177" s="82">
         <v>4.5</v>
       </c>
-      <c r="F177" s="72"/>
-      <c r="G177" s="73"/>
-      <c r="H177" s="72"/>
-      <c r="I177" s="74">
+      <c r="F177" s="81"/>
+      <c r="G177" s="82"/>
+      <c r="H177" s="81"/>
+      <c r="I177" s="83">
         <v>5.56</v>
       </c>
-      <c r="J177" s="72"/>
-      <c r="K177" s="75">
+      <c r="J177" s="81"/>
+      <c r="K177" s="84">
         <v>0.23</v>
       </c>
-      <c r="L177" s="72"/>
-      <c r="M177" s="76">
+      <c r="L177" s="81"/>
+      <c r="M177" s="85">
         <v>45.74</v>
       </c>
-      <c r="N177" s="72"/>
-      <c r="O177" s="77">
+      <c r="N177" s="81"/>
+      <c r="O177" s="86">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P177" s="72"/>
-      <c r="Q177" s="78">
+      <c r="P177" s="81"/>
+      <c r="Q177" s="87">
         <v>42.3</v>
       </c>
-      <c r="R177" s="79"/>
-      <c r="S177" s="73">
+      <c r="R177" s="88"/>
+      <c r="S177" s="82">
         <v>1.4</v>
       </c>
-      <c r="T177" s="72"/>
-    </row>
-    <row r="178" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="98" t="s">
+      <c r="T177" s="81"/>
+    </row>
+    <row r="178" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A178" s="100" t="s">
         <v>107</v>
       </c>
-      <c r="B178" s="72"/>
-      <c r="C178" s="98">
+      <c r="B178" s="81"/>
+      <c r="C178" s="100">
         <v>120</v>
       </c>
-      <c r="D178" s="72"/>
-      <c r="E178" s="96">
+      <c r="D178" s="81"/>
+      <c r="E178" s="106">
         <v>6</v>
       </c>
-      <c r="F178" s="72"/>
-      <c r="G178" s="96"/>
-      <c r="H178" s="72"/>
-      <c r="I178" s="99">
+      <c r="F178" s="81"/>
+      <c r="G178" s="106"/>
+      <c r="H178" s="81"/>
+      <c r="I178" s="108">
         <v>6.38</v>
       </c>
-      <c r="J178" s="72"/>
-      <c r="K178" s="97">
+      <c r="J178" s="81"/>
+      <c r="K178" s="107">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L178" s="72"/>
-      <c r="M178" s="103">
+      <c r="L178" s="81"/>
+      <c r="M178" s="112">
         <v>48.95</v>
       </c>
-      <c r="N178" s="72"/>
-      <c r="O178" s="104">
+      <c r="N178" s="81"/>
+      <c r="O178" s="113">
         <v>1.8</v>
       </c>
-      <c r="P178" s="72"/>
-      <c r="Q178" s="78">
+      <c r="P178" s="81"/>
+      <c r="Q178" s="87">
         <v>42.17</v>
       </c>
-      <c r="R178" s="79"/>
-      <c r="S178" s="96">
+      <c r="R178" s="88"/>
+      <c r="S178" s="106">
         <v>1.4</v>
       </c>
-      <c r="T178" s="72"/>
-    </row>
-    <row r="179" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="71" t="s">
+      <c r="T178" s="81"/>
+    </row>
+    <row r="179" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A179" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="B179" s="72"/>
-      <c r="C179" s="71">
+      <c r="B179" s="81"/>
+      <c r="C179" s="80">
         <v>120</v>
       </c>
-      <c r="D179" s="72"/>
-      <c r="E179" s="73">
+      <c r="D179" s="81"/>
+      <c r="E179" s="82">
         <v>9</v>
       </c>
-      <c r="F179" s="72"/>
-      <c r="G179" s="73"/>
-      <c r="H179" s="72"/>
-      <c r="I179" s="74">
+      <c r="F179" s="81"/>
+      <c r="G179" s="82"/>
+      <c r="H179" s="81"/>
+      <c r="I179" s="83">
         <v>7.59</v>
       </c>
-      <c r="J179" s="72"/>
-      <c r="K179" s="75">
+      <c r="J179" s="81"/>
+      <c r="K179" s="84">
         <v>0.37</v>
       </c>
-      <c r="L179" s="72"/>
-      <c r="M179" s="76">
+      <c r="L179" s="81"/>
+      <c r="M179" s="85">
         <v>53.75</v>
       </c>
-      <c r="N179" s="72"/>
-      <c r="O179" s="77">
+      <c r="N179" s="81"/>
+      <c r="O179" s="86">
         <v>1.2</v>
       </c>
-      <c r="P179" s="72"/>
-      <c r="Q179" s="78">
+      <c r="P179" s="81"/>
+      <c r="Q179" s="87">
         <v>42.06</v>
       </c>
-      <c r="R179" s="79"/>
-      <c r="S179" s="73">
+      <c r="R179" s="88"/>
+      <c r="S179" s="82">
         <v>1.4</v>
       </c>
-      <c r="T179" s="72"/>
-    </row>
-    <row r="180" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="80" t="s">
+      <c r="T179" s="81"/>
+    </row>
+    <row r="180" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A180" s="89" t="s">
         <v>140</v>
       </c>
-      <c r="B180" s="81"/>
-      <c r="C180" s="80">
+      <c r="B180" s="90"/>
+      <c r="C180" s="89">
         <v>120</v>
       </c>
-      <c r="D180" s="81"/>
-      <c r="E180" s="82">
+      <c r="D180" s="90"/>
+      <c r="E180" s="91">
         <v>4</v>
       </c>
-      <c r="F180" s="81"/>
-      <c r="G180" s="82">
+      <c r="F180" s="90"/>
+      <c r="G180" s="91">
         <v>0.5</v>
       </c>
-      <c r="H180" s="81"/>
-      <c r="I180" s="83">
+      <c r="H180" s="90"/>
+      <c r="I180" s="92">
         <v>10.31</v>
       </c>
-      <c r="J180" s="81"/>
-      <c r="K180" s="84">
+      <c r="J180" s="90"/>
+      <c r="K180" s="93">
         <v>0.63</v>
       </c>
-      <c r="L180" s="81"/>
-      <c r="M180" s="111">
+      <c r="L180" s="90"/>
+      <c r="M180" s="120">
         <v>65</v>
       </c>
-      <c r="N180" s="81"/>
-      <c r="O180" s="112">
+      <c r="N180" s="90"/>
+      <c r="O180" s="121">
         <v>0.7</v>
       </c>
-      <c r="P180" s="81"/>
-      <c r="Q180" s="113">
+      <c r="P180" s="90"/>
+      <c r="Q180" s="122">
         <v>41.79</v>
       </c>
-      <c r="R180" s="114"/>
-      <c r="S180" s="82">
+      <c r="R180" s="123"/>
+      <c r="S180" s="91">
         <v>1.4</v>
       </c>
-      <c r="T180" s="81"/>
-    </row>
-    <row r="181" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="85" t="s">
+      <c r="T180" s="90"/>
+    </row>
+    <row r="181" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A181" s="94" t="s">
         <v>141</v>
       </c>
-      <c r="B181" s="67"/>
-      <c r="C181" s="85">
+      <c r="B181" s="76"/>
+      <c r="C181" s="94">
         <v>140</v>
       </c>
-      <c r="D181" s="67"/>
-      <c r="E181" s="86">
+      <c r="D181" s="76"/>
+      <c r="E181" s="95">
         <v>4.5</v>
       </c>
-      <c r="F181" s="67"/>
-      <c r="G181" s="86"/>
-      <c r="H181" s="67"/>
-      <c r="I181" s="87">
+      <c r="F181" s="76"/>
+      <c r="G181" s="95"/>
+      <c r="H181" s="76"/>
+      <c r="I181" s="96">
         <v>6.33</v>
       </c>
-      <c r="J181" s="67"/>
-      <c r="K181" s="88">
+      <c r="J181" s="76"/>
+      <c r="K181" s="97">
         <v>0.28000000000000003</v>
       </c>
-      <c r="L181" s="67"/>
-      <c r="M181" s="100">
+      <c r="L181" s="76"/>
+      <c r="M181" s="109">
         <v>49.87</v>
       </c>
-      <c r="N181" s="67"/>
-      <c r="O181" s="101">
+      <c r="N181" s="76"/>
+      <c r="O181" s="110">
         <v>3</v>
       </c>
-      <c r="P181" s="67"/>
-      <c r="Q181" s="110">
+      <c r="P181" s="76"/>
+      <c r="Q181" s="119">
         <v>42.16</v>
       </c>
-      <c r="R181" s="70"/>
-      <c r="S181" s="86">
+      <c r="R181" s="79"/>
+      <c r="S181" s="95">
         <v>1.4</v>
       </c>
-      <c r="T181" s="67"/>
-    </row>
-    <row r="182" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="98" t="s">
+      <c r="T181" s="76"/>
+    </row>
+    <row r="182" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A182" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="B182" s="72"/>
-      <c r="C182" s="98">
+      <c r="B182" s="81"/>
+      <c r="C182" s="100">
         <v>140</v>
       </c>
-      <c r="D182" s="72"/>
-      <c r="E182" s="96">
+      <c r="D182" s="81"/>
+      <c r="E182" s="106">
         <v>6</v>
       </c>
-      <c r="F182" s="72"/>
-      <c r="G182" s="96"/>
-      <c r="H182" s="72"/>
-      <c r="I182" s="99">
+      <c r="F182" s="81"/>
+      <c r="G182" s="106"/>
+      <c r="H182" s="81"/>
+      <c r="I182" s="108">
         <v>7.2</v>
       </c>
-      <c r="J182" s="72"/>
-      <c r="K182" s="97">
+      <c r="J182" s="81"/>
+      <c r="K182" s="107">
         <v>0.34</v>
       </c>
-      <c r="L182" s="72"/>
-      <c r="M182" s="103">
+      <c r="L182" s="81"/>
+      <c r="M182" s="112">
         <v>53.14</v>
       </c>
-      <c r="N182" s="72"/>
-      <c r="O182" s="104">
+      <c r="N182" s="81"/>
+      <c r="O182" s="113">
         <v>2.5</v>
       </c>
-      <c r="P182" s="72"/>
-      <c r="Q182" s="78">
+      <c r="P182" s="81"/>
+      <c r="Q182" s="87">
         <v>42.03</v>
       </c>
-      <c r="R182" s="79"/>
-      <c r="S182" s="96">
+      <c r="R182" s="88"/>
+      <c r="S182" s="106">
         <v>1.4</v>
       </c>
-      <c r="T182" s="72"/>
-    </row>
-    <row r="183" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="71" t="s">
+      <c r="T182" s="81"/>
+    </row>
+    <row r="183" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A183" s="80" t="s">
         <v>108</v>
       </c>
-      <c r="B183" s="72"/>
-      <c r="C183" s="71">
+      <c r="B183" s="81"/>
+      <c r="C183" s="80">
         <v>140</v>
       </c>
-      <c r="D183" s="72"/>
-      <c r="E183" s="73">
+      <c r="D183" s="81"/>
+      <c r="E183" s="82">
         <v>9</v>
       </c>
-      <c r="F183" s="72"/>
-      <c r="G183" s="73"/>
-      <c r="H183" s="72"/>
-      <c r="I183" s="74">
+      <c r="F183" s="81"/>
+      <c r="G183" s="82"/>
+      <c r="H183" s="81"/>
+      <c r="I183" s="83">
         <v>8.44</v>
       </c>
-      <c r="J183" s="72"/>
-      <c r="K183" s="75">
+      <c r="J183" s="81"/>
+      <c r="K183" s="84">
         <v>0.45</v>
       </c>
-      <c r="L183" s="72"/>
-      <c r="M183" s="76">
+      <c r="L183" s="81"/>
+      <c r="M183" s="85">
         <v>58.06</v>
       </c>
-      <c r="N183" s="72"/>
-      <c r="O183" s="77">
+      <c r="N183" s="81"/>
+      <c r="O183" s="86">
         <v>1.8</v>
       </c>
-      <c r="P183" s="72"/>
-      <c r="Q183" s="78">
+      <c r="P183" s="81"/>
+      <c r="Q183" s="87">
         <v>41.94</v>
       </c>
-      <c r="R183" s="79"/>
-      <c r="S183" s="73">
+      <c r="R183" s="88"/>
+      <c r="S183" s="82">
         <v>1.4</v>
       </c>
-      <c r="T183" s="72"/>
-    </row>
-    <row r="184" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="98" t="s">
+      <c r="T183" s="81"/>
+    </row>
+    <row r="184" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A184" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="B184" s="72"/>
-      <c r="C184" s="98">
+      <c r="B184" s="81"/>
+      <c r="C184" s="100">
         <v>140</v>
       </c>
-      <c r="D184" s="72"/>
-      <c r="E184" s="96">
+      <c r="D184" s="81"/>
+      <c r="E184" s="106">
         <v>4</v>
       </c>
-      <c r="F184" s="72"/>
-      <c r="G184" s="96">
+      <c r="F184" s="81"/>
+      <c r="G184" s="106">
         <v>0.5</v>
       </c>
-      <c r="H184" s="72"/>
-      <c r="I184" s="99"/>
-      <c r="J184" s="72"/>
-      <c r="K184" s="97">
+      <c r="H184" s="81"/>
+      <c r="I184" s="108"/>
+      <c r="J184" s="81"/>
+      <c r="K184" s="107">
         <v>0.77</v>
       </c>
-      <c r="L184" s="72"/>
-      <c r="M184" s="103">
+      <c r="L184" s="81"/>
+      <c r="M184" s="112">
         <v>69.849999999999994</v>
       </c>
-      <c r="N184" s="72"/>
-      <c r="O184" s="104">
+      <c r="N184" s="81"/>
+      <c r="O184" s="113">
         <v>1.2</v>
       </c>
-      <c r="P184" s="72"/>
-      <c r="Q184" s="78">
+      <c r="P184" s="81"/>
+      <c r="Q184" s="87">
         <v>41.63</v>
       </c>
-      <c r="R184" s="79"/>
-      <c r="S184" s="96">
+      <c r="R184" s="88"/>
+      <c r="S184" s="106">
         <v>1.4</v>
       </c>
-      <c r="T184" s="72"/>
-    </row>
-    <row r="185" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="91" t="s">
+      <c r="T184" s="81"/>
+    </row>
+    <row r="185" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A185" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="B185" s="81"/>
-      <c r="C185" s="91">
+      <c r="B185" s="90"/>
+      <c r="C185" s="101">
         <v>140</v>
       </c>
-      <c r="D185" s="81"/>
-      <c r="E185" s="92">
+      <c r="D185" s="90"/>
+      <c r="E185" s="102">
         <v>4</v>
       </c>
-      <c r="F185" s="81"/>
-      <c r="G185" s="92">
+      <c r="F185" s="90"/>
+      <c r="G185" s="102">
         <v>1</v>
       </c>
-      <c r="H185" s="81"/>
-      <c r="I185" s="93"/>
-      <c r="J185" s="81"/>
-      <c r="K185" s="94">
+      <c r="H185" s="90"/>
+      <c r="I185" s="103"/>
+      <c r="J185" s="90"/>
+      <c r="K185" s="104">
         <v>1.03</v>
       </c>
-      <c r="L185" s="81"/>
-      <c r="M185" s="95">
+      <c r="L185" s="90"/>
+      <c r="M185" s="105">
         <v>78.52</v>
       </c>
-      <c r="N185" s="81"/>
-      <c r="O185" s="115">
+      <c r="N185" s="90"/>
+      <c r="O185" s="124">
         <v>0.6</v>
       </c>
-      <c r="P185" s="81"/>
-      <c r="Q185" s="113">
+      <c r="P185" s="90"/>
+      <c r="Q185" s="122">
         <v>41.5</v>
       </c>
-      <c r="R185" s="114"/>
-      <c r="S185" s="92">
+      <c r="R185" s="123"/>
+      <c r="S185" s="102">
         <v>1.4</v>
       </c>
-      <c r="T185" s="81"/>
-    </row>
-    <row r="186" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="105" t="s">
+      <c r="T185" s="90"/>
+    </row>
+    <row r="186" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A186" s="114" t="s">
         <v>145</v>
       </c>
-      <c r="B186" s="67"/>
-      <c r="C186" s="105">
+      <c r="B186" s="76"/>
+      <c r="C186" s="114">
         <v>150</v>
       </c>
-      <c r="D186" s="67"/>
-      <c r="E186" s="106">
+      <c r="D186" s="76"/>
+      <c r="E186" s="115">
         <v>6</v>
       </c>
-      <c r="F186" s="67"/>
-      <c r="G186" s="106"/>
-      <c r="H186" s="67"/>
-      <c r="I186" s="102">
+      <c r="F186" s="76"/>
+      <c r="G186" s="115"/>
+      <c r="H186" s="76"/>
+      <c r="I186" s="111">
         <v>7.58</v>
       </c>
-      <c r="J186" s="67"/>
-      <c r="K186" s="128">
+      <c r="J186" s="76"/>
+      <c r="K186" s="137">
         <v>0.38</v>
       </c>
-      <c r="L186" s="67"/>
-      <c r="M186" s="89">
+      <c r="L186" s="76"/>
+      <c r="M186" s="98">
         <v>55.19</v>
       </c>
-      <c r="N186" s="67"/>
-      <c r="O186" s="90">
+      <c r="N186" s="76"/>
+      <c r="O186" s="99">
         <v>2.8</v>
       </c>
-      <c r="P186" s="67"/>
-      <c r="Q186" s="110">
+      <c r="P186" s="76"/>
+      <c r="Q186" s="119">
         <v>42.01</v>
       </c>
-      <c r="R186" s="70"/>
-      <c r="S186" s="106">
+      <c r="R186" s="79"/>
+      <c r="S186" s="115">
         <v>1.4</v>
       </c>
-      <c r="T186" s="67"/>
-    </row>
-    <row r="187" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="71" t="s">
+      <c r="T186" s="76"/>
+    </row>
+    <row r="187" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A187" s="80" t="s">
         <v>146</v>
       </c>
-      <c r="B187" s="72"/>
-      <c r="C187" s="71">
+      <c r="B187" s="81"/>
+      <c r="C187" s="80">
         <v>150</v>
       </c>
-      <c r="D187" s="72"/>
-      <c r="E187" s="73">
+      <c r="D187" s="81"/>
+      <c r="E187" s="82">
         <v>9</v>
       </c>
-      <c r="F187" s="72"/>
-      <c r="G187" s="73"/>
-      <c r="H187" s="72"/>
-      <c r="I187" s="74">
+      <c r="F187" s="81"/>
+      <c r="G187" s="82"/>
+      <c r="H187" s="81"/>
+      <c r="I187" s="83">
         <v>8.83</v>
       </c>
-      <c r="J187" s="72"/>
-      <c r="K187" s="75">
+      <c r="J187" s="81"/>
+      <c r="K187" s="84">
         <v>0.49</v>
       </c>
-      <c r="L187" s="72"/>
-      <c r="M187" s="76">
+      <c r="L187" s="81"/>
+      <c r="M187" s="85">
         <v>60.13</v>
       </c>
-      <c r="N187" s="72"/>
-      <c r="O187" s="77">
+      <c r="N187" s="81"/>
+      <c r="O187" s="86">
         <v>2.1</v>
       </c>
-      <c r="P187" s="72"/>
-      <c r="Q187" s="78">
+      <c r="P187" s="81"/>
+      <c r="Q187" s="87">
         <v>41.87</v>
       </c>
-      <c r="R187" s="79"/>
-      <c r="S187" s="73">
+      <c r="R187" s="88"/>
+      <c r="S187" s="82">
         <v>1.4</v>
       </c>
-      <c r="T187" s="72"/>
-    </row>
-    <row r="188" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="98" t="s">
+      <c r="T187" s="81"/>
+    </row>
+    <row r="188" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A188" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="B188" s="72"/>
-      <c r="C188" s="98">
+      <c r="B188" s="81"/>
+      <c r="C188" s="100">
         <v>150</v>
       </c>
-      <c r="D188" s="72"/>
-      <c r="E188" s="96">
+      <c r="D188" s="81"/>
+      <c r="E188" s="106">
         <v>4</v>
       </c>
-      <c r="F188" s="72"/>
-      <c r="G188" s="96">
+      <c r="F188" s="81"/>
+      <c r="G188" s="106">
         <v>0.5</v>
       </c>
-      <c r="H188" s="72"/>
-      <c r="I188" s="99"/>
-      <c r="J188" s="72"/>
-      <c r="K188" s="97">
+      <c r="H188" s="81"/>
+      <c r="I188" s="108"/>
+      <c r="J188" s="81"/>
+      <c r="K188" s="107">
         <v>0.84</v>
       </c>
-      <c r="L188" s="72"/>
-      <c r="M188" s="103">
+      <c r="L188" s="81"/>
+      <c r="M188" s="112">
         <v>72.150000000000006</v>
       </c>
-      <c r="N188" s="72"/>
-      <c r="O188" s="104">
+      <c r="N188" s="81"/>
+      <c r="O188" s="113">
         <v>1.4</v>
       </c>
-      <c r="P188" s="72"/>
-      <c r="Q188" s="78">
+      <c r="P188" s="81"/>
+      <c r="Q188" s="87">
         <v>41.58</v>
       </c>
-      <c r="R188" s="79"/>
-      <c r="S188" s="96">
+      <c r="R188" s="88"/>
+      <c r="S188" s="106">
         <v>1.4</v>
       </c>
-      <c r="T188" s="72"/>
-    </row>
-    <row r="189" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="71" t="s">
+      <c r="T188" s="81"/>
+    </row>
+    <row r="189" spans="1:20" ht="14.1" customHeight="1">
+      <c r="A189" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="B189" s="72"/>
-      <c r="C189" s="71">
+      <c r="B189" s="81"/>
+      <c r="C189" s="80">
         <v>150</v>
       </c>
-      <c r="D189" s="72"/>
-      <c r="E189" s="73">
+      <c r="D189" s="81"/>
+      <c r="E189" s="82">
         <v>4</v>
       </c>
-      <c r="F189" s="72"/>
-      <c r="G189" s="73">
+      <c r="F189" s="81"/>
+      <c r="G189" s="82">
         <v>1</v>
       </c>
-      <c r="H189" s="72"/>
-      <c r="I189" s="74"/>
-      <c r="J189" s="72"/>
-      <c r="K189" s="75">
+      <c r="H189" s="81"/>
+      <c r="I189" s="83"/>
+      <c r="J189" s="81"/>
+      <c r="K189" s="84">
         <v>1.1299999999999999</v>
       </c>
-      <c r="L189" s="72"/>
-      <c r="M189" s="76">
+      <c r="L189" s="81"/>
+      <c r="M189" s="85">
         <v>81.36</v>
       </c>
-      <c r="N189" s="72"/>
-      <c r="O189" s="77">
+      <c r="N189" s="81"/>
+      <c r="O189" s="86">
         <v>0.9</v>
       </c>
-      <c r="P189" s="72"/>
-      <c r="Q189" s="78">
+      <c r="P189" s="81"/>
+      <c r="Q189" s="87">
         <v>41.45</v>
       </c>
-      <c r="R189" s="79"/>
-      <c r="S189" s="73">
+      <c r="R189" s="88"/>
+      <c r="S189" s="82">
         <v>1.4</v>
       </c>
-      <c r="T189" s="72"/>
-    </row>
-    <row r="190" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="80" t="s">
+      <c r="T189" s="81"/>
+    </row>
+    <row r="190" spans="1:20" ht="16.5" customHeight="1">
+      <c r="A190" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="B190" s="81"/>
-      <c r="C190" s="80">
+      <c r="B190" s="90"/>
+      <c r="C190" s="89">
         <v>150</v>
       </c>
-      <c r="D190" s="81"/>
-      <c r="E190" s="82">
+      <c r="D190" s="90"/>
+      <c r="E190" s="91">
         <v>4</v>
       </c>
-      <c r="F190" s="81"/>
-      <c r="G190" s="82">
+      <c r="F190" s="90"/>
+      <c r="G190" s="91">
         <v>1.6</v>
       </c>
-      <c r="H190" s="81"/>
-      <c r="I190" s="83"/>
-      <c r="J190" s="81"/>
-      <c r="K190" s="84">
+      <c r="H190" s="90"/>
+      <c r="I190" s="92"/>
+      <c r="J190" s="90"/>
+      <c r="K190" s="93">
         <v>1.38</v>
       </c>
-      <c r="L190" s="81"/>
-      <c r="M190" s="111">
+      <c r="L190" s="90"/>
+      <c r="M190" s="120">
         <v>89.07</v>
       </c>
-      <c r="N190" s="81"/>
-      <c r="O190" s="112">
+      <c r="N190" s="90"/>
+      <c r="O190" s="121">
         <v>0.4</v>
       </c>
-      <c r="P190" s="81"/>
-      <c r="Q190" s="113">
+      <c r="P190" s="90"/>
+      <c r="Q190" s="122">
         <v>41.28</v>
       </c>
-      <c r="R190" s="114"/>
-      <c r="S190" s="82">
+      <c r="R190" s="123"/>
+      <c r="S190" s="91">
         <v>1.4</v>
       </c>
-      <c r="T190" s="81"/>
-    </row>
-    <row r="191" spans="1:20" ht="8.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="T190" s="90"/>
+    </row>
+    <row r="191" spans="1:20" ht="8.1" customHeight="1"/>
+    <row r="192" spans="1:20" ht="21" customHeight="1">
       <c r="P192" s="18" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="193" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:20" s="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:20" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A196" s="52" t="str">
-        <f>A59</f>
-        <v>Calibration No: CAL00003</v>
-      </c>
-      <c r="B196" s="52"/>
-      <c r="C196" s="52"/>
-      <c r="D196" s="52"/>
-      <c r="E196" s="52"/>
-      <c r="F196" s="49"/>
-      <c r="G196" s="49"/>
-      <c r="H196" s="49"/>
-      <c r="I196" s="56" t="str">
-        <f>I59</f>
-        <v>Report Date: 7 July 2021</v>
-      </c>
-      <c r="J196" s="49"/>
-      <c r="K196" s="49"/>
-      <c r="L196" s="49"/>
-      <c r="M196" s="49"/>
-      <c r="N196" s="49" t="s">
+    <row r="193" spans="1:20" ht="14.25" customHeight="1"/>
+    <row r="195" spans="1:20" s="43" customFormat="1">
+      <c r="B195" s="52"/>
+      <c r="C195" s="52"/>
+      <c r="D195" s="52"/>
+      <c r="E195" s="52"/>
+      <c r="F195" s="52"/>
+      <c r="I195" s="52"/>
+      <c r="J195" s="52"/>
+      <c r="K195" s="52"/>
+      <c r="L195" s="52"/>
+      <c r="M195" s="52"/>
+      <c r="N195" s="52"/>
+      <c r="O195" s="52"/>
+      <c r="P195" s="52"/>
+      <c r="Q195" s="52"/>
+      <c r="R195" s="52"/>
+      <c r="T195" s="52"/>
+    </row>
+    <row r="196" spans="1:20" s="43" customFormat="1">
+      <c r="A196" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B196" s="64"/>
+      <c r="C196" s="64"/>
+      <c r="D196" s="64"/>
+      <c r="E196" s="64"/>
+      <c r="F196" s="179"/>
+      <c r="G196" s="179"/>
+      <c r="H196" s="179"/>
+      <c r="I196" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="J196" s="179"/>
+      <c r="K196" s="179"/>
+      <c r="L196" s="179"/>
+      <c r="M196" s="179"/>
+      <c r="N196" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="O196" s="50"/>
-      <c r="P196" s="51"/>
-      <c r="Q196" s="50"/>
-      <c r="R196" s="50"/>
-      <c r="S196" s="50"/>
-      <c r="T196" s="50" t="s">
+      <c r="O196" s="63"/>
+      <c r="P196" s="181"/>
+      <c r="Q196" s="63"/>
+      <c r="R196" s="63"/>
+      <c r="S196" s="63"/>
+      <c r="T196" s="63" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="197" spans="1:20" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="107" t="s">
+    <row r="197" spans="1:20" ht="60" customHeight="1">
+      <c r="A197" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="B197" s="108"/>
-      <c r="C197" s="107" t="s">
+      <c r="B197" s="117"/>
+      <c r="C197" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="D197" s="108"/>
-      <c r="E197" s="107" t="s">
+      <c r="D197" s="117"/>
+      <c r="E197" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="F197" s="108"/>
-      <c r="G197" s="107" t="s">
+      <c r="F197" s="117"/>
+      <c r="G197" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="H197" s="108"/>
-      <c r="I197" s="107" t="s">
+      <c r="H197" s="117"/>
+      <c r="I197" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="J197" s="108"/>
-      <c r="K197" s="107" t="s">
+      <c r="J197" s="117"/>
+      <c r="K197" s="116" t="s">
         <v>98</v>
       </c>
-      <c r="L197" s="108"/>
-      <c r="M197" s="107" t="s">
+      <c r="L197" s="117"/>
+      <c r="M197" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="N197" s="108"/>
-      <c r="O197" s="107" t="s">
+      <c r="N197" s="117"/>
+      <c r="O197" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="P197" s="108"/>
-      <c r="Q197" s="109" t="s">
+      <c r="P197" s="117"/>
+      <c r="Q197" s="118" t="s">
         <v>183</v>
       </c>
-      <c r="R197" s="108"/>
-      <c r="S197" s="107" t="s">
+      <c r="R197" s="117"/>
+      <c r="S197" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="T197" s="108"/>
-    </row>
-    <row r="198" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="65"/>
-      <c r="B198" s="64"/>
-      <c r="C198" s="63" t="s">
+      <c r="T197" s="117"/>
+    </row>
+    <row r="198" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A198" s="74"/>
+      <c r="B198" s="73"/>
+      <c r="C198" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="D198" s="64"/>
-      <c r="E198" s="63" t="s">
+      <c r="D198" s="73"/>
+      <c r="E198" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="F198" s="64"/>
-      <c r="G198" s="63" t="s">
+      <c r="F198" s="73"/>
+      <c r="G198" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="H198" s="64"/>
-      <c r="I198" s="63" t="s">
+      <c r="H198" s="73"/>
+      <c r="I198" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="J198" s="64"/>
-      <c r="K198" s="63" t="s">
+      <c r="J198" s="73"/>
+      <c r="K198" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L198" s="64"/>
-      <c r="M198" s="63" t="s">
+      <c r="L198" s="73"/>
+      <c r="M198" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="N198" s="64"/>
-      <c r="O198" s="63" t="s">
+      <c r="N198" s="73"/>
+      <c r="O198" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="P198" s="64"/>
-      <c r="Q198" s="63" t="s">
+      <c r="P198" s="73"/>
+      <c r="Q198" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="R198" s="64"/>
-      <c r="S198" s="63" t="s">
+      <c r="R198" s="73"/>
+      <c r="S198" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="T198" s="64"/>
-    </row>
-    <row r="199" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="85" t="s">
+      <c r="T198" s="73"/>
+    </row>
+    <row r="199" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A199" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="B199" s="67"/>
-      <c r="C199" s="85">
+      <c r="B199" s="76"/>
+      <c r="C199" s="94">
         <v>200</v>
       </c>
-      <c r="D199" s="67"/>
-      <c r="E199" s="86">
+      <c r="D199" s="76"/>
+      <c r="E199" s="95">
         <v>9</v>
       </c>
-      <c r="F199" s="67"/>
-      <c r="G199" s="86"/>
-      <c r="H199" s="67"/>
-      <c r="I199" s="87">
+      <c r="F199" s="76"/>
+      <c r="G199" s="95"/>
+      <c r="H199" s="76"/>
+      <c r="I199" s="96">
         <v>10.53</v>
       </c>
-      <c r="J199" s="67"/>
-      <c r="K199" s="88">
+      <c r="J199" s="76"/>
+      <c r="K199" s="97">
         <v>0.73</v>
       </c>
-      <c r="L199" s="67"/>
-      <c r="M199" s="100">
+      <c r="L199" s="76"/>
+      <c r="M199" s="109">
         <v>69.760000000000005</v>
       </c>
-      <c r="N199" s="67"/>
-      <c r="O199" s="101">
+      <c r="N199" s="76"/>
+      <c r="O199" s="110">
         <v>2.9</v>
       </c>
-      <c r="P199" s="67"/>
-      <c r="Q199" s="110">
+      <c r="P199" s="76"/>
+      <c r="Q199" s="119">
         <v>41.63</v>
       </c>
-      <c r="R199" s="70"/>
-      <c r="S199" s="86">
+      <c r="R199" s="79"/>
+      <c r="S199" s="95">
         <v>1.4</v>
       </c>
-      <c r="T199" s="67"/>
-    </row>
-    <row r="200" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="98" t="s">
+      <c r="T199" s="76"/>
+    </row>
+    <row r="200" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A200" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="B200" s="72"/>
-      <c r="C200" s="98">
+      <c r="B200" s="81"/>
+      <c r="C200" s="100">
         <v>200</v>
       </c>
-      <c r="D200" s="72"/>
-      <c r="E200" s="96">
+      <c r="D200" s="81"/>
+      <c r="E200" s="106">
         <v>4</v>
       </c>
-      <c r="F200" s="72"/>
-      <c r="G200" s="96">
+      <c r="F200" s="81"/>
+      <c r="G200" s="106">
         <v>0.5</v>
       </c>
-      <c r="H200" s="72"/>
-      <c r="I200" s="99"/>
-      <c r="J200" s="72"/>
-      <c r="K200" s="97">
+      <c r="H200" s="81"/>
+      <c r="I200" s="108"/>
+      <c r="J200" s="81"/>
+      <c r="K200" s="107">
         <v>1.21</v>
       </c>
-      <c r="L200" s="72"/>
-      <c r="M200" s="103">
+      <c r="L200" s="81"/>
+      <c r="M200" s="112">
         <v>82.81</v>
       </c>
-      <c r="N200" s="72"/>
-      <c r="O200" s="104">
+      <c r="N200" s="81"/>
+      <c r="O200" s="113">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P200" s="72"/>
-      <c r="Q200" s="78">
+      <c r="P200" s="81"/>
+      <c r="Q200" s="87">
         <v>41.43</v>
       </c>
-      <c r="R200" s="79"/>
-      <c r="S200" s="96">
+      <c r="R200" s="88"/>
+      <c r="S200" s="106">
         <v>1.4</v>
       </c>
-      <c r="T200" s="72"/>
-    </row>
-    <row r="201" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="71" t="s">
+      <c r="T200" s="81"/>
+    </row>
+    <row r="201" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A201" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="B201" s="72"/>
-      <c r="C201" s="71">
+      <c r="B201" s="81"/>
+      <c r="C201" s="80">
         <v>200</v>
       </c>
-      <c r="D201" s="72"/>
-      <c r="E201" s="73">
+      <c r="D201" s="81"/>
+      <c r="E201" s="82">
         <v>4</v>
       </c>
-      <c r="F201" s="72"/>
-      <c r="G201" s="73">
+      <c r="F201" s="81"/>
+      <c r="G201" s="82">
         <v>1</v>
       </c>
-      <c r="H201" s="72"/>
-      <c r="I201" s="74"/>
-      <c r="J201" s="72"/>
-      <c r="K201" s="75">
+      <c r="H201" s="81"/>
+      <c r="I201" s="83"/>
+      <c r="J201" s="81"/>
+      <c r="K201" s="84">
         <v>1.63</v>
       </c>
-      <c r="L201" s="72"/>
-      <c r="M201" s="76">
+      <c r="L201" s="81"/>
+      <c r="M201" s="85">
         <v>94.74</v>
       </c>
-      <c r="N201" s="72"/>
-      <c r="O201" s="77">
+      <c r="N201" s="81"/>
+      <c r="O201" s="86">
         <v>1.6</v>
       </c>
-      <c r="P201" s="72"/>
-      <c r="Q201" s="78">
+      <c r="P201" s="81"/>
+      <c r="Q201" s="87">
         <v>41.29</v>
       </c>
-      <c r="R201" s="79"/>
-      <c r="S201" s="73">
+      <c r="R201" s="88"/>
+      <c r="S201" s="82">
         <v>1.4</v>
       </c>
-      <c r="T201" s="72"/>
-    </row>
-    <row r="202" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="98" t="s">
+      <c r="T201" s="81"/>
+    </row>
+    <row r="202" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A202" s="100" t="s">
         <v>151</v>
       </c>
-      <c r="B202" s="72"/>
-      <c r="C202" s="98">
+      <c r="B202" s="81"/>
+      <c r="C202" s="100">
         <v>200</v>
       </c>
-      <c r="D202" s="72"/>
-      <c r="E202" s="96">
+      <c r="D202" s="81"/>
+      <c r="E202" s="106">
         <v>4</v>
       </c>
-      <c r="F202" s="72"/>
-      <c r="G202" s="96">
+      <c r="F202" s="81"/>
+      <c r="G202" s="106">
         <v>1.6</v>
       </c>
-      <c r="H202" s="72"/>
-      <c r="I202" s="99"/>
-      <c r="J202" s="72"/>
-      <c r="K202" s="97">
+      <c r="H202" s="81"/>
+      <c r="I202" s="108"/>
+      <c r="J202" s="81"/>
+      <c r="K202" s="107">
         <v>2</v>
       </c>
-      <c r="L202" s="72"/>
-      <c r="M202" s="103">
+      <c r="L202" s="81"/>
+      <c r="M202" s="112">
         <v>105.25</v>
       </c>
-      <c r="N202" s="72"/>
-      <c r="O202" s="104">
+      <c r="N202" s="81"/>
+      <c r="O202" s="113">
         <v>1.2</v>
       </c>
-      <c r="P202" s="72"/>
-      <c r="Q202" s="78">
+      <c r="P202" s="81"/>
+      <c r="Q202" s="87">
         <v>41.2</v>
       </c>
-      <c r="R202" s="79"/>
-      <c r="S202" s="96">
+      <c r="R202" s="88"/>
+      <c r="S202" s="106">
         <v>1.4</v>
       </c>
-      <c r="T202" s="72"/>
-    </row>
-    <row r="203" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="91" t="s">
+      <c r="T202" s="81"/>
+    </row>
+    <row r="203" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A203" s="101" t="s">
         <v>152</v>
       </c>
-      <c r="B203" s="81"/>
-      <c r="C203" s="91">
+      <c r="B203" s="90"/>
+      <c r="C203" s="101">
         <v>200</v>
       </c>
-      <c r="D203" s="81"/>
-      <c r="E203" s="92">
+      <c r="D203" s="90"/>
+      <c r="E203" s="102">
         <v>4</v>
       </c>
-      <c r="F203" s="81"/>
-      <c r="G203" s="92">
+      <c r="F203" s="90"/>
+      <c r="G203" s="102">
         <v>3</v>
       </c>
-      <c r="H203" s="81"/>
-      <c r="I203" s="93"/>
-      <c r="J203" s="81"/>
-      <c r="K203" s="94">
+      <c r="H203" s="90"/>
+      <c r="I203" s="103"/>
+      <c r="J203" s="90"/>
+      <c r="K203" s="104">
         <v>2.54</v>
       </c>
-      <c r="L203" s="81"/>
-      <c r="M203" s="95">
+      <c r="L203" s="90"/>
+      <c r="M203" s="105">
         <v>120.15</v>
       </c>
-      <c r="N203" s="81"/>
-      <c r="O203" s="115">
+      <c r="N203" s="90"/>
+      <c r="O203" s="124">
         <v>0.6</v>
       </c>
-      <c r="P203" s="81"/>
-      <c r="Q203" s="113">
+      <c r="P203" s="90"/>
+      <c r="Q203" s="122">
         <v>41.06</v>
       </c>
-      <c r="R203" s="114"/>
-      <c r="S203" s="92">
+      <c r="R203" s="123"/>
+      <c r="S203" s="102">
         <v>1.4</v>
       </c>
-      <c r="T203" s="81"/>
-    </row>
-    <row r="204" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="105" t="s">
+      <c r="T203" s="90"/>
+    </row>
+    <row r="204" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A204" s="114" t="s">
         <v>153</v>
       </c>
-      <c r="B204" s="67"/>
-      <c r="C204" s="105">
+      <c r="B204" s="76"/>
+      <c r="C204" s="114">
         <v>250</v>
       </c>
-      <c r="D204" s="67"/>
-      <c r="E204" s="106">
+      <c r="D204" s="76"/>
+      <c r="E204" s="115">
         <v>4</v>
       </c>
-      <c r="F204" s="67"/>
-      <c r="G204" s="106">
+      <c r="F204" s="76"/>
+      <c r="G204" s="115">
         <v>0.5</v>
       </c>
-      <c r="H204" s="67"/>
-      <c r="I204" s="102"/>
-      <c r="J204" s="67"/>
-      <c r="K204" s="128">
+      <c r="H204" s="76"/>
+      <c r="I204" s="111"/>
+      <c r="J204" s="76"/>
+      <c r="K204" s="137">
         <v>1.61</v>
       </c>
-      <c r="L204" s="67"/>
-      <c r="M204" s="89">
+      <c r="L204" s="76"/>
+      <c r="M204" s="98">
         <v>92.84</v>
       </c>
-      <c r="N204" s="67"/>
-      <c r="O204" s="90">
+      <c r="N204" s="76"/>
+      <c r="O204" s="99">
         <v>3</v>
       </c>
-      <c r="P204" s="67"/>
-      <c r="Q204" s="110">
+      <c r="P204" s="76"/>
+      <c r="Q204" s="119">
         <v>41.34</v>
       </c>
-      <c r="R204" s="70"/>
-      <c r="S204" s="106">
+      <c r="R204" s="79"/>
+      <c r="S204" s="115">
         <v>1.4</v>
       </c>
-      <c r="T204" s="67"/>
-    </row>
-    <row r="205" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="71" t="s">
+      <c r="T204" s="76"/>
+    </row>
+    <row r="205" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A205" s="80" t="s">
         <v>154</v>
       </c>
-      <c r="B205" s="72"/>
-      <c r="C205" s="71">
+      <c r="B205" s="81"/>
+      <c r="C205" s="80">
         <v>250</v>
       </c>
-      <c r="D205" s="72"/>
-      <c r="E205" s="73">
+      <c r="D205" s="81"/>
+      <c r="E205" s="82">
         <v>4</v>
       </c>
-      <c r="F205" s="72"/>
-      <c r="G205" s="73">
+      <c r="F205" s="81"/>
+      <c r="G205" s="82">
         <v>1</v>
       </c>
-      <c r="H205" s="72"/>
-      <c r="I205" s="74"/>
-      <c r="J205" s="72"/>
-      <c r="K205" s="75">
+      <c r="H205" s="81"/>
+      <c r="I205" s="83"/>
+      <c r="J205" s="81"/>
+      <c r="K205" s="84">
         <v>2.14</v>
       </c>
-      <c r="L205" s="72"/>
-      <c r="M205" s="76">
+      <c r="L205" s="81"/>
+      <c r="M205" s="85">
         <v>107.32</v>
       </c>
-      <c r="N205" s="72"/>
-      <c r="O205" s="77">
+      <c r="N205" s="81"/>
+      <c r="O205" s="86">
         <v>2.2999999999999998</v>
       </c>
-      <c r="P205" s="72"/>
-      <c r="Q205" s="78">
+      <c r="P205" s="81"/>
+      <c r="Q205" s="87">
         <v>41.25</v>
       </c>
-      <c r="R205" s="79"/>
-      <c r="S205" s="73">
+      <c r="R205" s="88"/>
+      <c r="S205" s="82">
         <v>1.4</v>
       </c>
-      <c r="T205" s="72"/>
-    </row>
-    <row r="206" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="98" t="s">
+      <c r="T205" s="81"/>
+    </row>
+    <row r="206" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A206" s="100" t="s">
         <v>111</v>
       </c>
-      <c r="B206" s="72"/>
-      <c r="C206" s="98">
+      <c r="B206" s="81"/>
+      <c r="C206" s="100">
         <v>250</v>
       </c>
-      <c r="D206" s="72"/>
-      <c r="E206" s="96">
+      <c r="D206" s="81"/>
+      <c r="E206" s="106">
         <v>4</v>
       </c>
-      <c r="F206" s="72"/>
-      <c r="G206" s="96">
+      <c r="F206" s="81"/>
+      <c r="G206" s="106">
         <v>1.6</v>
       </c>
-      <c r="H206" s="72"/>
-      <c r="I206" s="99"/>
-      <c r="J206" s="72"/>
-      <c r="K206" s="97">
+      <c r="H206" s="81"/>
+      <c r="I206" s="108"/>
+      <c r="J206" s="81"/>
+      <c r="K206" s="107">
         <v>2.57</v>
       </c>
-      <c r="L206" s="72"/>
-      <c r="M206" s="103">
+      <c r="L206" s="81"/>
+      <c r="M206" s="112">
         <v>120.1</v>
       </c>
-      <c r="N206" s="72"/>
-      <c r="O206" s="104">
+      <c r="N206" s="81"/>
+      <c r="O206" s="113">
         <v>1.8</v>
       </c>
-      <c r="P206" s="72"/>
-      <c r="Q206" s="78">
+      <c r="P206" s="81"/>
+      <c r="Q206" s="87">
         <v>41.18</v>
       </c>
-      <c r="R206" s="79"/>
-      <c r="S206" s="96">
+      <c r="R206" s="88"/>
+      <c r="S206" s="106">
         <v>1.4</v>
       </c>
-      <c r="T206" s="72"/>
-    </row>
-    <row r="207" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="71" t="s">
+      <c r="T206" s="81"/>
+    </row>
+    <row r="207" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A207" s="80" t="s">
         <v>155</v>
       </c>
-      <c r="B207" s="72"/>
-      <c r="C207" s="71">
+      <c r="B207" s="81"/>
+      <c r="C207" s="80">
         <v>250</v>
       </c>
-      <c r="D207" s="72"/>
-      <c r="E207" s="73">
+      <c r="D207" s="81"/>
+      <c r="E207" s="82">
         <v>4</v>
       </c>
-      <c r="F207" s="72"/>
-      <c r="G207" s="73">
+      <c r="F207" s="81"/>
+      <c r="G207" s="82">
         <v>3</v>
       </c>
-      <c r="H207" s="72"/>
-      <c r="I207" s="74"/>
-      <c r="J207" s="72"/>
-      <c r="K207" s="75">
+      <c r="H207" s="81"/>
+      <c r="I207" s="83"/>
+      <c r="J207" s="81"/>
+      <c r="K207" s="84">
         <v>3.16</v>
       </c>
-      <c r="L207" s="72"/>
-      <c r="M207" s="76">
+      <c r="L207" s="81"/>
+      <c r="M207" s="85">
         <v>137.46</v>
       </c>
-      <c r="N207" s="72"/>
-      <c r="O207" s="77">
+      <c r="N207" s="81"/>
+      <c r="O207" s="86">
         <v>1.2</v>
       </c>
-      <c r="P207" s="72"/>
-      <c r="Q207" s="78">
+      <c r="P207" s="81"/>
+      <c r="Q207" s="87">
         <v>41.09</v>
       </c>
-      <c r="R207" s="79"/>
-      <c r="S207" s="73">
+      <c r="R207" s="88"/>
+      <c r="S207" s="82">
         <v>1.4</v>
       </c>
-      <c r="T207" s="72"/>
-    </row>
-    <row r="208" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="80" t="s">
+      <c r="T207" s="81"/>
+    </row>
+    <row r="208" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A208" s="89" t="s">
         <v>156</v>
       </c>
-      <c r="B208" s="81"/>
-      <c r="C208" s="80">
+      <c r="B208" s="90"/>
+      <c r="C208" s="89">
         <v>250</v>
       </c>
-      <c r="D208" s="81"/>
-      <c r="E208" s="82">
+      <c r="D208" s="90"/>
+      <c r="E208" s="91">
         <v>4</v>
       </c>
-      <c r="F208" s="81"/>
-      <c r="G208" s="82">
+      <c r="F208" s="90"/>
+      <c r="G208" s="91">
         <v>5</v>
       </c>
-      <c r="H208" s="81"/>
-      <c r="I208" s="83"/>
-      <c r="J208" s="81"/>
-      <c r="K208" s="84">
+      <c r="H208" s="90"/>
+      <c r="I208" s="92"/>
+      <c r="J208" s="90"/>
+      <c r="K208" s="93">
         <v>3.6</v>
       </c>
-      <c r="L208" s="81"/>
-      <c r="M208" s="111">
+      <c r="L208" s="90"/>
+      <c r="M208" s="120">
         <v>149.51</v>
       </c>
-      <c r="N208" s="81"/>
-      <c r="O208" s="112">
+      <c r="N208" s="90"/>
+      <c r="O208" s="121">
         <v>0.7</v>
       </c>
-      <c r="P208" s="81"/>
-      <c r="Q208" s="113">
+      <c r="P208" s="90"/>
+      <c r="Q208" s="122">
         <v>41.09</v>
       </c>
-      <c r="R208" s="114"/>
-      <c r="S208" s="82">
+      <c r="R208" s="123"/>
+      <c r="S208" s="91">
         <v>1.4</v>
       </c>
-      <c r="T208" s="81"/>
-    </row>
-    <row r="209" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="71" t="s">
+      <c r="T208" s="90"/>
+    </row>
+    <row r="209" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A209" s="80" t="s">
         <v>157</v>
       </c>
-      <c r="B209" s="72"/>
-      <c r="C209" s="71">
+      <c r="B209" s="81"/>
+      <c r="C209" s="80">
         <v>280</v>
       </c>
-      <c r="D209" s="72"/>
-      <c r="E209" s="73">
+      <c r="D209" s="81"/>
+      <c r="E209" s="82">
         <v>4</v>
       </c>
-      <c r="F209" s="72"/>
-      <c r="G209" s="73">
+      <c r="F209" s="81"/>
+      <c r="G209" s="82">
         <v>1</v>
       </c>
-      <c r="H209" s="72"/>
-      <c r="I209" s="74"/>
-      <c r="J209" s="72"/>
-      <c r="K209" s="75">
+      <c r="H209" s="81"/>
+      <c r="I209" s="83"/>
+      <c r="J209" s="81"/>
+      <c r="K209" s="84">
         <v>2.4300000000000002</v>
       </c>
-      <c r="L209" s="72"/>
-      <c r="M209" s="76">
+      <c r="L209" s="81"/>
+      <c r="M209" s="85">
         <v>114.61</v>
       </c>
-      <c r="N209" s="72"/>
-      <c r="O209" s="77">
+      <c r="N209" s="81"/>
+      <c r="O209" s="86">
         <v>2.5</v>
       </c>
-      <c r="P209" s="72"/>
-      <c r="Q209" s="78">
+      <c r="P209" s="81"/>
+      <c r="Q209" s="87">
         <v>41.15</v>
       </c>
-      <c r="R209" s="79"/>
-      <c r="S209" s="73">
+      <c r="R209" s="88"/>
+      <c r="S209" s="82">
         <v>1.4</v>
       </c>
-      <c r="T209" s="72"/>
-    </row>
-    <row r="210" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="98" t="s">
+      <c r="T209" s="81"/>
+    </row>
+    <row r="210" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A210" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="B210" s="72"/>
-      <c r="C210" s="98">
+      <c r="B210" s="81"/>
+      <c r="C210" s="100">
         <v>280</v>
       </c>
-      <c r="D210" s="72"/>
-      <c r="E210" s="96">
+      <c r="D210" s="81"/>
+      <c r="E210" s="106">
         <v>4</v>
       </c>
-      <c r="F210" s="72"/>
-      <c r="G210" s="96">
+      <c r="F210" s="81"/>
+      <c r="G210" s="106">
         <v>1.6</v>
       </c>
-      <c r="H210" s="72"/>
-      <c r="I210" s="99"/>
-      <c r="J210" s="72"/>
-      <c r="K210" s="97">
+      <c r="H210" s="81"/>
+      <c r="I210" s="108"/>
+      <c r="J210" s="81"/>
+      <c r="K210" s="107">
         <v>2.88</v>
       </c>
-      <c r="L210" s="72"/>
-      <c r="M210" s="103">
+      <c r="L210" s="81"/>
+      <c r="M210" s="112">
         <v>128.5</v>
       </c>
-      <c r="N210" s="72"/>
-      <c r="O210" s="104">
+      <c r="N210" s="81"/>
+      <c r="O210" s="113">
         <v>2</v>
       </c>
-      <c r="P210" s="72"/>
-      <c r="Q210" s="78">
+      <c r="P210" s="81"/>
+      <c r="Q210" s="87">
         <v>41.05</v>
       </c>
-      <c r="R210" s="79"/>
-      <c r="S210" s="96">
+      <c r="R210" s="88"/>
+      <c r="S210" s="106">
         <v>1.4</v>
       </c>
-      <c r="T210" s="72"/>
-    </row>
-    <row r="211" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="71" t="s">
+      <c r="T210" s="81"/>
+    </row>
+    <row r="211" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A211" s="80" t="s">
         <v>112</v>
       </c>
-      <c r="B211" s="72"/>
-      <c r="C211" s="71">
+      <c r="B211" s="81"/>
+      <c r="C211" s="80">
         <v>280</v>
       </c>
-      <c r="D211" s="72"/>
-      <c r="E211" s="73">
+      <c r="D211" s="81"/>
+      <c r="E211" s="82">
         <v>4</v>
       </c>
-      <c r="F211" s="72"/>
-      <c r="G211" s="73">
+      <c r="F211" s="81"/>
+      <c r="G211" s="82">
         <v>3</v>
       </c>
-      <c r="H211" s="72"/>
-      <c r="I211" s="74"/>
-      <c r="J211" s="72"/>
-      <c r="K211" s="75">
+      <c r="H211" s="81"/>
+      <c r="I211" s="83"/>
+      <c r="J211" s="81"/>
+      <c r="K211" s="84">
         <v>3.5</v>
       </c>
-      <c r="L211" s="72"/>
-      <c r="M211" s="76">
+      <c r="L211" s="81"/>
+      <c r="M211" s="85">
         <v>147.05000000000001</v>
       </c>
-      <c r="N211" s="72"/>
-      <c r="O211" s="77">
+      <c r="N211" s="81"/>
+      <c r="O211" s="86">
         <v>1.4</v>
       </c>
-      <c r="P211" s="72"/>
-      <c r="Q211" s="78">
+      <c r="P211" s="81"/>
+      <c r="Q211" s="87">
         <v>41.02</v>
       </c>
-      <c r="R211" s="79"/>
-      <c r="S211" s="73">
+      <c r="R211" s="88"/>
+      <c r="S211" s="82">
         <v>1.4</v>
       </c>
-      <c r="T211" s="72"/>
-    </row>
-    <row r="212" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="80" t="s">
+      <c r="T211" s="81"/>
+    </row>
+    <row r="212" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A212" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="B212" s="81"/>
-      <c r="C212" s="80">
+      <c r="B212" s="90"/>
+      <c r="C212" s="89">
         <v>280</v>
       </c>
-      <c r="D212" s="81"/>
-      <c r="E212" s="82">
+      <c r="D212" s="90"/>
+      <c r="E212" s="91">
         <v>4</v>
       </c>
-      <c r="F212" s="81"/>
-      <c r="G212" s="82">
+      <c r="F212" s="90"/>
+      <c r="G212" s="91">
         <v>5</v>
       </c>
-      <c r="H212" s="81"/>
-      <c r="I212" s="83"/>
-      <c r="J212" s="81"/>
-      <c r="K212" s="84">
+      <c r="H212" s="90"/>
+      <c r="I212" s="92"/>
+      <c r="J212" s="90"/>
+      <c r="K212" s="93">
         <v>3.93</v>
       </c>
-      <c r="L212" s="81"/>
-      <c r="M212" s="111">
+      <c r="L212" s="90"/>
+      <c r="M212" s="120">
         <v>159.91999999999999</v>
       </c>
-      <c r="N212" s="81"/>
-      <c r="O212" s="112">
+      <c r="N212" s="90"/>
+      <c r="O212" s="121">
         <v>0.9</v>
       </c>
-      <c r="P212" s="81"/>
-      <c r="Q212" s="113">
+      <c r="P212" s="90"/>
+      <c r="Q212" s="122">
         <v>40.96</v>
       </c>
-      <c r="R212" s="114"/>
-      <c r="S212" s="82">
+      <c r="R212" s="123"/>
+      <c r="S212" s="91">
         <v>1.4</v>
       </c>
-      <c r="T212" s="81"/>
-    </row>
-    <row r="213" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="85" t="s">
+      <c r="T212" s="90"/>
+    </row>
+    <row r="213" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A213" s="94" t="s">
         <v>160</v>
       </c>
-      <c r="B213" s="67"/>
-      <c r="C213" s="85">
+      <c r="B213" s="76"/>
+      <c r="C213" s="94">
         <v>300</v>
       </c>
-      <c r="D213" s="67"/>
-      <c r="E213" s="86">
+      <c r="D213" s="76"/>
+      <c r="E213" s="95">
         <v>4</v>
       </c>
-      <c r="F213" s="67"/>
-      <c r="G213" s="86">
+      <c r="F213" s="76"/>
+      <c r="G213" s="95">
         <v>1.6</v>
       </c>
-      <c r="H213" s="67"/>
-      <c r="I213" s="87"/>
-      <c r="J213" s="67"/>
-      <c r="K213" s="88">
+      <c r="H213" s="76"/>
+      <c r="I213" s="96"/>
+      <c r="J213" s="76"/>
+      <c r="K213" s="97">
         <v>3.1</v>
       </c>
-      <c r="L213" s="67"/>
-      <c r="M213" s="100">
+      <c r="L213" s="76"/>
+      <c r="M213" s="109">
         <v>133.91999999999999</v>
       </c>
-      <c r="N213" s="67"/>
-      <c r="O213" s="101">
+      <c r="N213" s="76"/>
+      <c r="O213" s="110">
         <v>2.4</v>
       </c>
-      <c r="P213" s="67"/>
-      <c r="Q213" s="110">
+      <c r="P213" s="76"/>
+      <c r="Q213" s="119">
         <v>41.05</v>
       </c>
-      <c r="R213" s="70"/>
-      <c r="S213" s="86">
+      <c r="R213" s="79"/>
+      <c r="S213" s="95">
         <v>1.4</v>
       </c>
-      <c r="T213" s="67"/>
-    </row>
-    <row r="214" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="98" t="s">
+      <c r="T213" s="76"/>
+    </row>
+    <row r="214" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A214" s="100" t="s">
         <v>113</v>
       </c>
-      <c r="B214" s="72"/>
-      <c r="C214" s="98">
+      <c r="B214" s="81"/>
+      <c r="C214" s="100">
         <v>300</v>
       </c>
-      <c r="D214" s="72"/>
-      <c r="E214" s="96">
+      <c r="D214" s="81"/>
+      <c r="E214" s="106">
         <v>4</v>
       </c>
-      <c r="F214" s="72"/>
-      <c r="G214" s="96">
+      <c r="F214" s="81"/>
+      <c r="G214" s="106">
         <v>3</v>
       </c>
-      <c r="H214" s="72"/>
-      <c r="I214" s="99"/>
-      <c r="J214" s="72"/>
-      <c r="K214" s="97">
+      <c r="H214" s="81"/>
+      <c r="I214" s="108"/>
+      <c r="J214" s="81"/>
+      <c r="K214" s="107">
         <v>3.7</v>
       </c>
-      <c r="L214" s="72"/>
-      <c r="M214" s="103">
+      <c r="L214" s="81"/>
+      <c r="M214" s="112">
         <v>153.21</v>
       </c>
-      <c r="N214" s="72"/>
-      <c r="O214" s="104">
+      <c r="N214" s="81"/>
+      <c r="O214" s="113">
         <v>1.7</v>
       </c>
-      <c r="P214" s="72"/>
-      <c r="Q214" s="78">
+      <c r="P214" s="81"/>
+      <c r="Q214" s="87">
         <v>40.950000000000003</v>
       </c>
-      <c r="R214" s="79"/>
-      <c r="S214" s="96">
+      <c r="R214" s="88"/>
+      <c r="S214" s="106">
         <v>1.4</v>
       </c>
-      <c r="T214" s="72"/>
-    </row>
-    <row r="215" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="71" t="s">
+      <c r="T214" s="81"/>
+    </row>
+    <row r="215" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A215" s="80" t="s">
         <v>161</v>
       </c>
-      <c r="B215" s="72"/>
-      <c r="C215" s="71">
+      <c r="B215" s="81"/>
+      <c r="C215" s="80">
         <v>300</v>
       </c>
-      <c r="D215" s="72"/>
-      <c r="E215" s="73">
+      <c r="D215" s="81"/>
+      <c r="E215" s="82">
         <v>4</v>
       </c>
-      <c r="F215" s="72"/>
-      <c r="G215" s="73">
+      <c r="F215" s="81"/>
+      <c r="G215" s="82">
         <v>5</v>
       </c>
-      <c r="H215" s="72"/>
-      <c r="I215" s="74"/>
-      <c r="J215" s="72"/>
-      <c r="K215" s="75">
+      <c r="H215" s="81"/>
+      <c r="I215" s="83"/>
+      <c r="J215" s="81"/>
+      <c r="K215" s="84">
         <v>4.1500000000000004</v>
       </c>
-      <c r="L215" s="72"/>
-      <c r="M215" s="76">
+      <c r="L215" s="81"/>
+      <c r="M215" s="85">
         <v>166.58</v>
       </c>
-      <c r="N215" s="72"/>
-      <c r="O215" s="77">
+      <c r="N215" s="81"/>
+      <c r="O215" s="86">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P215" s="72"/>
-      <c r="Q215" s="78">
+      <c r="P215" s="81"/>
+      <c r="Q215" s="87">
         <v>40.950000000000003</v>
       </c>
-      <c r="R215" s="79"/>
-      <c r="S215" s="73">
+      <c r="R215" s="88"/>
+      <c r="S215" s="82">
         <v>1.4</v>
       </c>
-      <c r="T215" s="72"/>
-    </row>
-    <row r="216" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="105" t="s">
+      <c r="T215" s="81"/>
+    </row>
+    <row r="216" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A216" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="B216" s="67"/>
-      <c r="C216" s="105">
+      <c r="B216" s="76"/>
+      <c r="C216" s="114">
         <v>320</v>
       </c>
-      <c r="D216" s="67"/>
-      <c r="E216" s="106">
+      <c r="D216" s="76"/>
+      <c r="E216" s="115">
         <v>4</v>
       </c>
-      <c r="F216" s="67"/>
-      <c r="G216" s="106">
+      <c r="F216" s="76"/>
+      <c r="G216" s="115">
         <v>3</v>
       </c>
-      <c r="H216" s="67"/>
-      <c r="I216" s="102"/>
-      <c r="J216" s="67"/>
-      <c r="K216" s="128">
+      <c r="H216" s="76"/>
+      <c r="I216" s="111"/>
+      <c r="J216" s="76"/>
+      <c r="K216" s="137">
         <v>3.9</v>
       </c>
-      <c r="L216" s="67"/>
-      <c r="M216" s="89">
+      <c r="L216" s="76"/>
+      <c r="M216" s="98">
         <v>159.22</v>
       </c>
-      <c r="N216" s="67"/>
-      <c r="O216" s="90">
+      <c r="N216" s="76"/>
+      <c r="O216" s="99">
         <v>1.6</v>
       </c>
-      <c r="P216" s="67"/>
-      <c r="Q216" s="110">
+      <c r="P216" s="76"/>
+      <c r="Q216" s="119">
         <v>40.9</v>
       </c>
-      <c r="R216" s="70"/>
-      <c r="S216" s="106">
+      <c r="R216" s="79"/>
+      <c r="S216" s="115">
         <v>1.4</v>
       </c>
-      <c r="T216" s="67"/>
-    </row>
-    <row r="217" spans="1:20" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="71" t="s">
+      <c r="T216" s="76"/>
+    </row>
+    <row r="217" spans="1:20" ht="14.25" customHeight="1">
+      <c r="A217" s="80" t="s">
         <v>163</v>
       </c>
-      <c r="B217" s="72"/>
-      <c r="C217" s="71">
+      <c r="B217" s="81"/>
+      <c r="C217" s="80">
         <v>320</v>
       </c>
-      <c r="D217" s="72"/>
-      <c r="E217" s="73">
+      <c r="D217" s="81"/>
+      <c r="E217" s="82">
         <v>4</v>
       </c>
-      <c r="F217" s="72"/>
-      <c r="G217" s="73">
+      <c r="F217" s="81"/>
+      <c r="G217" s="82">
         <v>5</v>
       </c>
-      <c r="H217" s="72"/>
-      <c r="I217" s="74"/>
-      <c r="J217" s="72"/>
-      <c r="K217" s="75">
+      <c r="H217" s="81"/>
+      <c r="I217" s="83"/>
+      <c r="J217" s="81"/>
+      <c r="K217" s="84">
         <v>4.34</v>
       </c>
-      <c r="L217" s="72"/>
-      <c r="M217" s="76">
+      <c r="L217" s="81"/>
+      <c r="M217" s="85">
         <v>173.06</v>
       </c>
-      <c r="N217" s="72"/>
-      <c r="O217" s="77">
+      <c r="N217" s="81"/>
+      <c r="O217" s="86">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P217" s="72"/>
-      <c r="Q217" s="78">
+      <c r="P217" s="81"/>
+      <c r="Q217" s="87">
         <v>40.83</v>
       </c>
-      <c r="R217" s="79"/>
-      <c r="S217" s="73">
+      <c r="R217" s="88"/>
+      <c r="S217" s="82">
         <v>1.4</v>
       </c>
-      <c r="T217" s="72"/>
-    </row>
-    <row r="218" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="164" t="s">
+      <c r="T217" s="81"/>
+    </row>
+    <row r="218" spans="1:20" ht="15" customHeight="1">
+      <c r="A218" s="173" t="s">
         <v>164</v>
       </c>
-      <c r="B218" s="108"/>
-      <c r="C218" s="164">
+      <c r="B218" s="117"/>
+      <c r="C218" s="173">
         <v>250</v>
       </c>
-      <c r="D218" s="108"/>
-      <c r="E218" s="145">
+      <c r="D218" s="117"/>
+      <c r="E218" s="154">
         <v>4</v>
       </c>
-      <c r="F218" s="108"/>
-      <c r="G218" s="145">
+      <c r="F218" s="117"/>
+      <c r="G218" s="154">
         <v>1.6</v>
       </c>
-      <c r="H218" s="108"/>
-      <c r="I218" s="146"/>
-      <c r="J218" s="108"/>
-      <c r="K218" s="147">
+      <c r="H218" s="117"/>
+      <c r="I218" s="155"/>
+      <c r="J218" s="117"/>
+      <c r="K218" s="156">
         <v>2.57</v>
       </c>
-      <c r="L218" s="108"/>
-      <c r="M218" s="148">
+      <c r="L218" s="117"/>
+      <c r="M218" s="157">
         <v>120.1</v>
       </c>
-      <c r="N218" s="108"/>
-      <c r="O218" s="149">
+      <c r="N218" s="117"/>
+      <c r="O218" s="158">
         <v>1.8</v>
       </c>
-      <c r="P218" s="108"/>
-      <c r="Q218" s="150">
+      <c r="P218" s="117"/>
+      <c r="Q218" s="159">
         <v>41.04</v>
       </c>
-      <c r="R218" s="144"/>
-      <c r="S218" s="145">
+      <c r="R218" s="153"/>
+      <c r="S218" s="154">
         <v>1.4</v>
       </c>
-      <c r="T218" s="108"/>
-    </row>
-    <row r="219" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="165" t="s">
+      <c r="T218" s="117"/>
+    </row>
+    <row r="219" spans="1:20" ht="15" customHeight="1">
+      <c r="A219" s="174" t="s">
         <v>165</v>
       </c>
-      <c r="B219" s="108"/>
-      <c r="C219" s="165">
+      <c r="B219" s="117"/>
+      <c r="C219" s="174">
         <v>280</v>
       </c>
-      <c r="D219" s="108"/>
-      <c r="E219" s="163">
+      <c r="D219" s="117"/>
+      <c r="E219" s="172">
         <v>4</v>
       </c>
-      <c r="F219" s="108"/>
-      <c r="G219" s="163">
+      <c r="F219" s="117"/>
+      <c r="G219" s="172">
         <v>3</v>
       </c>
-      <c r="H219" s="108"/>
-      <c r="I219" s="166"/>
-      <c r="J219" s="108"/>
-      <c r="K219" s="167">
+      <c r="H219" s="117"/>
+      <c r="I219" s="175"/>
+      <c r="J219" s="117"/>
+      <c r="K219" s="176">
         <v>3.5</v>
       </c>
-      <c r="L219" s="108"/>
-      <c r="M219" s="168">
+      <c r="L219" s="117"/>
+      <c r="M219" s="177">
         <v>147.05000000000001</v>
       </c>
-      <c r="N219" s="108"/>
-      <c r="O219" s="169">
+      <c r="N219" s="117"/>
+      <c r="O219" s="178">
         <v>1.4</v>
       </c>
-      <c r="P219" s="108"/>
-      <c r="Q219" s="150">
+      <c r="P219" s="117"/>
+      <c r="Q219" s="159">
         <v>41.11</v>
       </c>
-      <c r="R219" s="144"/>
-      <c r="S219" s="163">
+      <c r="R219" s="153"/>
+      <c r="S219" s="172">
         <v>1.4</v>
       </c>
-      <c r="T219" s="108"/>
-    </row>
-    <row r="220" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="164" t="s">
+      <c r="T219" s="117"/>
+    </row>
+    <row r="220" spans="1:20" ht="15" customHeight="1">
+      <c r="A220" s="173" t="s">
         <v>114</v>
       </c>
-      <c r="B220" s="108"/>
-      <c r="C220" s="164">
+      <c r="B220" s="117"/>
+      <c r="C220" s="173">
         <v>300</v>
       </c>
-      <c r="D220" s="108"/>
-      <c r="E220" s="145">
+      <c r="D220" s="117"/>
+      <c r="E220" s="154">
         <v>4</v>
       </c>
-      <c r="F220" s="108"/>
-      <c r="G220" s="145">
+      <c r="F220" s="117"/>
+      <c r="G220" s="154">
         <v>3</v>
       </c>
-      <c r="H220" s="108"/>
-      <c r="I220" s="146"/>
-      <c r="J220" s="108"/>
-      <c r="K220" s="147">
+      <c r="H220" s="117"/>
+      <c r="I220" s="155"/>
+      <c r="J220" s="117"/>
+      <c r="K220" s="156">
         <v>3.7</v>
       </c>
-      <c r="L220" s="108"/>
-      <c r="M220" s="148">
+      <c r="L220" s="117"/>
+      <c r="M220" s="157">
         <v>153.21</v>
       </c>
-      <c r="N220" s="108"/>
-      <c r="O220" s="149">
+      <c r="N220" s="117"/>
+      <c r="O220" s="158">
         <v>1.7</v>
       </c>
-      <c r="P220" s="108"/>
-      <c r="Q220" s="150">
+      <c r="P220" s="117"/>
+      <c r="Q220" s="159">
         <v>41.06</v>
       </c>
-      <c r="R220" s="144"/>
-      <c r="S220" s="145">
+      <c r="R220" s="153"/>
+      <c r="S220" s="154">
         <v>1.4</v>
       </c>
-      <c r="T220" s="108"/>
-    </row>
-    <row r="221" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="T220" s="117"/>
+    </row>
+    <row r="221" spans="1:20" ht="15" customHeight="1">
       <c r="A221" s="22" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="222" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20" ht="15" customHeight="1">
       <c r="A222" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="223" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20" ht="15" customHeight="1">
       <c r="A223" s="22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="224" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="1:20" ht="14" x14ac:dyDescent="0.3">
-      <c r="C243" s="57" t="s">
+    <row r="224" spans="1:20" ht="15" customHeight="1"/>
+    <row r="225" ht="15" customHeight="1"/>
+    <row r="226" ht="15" customHeight="1"/>
+    <row r="227" ht="15" customHeight="1"/>
+    <row r="228" ht="15" customHeight="1"/>
+    <row r="229" ht="15" customHeight="1"/>
+    <row r="230" ht="15" customHeight="1"/>
+    <row r="231" ht="15" customHeight="1"/>
+    <row r="232" ht="15" customHeight="1"/>
+    <row r="233" ht="15" customHeight="1"/>
+    <row r="234" ht="15" customHeight="1"/>
+    <row r="235" ht="15" customHeight="1"/>
+    <row r="236" ht="15" customHeight="1"/>
+    <row r="237" ht="15" customHeight="1"/>
+    <row r="238" ht="15" customHeight="1"/>
+    <row r="239" ht="15" customHeight="1"/>
+    <row r="240" ht="15" customHeight="1"/>
+    <row r="241" spans="1:20" ht="15" customHeight="1"/>
+    <row r="242" spans="1:20" ht="15" customHeight="1"/>
+    <row r="243" spans="1:20" ht="15">
+      <c r="C243" s="45" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="244" spans="1:20" s="31" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:20" s="31" customFormat="1" ht="15">
       <c r="A244" s="42"/>
       <c r="B244" s="43"/>
       <c r="C244" s="43"/>
@@ -8094,88 +8205,88 @@
       <c r="S244" s="43"/>
       <c r="T244" s="43"/>
     </row>
-    <row r="246" spans="1:20" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="1:20" s="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:20" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A248" s="58"/>
-      <c r="B248" s="58"/>
-      <c r="C248" s="58"/>
-      <c r="D248" s="58"/>
-      <c r="E248" s="58"/>
-      <c r="F248" s="58"/>
-      <c r="G248" s="58"/>
-      <c r="H248" s="58"/>
-      <c r="I248" s="59"/>
-      <c r="J248" s="58"/>
-      <c r="K248" s="58"/>
-      <c r="L248" s="58"/>
-      <c r="M248" s="58"/>
-      <c r="N248" s="58"/>
-      <c r="O248" s="60"/>
-      <c r="P248" s="61"/>
-      <c r="Q248" s="60"/>
-      <c r="R248" s="60"/>
-      <c r="S248" s="60"/>
-      <c r="T248" s="60"/>
-    </row>
-    <row r="249" spans="1:20" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A249" s="52" t="str">
+    <row r="246" spans="1:20" s="41" customFormat="1"/>
+    <row r="247" spans="1:20" s="41" customFormat="1"/>
+    <row r="248" spans="1:20" s="43" customFormat="1">
+      <c r="A248" s="67"/>
+      <c r="B248" s="67"/>
+      <c r="C248" s="67"/>
+      <c r="D248" s="67"/>
+      <c r="E248" s="67"/>
+      <c r="F248" s="67"/>
+      <c r="G248" s="67"/>
+      <c r="H248" s="67"/>
+      <c r="I248" s="68"/>
+      <c r="J248" s="67"/>
+      <c r="K248" s="67"/>
+      <c r="L248" s="67"/>
+      <c r="M248" s="46"/>
+      <c r="N248" s="67"/>
+      <c r="O248" s="69"/>
+      <c r="P248" s="70"/>
+      <c r="Q248" s="69"/>
+      <c r="R248" s="48"/>
+      <c r="S248" s="48"/>
+      <c r="T248" s="48"/>
+    </row>
+    <row r="249" spans="1:20" s="43" customFormat="1">
+      <c r="A249" s="46" t="str">
         <f>A59</f>
         <v>Calibration No: CAL00003</v>
       </c>
-      <c r="B249" s="52"/>
-      <c r="C249" s="52"/>
-      <c r="D249" s="52"/>
-      <c r="E249" s="52"/>
-      <c r="F249" s="52"/>
-      <c r="G249" s="52"/>
-      <c r="H249" s="52"/>
-      <c r="I249" s="53" t="str">
+      <c r="B249" s="46"/>
+      <c r="C249" s="46"/>
+      <c r="D249" s="46"/>
+      <c r="E249" s="46"/>
+      <c r="F249" s="46"/>
+      <c r="G249" s="46"/>
+      <c r="H249" s="46"/>
+      <c r="I249" s="47" t="str">
         <f>I59</f>
         <v>Report Date: 7 July 2021</v>
       </c>
-      <c r="J249" s="52"/>
-      <c r="K249" s="52"/>
-      <c r="L249" s="52"/>
-      <c r="M249" s="52"/>
-      <c r="N249" s="52" t="s">
+      <c r="J249" s="46"/>
+      <c r="K249" s="46"/>
+      <c r="L249" s="46"/>
+      <c r="M249" s="64"/>
+      <c r="N249" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O249" s="54"/>
-      <c r="P249" s="55"/>
-      <c r="Q249" s="54"/>
-      <c r="R249" s="54"/>
-      <c r="S249" s="54"/>
-      <c r="T249" s="54" t="s">
+      <c r="O249" s="48"/>
+      <c r="P249" s="49"/>
+      <c r="Q249" s="48"/>
+      <c r="R249" s="65"/>
+      <c r="S249" s="65"/>
+      <c r="T249" s="65" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="250" spans="1:20" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A250" s="58"/>
-      <c r="B250" s="58"/>
-      <c r="C250" s="58"/>
-      <c r="D250" s="58"/>
-      <c r="E250" s="58"/>
-      <c r="F250" s="58"/>
-      <c r="G250" s="58"/>
-      <c r="H250" s="58"/>
-      <c r="I250" s="59"/>
-      <c r="J250" s="58"/>
-      <c r="K250" s="58"/>
-      <c r="L250" s="58"/>
-      <c r="M250" s="58"/>
-      <c r="N250" s="58"/>
-      <c r="O250" s="60"/>
-      <c r="P250" s="61"/>
-      <c r="Q250" s="60"/>
-      <c r="R250" s="60"/>
-      <c r="S250" s="60"/>
-      <c r="T250" s="60"/>
-    </row>
-    <row r="273" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:20" s="43" customFormat="1">
+      <c r="A250" s="46"/>
+      <c r="B250" s="46"/>
+      <c r="C250" s="46"/>
+      <c r="D250" s="46"/>
+      <c r="E250" s="46"/>
+      <c r="F250" s="46"/>
+      <c r="G250" s="46"/>
+      <c r="H250" s="46"/>
+      <c r="I250" s="47"/>
+      <c r="J250" s="46"/>
+      <c r="K250" s="46"/>
+      <c r="L250" s="46"/>
+      <c r="M250" s="46"/>
+      <c r="N250" s="46"/>
+      <c r="O250" s="48"/>
+      <c r="P250" s="49"/>
+      <c r="Q250" s="48"/>
+      <c r="R250" s="48"/>
+      <c r="S250" s="48"/>
+      <c r="T250" s="48"/>
+    </row>
+    <row r="273" spans="1:20" ht="14.1" customHeight="1">
       <c r="A273" s="42"/>
       <c r="B273" s="43"/>
-      <c r="C273" s="57" t="s">
+      <c r="C273" s="45" t="s">
         <v>178</v>
       </c>
       <c r="D273" s="43"/>
@@ -8196,62 +8307,69 @@
       <c r="S273" s="43"/>
       <c r="T273" s="43"/>
     </row>
-    <row r="300" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:20" ht="14.1" customHeight="1">
       <c r="A300" s="42"/>
       <c r="B300" s="43"/>
-      <c r="C300" s="57" t="s">
+      <c r="C300" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="D300" s="57"/>
-      <c r="E300" s="57"/>
-      <c r="F300" s="57"/>
-      <c r="G300" s="57"/>
-      <c r="H300" s="57"/>
-      <c r="I300" s="57"/>
-      <c r="J300" s="57"/>
-      <c r="K300" s="57"/>
-      <c r="L300" s="57"/>
-      <c r="M300" s="57"/>
-      <c r="N300" s="57"/>
-      <c r="O300" s="57"/>
-      <c r="P300" s="57"/>
-      <c r="Q300" s="57"/>
-      <c r="R300" s="57"/>
-      <c r="S300" s="57"/>
-      <c r="T300" s="57"/>
-    </row>
-    <row r="305" spans="1:20" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" spans="1:20" s="43" customFormat="1" ht="13" x14ac:dyDescent="0.3">
-      <c r="A312" s="52" t="str">
+      <c r="D300" s="45"/>
+      <c r="E300" s="45"/>
+      <c r="F300" s="45"/>
+      <c r="G300" s="45"/>
+      <c r="H300" s="45"/>
+      <c r="I300" s="45"/>
+      <c r="J300" s="45"/>
+      <c r="K300" s="45"/>
+      <c r="L300" s="45"/>
+      <c r="M300" s="45"/>
+      <c r="N300" s="45"/>
+      <c r="O300" s="45"/>
+      <c r="P300" s="45"/>
+      <c r="Q300" s="45"/>
+      <c r="R300" s="45"/>
+      <c r="S300" s="45"/>
+      <c r="T300" s="45"/>
+    </row>
+    <row r="305" spans="1:20" ht="14.1" customHeight="1"/>
+    <row r="306" spans="1:20" s="31" customFormat="1"/>
+    <row r="308" spans="1:20" ht="15" customHeight="1"/>
+    <row r="311" spans="1:20">
+      <c r="B311" s="52"/>
+      <c r="C311" s="52"/>
+      <c r="D311" s="52"/>
+      <c r="E311" s="52"/>
+      <c r="J311" s="52"/>
+    </row>
+    <row r="312" spans="1:20" s="43" customFormat="1">
+      <c r="A312" s="64" t="str">
         <f>A59</f>
         <v>Calibration No: CAL00003</v>
       </c>
-      <c r="B312" s="52"/>
-      <c r="C312" s="52"/>
-      <c r="D312" s="52"/>
-      <c r="E312" s="52"/>
-      <c r="F312" s="52"/>
-      <c r="G312" s="52"/>
-      <c r="H312" s="52"/>
-      <c r="I312" s="53" t="str">
+      <c r="B312" s="46"/>
+      <c r="C312" s="46"/>
+      <c r="D312" s="46"/>
+      <c r="E312" s="46"/>
+      <c r="F312" s="64"/>
+      <c r="G312" s="64"/>
+      <c r="H312" s="64"/>
+      <c r="I312" s="66" t="str">
         <f>I59</f>
         <v>Report Date: 7 July 2021</v>
       </c>
-      <c r="J312" s="52"/>
-      <c r="K312" s="52"/>
-      <c r="L312" s="52"/>
-      <c r="M312" s="52"/>
-      <c r="N312" s="52" t="s">
+      <c r="J312" s="46"/>
+      <c r="K312" s="64"/>
+      <c r="L312" s="64"/>
+      <c r="M312" s="64"/>
+      <c r="N312" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="O312" s="54"/>
-      <c r="P312" s="55"/>
-      <c r="Q312" s="54"/>
-      <c r="R312" s="54"/>
-      <c r="S312" s="54"/>
-      <c r="T312" s="54" t="s">
+      <c r="O312" s="65"/>
+      <c r="P312" s="71"/>
+      <c r="Q312" s="65"/>
+      <c r="R312" s="65"/>
+      <c r="S312" s="65"/>
+      <c r="T312" s="65" t="s">
         <v>100</v>
       </c>
     </row>
@@ -8899,6 +9017,8 @@
     <mergeCell ref="A109:T109"/>
     <mergeCell ref="Q128:R128"/>
     <mergeCell ref="S128:T128"/>
+    <mergeCell ref="S163:T163"/>
+    <mergeCell ref="S164:T164"/>
     <mergeCell ref="S156:T156"/>
     <mergeCell ref="S157:T157"/>
     <mergeCell ref="M168:N168"/>
@@ -8915,6 +9035,16 @@
     <mergeCell ref="O158:P158"/>
     <mergeCell ref="Q158:R158"/>
     <mergeCell ref="S158:T158"/>
+    <mergeCell ref="Q161:R161"/>
+    <mergeCell ref="S165:T165"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="O173:P173"/>
+    <mergeCell ref="Q173:R173"/>
+    <mergeCell ref="S173:T173"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="O170:P170"/>
+    <mergeCell ref="S167:T167"/>
+    <mergeCell ref="S172:T172"/>
     <mergeCell ref="S171:T171"/>
     <mergeCell ref="M169:N169"/>
     <mergeCell ref="O169:P169"/>
@@ -8923,21 +9053,6 @@
     <mergeCell ref="O171:P171"/>
     <mergeCell ref="Q170:R170"/>
     <mergeCell ref="S169:T169"/>
-    <mergeCell ref="S163:T163"/>
-    <mergeCell ref="Q161:R161"/>
-    <mergeCell ref="S164:T164"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="S165:T165"/>
-    <mergeCell ref="Q169:R169"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="O173:P173"/>
-    <mergeCell ref="Q173:R173"/>
-    <mergeCell ref="S173:T173"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="O170:P170"/>
-    <mergeCell ref="S167:T167"/>
-    <mergeCell ref="S172:T172"/>
     <mergeCell ref="M197:N197"/>
     <mergeCell ref="O197:P197"/>
     <mergeCell ref="O163:P163"/>
@@ -8959,6 +9074,9 @@
     <mergeCell ref="M164:N164"/>
     <mergeCell ref="O164:P164"/>
     <mergeCell ref="Q164:R164"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="Q169:R169"/>
     <mergeCell ref="C170:D170"/>
     <mergeCell ref="E170:F170"/>
     <mergeCell ref="G170:H170"/>
